--- a/UbsRec/final.xlsx
+++ b/UbsRec/final.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="41">
   <si>
     <t>MF</t>
   </si>
@@ -147,6 +147,12 @@
   </si>
   <si>
     <t>MIN</t>
+  </si>
+  <si>
+    <t>Book</t>
+  </si>
+  <si>
+    <t>Movie</t>
   </si>
 </sst>
 </file>
@@ -239,7 +245,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -247,13 +253,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -268,6 +268,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -580,65 +589,65 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="11"/>
-      <c r="B1" s="11"/>
+      <c r="A1" s="9"/>
+      <c r="B1" s="9"/>
       <c r="J1" s="2"/>
       <c r="M1" s="2"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="J2" s="5"/>
-      <c r="M2" s="4"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="J2" s="4"/>
+      <c r="M2" s="3"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="M4" s="4"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="M4" s="3"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
       <c r="J6" s="2"/>
-      <c r="M6" s="4"/>
+      <c r="M6" s="3"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
       <c r="J7" s="2"/>
-      <c r="M7" s="4"/>
+      <c r="M7" s="3"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="J8" s="2"/>
-      <c r="M8" s="4"/>
+      <c r="M8" s="3"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="M9" s="4"/>
+      <c r="M9" s="3"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="M10" s="4"/>
+      <c r="M10" s="3"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="M11" s="4"/>
+      <c r="M11" s="3"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="M12" s="4"/>
+      <c r="M12" s="3"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="M13" s="4"/>
+      <c r="M13" s="3"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="M14" s="4"/>
+      <c r="M14" s="3"/>
     </row>
   </sheetData>
   <sortState ref="A1:B14">
@@ -652,7 +661,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="E8" sqref="A2:E8"/>
     </sheetView>
   </sheetViews>
@@ -660,47 +669,47 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6" t="s">
+      <c r="C1" s="10"/>
+      <c r="D1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="3" t="s">
+      <c r="E1" s="10"/>
+      <c r="F1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3" t="s">
+      <c r="G1" s="11"/>
+      <c r="H1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="3"/>
+      <c r="I1" s="11"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="4" t="s">
         <v>2</v>
       </c>
     </row>
@@ -708,44 +717,44 @@
       <c r="A3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <f>C3*B16</f>
         <v>0.93738261606487328</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <f>C9+C11*C14</f>
         <v>1.3324208762195964</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <f>E3*D17</f>
         <v>0.77591187184337607</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <f>E9-E11*E14</f>
         <v>1.0221906439961996</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <f>C4*B20</f>
         <v>0.88659291576436217</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <f>C9-C12*C14</f>
         <v>1.2536429515641898</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <f>E4*D19</f>
         <v>0.76651003955535024</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <f>E3-E12*E14</f>
         <v>1.0025143863977197</v>
       </c>
@@ -755,22 +764,22 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <f>C5*B21</f>
         <v>0.88483021175381593</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <f>C6*F10</f>
         <v>1.2495184542827302</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <f>E5*D21</f>
         <v>0.7606468094544494</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <f>H10*E6</f>
         <v>0.98771514176581898</v>
       </c>
@@ -781,7 +790,7 @@
       <c r="G5" s="2">
         <v>0.31929999999999997</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="4">
         <f>POWER(I5,2)</f>
         <v>0.21911761000000002</v>
       </c>
@@ -793,16 +802,16 @@
       <c r="A6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>0.85299999999999998</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>1.2030000000000001</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>0.752</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <v>0.97299999999999998</v>
       </c>
       <c r="F6" s="2">
@@ -812,11 +821,11 @@
       <c r="G6" s="2">
         <v>0.31330000000000002</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="4">
         <f>POWER(I6,2)</f>
         <v>0.21585316000000002</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="4">
         <v>0.46460000000000001</v>
       </c>
     </row>
@@ -824,19 +833,19 @@
       <c r="A7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <f>C7*B19</f>
         <v>0.88750390119212708</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <f>C6*F12</f>
         <v>1.2565723314990926</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <f>E7*D20</f>
         <v>0.76506173516997222</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <f>E6*H12</f>
         <v>0.99702118593028688</v>
       </c>
@@ -847,31 +856,31 @@
       <c r="G7" s="2">
         <v>0.32019999999999998</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="4">
         <f>POWER(I7,2)</f>
         <v>0.22118209</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="4">
         <v>0.4703</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <f>C8*B18</f>
         <v>0.89577968821335707</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4">
         <f>C6*F13</f>
         <v>1.2699504928283691</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <f>E8*D18</f>
         <v>0.77546822622408429</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <f>E6*H13</f>
         <v>1.017905106971795</v>
       </c>
@@ -882,11 +891,11 @@
       <c r="G8" s="2">
         <v>0.32190000000000002</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="4">
         <f>POWER(I8,2)</f>
         <v>0.22581504000000002</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="4">
         <v>0.47520000000000001</v>
       </c>
     </row>
@@ -895,19 +904,19 @@
         <f>mar!F10</f>
         <v>NFM-DR</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="4">
         <f>mar!G10</f>
         <v>0.89652179623496753</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="4">
         <f>mar!H10</f>
         <v>1.2930319138918931</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <f>mar!I10</f>
         <v>0.77681100337432207</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="4">
         <f>mar!J10</f>
         <v>1.0271097083958196</v>
       </c>
@@ -915,8 +924,8 @@
       <c r="G9" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5" t="s">
+      <c r="H9" s="4"/>
+      <c r="I9" s="4" t="s">
         <v>38</v>
       </c>
     </row>
@@ -946,11 +955,11 @@
         <f>MIN(F5:F8)</f>
         <v>9.8156890000000011E-2</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="4">
         <f>H5/I10</f>
         <v>1.0151234756072138</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="4">
         <f>MIN(H5:H8)</f>
         <v>0.21585316000000002</v>
       </c>
@@ -973,11 +982,11 @@
         <f>G10</f>
         <v>9.8156890000000011E-2</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="4">
         <f>H6/I11</f>
         <v>1</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="4">
         <f>I10</f>
         <v>0.21585316000000002</v>
       </c>
@@ -1000,11 +1009,11 @@
         <f>G11</f>
         <v>9.8156890000000011E-2</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="4">
         <f>H7/I12</f>
         <v>1.0246877553240359</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="4">
         <f>I11</f>
         <v>0.21585316000000002</v>
       </c>
@@ -1027,11 +1036,11 @@
         <f>G12</f>
         <v>9.8156890000000011E-2</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="4">
         <f>H8/I13</f>
         <v>1.0461511890768707</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13" s="4">
         <f>I12</f>
         <v>0.21585316000000002</v>
       </c>
@@ -1080,7 +1089,7 @@
         <f>B17-C17</f>
         <v>0.70351840983192704</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="8">
         <f>D9/E9*1</f>
         <v>0.75630772158465531</v>
       </c>
@@ -1093,7 +1102,7 @@
       <c r="A17" s="2">
         <v>1</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17" s="8">
         <f>B9/C9*1.016</f>
         <v>0.70444212179814925</v>
       </c>
@@ -1123,7 +1132,7 @@
         <v>9.2371196622218486E-4</v>
       </c>
       <c r="D18">
-        <f t="shared" ref="D18:D22" si="0">D17+E17</f>
+        <f t="shared" ref="D18:D21" si="0">D17+E17</f>
         <v>0.76182762117291514</v>
       </c>
       <c r="E18" s="2">
@@ -1244,7 +1253,7 @@
   <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10:J10"/>
+      <selection activeCell="K17" sqref="K17:N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1253,1058 +1262,1058 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="5"/>
-      <c r="B1" s="6" t="s">
+      <c r="A1" s="4"/>
+      <c r="B1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6" t="s">
+      <c r="C1" s="10"/>
+      <c r="D1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="6" t="s">
+      <c r="E1" s="10"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6" t="s">
+      <c r="H1" s="10"/>
+      <c r="I1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6" t="s">
+      <c r="J1" s="10"/>
+      <c r="K1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6" t="s">
+      <c r="L1" s="10"/>
+      <c r="M1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="6"/>
+      <c r="N1" s="10"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5" t="s">
+      <c r="F2" s="4"/>
+      <c r="G2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>1.1539999999999999</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>1.891</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>0.92</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <v>1.2569999999999999</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="4">
         <f>mar!K19</f>
         <v>1.153</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="4">
         <f>mar!L19</f>
         <v>1.9279999999999999</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="4">
         <f>mar!M19</f>
         <v>0.873</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="4">
         <f>mar!N19</f>
         <v>1.298</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" s="4">
         <f>B3</f>
         <v>1.1539999999999999</v>
       </c>
-      <c r="L3" s="5">
-        <f t="shared" ref="L3:N4" si="0">C3</f>
+      <c r="L3" s="4">
+        <f t="shared" ref="L3:N3" si="0">C3</f>
         <v>1.891</v>
       </c>
-      <c r="M3" s="5">
+      <c r="M3" s="4">
         <f t="shared" si="0"/>
         <v>0.92</v>
       </c>
-      <c r="N3" s="5">
+      <c r="N3" s="4">
         <f t="shared" si="0"/>
         <v>1.2569999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>0.81</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>0.98899999999999999</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>0.86</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <v>1.093</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="4">
         <f>G3*G15*G21</f>
         <v>1.0984790000979185</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="4">
         <f>H3*H15*H21</f>
         <v>1.7578714258745392</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="4">
         <f>I3*I15*I21</f>
         <v>0.86036789944656034</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="4">
         <f>J3*J15*J21</f>
         <v>1.2591231264353582</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>0.747</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <f>0.966-0.05</f>
         <v>0.91599999999999993</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>0.77800000000000002</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>0.99</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="4">
         <f>G7+(G3-G7)/(K3-K7)*(K5-K7)</f>
         <v>1.022474968456242</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="4">
         <f>H7+(H3-H7)/(L3-L7)*(L5-L7)</f>
         <v>1.5320172274892365</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="4">
         <f>I3*M5/M3</f>
         <v>0.91949673913043473</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="4">
         <f>J3*N5/N3</f>
         <v>1.4880015910898967</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="4">
         <f>0.2*K3*L5/L3+0.8*K7*L5/L7</f>
         <v>0.86664390153133453</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="4">
         <v>1.115</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M5" s="4">
         <v>0.96899999999999997</v>
       </c>
-      <c r="N5" s="5">
+      <c r="N5" s="4">
         <v>1.4410000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>1.0009999999999999</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>1.488</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>0.88800000000000001</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <v>1.218</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="4">
         <f>G3*K6/K3</f>
         <v>1.1759800693240903</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="4">
         <f>H3*L6/L3</f>
         <v>2.2175568482284502</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="4">
         <f>I7+(I3-I7)/(M3-M7)*(M3-M6)</f>
         <v>0.860713476115047</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="4">
         <f>J7+(J3-J7)/(N3-N7)*(N3-N6)</f>
         <v>1.186670655871978</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="4">
         <v>1.177</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6" s="4">
         <v>2.1749999999999998</v>
       </c>
-      <c r="M6" s="5">
+      <c r="M6" s="4">
         <v>0.88400000000000001</v>
       </c>
-      <c r="N6" s="5">
+      <c r="N6" s="4">
         <v>1.214</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>0.79800000000000004</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <v>0.97899999999999998</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <v>0.83199999999999996</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <v>1.0649999999999999</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="4">
         <f>G3*G17*G20</f>
         <v>0.99674575277737176</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="4">
         <f t="shared" ref="H7:J7" si="1">H3*H17*H20</f>
         <v>1.4677210556640352</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="4">
         <f t="shared" si="1"/>
         <v>0.84228369028761751</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="4">
         <f t="shared" si="1"/>
         <v>1.1471073352314411</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="4">
         <f>B4</f>
         <v>0.81</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L7" s="4">
         <f>C4</f>
         <v>0.98899999999999999</v>
       </c>
-      <c r="M7" s="5">
+      <c r="M7" s="4">
         <f>D4</f>
         <v>0.86</v>
       </c>
-      <c r="N7" s="5">
+      <c r="N7" s="4">
         <f>E4</f>
         <v>1.093</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>0.73599999999999999</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4">
         <v>0.95699999999999996</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <v>0.75600000000000001</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <v>0.96699999999999997</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="4">
         <f>G4*G19*G21</f>
         <v>0.97641009857454564</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="4">
         <f>H4*H19*H21</f>
         <v>1.3883811392012639</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="4">
         <f>I4*I19*I21</f>
         <v>0.83014838845981043</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" s="4">
         <f>J4*J19*J21</f>
         <v>1.1159770002140954</v>
       </c>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="5">
-        <f>B4/B3</f>
+      <c r="B9" s="4">
+        <f t="shared" ref="B9:E10" si="2">B4/B3</f>
         <v>0.70190641247833629</v>
       </c>
-      <c r="C9" s="5">
-        <f>C4/C3</f>
+      <c r="C9" s="4">
+        <f t="shared" si="2"/>
         <v>0.52300370174510835</v>
       </c>
-      <c r="D9" s="5">
-        <f>D4/D3</f>
+      <c r="D9" s="4">
+        <f t="shared" si="2"/>
         <v>0.93478260869565211</v>
       </c>
-      <c r="E9" s="5">
-        <f>E4/E3</f>
+      <c r="E9" s="4">
+        <f t="shared" si="2"/>
         <v>0.86953062848050922</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="4">
         <f>G7*B10*G20</f>
         <v>0.92797445755058405</v>
       </c>
-      <c r="H9" s="5">
-        <f t="shared" ref="H9:J9" si="2">H7*C10*H20</f>
+      <c r="H9" s="4">
+        <f t="shared" ref="H9:J9" si="3">H7*C10*H20</f>
         <v>1.3552567629024312</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="4">
+        <f t="shared" si="3"/>
+        <v>0.78645352004516789</v>
+      </c>
+      <c r="J9" s="4">
+        <f t="shared" si="3"/>
+        <v>1.0559991526071484</v>
+      </c>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="4">
         <f t="shared" si="2"/>
-        <v>0.78645352004516789</v>
-      </c>
-      <c r="J9" s="5">
+        <v>0.92222222222222217</v>
+      </c>
+      <c r="C10" s="4">
         <f t="shared" si="2"/>
-        <v>1.0559991526071484</v>
-      </c>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="5">
-        <f>B5/B4</f>
-        <v>0.92222222222222217</v>
-      </c>
-      <c r="C10" s="5">
-        <f>C5/C4</f>
         <v>0.92618806875631943</v>
       </c>
-      <c r="D10" s="5">
-        <f>D5/D4</f>
+      <c r="D10" s="4">
+        <f t="shared" si="2"/>
         <v>0.90465116279069768</v>
       </c>
-      <c r="E10" s="5">
-        <f>E5/E4</f>
+      <c r="E10" s="4">
+        <f t="shared" si="2"/>
         <v>0.90576395242451968</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="4">
         <f>G14/K14</f>
         <v>0.89652179623496753</v>
       </c>
-      <c r="H10" s="5">
-        <f t="shared" ref="H10:J10" si="3">H14/L14</f>
+      <c r="H10" s="4">
+        <f t="shared" ref="H10:J10" si="4">H14/L14</f>
         <v>1.2930319138918931</v>
       </c>
-      <c r="I10" s="5">
-        <f t="shared" si="3"/>
+      <c r="I10" s="4">
+        <f t="shared" si="4"/>
         <v>0.77681100337432207</v>
       </c>
-      <c r="J10" s="5">
-        <f t="shared" si="3"/>
+      <c r="J10" s="4">
+        <f t="shared" si="4"/>
         <v>1.0271097083958196</v>
       </c>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="5">
-        <f>B7/B6</f>
+      <c r="B11" s="4">
+        <f t="shared" ref="B11:E12" si="5">B7/B6</f>
         <v>0.7972027972027973</v>
       </c>
-      <c r="C11" s="5">
-        <f>C7/C6</f>
+      <c r="C11" s="4">
+        <f t="shared" si="5"/>
         <v>0.65793010752688175</v>
       </c>
-      <c r="D11" s="5">
-        <f>D7/D6</f>
+      <c r="D11" s="4">
+        <f t="shared" si="5"/>
         <v>0.93693693693693691</v>
       </c>
-      <c r="E11" s="5">
-        <f>E7/E6</f>
+      <c r="E11" s="4">
+        <f t="shared" si="5"/>
         <v>0.87438423645320196</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="4">
         <f>G7*K11</f>
         <v>0.92193861278372358</v>
       </c>
-      <c r="H11" s="5">
-        <f t="shared" ref="H11:J11" si="4">H7*L11</f>
+      <c r="H11" s="4">
+        <f t="shared" ref="H11:J11" si="6">H7*L11</f>
         <v>1.3281178781085798</v>
       </c>
-      <c r="I11" s="5">
-        <f t="shared" si="4"/>
+      <c r="I11" s="4">
+        <f t="shared" si="6"/>
         <v>0.79348004550806461</v>
       </c>
-      <c r="J11" s="5">
-        <f t="shared" si="4"/>
+      <c r="J11" s="4">
+        <f t="shared" si="6"/>
         <v>1.057200020125227</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K11" s="4">
         <f>PRODUCT(B20,C20,D20,E16)</f>
         <v>0.92494862427534541</v>
       </c>
-      <c r="L11" s="5">
+      <c r="L11" s="4">
         <f>PRODUCT(B20,C20,D20,E20)</f>
         <v>0.90488439406335608</v>
       </c>
-      <c r="M11" s="5">
+      <c r="M11" s="4">
         <f>PRODUCT(B20,C20,D16,E16)</f>
         <v>0.94205794871453852</v>
       </c>
-      <c r="N11" s="5">
+      <c r="N11" s="4">
         <f>PRODUCT(B20,C20,D16,E20)</f>
         <v>0.92162257851129992</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="5">
-        <f>B8/B7</f>
+      <c r="B12" s="4">
+        <f t="shared" si="5"/>
         <v>0.92230576441102752</v>
       </c>
-      <c r="C12" s="5">
-        <f>C8/C7</f>
+      <c r="C12" s="4">
+        <f t="shared" si="5"/>
         <v>0.97752808988764039</v>
       </c>
-      <c r="D12" s="5">
-        <f>D8/D7</f>
+      <c r="D12" s="4">
+        <f t="shared" si="5"/>
         <v>0.90865384615384626</v>
       </c>
-      <c r="E12" s="5">
-        <f>E8/E7</f>
+      <c r="E12" s="4">
+        <f t="shared" si="5"/>
         <v>0.90798122065727704</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="5">
-        <f t="shared" ref="G12:G13" si="5">G8*K12</f>
+      <c r="G12" s="4">
+        <f t="shared" ref="G12:G13" si="7">G8*K12</f>
         <v>0.91247849117690327</v>
       </c>
-      <c r="H12" s="5">
-        <f t="shared" ref="H12:H13" si="6">H8*L12</f>
+      <c r="H12" s="4">
+        <f t="shared" ref="H12:H13" si="8">H8*L12</f>
         <v>1.2693300639948708</v>
       </c>
-      <c r="I12" s="5">
-        <f t="shared" ref="I12:I13" si="7">I8*M12</f>
+      <c r="I12" s="4">
+        <f t="shared" ref="I12:I13" si="9">I8*M12</f>
         <v>0.79014375206569476</v>
       </c>
-      <c r="J12" s="5">
-        <f t="shared" ref="J12:J13" si="8">J8*N12</f>
+      <c r="J12" s="4">
+        <f t="shared" ref="J12:J13" si="10">J8*N12</f>
         <v>1.0391568691409616</v>
       </c>
-      <c r="K12" s="5">
+      <c r="K12" s="4">
         <f>PRODUCT(B16,C20,D20,E16)</f>
         <v>0.93452381587308886</v>
       </c>
-      <c r="L12" s="5">
+      <c r="L12" s="4">
         <f>PRODUCT(B16,C20,D20,E20)</f>
         <v>0.91425187807226826</v>
       </c>
-      <c r="M12" s="5">
+      <c r="M12" s="4">
         <f>PRODUCT(B16,C20,D16,E16)</f>
         <v>0.95181025832220556</v>
       </c>
-      <c r="N12" s="5">
+      <c r="N12" s="4">
         <f>PRODUCT(B16,C20,D16,E20)</f>
         <v>0.93116333843941568</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5" t="s">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G13" s="5">
-        <f t="shared" si="5"/>
+      <c r="G13" s="4">
+        <f t="shared" si="7"/>
         <v>0.87351455794088229</v>
       </c>
-      <c r="H13" s="5">
-        <f t="shared" si="6"/>
+      <c r="H13" s="4">
+        <f t="shared" si="8"/>
         <v>1.2480477323127519</v>
       </c>
-      <c r="I13" s="5">
-        <f t="shared" si="7"/>
+      <c r="I13" s="4">
+        <f t="shared" si="9"/>
         <v>0.75399279005417119</v>
       </c>
-      <c r="J13" s="5">
-        <f t="shared" si="8"/>
+      <c r="J13" s="4">
+        <f t="shared" si="10"/>
         <v>0.99045144426184495</v>
       </c>
-      <c r="K13" s="5">
+      <c r="K13" s="4">
         <f>PRODUCT(B20,C16,D20,E16)</f>
         <v>0.94131314804348143</v>
       </c>
-      <c r="L13" s="5">
+      <c r="L13" s="4">
         <f>PRODUCT(B20,C16,D20,E20)</f>
         <v>0.92089393425340338</v>
       </c>
-      <c r="M13" s="5">
+      <c r="M13" s="4">
         <f>PRODUCT(B20,C16,D16,E16)</f>
         <v>0.95872517680494018</v>
       </c>
-      <c r="N13" s="5">
+      <c r="N13" s="4">
         <f>PRODUCT(B20,C16,D16,E20)</f>
         <v>0.93792825668138735</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4">
         <f>AVERAGE(B11:E12)</f>
         <v>0.8728653749037012</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="4">
         <f>AVERAGE(B10:E10,B12:E12)</f>
         <v>0.92191179091294373</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="4">
         <f>AVERAGE(D9:E10,D11:E12)</f>
         <v>0.90533557407408005</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="4">
         <f>AVERAGE(B9:B10,D9:D10,D11:D12,B11:B12)</f>
         <v>0.87858271886143968</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="4">
         <f>mar!K22</f>
         <v>0.85264399999999996</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="4">
         <f>mar!L22</f>
         <v>1.2030719999999999</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14" s="4">
         <f>mar!M22</f>
         <v>0.75245799999999996</v>
       </c>
-      <c r="J14" s="5">
+      <c r="J14" s="4">
         <f>mar!N22</f>
         <v>0.97332799999999997</v>
       </c>
-      <c r="K14" s="5">
+      <c r="K14" s="4">
         <f>PRODUCT(B16,C16,D20,E16)</f>
         <v>0.9510577473752041</v>
       </c>
-      <c r="L14" s="5">
+      <c r="L14" s="4">
         <f>PRODUCT(B16,C16,D20,E20)</f>
         <v>0.93042715115891994</v>
       </c>
-      <c r="M14" s="5">
+      <c r="M14" s="4">
         <f>PRODUCT(B16,C16,D16,E16)</f>
         <v>0.96865002778212816</v>
       </c>
-      <c r="N14" s="5">
+      <c r="N14" s="4">
         <f>PRODUCT(B16:D16,E20)</f>
         <v>0.9476378151659981</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4">
         <v>1.1379999999999999</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="4">
         <v>1.0720000000000001</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="4">
         <v>1.0920000000000001</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="4">
         <v>1.1359999999999999</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="4">
         <f>A23</f>
         <v>0.95699305132650425</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15" s="4">
         <f>G15</f>
         <v>0.95699305132650425</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I15" s="4">
         <f>H15</f>
         <v>0.95699305132650425</v>
       </c>
-      <c r="J15" s="5">
-        <f t="shared" ref="I15:J15" si="9">I15</f>
+      <c r="J15" s="4">
+        <f t="shared" ref="J15" si="11">I15</f>
         <v>0.95699305132650425</v>
       </c>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="7">
+      <c r="A16" s="5">
         <f>PRODUCT(B16:E16)</f>
         <v>0.96865002778212816</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="5">
         <f>B14*B15</f>
         <v>0.99332079664041184</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="5">
         <f>C14*C15</f>
         <v>0.98828943985867579</v>
       </c>
-      <c r="D16" s="7">
-        <f t="shared" ref="D16:E16" si="10">D14*D15</f>
+      <c r="D16" s="5">
+        <f t="shared" ref="D16:E16" si="12">D14*D15</f>
         <v>0.98862644688889545</v>
       </c>
-      <c r="E16" s="7">
-        <f t="shared" si="10"/>
+      <c r="E16" s="5">
+        <f t="shared" si="12"/>
         <v>0.99806996862659536</v>
       </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5">
+      <c r="F16" s="4"/>
+      <c r="G16" s="4">
         <v>1.22</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H16" s="4">
         <v>1.46</v>
       </c>
-      <c r="I16" s="5">
+      <c r="I16" s="4">
         <v>1</v>
       </c>
-      <c r="J16" s="5">
+      <c r="J16" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5" t="s">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="5" t="str">
+      <c r="F17" s="4" t="str">
         <f>A9</f>
         <v>MF-IPS+</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="4">
         <f>B9*G16</f>
         <v>0.85632582322357031</v>
       </c>
-      <c r="H17" s="5">
-        <f t="shared" ref="H17:J17" si="11">C9*H16</f>
+      <c r="H17" s="4">
+        <f t="shared" ref="H17:J17" si="13">C9*H16</f>
         <v>0.76358540454785817</v>
       </c>
-      <c r="I17" s="5">
-        <f t="shared" si="11"/>
+      <c r="I17" s="4">
+        <f t="shared" si="13"/>
         <v>0.93478260869565211</v>
       </c>
-      <c r="J17" s="5">
-        <f t="shared" si="11"/>
+      <c r="J17" s="4">
+        <f t="shared" si="13"/>
         <v>0.86953062848050922</v>
       </c>
-      <c r="K17" s="8" t="s">
+      <c r="K17" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8" t="s">
+      <c r="L17" s="12"/>
+      <c r="M17" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="N17" s="8"/>
+      <c r="N17" s="12"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4">
         <f>AVERAGE(B9:E10)</f>
         <v>0.83600609469917064</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="4">
         <f>AVERAGE(B9:E9,B11:E11)</f>
         <v>0.786959678689928</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="4">
         <f>AVERAGE(B9:C10,B11:C12)</f>
         <v>0.80353589552879168</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="4">
         <f>AVERAGE(C9:C10,E9:E10,E11:E12,C11:C12)</f>
         <v>0.83028875074143227</v>
       </c>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5">
+      <c r="F18" s="4"/>
+      <c r="G18" s="4">
         <v>1.1200000000000001</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H18" s="4">
         <v>1.26</v>
       </c>
-      <c r="I18" s="5">
+      <c r="I18" s="4">
         <v>1</v>
       </c>
-      <c r="J18" s="5">
+      <c r="J18" s="4">
         <v>1</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="K18" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L18" s="7" t="s">
+      <c r="L18" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="M18" s="7" t="s">
+      <c r="M18" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="N18" s="7" t="s">
+      <c r="N18" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4">
         <v>1.1759999999999999</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="4">
         <v>1.234</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="4">
         <v>1.208</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="4">
         <f>B19</f>
         <v>1.1759999999999999</v>
       </c>
-      <c r="F19" s="5" t="str">
+      <c r="F19" s="4" t="str">
         <f>A11</f>
         <v>NFM-IPS+</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" s="4">
         <f>B11*G18</f>
         <v>0.89286713286713304</v>
       </c>
-      <c r="H19" s="5">
-        <f t="shared" ref="H19:J19" si="12">C11*H18</f>
+      <c r="H19" s="4">
+        <f t="shared" ref="H19:J19" si="14">C11*H18</f>
         <v>0.82899193548387096</v>
       </c>
-      <c r="I19" s="5">
-        <f t="shared" si="12"/>
+      <c r="I19" s="4">
+        <f t="shared" si="14"/>
         <v>0.93693693693693691</v>
       </c>
-      <c r="J19" s="5">
-        <f t="shared" si="12"/>
+      <c r="J19" s="4">
+        <f t="shared" si="14"/>
         <v>0.87438423645320196</v>
       </c>
-      <c r="K19" s="7">
+      <c r="K19" s="5">
         <v>1.153</v>
       </c>
-      <c r="L19" s="7">
+      <c r="L19" s="5">
         <v>1.9279999999999999</v>
       </c>
-      <c r="M19" s="7">
+      <c r="M19" s="5">
         <v>0.873</v>
       </c>
-      <c r="N19" s="7">
+      <c r="N19" s="5">
         <v>1.298</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" s="7">
+      <c r="A20" s="5">
         <f>PRODUCT(B20:E20)</f>
         <v>0.90488439406335608</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="5">
         <f>B18*B19</f>
         <v>0.98314316736622465</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="5">
         <f>C18*C19</f>
         <v>0.9711082435033711</v>
       </c>
-      <c r="D20" s="7">
-        <f t="shared" ref="D20" si="13">D18*D19</f>
+      <c r="D20" s="5">
+        <f t="shared" ref="D20" si="15">D18*D19</f>
         <v>0.97067136179878033</v>
       </c>
-      <c r="E20" s="7">
-        <f t="shared" ref="E20" si="14">E18*E19</f>
+      <c r="E20" s="5">
+        <f t="shared" ref="E20" si="16">E18*E19</f>
         <v>0.97641957087192432</v>
       </c>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5">
+      <c r="F20" s="4"/>
+      <c r="G20" s="4">
         <f>POWER((G10/G3)/(G15*G17*B10), 1/3)</f>
         <v>1.009522599725404</v>
       </c>
-      <c r="H20" s="5">
-        <f t="shared" ref="H20:J20" si="15">POWER((H10/H3)/(H15*H17*C10), 1/3)</f>
+      <c r="H20" s="4">
+        <f t="shared" ref="H20:J20" si="17">POWER((H10/H3)/(H15*H17*C10), 1/3)</f>
         <v>0.99696262287822324</v>
       </c>
-      <c r="I20" s="5">
-        <f t="shared" si="15"/>
+      <c r="I20" s="4">
+        <f t="shared" si="17"/>
         <v>1.0321279137225394</v>
       </c>
-      <c r="J20" s="5">
-        <f t="shared" si="15"/>
+      <c r="J20" s="4">
+        <f t="shared" si="17"/>
         <v>1.0163527817346705</v>
       </c>
-      <c r="K20" s="7">
+      <c r="K20" s="5">
         <v>0.86299999999999999</v>
       </c>
-      <c r="L20" s="7">
+      <c r="L20" s="5">
         <v>1.248</v>
       </c>
-      <c r="M20" s="7">
+      <c r="M20" s="5">
         <v>0.75700000000000001</v>
       </c>
-      <c r="N20" s="7">
+      <c r="N20" s="5">
         <v>1.016</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5">
-        <f>B6/B3</f>
+      <c r="A21" s="4"/>
+      <c r="B21" s="4">
+        <f t="shared" ref="B21:E23" si="18">B6/B3</f>
         <v>0.86741767764298094</v>
       </c>
-      <c r="C21" s="5">
-        <f>C6/C3</f>
+      <c r="C21" s="4">
+        <f t="shared" si="18"/>
         <v>0.78688524590163933</v>
       </c>
-      <c r="D21" s="5">
-        <f>D6/D3</f>
+      <c r="D21" s="4">
+        <f t="shared" si="18"/>
         <v>0.9652173913043478</v>
       </c>
-      <c r="E21" s="5">
-        <f>E6/E3</f>
+      <c r="E21" s="4">
+        <f t="shared" si="18"/>
         <v>0.96897374701670647</v>
       </c>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5">
+      <c r="F21" s="4"/>
+      <c r="G21" s="4">
         <f>POWER((G10/G3)/(G15*G19*B12), 1/3)</f>
         <v>0.99552843030270877</v>
       </c>
-      <c r="H21" s="5">
+      <c r="H21" s="4">
         <f>POWER((H10/H3)/(H15*H19*C12), 1/3)</f>
         <v>0.95273318552612807</v>
       </c>
-      <c r="I21" s="5">
+      <c r="I21" s="4">
         <f>POWER((I10/I3)/(I15*I19*D12), 1/3)</f>
         <v>1.0298196403305295</v>
       </c>
-      <c r="J21" s="5">
+      <c r="J21" s="4">
         <f>POWER((J10/J3)/(J15*J19*E12), 1/3)</f>
         <v>1.0136422958064097</v>
       </c>
-      <c r="K21" s="7">
+      <c r="K21" s="5">
         <v>0.98799999999999999</v>
       </c>
-      <c r="L21" s="7">
+      <c r="L21" s="5">
         <v>0.96399999999999997</v>
       </c>
-      <c r="M21" s="7">
+      <c r="M21" s="5">
         <v>0.99399999999999999</v>
       </c>
-      <c r="N21" s="7">
+      <c r="N21" s="5">
         <v>0.95799999999999996</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5">
-        <f>B7/B4</f>
+      <c r="A22" s="4"/>
+      <c r="B22" s="4">
+        <f t="shared" si="18"/>
         <v>0.98518518518518516</v>
       </c>
-      <c r="C22" s="5">
-        <f>C7/C4</f>
+      <c r="C22" s="4">
+        <f t="shared" si="18"/>
         <v>0.98988877654196161</v>
       </c>
-      <c r="D22" s="5">
-        <f>D7/D4</f>
+      <c r="D22" s="4">
+        <f t="shared" si="18"/>
         <v>0.96744186046511627</v>
       </c>
-      <c r="E22" s="5">
-        <f>E7/E4</f>
+      <c r="E22" s="4">
+        <f t="shared" si="18"/>
         <v>0.9743824336688014</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F22" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="5">
+      <c r="G22" s="4">
         <f>G9*G15*G20</f>
         <v>0.89652179623496731</v>
       </c>
-      <c r="H22" s="5">
+      <c r="H22" s="4">
         <f>H9*H15*H20</f>
         <v>1.2930319138918931</v>
       </c>
-      <c r="I22" s="5">
+      <c r="I22" s="4">
         <f>I9*I15*I20</f>
         <v>0.77681100337432218</v>
       </c>
-      <c r="J22" s="5">
+      <c r="J22" s="4">
         <f>J9*J15*J20</f>
         <v>1.0271097083958198</v>
       </c>
-      <c r="K22" s="7">
+      <c r="K22" s="5">
         <f>K20*K21</f>
         <v>0.85264399999999996</v>
       </c>
-      <c r="L22" s="7">
+      <c r="L22" s="5">
         <f>L20*L21</f>
         <v>1.2030719999999999</v>
       </c>
-      <c r="M22" s="7">
+      <c r="M22" s="5">
         <f>M20*M21</f>
         <v>0.75245799999999996</v>
       </c>
-      <c r="N22" s="7">
+      <c r="N22" s="5">
         <f>N20*N21</f>
         <v>0.97332799999999997</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" s="5">
+      <c r="A23" s="4">
         <f>AVERAGE(B21:E23)</f>
         <v>0.95699305132650425</v>
       </c>
-      <c r="B23" s="5">
-        <f>B8/B5</f>
+      <c r="B23" s="4">
+        <f t="shared" si="18"/>
         <v>0.98527443105756363</v>
       </c>
-      <c r="C23" s="5">
-        <f>C8/C5</f>
+      <c r="C23" s="4">
+        <f t="shared" si="18"/>
         <v>1.044759825327511</v>
       </c>
-      <c r="D23" s="5">
-        <f>D8/D5</f>
+      <c r="D23" s="4">
+        <f t="shared" si="18"/>
         <v>0.97172236503856035</v>
       </c>
-      <c r="E23" s="5">
-        <f>E8/E5</f>
+      <c r="E23" s="4">
+        <f t="shared" si="18"/>
         <v>0.97676767676767673</v>
       </c>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5">
+      <c r="F23" s="4"/>
+      <c r="G23" s="4">
         <f>G8*B12*G21</f>
         <v>0.89652179623496753</v>
       </c>
-      <c r="H23" s="5">
+      <c r="H23" s="4">
         <f>H8*C12*H21</f>
         <v>1.2930319138918931</v>
       </c>
-      <c r="I23" s="5">
+      <c r="I23" s="4">
         <f>I8*D12*I21</f>
         <v>0.77681100337432207</v>
       </c>
-      <c r="J23" s="5">
+      <c r="J23" s="4">
         <f>J8*E12*J21</f>
         <v>1.0271097083958203</v>
       </c>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2323,10 +2332,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M25"/>
+  <dimension ref="B1:N25"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B3" sqref="A1:E7"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19:N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2335,174 +2344,118 @@
     <col min="14" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
+    <row r="1" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="str">
-        <f>B2</f>
-        <v>RMSE</v>
-      </c>
-      <c r="D2" s="1" t="str">
-        <f t="shared" ref="D2:E2" si="0">C2</f>
-        <v>RMSE</v>
-      </c>
-      <c r="E2" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>RMSE</v>
-      </c>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1">
-        <v>0.34370000000000001</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0.33850000000000002</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0.4793</v>
-      </c>
-      <c r="E3" s="1">
-        <f>0.4735</f>
-        <v>0.47349999999999998</v>
-      </c>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1">
-        <v>0.31269999999999998</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0.3095</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0.45569999999999999</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0.44429999999999997</v>
-      </c>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>3</v>
-      </c>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="str">
-        <f>A3</f>
-        <v>MF</v>
-      </c>
-      <c r="B6" s="1">
-        <f>POWER(B3,2)</f>
-        <v>0.11812969000000001</v>
-      </c>
-      <c r="C6" s="1">
-        <f>POWER(C3,2)</f>
-        <v>0.11458225000000001</v>
-      </c>
-      <c r="D6" s="1">
-        <f>POWER(D3,2)</f>
-        <v>0.22972849000000001</v>
-      </c>
-      <c r="E6" s="1">
-        <f>POWER(E3,2)</f>
-        <v>0.22420224999999996</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="str">
-        <f>A4</f>
-        <v>NFM</v>
-      </c>
-      <c r="B7" s="1">
-        <f>POWER(B4,2)</f>
-        <v>9.7781289999999993E-2</v>
-      </c>
-      <c r="C7" s="1">
-        <f>POWER(C4,2)</f>
-        <v>9.5790249999999993E-2</v>
-      </c>
-      <c r="D7" s="1">
-        <f>POWER(D4,2)</f>
-        <v>0.20766249000000001</v>
-      </c>
-      <c r="E7" s="1">
-        <f>POWER(E4,2)</f>
-        <v>0.19740248999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="12:13" x14ac:dyDescent="0.2">
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-    </row>
-    <row r="19" spans="12:13" x14ac:dyDescent="0.2">
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-    </row>
-    <row r="20" spans="12:13" x14ac:dyDescent="0.2">
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-    </row>
-    <row r="22" spans="12:13" x14ac:dyDescent="0.2">
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-    </row>
-    <row r="23" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="K17" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N17" s="12"/>
+    </row>
+    <row r="18" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="K18" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L18" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N18" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="K19" s="6">
+        <v>0.60899999999999999</v>
+      </c>
+      <c r="L19" s="6">
+        <v>0.71899999999999997</v>
+      </c>
+      <c r="M19" s="6">
+        <v>0.73099999999999998</v>
+      </c>
+      <c r="N19" s="6">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="20" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="K20" s="6">
+        <v>0.86299999999999999</v>
+      </c>
+      <c r="L20" s="6">
+        <v>1.248</v>
+      </c>
+      <c r="M20" s="6">
+        <v>0.75700000000000001</v>
+      </c>
+      <c r="N20" s="6">
+        <v>1.016</v>
+      </c>
+    </row>
+    <row r="21" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+    </row>
+    <row r="22" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+    </row>
+    <row r="23" spans="11:14" x14ac:dyDescent="0.2">
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
     </row>
-    <row r="24" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="11:14" x14ac:dyDescent="0.2">
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
     </row>
-    <row r="25" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="11:14" x14ac:dyDescent="0.2">
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
+    <mergeCell ref="M17:N17"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="H1:I1"/>
+    <mergeCell ref="K17:L17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/UbsRec/final.xlsx
+++ b/UbsRec/final.xlsx
@@ -2335,7 +2335,7 @@
   <dimension ref="B1:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19:N19"/>
+      <selection activeCell="K20" sqref="K20:N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2411,18 +2411,10 @@
       </c>
     </row>
     <row r="20" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K20" s="6">
-        <v>0.86299999999999999</v>
-      </c>
-      <c r="L20" s="6">
-        <v>1.248</v>
-      </c>
-      <c r="M20" s="6">
-        <v>0.75700000000000001</v>
-      </c>
-      <c r="N20" s="6">
-        <v>1.016</v>
-      </c>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
     </row>
     <row r="21" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K21" s="6"/>

--- a/UbsRec/final.xlsx
+++ b/UbsRec/final.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="2" r:id="rId1"/>
@@ -162,7 +162,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -199,6 +199,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -245,7 +251,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -270,6 +276,7 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -580,23 +587,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:M54"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection sqref="A1:B7"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="9"/>
-      <c r="B1" s="9"/>
       <c r="J1" s="2"/>
       <c r="M1" s="2"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
       <c r="J2" s="4"/>
       <c r="M2" s="3"/>
     </row>
@@ -611,19 +614,13 @@
       <c r="M4" s="3"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
       <c r="J6" s="2"/>
       <c r="M6" s="3"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
       <c r="J7" s="2"/>
       <c r="M7" s="3"/>
     </row>
@@ -638,6 +635,8 @@
       <c r="M10" s="3"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
       <c r="M11" s="3"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
@@ -647,10 +646,24 @@
       <c r="M13" s="3"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
       <c r="M14" s="3"/>
     </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="9"/>
+      <c r="B54" s="9"/>
+    </row>
   </sheetData>
-  <sortState ref="A1:B14">
+  <sortState ref="A1:D66">
     <sortCondition ref="B1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -669,22 +682,22 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10" t="s">
+      <c r="C1" s="11"/>
+      <c r="D1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="10"/>
-      <c r="F1" s="11" t="s">
+      <c r="E1" s="11"/>
+      <c r="F1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11" t="s">
+      <c r="G1" s="12"/>
+      <c r="H1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="11"/>
+      <c r="I1" s="12"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
@@ -1263,31 +1276,31 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="4"/>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10" t="s">
+      <c r="C1" s="11"/>
+      <c r="D1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="10"/>
+      <c r="E1" s="11"/>
       <c r="F1" s="4"/>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10" t="s">
+      <c r="H1" s="11"/>
+      <c r="I1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10" t="s">
+      <c r="J1" s="11"/>
+      <c r="K1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10" t="s">
+      <c r="L1" s="11"/>
+      <c r="M1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="10"/>
+      <c r="N1" s="11"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
@@ -2018,14 +2031,14 @@
         <f t="shared" si="13"/>
         <v>0.86953062848050922</v>
       </c>
-      <c r="K17" s="12" t="s">
+      <c r="K17" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12" t="s">
+      <c r="L17" s="13"/>
+      <c r="M17" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="N17" s="12"/>
+      <c r="N17" s="13"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
@@ -2334,8 +2347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20:N20"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2345,14 +2358,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
@@ -2373,14 +2386,14 @@
       <c r="M5" s="1"/>
     </row>
     <row r="17" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K17" s="12" t="s">
+      <c r="K17" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12" t="s">
+      <c r="L17" s="13"/>
+      <c r="M17" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="N17" s="12"/>
+      <c r="N17" s="13"/>
     </row>
     <row r="18" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K18" s="6" t="s">
@@ -2411,15 +2424,25 @@
       </c>
     </row>
     <row r="20" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
+      <c r="K20">
+        <v>0.48949999999999999</v>
+      </c>
+      <c r="L20">
+        <v>0.52039999999999997</v>
+      </c>
       <c r="M20" s="6"/>
       <c r="N20" s="6"/>
     </row>
     <row r="21" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
+      <c r="K21" s="10">
+        <f>K20/K19</f>
+        <v>0.80377668308702788</v>
+      </c>
+      <c r="L21" s="10">
+        <f>L20/L19</f>
+        <v>0.72378303198887339</v>
+      </c>
+      <c r="M21" s="10"/>
       <c r="N21" s="6"/>
     </row>
     <row r="22" spans="11:14" x14ac:dyDescent="0.2">

--- a/UbsRec/final.xlsx
+++ b/UbsRec/final.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="141">
   <si>
     <t>MF</t>
   </si>
@@ -153,6 +153,306 @@
   </si>
   <si>
     <t>Movie</t>
+  </si>
+  <si>
+    <t>hidden_factor=512 dropout_keep=[0.8 0.8] layers=[256] lr=0.1000</t>
+  </si>
+  <si>
+    <t>hidden_factor=512 dropout_keep=[0.8 0.6] layers=[256] lr=0.1000</t>
+  </si>
+  <si>
+    <t>hidden_factor=512 dropout_keep=[0.6 0.8] layers=[256] lr=0.1000</t>
+  </si>
+  <si>
+    <t>hidden_factor=512 dropout_keep=[0.6 0.6] layers=[256] lr=0.1000</t>
+  </si>
+  <si>
+    <t>hidden_factor=512 dropout_keep=[0.8 0.8] layers=[128] lr=0.1000</t>
+  </si>
+  <si>
+    <t>hidden_factor=512 dropout_keep=[0.8 0.6] layers=[128] lr=0.1000</t>
+  </si>
+  <si>
+    <t>hidden_factor=512 dropout_keep=[0.6 0.8] layers=[128] lr=0.1000</t>
+  </si>
+  <si>
+    <t>hidden_factor=512 dropout_keep=[0.6 0.6] layers=[128] lr=0.1000</t>
+  </si>
+  <si>
+    <t>hidden_factor=512 dropout_keep=[0.8 0.8] layers=[64] lr=0.1000</t>
+  </si>
+  <si>
+    <t>hidden_factor=512 dropout_keep=[0.8 0.6] layers=[64] lr=0.1000</t>
+  </si>
+  <si>
+    <t>hidden_factor=512 dropout_keep=[0.6 0.8] layers=[64] lr=0.1000</t>
+  </si>
+  <si>
+    <t>hidden_factor=512 dropout_keep=[0.6 0.6] layers=[64] lr=0.1000</t>
+  </si>
+  <si>
+    <t>hidden_factor=512 dropout_keep=[0.8 0.8] layers=[32] lr=0.1000</t>
+  </si>
+  <si>
+    <t>hidden_factor=512 dropout_keep=[0.8 0.6] layers=[32] lr=0.1000</t>
+  </si>
+  <si>
+    <t>hidden_factor=512 dropout_keep=[0.6 0.8] layers=[32] lr=0.1000</t>
+  </si>
+  <si>
+    <t>hidden_factor=512 dropout_keep=[0.6 0.6] layers=[32] lr=0.1000</t>
+  </si>
+  <si>
+    <t>hidden_factor=256 dropout_keep=[0.8 0.8] layers=[256] lr=0.1000</t>
+  </si>
+  <si>
+    <t>hidden_factor=256 dropout_keep=[0.8 0.6] layers=[256] lr=0.1000</t>
+  </si>
+  <si>
+    <t>hidden_factor=256 dropout_keep=[0.6 0.8] layers=[256] lr=0.1000</t>
+  </si>
+  <si>
+    <t>hidden_factor=256 dropout_keep=[0.6 0.6] layers=[256] lr=0.1000</t>
+  </si>
+  <si>
+    <t>hidden_factor=256 dropout_keep=[0.8 0.8] layers=[128] lr=0.1000</t>
+  </si>
+  <si>
+    <t>hidden_factor=256 dropout_keep=[0.8 0.6] layers=[128] lr=0.1000</t>
+  </si>
+  <si>
+    <t>hidden_factor=256 dropout_keep=[0.6 0.8] layers=[128] lr=0.1000</t>
+  </si>
+  <si>
+    <t>hidden_factor=256 dropout_keep=[0.6 0.6] layers=[128] lr=0.1000</t>
+  </si>
+  <si>
+    <t>hidden_factor=256 dropout_keep=[0.8 0.8] layers=[64] lr=0.1000</t>
+  </si>
+  <si>
+    <t>hidden_factor=256 dropout_keep=[0.8 0.6] layers=[64] lr=0.1000</t>
+  </si>
+  <si>
+    <t>hidden_factor=256 dropout_keep=[0.6 0.8] layers=[64] lr=0.1000</t>
+  </si>
+  <si>
+    <t>hidden_factor=256 dropout_keep=[0.6 0.6] layers=[64] lr=0.1000</t>
+  </si>
+  <si>
+    <t>hidden_factor=256 dropout_keep=[0.8 0.8] layers=[32] lr=0.1000</t>
+  </si>
+  <si>
+    <t>hidden_factor=256 dropout_keep=[0.8 0.6] layers=[32] lr=0.1000</t>
+  </si>
+  <si>
+    <t>hidden_factor=256 dropout_keep=[0.6 0.8] layers=[32] lr=0.1000</t>
+  </si>
+  <si>
+    <t>hidden_factor=256 dropout_keep=[0.6 0.6] layers=[32] lr=0.1000</t>
+  </si>
+  <si>
+    <t>hidden_factor=128 dropout_keep=[0.8 0.8] layers=[256] lr=0.1000</t>
+  </si>
+  <si>
+    <t>hidden_factor=128 dropout_keep=[0.8 0.6] layers=[256] lr=0.1000</t>
+  </si>
+  <si>
+    <t>hidden_factor=128 dropout_keep=[0.6 0.8] layers=[256] lr=0.1000</t>
+  </si>
+  <si>
+    <t>hidden_factor=128 dropout_keep=[0.6 0.6] layers=[256] lr=0.1000</t>
+  </si>
+  <si>
+    <t>hidden_factor=128 dropout_keep=[0.8 0.8] layers=[128] lr=0.1000</t>
+  </si>
+  <si>
+    <t>hidden_factor=128 dropout_keep=[0.8 0.6] layers=[128] lr=0.1000</t>
+  </si>
+  <si>
+    <t>hidden_factor=128 dropout_keep=[0.6 0.8] layers=[128] lr=0.1000</t>
+  </si>
+  <si>
+    <t>hidden_factor=128 dropout_keep=[0.6 0.6] layers=[128] lr=0.1000</t>
+  </si>
+  <si>
+    <t>hidden_factor=128 dropout_keep=[0.8 0.8] layers=[64] lr=0.1000</t>
+  </si>
+  <si>
+    <t>hidden_factor=128 dropout_keep=[0.8 0.6] layers=[64] lr=0.1000</t>
+  </si>
+  <si>
+    <t>hidden_factor=128 dropout_keep=[0.6 0.8] layers=[64] lr=0.1000</t>
+  </si>
+  <si>
+    <t>hidden_factor=128 dropout_keep=[0.6 0.6] layers=[64] lr=0.1000</t>
+  </si>
+  <si>
+    <t>hidden_factor=128 dropout_keep=[0.8 0.8] layers=[32] lr=0.1000</t>
+  </si>
+  <si>
+    <t>hidden_factor=128 dropout_keep=[0.8 0.6] layers=[32] lr=0.1000</t>
+  </si>
+  <si>
+    <t>hidden_factor=128 dropout_keep=[0.6 0.8] layers=[32] lr=0.1000</t>
+  </si>
+  <si>
+    <t>hidden_factor=128 dropout_keep=[0.6 0.6] layers=[32] lr=0.1000</t>
+  </si>
+  <si>
+    <t>hidden_factor=64 dropout_keep=[0.8 0.8] layers=[256] lr=0.1000</t>
+  </si>
+  <si>
+    <t>hidden_factor=64 dropout_keep=[0.8 0.6] layers=[256] lr=0.1000</t>
+  </si>
+  <si>
+    <t>hidden_factor=64 dropout_keep=[0.6 0.8] layers=[256] lr=0.1000</t>
+  </si>
+  <si>
+    <t>hidden_factor=64 dropout_keep=[0.6 0.6] layers=[256] lr=0.1000</t>
+  </si>
+  <si>
+    <t>hidden_factor=64 dropout_keep=[0.8 0.8] layers=[128] lr=0.1000</t>
+  </si>
+  <si>
+    <t>hidden_factor=64 dropout_keep=[0.8 0.6] layers=[128] lr=0.1000</t>
+  </si>
+  <si>
+    <t>hidden_factor=64 dropout_keep=[0.6 0.8] layers=[128] lr=0.1000</t>
+  </si>
+  <si>
+    <t>hidden_factor=64 dropout_keep=[0.6 0.6] layers=[128] lr=0.1000</t>
+  </si>
+  <si>
+    <t>hidden_factor=64 dropout_keep=[0.8 0.8] layers=[64] lr=0.1000</t>
+  </si>
+  <si>
+    <t>hidden_factor=64 dropout_keep=[0.8 0.6] layers=[64] lr=0.1000</t>
+  </si>
+  <si>
+    <t>hidden_factor=64 dropout_keep=[0.6 0.8] layers=[64] lr=0.1000</t>
+  </si>
+  <si>
+    <t>hidden_factor=64 dropout_keep=[0.6 0.6] layers=[64] lr=0.1000</t>
+  </si>
+  <si>
+    <t>hidden_factor=64 dropout_keep=[0.8 0.8] layers=[32] lr=0.1000</t>
+  </si>
+  <si>
+    <t>hidden_factor=64 dropout_keep=[0.8 0.6] layers=[32] lr=0.1000</t>
+  </si>
+  <si>
+    <t>hidden_factor=64 dropout_keep=[0.6 0.8] layers=[32] lr=0.1000</t>
+  </si>
+  <si>
+    <t>hidden_factor=64 dropout_keep=[0.6 0.6] layers=[32] lr=0.1000</t>
+  </si>
+  <si>
+    <t>hidden_factor=512 dropout_keep=[0.8 0.8] layers=[256] lr=0.0500</t>
+  </si>
+  <si>
+    <t>hidden_factor=512 dropout_keep=[0.8 0.6] layers=[256] lr=0.0500</t>
+  </si>
+  <si>
+    <t>hidden_factor=512 dropout_keep=[0.6 0.8] layers=[256] lr=0.0500</t>
+  </si>
+  <si>
+    <t>hidden_factor=512 dropout_keep=[0.6 0.6] layers=[256] lr=0.0500</t>
+  </si>
+  <si>
+    <t>hidden_factor=512 dropout_keep=[0.8 0.8] layers=[128] lr=0.0500</t>
+  </si>
+  <si>
+    <t>hidden_factor=512 dropout_keep=[0.8 0.6] layers=[128] lr=0.0500</t>
+  </si>
+  <si>
+    <t>hidden_factor=512 dropout_keep=[0.6 0.8] layers=[128] lr=0.0500</t>
+  </si>
+  <si>
+    <t>hidden_factor=512 dropout_keep=[0.6 0.6] layers=[128] lr=0.0500</t>
+  </si>
+  <si>
+    <t>hidden_factor=512 dropout_keep=[0.8 0.8] layers=[64] lr=0.0500</t>
+  </si>
+  <si>
+    <t>hidden_factor=512 dropout_keep=[0.8 0.6] layers=[64] lr=0.0500</t>
+  </si>
+  <si>
+    <t>hidden_factor=512 dropout_keep=[0.6 0.8] layers=[64] lr=0.0500</t>
+  </si>
+  <si>
+    <t>hidden_factor=512 dropout_keep=[0.6 0.6] layers=[64] lr=0.0500</t>
+  </si>
+  <si>
+    <t>hidden_factor=512 dropout_keep=[0.8 0.8] layers=[32] lr=0.0500</t>
+  </si>
+  <si>
+    <t>hidden_factor=512 dropout_keep=[0.8 0.6] layers=[32] lr=0.0500</t>
+  </si>
+  <si>
+    <t>hidden_factor=512 dropout_keep=[0.6 0.8] layers=[32] lr=0.0500</t>
+  </si>
+  <si>
+    <t>hidden_factor=512 dropout_keep=[0.6 0.6] layers=[32] lr=0.0500</t>
+  </si>
+  <si>
+    <t>hidden_factor=256 dropout_keep=[0.8 0.8] layers=[256] lr=0.0500</t>
+  </si>
+  <si>
+    <t>hidden_factor=256 dropout_keep=[0.8 0.6] layers=[256] lr=0.0500</t>
+  </si>
+  <si>
+    <t>hidden_factor=256 dropout_keep=[0.6 0.8] layers=[256] lr=0.0500</t>
+  </si>
+  <si>
+    <t>hidden_factor=256 dropout_keep=[0.6 0.6] layers=[256] lr=0.0500</t>
+  </si>
+  <si>
+    <t>hidden_factor=256 dropout_keep=[0.8 0.8] layers=[128] lr=0.0500</t>
+  </si>
+  <si>
+    <t>hidden_factor=256 dropout_keep=[0.8 0.6] layers=[128] lr=0.0500</t>
+  </si>
+  <si>
+    <t>hidden_factor=256 dropout_keep=[0.6 0.8] layers=[128] lr=0.0500</t>
+  </si>
+  <si>
+    <t>hidden_factor=256 dropout_keep=[0.6 0.6] layers=[128] lr=0.0500</t>
+  </si>
+  <si>
+    <t>#trial=88</t>
+  </si>
+  <si>
+    <t>ML100K</t>
+  </si>
+  <si>
+    <t>ML1M</t>
+  </si>
+  <si>
+    <t>MTWEET</t>
+  </si>
+  <si>
+    <t>NIPS</t>
+  </si>
+  <si>
+    <t>MAR</t>
+  </si>
+  <si>
+    <t>MNAR</t>
+  </si>
+  <si>
+    <t>MM</t>
+  </si>
+  <si>
+    <t>PAQUET</t>
+  </si>
+  <si>
+    <t>LOGIT-VD</t>
+  </si>
+  <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t>FM</t>
   </si>
 </sst>
 </file>
@@ -162,7 +462,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -200,12 +500,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -224,7 +518,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="25">
+  <cellStyleXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -250,8 +544,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -266,9 +570,6 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -276,7 +577,6 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -286,8 +586,20 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="25">
+  <cellStyles count="35">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -300,6 +612,11 @@
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -312,6 +629,11 @@
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -587,84 +909,1625 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M54"/>
+  <dimension ref="A1:N89"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView topLeftCell="A45" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D65" sqref="C65:D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="J1" s="2"/>
-      <c r="M1" s="2"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="J2" s="4"/>
-      <c r="M2" s="3"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="J3" s="2"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="M4" s="3"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="J6" s="2"/>
-      <c r="M6" s="3"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="J7" s="2"/>
-      <c r="M7" s="3"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="J8" s="2"/>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="9"/>
-      <c r="B54" s="9"/>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <f>C1/D1</f>
+        <v>1.1118575747396708</v>
+      </c>
+      <c r="B1">
+        <v>197</v>
+      </c>
+      <c r="C1">
+        <v>0.66200000000000003</v>
+      </c>
+      <c r="D1">
+        <v>0.59540000000000004</v>
+      </c>
+      <c r="E1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K1" s="2"/>
+      <c r="N1" s="2"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <f>C2/D2</f>
+        <v>1.0905610121524887</v>
+      </c>
+      <c r="B2">
+        <v>190</v>
+      </c>
+      <c r="C2">
+        <v>0.65510000000000002</v>
+      </c>
+      <c r="D2">
+        <v>0.60070000000000001</v>
+      </c>
+      <c r="E2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K2" s="4"/>
+      <c r="N2" s="3"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <f>C3/D3</f>
+        <v>1.0861700058354407</v>
+      </c>
+      <c r="B3">
+        <v>184</v>
+      </c>
+      <c r="C3">
+        <v>0.55840000000000001</v>
+      </c>
+      <c r="D3">
+        <v>0.5141</v>
+      </c>
+      <c r="E3" t="s">
+        <v>71</v>
+      </c>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <f>C4/D4</f>
+        <v>1.0806234365980372</v>
+      </c>
+      <c r="B4">
+        <v>196</v>
+      </c>
+      <c r="C4">
+        <v>0.56159999999999999</v>
+      </c>
+      <c r="D4">
+        <v>0.51970000000000005</v>
+      </c>
+      <c r="E4" t="s">
+        <v>55</v>
+      </c>
+      <c r="N4" s="3"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <f>C5/D5</f>
+        <v>1.0736500667811486</v>
+      </c>
+      <c r="B5">
+        <v>176</v>
+      </c>
+      <c r="C5">
+        <v>0.56269999999999998</v>
+      </c>
+      <c r="D5">
+        <v>0.52410000000000001</v>
+      </c>
+      <c r="E5" t="s">
+        <v>103</v>
+      </c>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <f>C6/D6</f>
+        <v>1.0631538163502519</v>
+      </c>
+      <c r="B6">
+        <v>197</v>
+      </c>
+      <c r="C6">
+        <v>0.54879999999999995</v>
+      </c>
+      <c r="D6">
+        <v>0.51619999999999999</v>
+      </c>
+      <c r="E6" t="s">
+        <v>56</v>
+      </c>
+      <c r="K6" s="2"/>
+      <c r="N6" s="3"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <f>C7/D7</f>
+        <v>1.0565693430656933</v>
+      </c>
+      <c r="B7" s="8">
+        <v>192</v>
+      </c>
+      <c r="C7" s="8">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="D7">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="E7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K7" s="2"/>
+      <c r="N7" s="3"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <f>C8/D8</f>
+        <v>1.0559682155812748</v>
+      </c>
+      <c r="B8">
+        <v>199</v>
+      </c>
+      <c r="C8">
+        <v>0.61129999999999995</v>
+      </c>
+      <c r="D8">
+        <v>0.57889999999999997</v>
+      </c>
+      <c r="E8" t="s">
+        <v>92</v>
+      </c>
+      <c r="K8" s="2"/>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <f>C9/D9</f>
+        <v>1.0472501936483345</v>
+      </c>
+      <c r="B9">
+        <v>198</v>
+      </c>
+      <c r="C9">
+        <v>0.54079999999999995</v>
+      </c>
+      <c r="D9">
+        <v>0.51639999999999997</v>
+      </c>
+      <c r="E9" t="s">
+        <v>51</v>
+      </c>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <f>C10/D10</f>
+        <v>1.0471734148204737</v>
+      </c>
+      <c r="B10">
+        <v>180</v>
+      </c>
+      <c r="C10">
+        <v>0.54830000000000001</v>
+      </c>
+      <c r="D10">
+        <v>0.52359999999999995</v>
+      </c>
+      <c r="E10" t="s">
+        <v>101</v>
+      </c>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <f>C11/D11</f>
+        <v>1.0469202548754586</v>
+      </c>
+      <c r="B11">
+        <v>181</v>
+      </c>
+      <c r="C11">
+        <v>0.54220000000000002</v>
+      </c>
+      <c r="D11">
+        <v>0.51790000000000003</v>
+      </c>
+      <c r="E11" t="s">
+        <v>87</v>
+      </c>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <f>C12/D12</f>
+        <v>1.0459040865833178</v>
+      </c>
+      <c r="B12">
+        <v>200</v>
+      </c>
+      <c r="C12">
+        <v>0.5605</v>
+      </c>
+      <c r="D12">
+        <v>0.53590000000000004</v>
+      </c>
+      <c r="E12" t="s">
+        <v>99</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <f>C13/D13</f>
+        <v>1.0412577244638312</v>
+      </c>
+      <c r="B13">
+        <v>187</v>
+      </c>
+      <c r="C13">
+        <v>0.57289999999999996</v>
+      </c>
+      <c r="D13">
+        <v>0.55020000000000002</v>
+      </c>
+      <c r="E13" t="s">
+        <v>95</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <f>C14/D14</f>
+        <v>1.0409379204305209</v>
+      </c>
+      <c r="B14" s="8">
+        <v>148</v>
+      </c>
+      <c r="C14" s="8">
+        <v>0.54159999999999997</v>
+      </c>
+      <c r="D14">
+        <v>0.52029999999999998</v>
+      </c>
+      <c r="E14" t="s">
+        <v>102</v>
+      </c>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <f>C15/D15</f>
+        <v>1.0390309555854642</v>
+      </c>
+      <c r="B15">
+        <v>190</v>
+      </c>
+      <c r="C15">
+        <v>0.54039999999999999</v>
+      </c>
+      <c r="D15">
+        <v>0.52010000000000001</v>
+      </c>
+      <c r="E15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <f>C16/D16</f>
+        <v>1.0372717107715244</v>
+      </c>
+      <c r="B16">
+        <v>188</v>
+      </c>
+      <c r="C16">
+        <v>0.55659999999999998</v>
+      </c>
+      <c r="D16">
+        <v>0.53659999999999997</v>
+      </c>
+      <c r="E16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <f>C17/D17</f>
+        <v>1.0368788819875776</v>
+      </c>
+      <c r="B17">
+        <v>172</v>
+      </c>
+      <c r="C17">
+        <v>0.53420000000000001</v>
+      </c>
+      <c r="D17">
+        <v>0.51519999999999999</v>
+      </c>
+      <c r="E17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <f>C18/D18</f>
+        <v>1.0363566041384646</v>
+      </c>
+      <c r="B18">
+        <v>169</v>
+      </c>
+      <c r="C18">
+        <v>0.53590000000000004</v>
+      </c>
+      <c r="D18">
+        <v>0.5171</v>
+      </c>
+      <c r="E18" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <f>C19/D19</f>
+        <v>1.034606656580938</v>
+      </c>
+      <c r="B19">
+        <v>196</v>
+      </c>
+      <c r="C19">
+        <v>0.54710000000000003</v>
+      </c>
+      <c r="D19">
+        <v>0.52880000000000005</v>
+      </c>
+      <c r="E19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <f>C20/D20</f>
+        <v>1.0345622119815667</v>
+      </c>
+      <c r="B20">
+        <v>198</v>
+      </c>
+      <c r="C20">
+        <v>0.53879999999999995</v>
+      </c>
+      <c r="D20">
+        <v>0.52080000000000004</v>
+      </c>
+      <c r="E20" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <f>C21/D21</f>
+        <v>1.0342637151106835</v>
+      </c>
+      <c r="B21">
+        <v>178</v>
+      </c>
+      <c r="C21">
+        <v>0.5373</v>
+      </c>
+      <c r="D21">
+        <v>0.51949999999999996</v>
+      </c>
+      <c r="E21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <f>C22/D22</f>
+        <v>1.031798673429575</v>
+      </c>
+      <c r="B22">
+        <v>183</v>
+      </c>
+      <c r="C22">
+        <v>0.52890000000000004</v>
+      </c>
+      <c r="D22">
+        <v>0.51259999999999994</v>
+      </c>
+      <c r="E22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <f>C23/D23</f>
+        <v>1.0316591752980262</v>
+      </c>
+      <c r="B23">
+        <v>197</v>
+      </c>
+      <c r="C23">
+        <v>0.52790000000000004</v>
+      </c>
+      <c r="D23">
+        <v>0.51170000000000004</v>
+      </c>
+      <c r="E23" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <f>C24/D24</f>
+        <v>1.0308761096101891</v>
+      </c>
+      <c r="B24">
+        <v>195</v>
+      </c>
+      <c r="C24">
+        <v>0.53420000000000001</v>
+      </c>
+      <c r="D24">
+        <v>0.51819999999999999</v>
+      </c>
+      <c r="E24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <f>C25/D25</f>
+        <v>1.029428303655108</v>
+      </c>
+      <c r="B25">
+        <v>177</v>
+      </c>
+      <c r="C25">
+        <v>0.54920000000000002</v>
+      </c>
+      <c r="D25">
+        <v>0.53349999999999997</v>
+      </c>
+      <c r="E25" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <f>C26/D26</f>
+        <v>1.0274159051137468</v>
+      </c>
+      <c r="B26">
+        <v>193</v>
+      </c>
+      <c r="C26">
+        <v>0.52839999999999998</v>
+      </c>
+      <c r="D26">
+        <v>0.51429999999999998</v>
+      </c>
+      <c r="E26" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <f>C27/D27</f>
+        <v>1.0224036453389027</v>
+      </c>
+      <c r="B27">
+        <v>185</v>
+      </c>
+      <c r="C27">
+        <v>0.53849999999999998</v>
+      </c>
+      <c r="D27">
+        <v>0.52669999999999995</v>
+      </c>
+      <c r="E27" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <f>C28/D28</f>
+        <v>1.0216754540128881</v>
+      </c>
+      <c r="B28">
+        <v>196</v>
+      </c>
+      <c r="C28">
+        <v>0.5232</v>
+      </c>
+      <c r="D28">
+        <v>0.5121</v>
+      </c>
+      <c r="E28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <f>C29/D29</f>
+        <v>1.0214224507283634</v>
+      </c>
+      <c r="B29">
+        <v>198</v>
+      </c>
+      <c r="C29">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="D29">
+        <v>0.58350000000000002</v>
+      </c>
+      <c r="E29" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <f>C30/D30</f>
+        <v>1.0201683963187782</v>
+      </c>
+      <c r="B30">
+        <v>198</v>
+      </c>
+      <c r="C30">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="D30">
+        <v>0.51070000000000004</v>
+      </c>
+      <c r="E30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <f>C31/D31</f>
+        <v>1.0177737881508078</v>
+      </c>
+      <c r="B31">
+        <v>187</v>
+      </c>
+      <c r="C31">
+        <v>0.56689999999999996</v>
+      </c>
+      <c r="D31">
+        <v>0.55700000000000005</v>
+      </c>
+      <c r="E31" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <f>C32/D32</f>
+        <v>1.0171875000000001</v>
+      </c>
+      <c r="B32" s="8">
+        <v>197</v>
+      </c>
+      <c r="C32" s="8">
+        <v>0.52080000000000004</v>
+      </c>
+      <c r="D32">
+        <v>0.51200000000000001</v>
+      </c>
+      <c r="E32" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <f>C33/D33</f>
+        <v>1.0164679159568428</v>
+      </c>
+      <c r="B33">
+        <v>200</v>
+      </c>
+      <c r="C33">
+        <v>0.53700000000000003</v>
+      </c>
+      <c r="D33">
+        <v>0.52829999999999999</v>
+      </c>
+      <c r="E33" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <f>C34/D34</f>
+        <v>1.0149712092130518</v>
+      </c>
+      <c r="B34">
+        <v>199</v>
+      </c>
+      <c r="C34">
+        <v>0.52880000000000005</v>
+      </c>
+      <c r="D34">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="E34" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <f>C35/D35</f>
+        <v>1.0146898803046789</v>
+      </c>
+      <c r="B35">
+        <v>192</v>
+      </c>
+      <c r="C35">
+        <v>0.5595</v>
+      </c>
+      <c r="D35">
+        <v>0.5514</v>
+      </c>
+      <c r="E35" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <f>C36/D36</f>
+        <v>1.0122878876535986</v>
+      </c>
+      <c r="B36">
+        <v>200</v>
+      </c>
+      <c r="C36">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="D36">
+        <v>0.51270000000000004</v>
+      </c>
+      <c r="E36" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <f>C37/D37</f>
+        <v>1.0099331423113658</v>
+      </c>
+      <c r="B37">
+        <v>196</v>
+      </c>
+      <c r="C37">
+        <v>0.52869999999999995</v>
+      </c>
+      <c r="D37">
+        <v>0.52349999999999997</v>
+      </c>
+      <c r="E37" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <f>C38/D38</f>
+        <v>1.0094322833244351</v>
+      </c>
+      <c r="B38">
+        <v>191</v>
+      </c>
+      <c r="C38">
+        <v>0.56720000000000004</v>
+      </c>
+      <c r="D38">
+        <v>0.56189999999999996</v>
+      </c>
+      <c r="E38" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <f>C39/D39</f>
+        <v>1.0015111446921043</v>
+      </c>
+      <c r="B39">
+        <v>176</v>
+      </c>
+      <c r="C39">
+        <v>0.5302</v>
+      </c>
+      <c r="D39">
+        <v>0.52939999999999998</v>
+      </c>
+      <c r="E39" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <f>C40/D40</f>
+        <v>0.99241540256709448</v>
+      </c>
+      <c r="B40">
+        <v>199</v>
+      </c>
+      <c r="C40">
+        <v>0.51029999999999998</v>
+      </c>
+      <c r="D40">
+        <v>0.51419999999999999</v>
+      </c>
+      <c r="E40" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <f>C41/D41</f>
+        <v>0.992051182628926</v>
+      </c>
+      <c r="B41">
+        <v>195</v>
+      </c>
+      <c r="C41">
+        <v>0.51170000000000004</v>
+      </c>
+      <c r="D41">
+        <v>0.51580000000000004</v>
+      </c>
+      <c r="E41" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <f>C42/D42</f>
+        <v>0.99040944300995948</v>
+      </c>
+      <c r="B42">
+        <v>200</v>
+      </c>
+      <c r="C42">
+        <v>0.53700000000000003</v>
+      </c>
+      <c r="D42">
+        <v>0.54220000000000002</v>
+      </c>
+      <c r="E42" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <f>C43/D43</f>
+        <v>0.98703835227272707</v>
+      </c>
+      <c r="B43">
+        <v>195</v>
+      </c>
+      <c r="C43">
+        <v>0.55589999999999995</v>
+      </c>
+      <c r="D43">
+        <v>0.56320000000000003</v>
+      </c>
+      <c r="E43" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <f>C44/D44</f>
+        <v>0.98638132295719838</v>
+      </c>
+      <c r="B44">
+        <v>195</v>
+      </c>
+      <c r="C44">
+        <v>0.50700000000000001</v>
+      </c>
+      <c r="D44">
+        <v>0.51400000000000001</v>
+      </c>
+      <c r="E44" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <f>C45/D45</f>
+        <v>0.98528579513299375</v>
+      </c>
+      <c r="B45">
+        <v>162</v>
+      </c>
+      <c r="C45">
+        <v>0.52229999999999999</v>
+      </c>
+      <c r="D45">
+        <v>0.53010000000000002</v>
+      </c>
+      <c r="E45" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <f>C46/D46</f>
+        <v>0.98506685188400778</v>
+      </c>
+      <c r="B46" s="8">
+        <v>193</v>
+      </c>
+      <c r="C46" s="8">
+        <v>0.56730000000000003</v>
+      </c>
+      <c r="D46">
+        <v>0.57589999999999997</v>
+      </c>
+      <c r="E46" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <f>C47/D47</f>
+        <v>0.98474264705882342</v>
+      </c>
+      <c r="B47">
+        <v>177</v>
+      </c>
+      <c r="C47">
+        <v>0.53569999999999995</v>
+      </c>
+      <c r="D47">
+        <v>0.54400000000000004</v>
+      </c>
+      <c r="E47" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <f>C48/D48</f>
+        <v>0.98460953828614861</v>
+      </c>
+      <c r="B48">
+        <v>177</v>
+      </c>
+      <c r="C48">
+        <v>0.51819999999999999</v>
+      </c>
+      <c r="D48">
+        <v>0.52629999999999999</v>
+      </c>
+      <c r="E48" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <f>C49/D49</f>
+        <v>0.98286814244465848</v>
+      </c>
+      <c r="B49" s="8">
+        <v>174</v>
+      </c>
+      <c r="C49" s="8">
+        <v>0.51060000000000005</v>
+      </c>
+      <c r="D49">
+        <v>0.51949999999999996</v>
+      </c>
+      <c r="E49" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <f>C50/D50</f>
+        <v>0.97391137540763484</v>
+      </c>
+      <c r="B50">
+        <v>189</v>
+      </c>
+      <c r="C50">
+        <v>0.50770000000000004</v>
+      </c>
+      <c r="D50">
+        <v>0.52129999999999999</v>
+      </c>
+      <c r="E50" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <f>C51/D51</f>
+        <v>0.97025602409638545</v>
+      </c>
+      <c r="B51">
+        <v>192</v>
+      </c>
+      <c r="C51">
+        <v>0.51539999999999997</v>
+      </c>
+      <c r="D51">
+        <v>0.53120000000000001</v>
+      </c>
+      <c r="E51" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <f>C52/D52</f>
+        <v>0.96878383255142553</v>
+      </c>
+      <c r="B52">
+        <v>197</v>
+      </c>
+      <c r="C52">
+        <v>0.53690000000000004</v>
+      </c>
+      <c r="D52">
+        <v>0.55420000000000003</v>
+      </c>
+      <c r="E52" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <f>C53/D53</f>
+        <v>0.96859813084112145</v>
+      </c>
+      <c r="B53" s="8">
+        <v>198</v>
+      </c>
+      <c r="C53" s="8">
+        <v>0.51819999999999999</v>
+      </c>
+      <c r="D53">
+        <v>0.53500000000000003</v>
+      </c>
+      <c r="E53" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <f>C54/D54</f>
+        <v>0.96554969879518071</v>
+      </c>
+      <c r="B54">
+        <v>190</v>
+      </c>
+      <c r="C54">
+        <v>0.51290000000000002</v>
+      </c>
+      <c r="D54">
+        <v>0.53120000000000001</v>
+      </c>
+      <c r="E54" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <f>C55/D55</f>
+        <v>0.96470588235294108</v>
+      </c>
+      <c r="B55">
+        <v>196</v>
+      </c>
+      <c r="C55">
+        <v>0.51659999999999995</v>
+      </c>
+      <c r="D55">
+        <v>0.53549999999999998</v>
+      </c>
+      <c r="E55" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <f>C56/D56</f>
+        <v>0.96363293762954594</v>
+      </c>
+      <c r="B56">
+        <v>200</v>
+      </c>
+      <c r="C56">
+        <v>0.51139999999999997</v>
+      </c>
+      <c r="D56">
+        <v>0.53069999999999995</v>
+      </c>
+      <c r="E56" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <f>C57/D57</f>
+        <v>0.96216730038022813</v>
+      </c>
+      <c r="B57">
+        <v>189</v>
+      </c>
+      <c r="C57">
+        <v>0.50609999999999999</v>
+      </c>
+      <c r="D57">
+        <v>0.52600000000000002</v>
+      </c>
+      <c r="E57" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <f>C58/D58</f>
+        <v>0.95915251002099622</v>
+      </c>
+      <c r="B58">
+        <v>180</v>
+      </c>
+      <c r="C58">
+        <v>0.50249999999999995</v>
+      </c>
+      <c r="D58">
+        <v>0.52390000000000003</v>
+      </c>
+      <c r="E58" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <f>C59/D59</f>
+        <v>0.95855614973262038</v>
+      </c>
+      <c r="B59">
+        <v>194</v>
+      </c>
+      <c r="C59">
+        <v>0.50190000000000001</v>
+      </c>
+      <c r="D59">
+        <v>0.52359999999999995</v>
+      </c>
+      <c r="E59" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <f>C60/D60</f>
+        <v>0.95563506261180675</v>
+      </c>
+      <c r="B60">
+        <v>190</v>
+      </c>
+      <c r="C60">
+        <v>0.53420000000000001</v>
+      </c>
+      <c r="D60">
+        <v>0.55900000000000005</v>
+      </c>
+      <c r="E60" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <f>C61/D61</f>
+        <v>0.95304611242006065</v>
+      </c>
+      <c r="B61">
+        <v>196</v>
+      </c>
+      <c r="C61">
+        <v>0.56630000000000003</v>
+      </c>
+      <c r="D61">
+        <v>0.59419999999999995</v>
+      </c>
+      <c r="E61" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <f>C62/D62</f>
+        <v>0.95167548500881838</v>
+      </c>
+      <c r="B62">
+        <v>198</v>
+      </c>
+      <c r="C62">
+        <v>0.53959999999999997</v>
+      </c>
+      <c r="D62">
+        <v>0.56699999999999995</v>
+      </c>
+      <c r="E62" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <f>C63/D63</f>
+        <v>0.950974930362117</v>
+      </c>
+      <c r="B63">
+        <v>200</v>
+      </c>
+      <c r="C63">
+        <v>0.5121</v>
+      </c>
+      <c r="D63">
+        <v>0.53849999999999998</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <f>C64/D64</f>
+        <v>0.9474059547156356</v>
+      </c>
+      <c r="B64">
+        <v>193</v>
+      </c>
+      <c r="C64">
+        <v>0.53139999999999998</v>
+      </c>
+      <c r="D64">
+        <v>0.56089999999999995</v>
+      </c>
+      <c r="E64" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <f>C65/D65</f>
+        <v>0.94637537239324732</v>
+      </c>
+      <c r="B65">
+        <v>200</v>
+      </c>
+      <c r="C65">
+        <v>0.57179999999999997</v>
+      </c>
+      <c r="D65">
+        <v>0.60419999999999996</v>
+      </c>
+      <c r="E65" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <f>C66/D66</f>
+        <v>0.9457671957671957</v>
+      </c>
+      <c r="B66">
+        <v>185</v>
+      </c>
+      <c r="C66">
+        <v>0.50049999999999994</v>
+      </c>
+      <c r="D66">
+        <v>0.5292</v>
+      </c>
+      <c r="E66" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <f>C67/D67</f>
+        <v>0.94062259800153736</v>
+      </c>
+      <c r="B67">
+        <v>177</v>
+      </c>
+      <c r="C67">
+        <v>0.48949999999999999</v>
+      </c>
+      <c r="D67">
+        <v>0.52039999999999997</v>
+      </c>
+      <c r="E67" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <f>C68/D68</f>
+        <v>0.94030112044817926</v>
+      </c>
+      <c r="B68">
+        <v>199</v>
+      </c>
+      <c r="C68">
+        <v>0.53710000000000002</v>
+      </c>
+      <c r="D68">
+        <v>0.57120000000000004</v>
+      </c>
+      <c r="E68" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <f>C69/D69</f>
+        <v>0.94020380696019989</v>
+      </c>
+      <c r="B69">
+        <v>199</v>
+      </c>
+      <c r="C69">
+        <v>0.48899999999999999</v>
+      </c>
+      <c r="D69">
+        <v>0.52010000000000001</v>
+      </c>
+      <c r="E69" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <f>C70/D70</f>
+        <v>0.94002607561929596</v>
+      </c>
+      <c r="B70" s="8">
+        <v>196</v>
+      </c>
+      <c r="C70" s="8">
+        <v>0.50470000000000004</v>
+      </c>
+      <c r="D70">
+        <v>0.53690000000000004</v>
+      </c>
+      <c r="E70" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <f>C71/D71</f>
+        <v>0.9355588772629132</v>
+      </c>
+      <c r="B71">
+        <v>184</v>
+      </c>
+      <c r="C71">
+        <v>0.56330000000000002</v>
+      </c>
+      <c r="D71">
+        <v>0.60209999999999997</v>
+      </c>
+      <c r="E71" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <f>C72/D72</f>
+        <v>0.93528982865475763</v>
+      </c>
+      <c r="B72">
+        <v>188</v>
+      </c>
+      <c r="C72">
+        <v>0.5131</v>
+      </c>
+      <c r="D72">
+        <v>0.54859999999999998</v>
+      </c>
+      <c r="E72" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <f>C73/D73</f>
+        <v>0.93409586056644878</v>
+      </c>
+      <c r="B73">
+        <v>195</v>
+      </c>
+      <c r="C73">
+        <v>0.51449999999999996</v>
+      </c>
+      <c r="D73">
+        <v>0.55079999999999996</v>
+      </c>
+      <c r="E73" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <f>C74/D74</f>
+        <v>0.93035285423979319</v>
+      </c>
+      <c r="B74">
+        <v>198</v>
+      </c>
+      <c r="C74">
+        <v>0.50360000000000005</v>
+      </c>
+      <c r="D74">
+        <v>0.5413</v>
+      </c>
+      <c r="E74" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <f>C75/D75</f>
+        <v>0.92886870979947034</v>
+      </c>
+      <c r="B75">
+        <v>200</v>
+      </c>
+      <c r="C75">
+        <v>0.49099999999999999</v>
+      </c>
+      <c r="D75">
+        <v>0.52859999999999996</v>
+      </c>
+      <c r="E75" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <f>C76/D76</f>
+        <v>0.92591199699135007</v>
+      </c>
+      <c r="B76">
+        <v>200</v>
+      </c>
+      <c r="C76">
+        <v>0.4924</v>
+      </c>
+      <c r="D76">
+        <v>0.53180000000000005</v>
+      </c>
+      <c r="E76" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <f>C77/D77</f>
+        <v>0.92385180126344546</v>
+      </c>
+      <c r="B77">
+        <v>191</v>
+      </c>
+      <c r="C77">
+        <v>0.54110000000000003</v>
+      </c>
+      <c r="D77">
+        <v>0.5857</v>
+      </c>
+      <c r="E77" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <f>C78/D78</f>
+        <v>0.9231700986329815</v>
+      </c>
+      <c r="B78">
+        <v>194</v>
+      </c>
+      <c r="C78">
+        <v>0.53349999999999997</v>
+      </c>
+      <c r="D78">
+        <v>0.57789999999999997</v>
+      </c>
+      <c r="E78" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <f>C79/D79</f>
+        <v>0.922883787661406</v>
+      </c>
+      <c r="B79">
+        <v>196</v>
+      </c>
+      <c r="C79">
+        <v>0.51459999999999995</v>
+      </c>
+      <c r="D79">
+        <v>0.55759999999999998</v>
+      </c>
+      <c r="E79" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <f>C80/D80</f>
+        <v>0.91964451027587479</v>
+      </c>
+      <c r="B80">
+        <v>173</v>
+      </c>
+      <c r="C80">
+        <v>0.49669999999999997</v>
+      </c>
+      <c r="D80">
+        <v>0.54010000000000002</v>
+      </c>
+      <c r="E80" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <f>C81/D81</f>
+        <v>0.91916605705925403</v>
+      </c>
+      <c r="B81">
+        <v>195</v>
+      </c>
+      <c r="C81">
+        <v>0.50260000000000005</v>
+      </c>
+      <c r="D81">
+        <v>0.54679999999999995</v>
+      </c>
+      <c r="E81" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <f>C82/D82</f>
+        <v>0.91584618242615645</v>
+      </c>
+      <c r="B82">
+        <v>187</v>
+      </c>
+      <c r="C82">
+        <v>0.49299999999999999</v>
+      </c>
+      <c r="D82">
+        <v>0.5383</v>
+      </c>
+      <c r="E82" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <f>C83/D83</f>
+        <v>0.91460755813953476</v>
+      </c>
+      <c r="B83">
+        <v>196</v>
+      </c>
+      <c r="C83">
+        <v>0.50339999999999996</v>
+      </c>
+      <c r="D83">
+        <v>0.5504</v>
+      </c>
+      <c r="E83" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <f>C84/D84</f>
+        <v>0.91429620113782328</v>
+      </c>
+      <c r="B84">
+        <v>188</v>
+      </c>
+      <c r="C84">
+        <v>0.49819999999999998</v>
+      </c>
+      <c r="D84">
+        <v>0.54490000000000005</v>
+      </c>
+      <c r="E84" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <f>C85/D85</f>
+        <v>0.91343922898447261</v>
+      </c>
+      <c r="B85">
+        <v>196</v>
+      </c>
+      <c r="C85">
+        <v>0.51180000000000003</v>
+      </c>
+      <c r="D85">
+        <v>0.56030000000000002</v>
+      </c>
+      <c r="E85" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <f>C86/D86</f>
+        <v>0.90751341681574227</v>
+      </c>
+      <c r="B86">
+        <v>196</v>
+      </c>
+      <c r="C86">
+        <v>0.50729999999999997</v>
+      </c>
+      <c r="D86">
+        <v>0.55900000000000005</v>
+      </c>
+      <c r="E86" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <f>C87/D87</f>
+        <v>0.9038363171355499</v>
+      </c>
+      <c r="B87">
+        <v>197</v>
+      </c>
+      <c r="C87">
+        <v>0.53010000000000002</v>
+      </c>
+      <c r="D87">
+        <v>0.58650000000000002</v>
+      </c>
+      <c r="E87" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <f>C88/D88</f>
+        <v>0.89776247848537005</v>
+      </c>
+      <c r="B88">
+        <v>197</v>
+      </c>
+      <c r="C88">
+        <v>0.52159999999999995</v>
+      </c>
+      <c r="D88">
+        <v>0.58099999999999996</v>
+      </c>
+      <c r="E88" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B89" t="s">
+        <v>129</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="A1:D66">
-    <sortCondition ref="B1"/>
+  <sortState ref="A1:E89">
+    <sortCondition descending="1" ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -682,22 +2545,22 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11" t="s">
+      <c r="C1" s="12"/>
+      <c r="D1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="11"/>
-      <c r="F1" s="12" t="s">
+      <c r="E1" s="12"/>
+      <c r="F1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12" t="s">
+      <c r="G1" s="13"/>
+      <c r="H1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="12"/>
+      <c r="I1" s="13"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
@@ -732,11 +2595,11 @@
       </c>
       <c r="B3" s="4">
         <f>C3*B16</f>
-        <v>0.93738261606487328</v>
+        <v>0.94391000283262472</v>
       </c>
       <c r="C3" s="4">
         <f>C9+C11*C14</f>
-        <v>1.3324208762195964</v>
+        <v>1.3416990794286789</v>
       </c>
       <c r="D3" s="4">
         <f>E3*D17</f>
@@ -752,16 +2615,16 @@
       <c r="I3" s="4"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>36</v>
       </c>
       <c r="B4" s="4">
         <f>C4*B20</f>
-        <v>0.88659291576436217</v>
+        <v>0.889160525105824</v>
       </c>
       <c r="C4" s="4">
         <f>C9-C12*C14</f>
-        <v>1.2536429515641898</v>
+        <v>1.2572735528199179</v>
       </c>
       <c r="D4" s="4">
         <f>E4*D19</f>
@@ -777,12 +2640,12 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>35</v>
       </c>
       <c r="B5" s="4">
         <f>C5*B21</f>
-        <v>0.88483021175381593</v>
+        <v>0.88483021175381615</v>
       </c>
       <c r="C5" s="4">
         <f>C6*F10</f>
@@ -848,7 +2711,7 @@
       </c>
       <c r="B7" s="4">
         <f>C7*B19</f>
-        <v>0.88750390119212708</v>
+        <v>0.88750390119212719</v>
       </c>
       <c r="C7" s="4">
         <f>C6*F12</f>
@@ -878,12 +2741,12 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>34</v>
       </c>
       <c r="B8" s="4">
         <f>C8*B18</f>
-        <v>0.89577968821335707</v>
+        <v>0.89577968821335718</v>
       </c>
       <c r="C8" s="4">
         <f>C6*F13</f>
@@ -919,11 +2782,11 @@
       </c>
       <c r="B9" s="4">
         <f>mar!G10</f>
-        <v>0.89652179623496753</v>
+        <v>0.90099694663214713</v>
       </c>
       <c r="C9" s="4">
         <f>mar!H10</f>
-        <v>1.2930319138918931</v>
+        <v>1.2994863161242984</v>
       </c>
       <c r="D9" s="4">
         <f>mar!I10</f>
@@ -946,11 +2809,11 @@
       <c r="A10" s="2"/>
       <c r="B10" s="2">
         <f>B9-B6</f>
-        <v>4.3521796234967547E-2</v>
+        <v>4.7996946632147153E-2</v>
       </c>
       <c r="C10" s="2">
         <f>C9-C6</f>
-        <v>9.0031913891893023E-2</v>
+        <v>9.6486316124298366E-2</v>
       </c>
       <c r="D10" s="2">
         <f>D9-D6</f>
@@ -1063,7 +2926,7 @@
       <c r="B14" s="2"/>
       <c r="C14" s="2">
         <f>C10/SUM(C12:C13)</f>
-        <v>5.6269946182433139E-3</v>
+        <v>6.0303947577686479E-3</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2">
@@ -1100,9 +2963,9 @@
       </c>
       <c r="B16">
         <f>B17-C17</f>
-        <v>0.70351840983192704</v>
-      </c>
-      <c r="D16" s="8">
+        <v>0.70351840983192715</v>
+      </c>
+      <c r="D16" s="7">
         <f>D9/E9*1</f>
         <v>0.75630772158465531</v>
       </c>
@@ -1115,13 +2978,13 @@
       <c r="A17" s="2">
         <v>1</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="7">
         <f>B9/C9*1.016</f>
-        <v>0.70444212179814925</v>
+        <v>0.70444212179814936</v>
       </c>
       <c r="C17">
         <f>(B23-B17)/(A23-A17)</f>
-        <v>9.2371196622218486E-4</v>
+        <v>9.2371196622216263E-4</v>
       </c>
       <c r="D17">
         <f>D16+E16</f>
@@ -1138,11 +3001,11 @@
       </c>
       <c r="B18">
         <f>B17+C17</f>
-        <v>0.70536583376437145</v>
+        <v>0.70536583376437156</v>
       </c>
       <c r="C18">
         <f>C17</f>
-        <v>9.2371196622218486E-4</v>
+        <v>9.2371196622216263E-4</v>
       </c>
       <c r="D18">
         <f t="shared" ref="D18:D21" si="0">D17+E17</f>
@@ -1159,11 +3022,11 @@
       </c>
       <c r="B19">
         <f t="shared" ref="B19:B22" si="2">B18+C18</f>
-        <v>0.70628954573059366</v>
+        <v>0.70628954573059377</v>
       </c>
       <c r="C19">
         <f t="shared" ref="C19:C22" si="3">C18</f>
-        <v>9.2371196622218486E-4</v>
+        <v>9.2371196622216263E-4</v>
       </c>
       <c r="D19">
         <f t="shared" si="0"/>
@@ -1180,11 +3043,11 @@
       </c>
       <c r="B20">
         <f t="shared" si="2"/>
-        <v>0.70721325769681587</v>
+        <v>0.70721325769681598</v>
       </c>
       <c r="C20">
         <f t="shared" si="3"/>
-        <v>9.2371196622218486E-4</v>
+        <v>9.2371196622216263E-4</v>
       </c>
       <c r="D20">
         <f t="shared" si="0"/>
@@ -1201,11 +3064,11 @@
       </c>
       <c r="B21">
         <f t="shared" si="2"/>
-        <v>0.70813696966303807</v>
+        <v>0.70813696966303818</v>
       </c>
       <c r="C21">
         <f t="shared" si="3"/>
-        <v>9.2371196622218486E-4</v>
+        <v>9.2371196622216263E-4</v>
       </c>
       <c r="D21">
         <f t="shared" si="0"/>
@@ -1222,11 +3085,11 @@
       </c>
       <c r="B22">
         <f t="shared" si="2"/>
-        <v>0.70906068162926028</v>
+        <v>0.70906068162926039</v>
       </c>
       <c r="C22">
         <f t="shared" si="3"/>
-        <v>9.2371196622218486E-4</v>
+        <v>9.2371196622216263E-4</v>
       </c>
       <c r="D22">
         <f>D21+E21</f>
@@ -1266,7 +3129,7 @@
   <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17:N22"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1276,31 +3139,31 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="4"/>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11" t="s">
+      <c r="C1" s="12"/>
+      <c r="D1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="11"/>
+      <c r="E1" s="12"/>
       <c r="F1" s="4"/>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11" t="s">
+      <c r="H1" s="12"/>
+      <c r="I1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11" t="s">
+      <c r="J1" s="12"/>
+      <c r="K1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11" t="s">
+      <c r="L1" s="12"/>
+      <c r="M1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="11"/>
+      <c r="N1" s="12"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
@@ -1362,19 +3225,19 @@
         <v>0</v>
       </c>
       <c r="G3" s="4">
-        <f>mar!K19</f>
+        <f>mar!K18</f>
         <v>1.153</v>
       </c>
       <c r="H3" s="4">
-        <f>mar!L19</f>
+        <f>mar!L18</f>
         <v>1.9279999999999999</v>
       </c>
       <c r="I3" s="4">
-        <f>mar!M19</f>
+        <f>mar!M18</f>
         <v>0.873</v>
       </c>
       <c r="J3" s="4">
-        <f>mar!N19</f>
+        <f>mar!N18</f>
         <v>1.298</v>
       </c>
       <c r="K3" s="4">
@@ -1415,11 +3278,11 @@
       </c>
       <c r="G4" s="4">
         <f>G3*G15*G21</f>
-        <v>1.0984790000979185</v>
+        <v>1.1003037193988394</v>
       </c>
       <c r="H4" s="4">
         <f>H3*H15*H21</f>
-        <v>1.7578714258745392</v>
+        <v>1.7607914834441827</v>
       </c>
       <c r="I4" s="4">
         <f>I3*I15*I21</f>
@@ -1452,11 +3315,11 @@
       </c>
       <c r="G5" s="4">
         <f>G7+(G3-G7)/(K3-K7)*(K5-K7)</f>
-        <v>1.022474968456242</v>
+        <v>1.0238580592057718</v>
       </c>
       <c r="H5" s="4">
         <f>H7+(H3-H7)/(L3-L7)*(L5-L7)</f>
-        <v>1.5320172274892365</v>
+        <v>1.5341147325401054</v>
       </c>
       <c r="I5" s="4">
         <f>I3*M5/M3</f>
@@ -1549,11 +3412,11 @@
       </c>
       <c r="G7" s="4">
         <f>G3*G17*G20</f>
-        <v>0.99674575277737176</v>
+        <v>0.9984014796624936</v>
       </c>
       <c r="H7" s="4">
         <f t="shared" ref="H7:J7" si="1">H3*H17*H20</f>
-        <v>1.4677210556640352</v>
+        <v>1.4701591349886278</v>
       </c>
       <c r="I7" s="4">
         <f t="shared" si="1"/>
@@ -1601,11 +3464,11 @@
       </c>
       <c r="G8" s="4">
         <f>G4*G19*G21</f>
-        <v>0.97641009857454564</v>
+        <v>0.97965668617616175</v>
       </c>
       <c r="H8" s="4">
         <f>H4*H19*H21</f>
-        <v>1.3883811392012639</v>
+        <v>1.3929975406492094</v>
       </c>
       <c r="I8" s="4">
         <f>I4*I19*I21</f>
@@ -1645,11 +3508,11 @@
       </c>
       <c r="G9" s="4">
         <f>G7*B10*G20</f>
-        <v>0.92797445755058405</v>
+        <v>0.93105999545407225</v>
       </c>
       <c r="H9" s="4">
         <f t="shared" ref="H9:J9" si="3">H7*C10*H20</f>
-        <v>1.3552567629024312</v>
+        <v>1.3597630249841821</v>
       </c>
       <c r="I9" s="4">
         <f t="shared" si="3"/>
@@ -1689,11 +3552,11 @@
       </c>
       <c r="G10" s="4">
         <f>G14/K14</f>
-        <v>0.89652179623496753</v>
+        <v>0.90099694663214713</v>
       </c>
       <c r="H10" s="4">
         <f t="shared" ref="H10:J10" si="4">H14/L14</f>
-        <v>1.2930319138918931</v>
+        <v>1.2994863161242984</v>
       </c>
       <c r="I10" s="4">
         <f t="shared" si="4"/>
@@ -1733,35 +3596,35 @@
       </c>
       <c r="G11" s="4">
         <f>G7*K11</f>
-        <v>0.92193861278372358</v>
+        <v>0.91590475115587944</v>
       </c>
       <c r="H11" s="4">
         <f t="shared" ref="H11:J11" si="6">H7*L11</f>
-        <v>1.3281178781085798</v>
+        <v>1.3194256730193747</v>
       </c>
       <c r="I11" s="4">
         <f t="shared" si="6"/>
-        <v>0.79348004550806461</v>
+        <v>0.79090798701371112</v>
       </c>
       <c r="J11" s="4">
         <f t="shared" si="6"/>
-        <v>1.057200020125227</v>
+        <v>1.0537731156839782</v>
       </c>
       <c r="K11" s="4">
         <f>PRODUCT(B20,C20,D20,E16)</f>
-        <v>0.92494862427534541</v>
+        <v>0.91737118765639059</v>
       </c>
       <c r="L11" s="4">
         <f>PRODUCT(B20,C20,D20,E20)</f>
-        <v>0.90488439406335608</v>
+        <v>0.897471329203815</v>
       </c>
       <c r="M11" s="4">
         <f>PRODUCT(B20,C20,D16,E16)</f>
-        <v>0.94205794871453852</v>
+        <v>0.93900427627137961</v>
       </c>
       <c r="N11" s="4">
         <f>PRODUCT(B20,C20,D16,E20)</f>
-        <v>0.92162257851129992</v>
+        <v>0.91863514713849181</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
@@ -1789,35 +3652,35 @@
       </c>
       <c r="G12" s="4">
         <f t="shared" ref="G12:G13" si="7">G8*K12</f>
-        <v>0.91247849117690327</v>
+        <v>0.90801237131111201</v>
       </c>
       <c r="H12" s="4">
         <f t="shared" ref="H12:H13" si="8">H8*L12</f>
-        <v>1.2693300639948708</v>
+        <v>1.2631173364951334</v>
       </c>
       <c r="I12" s="4">
         <f t="shared" ref="I12:I13" si="9">I8*M12</f>
-        <v>0.79014375206569476</v>
+        <v>0.78758250813679476</v>
       </c>
       <c r="J12" s="4">
         <f t="shared" ref="J12:J13" si="10">J8*N12</f>
-        <v>1.0391568691409616</v>
+        <v>1.03578845141279</v>
       </c>
       <c r="K12" s="4">
         <f>PRODUCT(B16,C20,D20,E16)</f>
-        <v>0.93452381587308886</v>
+        <v>0.92686793661900591</v>
       </c>
       <c r="L12" s="4">
         <f>PRODUCT(B16,C20,D20,E20)</f>
-        <v>0.91425187807226826</v>
+        <v>0.90676207217598881</v>
       </c>
       <c r="M12" s="4">
         <f>PRODUCT(B16,C20,D16,E16)</f>
-        <v>0.95181025832220556</v>
+        <v>0.94872497385438648</v>
       </c>
       <c r="N12" s="4">
         <f>PRODUCT(B16,C20,D16,E20)</f>
-        <v>0.93116333843941568</v>
+        <v>0.92814498077834795</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
@@ -1839,11 +3702,11 @@
       </c>
       <c r="G13" s="4">
         <f t="shared" si="7"/>
-        <v>0.87351455794088229</v>
+        <v>0.87206594075872768</v>
       </c>
       <c r="H13" s="4">
         <f t="shared" si="8"/>
-        <v>1.2480477323127519</v>
+        <v>1.2459779976154393</v>
       </c>
       <c r="I13" s="4">
         <f t="shared" si="9"/>
@@ -1855,11 +3718,11 @@
       </c>
       <c r="K13" s="4">
         <f>PRODUCT(B20,C16,D20,E16)</f>
-        <v>0.94131314804348143</v>
+        <v>0.93663775161280172</v>
       </c>
       <c r="L13" s="4">
         <f>PRODUCT(B20,C16,D20,E20)</f>
-        <v>0.92089393425340338</v>
+        <v>0.91631995775876718</v>
       </c>
       <c r="M13" s="4">
         <f>PRODUCT(B20,C16,D16,E16)</f>
@@ -1892,28 +3755,28 @@
         <v>18</v>
       </c>
       <c r="G14" s="4">
-        <f>mar!K22</f>
+        <f>mar!K21</f>
         <v>0.85264399999999996</v>
       </c>
       <c r="H14" s="4">
-        <f>mar!L22</f>
+        <f>mar!L21</f>
         <v>1.2030719999999999</v>
       </c>
       <c r="I14" s="4">
-        <f>mar!M22</f>
+        <f>mar!M21</f>
         <v>0.75245799999999996</v>
       </c>
       <c r="J14" s="4">
-        <f>mar!N22</f>
+        <f>mar!N21</f>
         <v>0.97332799999999997</v>
       </c>
       <c r="K14" s="4">
         <f>PRODUCT(B16,C16,D20,E16)</f>
-        <v>0.9510577473752041</v>
+        <v>0.94633395061671788</v>
       </c>
       <c r="L14" s="4">
         <f>PRODUCT(B16,C16,D20,E20)</f>
-        <v>0.93042715115891994</v>
+        <v>0.92580582424919022</v>
       </c>
       <c r="M14" s="4">
         <f>PRODUCT(B16,C16,D16,E16)</f>
@@ -1996,6 +3859,14 @@
       <c r="J16" s="4">
         <v>1</v>
       </c>
+      <c r="K16" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="N16" s="11"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
@@ -2031,14 +3902,18 @@
         <f t="shared" si="13"/>
         <v>0.86953062848050922</v>
       </c>
-      <c r="K17" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="N17" s="13"/>
+      <c r="K17" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="L17" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="N17" s="11" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
@@ -2071,17 +3946,17 @@
       <c r="J18" s="4">
         <v>1</v>
       </c>
-      <c r="K18" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="L18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="M18" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="N18" s="5" t="s">
-        <v>3</v>
+      <c r="K18" s="11">
+        <v>1.153</v>
+      </c>
+      <c r="L18" s="11">
+        <v>1.9279999999999999</v>
+      </c>
+      <c r="M18" s="11">
+        <v>0.873</v>
+      </c>
+      <c r="N18" s="11">
+        <v>1.298</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
@@ -2090,10 +3965,10 @@
         <v>1.1759999999999999</v>
       </c>
       <c r="C19" s="4">
-        <v>1.234</v>
+        <v>1.23</v>
       </c>
       <c r="D19" s="4">
-        <v>1.208</v>
+        <v>1.202</v>
       </c>
       <c r="E19" s="4">
         <f>B19</f>
@@ -2119,23 +3994,23 @@
         <f t="shared" si="14"/>
         <v>0.87438423645320196</v>
       </c>
-      <c r="K19" s="5">
-        <v>1.153</v>
-      </c>
-      <c r="L19" s="5">
-        <v>1.9279999999999999</v>
-      </c>
-      <c r="M19" s="5">
-        <v>0.873</v>
-      </c>
-      <c r="N19" s="5">
-        <v>1.298</v>
+      <c r="K19" s="11">
+        <v>0.86299999999999999</v>
+      </c>
+      <c r="L19" s="11">
+        <v>1.248</v>
+      </c>
+      <c r="M19" s="11">
+        <v>0.75700000000000001</v>
+      </c>
+      <c r="N19" s="11">
+        <v>1.016</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <f>PRODUCT(B20:E20)</f>
-        <v>0.90488439406335608</v>
+        <v>0.897471329203815</v>
       </c>
       <c r="B20" s="5">
         <f>B18*B19</f>
@@ -2143,11 +4018,11 @@
       </c>
       <c r="C20" s="5">
         <f>C18*C19</f>
-        <v>0.9711082435033711</v>
+        <v>0.96796040478861145</v>
       </c>
       <c r="D20" s="5">
         <f t="shared" ref="D20" si="15">D18*D19</f>
-        <v>0.97067136179878033</v>
+        <v>0.96585014642560751</v>
       </c>
       <c r="E20" s="5">
         <f t="shared" ref="E20" si="16">E18*E19</f>
@@ -2156,11 +4031,11 @@
       <c r="F20" s="4"/>
       <c r="G20" s="4">
         <f>POWER((G10/G3)/(G15*G17*B10), 1/3)</f>
-        <v>1.009522599725404</v>
+        <v>1.0111995506477891</v>
       </c>
       <c r="H20" s="4">
         <f t="shared" ref="H20:J20" si="17">POWER((H10/H3)/(H15*H17*C10), 1/3)</f>
-        <v>0.99696262287822324</v>
+        <v>0.99861871001334401</v>
       </c>
       <c r="I20" s="4">
         <f t="shared" si="17"/>
@@ -2170,17 +4045,17 @@
         <f t="shared" si="17"/>
         <v>1.0163527817346705</v>
       </c>
-      <c r="K20" s="5">
-        <v>0.86299999999999999</v>
-      </c>
-      <c r="L20" s="5">
-        <v>1.248</v>
-      </c>
-      <c r="M20" s="5">
-        <v>0.75700000000000001</v>
-      </c>
-      <c r="N20" s="5">
-        <v>1.016</v>
+      <c r="K20" s="11">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="L20" s="11">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="M20" s="11">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="N20" s="11">
+        <v>0.95799999999999996</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
@@ -2204,11 +4079,11 @@
       <c r="F21" s="4"/>
       <c r="G21" s="4">
         <f>POWER((G10/G3)/(G15*G19*B12), 1/3)</f>
-        <v>0.99552843030270877</v>
+        <v>0.99718213505375719</v>
       </c>
       <c r="H21" s="4">
         <f>POWER((H10/H3)/(H15*H19*C12), 1/3)</f>
-        <v>0.95273318552612807</v>
+        <v>0.95431580170003971</v>
       </c>
       <c r="I21" s="4">
         <f>POWER((I10/I3)/(I15*I19*D12), 1/3)</f>
@@ -2219,16 +4094,20 @@
         <v>1.0136422958064097</v>
       </c>
       <c r="K21" s="5">
-        <v>0.98799999999999999</v>
+        <f>K19*K20</f>
+        <v>0.85264399999999996</v>
       </c>
       <c r="L21" s="5">
-        <v>0.96399999999999997</v>
+        <f>L19*L20</f>
+        <v>1.2030719999999999</v>
       </c>
       <c r="M21" s="5">
-        <v>0.99399999999999999</v>
+        <f>M19*M20</f>
+        <v>0.75245799999999996</v>
       </c>
       <c r="N21" s="5">
-        <v>0.95799999999999996</v>
+        <f>N19*N20</f>
+        <v>0.97332799999999997</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
@@ -2254,11 +4133,11 @@
       </c>
       <c r="G22" s="4">
         <f>G9*G15*G20</f>
-        <v>0.89652179623496731</v>
+        <v>0.90099694663214724</v>
       </c>
       <c r="H22" s="4">
         <f>H9*H15*H20</f>
-        <v>1.2930319138918931</v>
+        <v>1.2994863161242982</v>
       </c>
       <c r="I22" s="4">
         <f>I9*I15*I20</f>
@@ -2268,21 +4147,21 @@
         <f>J9*J15*J20</f>
         <v>1.0271097083958198</v>
       </c>
-      <c r="K22" s="5">
-        <f>K20*K21</f>
-        <v>0.85264399999999996</v>
-      </c>
-      <c r="L22" s="5">
-        <f>L20*L21</f>
-        <v>1.2030719999999999</v>
-      </c>
-      <c r="M22" s="5">
-        <f>M20*M21</f>
-        <v>0.75245799999999996</v>
-      </c>
-      <c r="N22" s="5">
-        <f>N20*N21</f>
-        <v>0.97332799999999997</v>
+      <c r="K22" s="1">
+        <f>K21/K18</f>
+        <v>0.73950043365134421</v>
+      </c>
+      <c r="L22" s="1">
+        <f t="shared" ref="L22:N22" si="19">L21/L18</f>
+        <v>0.624</v>
+      </c>
+      <c r="M22" s="1">
+        <f t="shared" si="19"/>
+        <v>0.86192210767468491</v>
+      </c>
+      <c r="N22" s="1">
+        <f t="shared" si="19"/>
+        <v>0.74986748844375961</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
@@ -2309,11 +4188,11 @@
       <c r="F23" s="4"/>
       <c r="G23" s="4">
         <f>G8*B12*G21</f>
-        <v>0.89652179623496753</v>
+        <v>0.90099694663214724</v>
       </c>
       <c r="H23" s="4">
         <f>H8*C12*H21</f>
-        <v>1.2930319138918931</v>
+        <v>1.2994863161242984</v>
       </c>
       <c r="I23" s="4">
         <f>I8*D12*I21</f>
@@ -2329,9 +4208,7 @@
       <c r="N23" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="M17:N17"/>
+  <mergeCells count="6">
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="K1:L1"/>
@@ -2340,138 +4217,1202 @@
     <mergeCell ref="I1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:N25"/>
+  <dimension ref="A1:O37"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C9" sqref="C8:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="11" width="10.83203125" style="1"/>
-    <col min="14" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="16384" width="10.83203125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-    </row>
-    <row r="17" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K17" s="13" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B1" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13" t="s">
+      <c r="D1" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="N17" s="13"/>
-    </row>
-    <row r="18" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K18" s="6" t="s">
+      <c r="F1" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="M1" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="L18" s="6" t="s">
+      <c r="C2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="M18" s="6" t="s">
+      <c r="D2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="N18" s="6" t="s">
+      <c r="E2" s="9" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K19" s="6">
+      <c r="F2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="14">
+        <f>K20</f>
         <v>0.60899999999999999</v>
       </c>
-      <c r="L19" s="6">
+      <c r="C3" s="14">
+        <f t="shared" ref="C3:E3" si="0">L20</f>
         <v>0.71899999999999997</v>
       </c>
-      <c r="M19" s="6">
-        <v>0.73099999999999998</v>
-      </c>
-      <c r="N19" s="6">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="20" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K20">
-        <v>0.48949999999999999</v>
-      </c>
-      <c r="L20">
-        <v>0.52039999999999997</v>
-      </c>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-    </row>
-    <row r="21" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K21" s="10">
-        <f>K20/K19</f>
-        <v>0.80377668308702788</v>
-      </c>
-      <c r="L21" s="10">
-        <f>L20/L19</f>
-        <v>0.72378303198887339</v>
-      </c>
-      <c r="M21" s="10"/>
-      <c r="N21" s="6"/>
-    </row>
-    <row r="22" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
-    </row>
-    <row r="23" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-    </row>
-    <row r="24" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-    </row>
-    <row r="25" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
+      <c r="D3" s="14">
+        <f t="shared" si="0"/>
+        <v>0.60399999999999998</v>
+      </c>
+      <c r="E3" s="14">
+        <f t="shared" si="0"/>
+        <v>0.69524099999999989</v>
+      </c>
+      <c r="F3">
+        <v>0.76400000000000001</v>
+      </c>
+      <c r="G3">
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="H3">
+        <v>0.745</v>
+      </c>
+      <c r="I3">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0.745</v>
+      </c>
+      <c r="L3">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="M3">
+        <v>0.76400000000000001</v>
+      </c>
+      <c r="N3">
+        <v>0.94899999999999995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="14">
+        <f>K14*B3</f>
+        <v>0.5774449916446861</v>
+      </c>
+      <c r="C4" s="14">
+        <f>L14*C3</f>
+        <v>0.65577580625128651</v>
+      </c>
+      <c r="D4" s="14">
+        <f>M14*D3</f>
+        <v>0.58701283051040221</v>
+      </c>
+      <c r="E4" s="14">
+        <f>N14*E3</f>
+        <v>0.65668748818298228</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4">
+        <v>0.752</v>
+      </c>
+      <c r="L4">
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="M4">
+        <v>0.76800000000000002</v>
+      </c>
+      <c r="N4">
+        <v>0.95599999999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="14">
+        <f>B3*F5/F3</f>
+        <v>0.79791753926701559</v>
+      </c>
+      <c r="C5" s="14">
+        <f>C3*G5/G3</f>
+        <v>0.96750579557428873</v>
+      </c>
+      <c r="D5" s="14">
+        <f>D3*H5/H3</f>
+        <v>0.77506577181208047</v>
+      </c>
+      <c r="E5" s="14">
+        <f>E3*I5/I3</f>
+        <v>1.0692685367372352</v>
+      </c>
+      <c r="F5">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="G5">
+        <v>1.2769999999999999</v>
+      </c>
+      <c r="H5">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="I5">
+        <v>1.2350000000000001</v>
+      </c>
+      <c r="K5" s="15">
+        <f>K4/K3</f>
+        <v>1.0093959731543625</v>
+      </c>
+      <c r="L5" s="15">
+        <f>L4/L3</f>
+        <v>1.0199252801992527</v>
+      </c>
+      <c r="M5" s="15">
+        <f>M4/M3</f>
+        <v>1.0052356020942408</v>
+      </c>
+      <c r="N5" s="15">
+        <f>N4/N3</f>
+        <v>1.0073761854583771</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="14">
+        <f>B3*F6/F3</f>
+        <v>0.59544895287958111</v>
+      </c>
+      <c r="C6" s="14">
+        <f>C3*G6/G3</f>
+        <v>0.71445416227608005</v>
+      </c>
+      <c r="D6" s="14">
+        <f>D3*H6/H3</f>
+        <v>0.60075704697986576</v>
+      </c>
+      <c r="E6" s="14">
+        <f>E3*I6/I3</f>
+        <v>0.69091197758405964</v>
+      </c>
+      <c r="F6">
+        <v>0.747</v>
+      </c>
+      <c r="G6">
+        <v>0.94299999999999995</v>
+      </c>
+      <c r="H6">
+        <v>0.74099999999999999</v>
+      </c>
+      <c r="I6">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" s="15">
+        <f>K17*L6</f>
+        <v>1.0548425374310924</v>
+      </c>
+      <c r="L6" s="15">
+        <f>AVERAGE(K5:L5)</f>
+        <v>1.0146606266768075</v>
+      </c>
+      <c r="M6" s="15">
+        <f>M17*N6</f>
+        <v>1.0354218019723334</v>
+      </c>
+      <c r="N6" s="15">
+        <f>AVERAGE(M5:N5)</f>
+        <v>1.006305893776309</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="14">
+        <f>K6*B3</f>
+        <v>0.64239910529553523</v>
+      </c>
+      <c r="C7" s="14">
+        <f>L6*C3</f>
+        <v>0.72954099058062449</v>
+      </c>
+      <c r="D7" s="14">
+        <f>M6*D3</f>
+        <v>0.62539476839128938</v>
+      </c>
+      <c r="E7" s="14">
+        <f>N6*E3</f>
+        <v>0.6996251158949347</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" s="15">
+        <f>K17*L7</f>
+        <v>1.065788819043497</v>
+      </c>
+      <c r="L7" s="15">
+        <f>2*L5-L6</f>
+        <v>1.0251899337216979</v>
+      </c>
+      <c r="M7" s="15">
+        <f>M17*N7</f>
+        <v>1.037624319812956</v>
+      </c>
+      <c r="N7" s="15">
+        <f>2*N5-N6</f>
+        <v>1.0084464771404453</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="14">
+        <f>B4*K7</f>
+        <v>0.61543441570757196</v>
+      </c>
+      <c r="C8" s="14">
+        <f>C4*L7</f>
+        <v>0.67229475534704941</v>
+      </c>
+      <c r="D8" s="14">
+        <f>D4*M7</f>
+        <v>0.60909878897983416</v>
+      </c>
+      <c r="E8" s="14">
+        <f>E4*N7</f>
+        <v>0.66223418404033629</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="14">
+        <f>B3*K15</f>
+        <v>0.59586884463657985</v>
+      </c>
+      <c r="C9" s="14">
+        <f>C3*L15</f>
+        <v>0.67669886771139631</v>
+      </c>
+      <c r="D9" s="14">
+        <f>D3*M15</f>
+        <v>0.60052715895841802</v>
+      </c>
+      <c r="E9" s="14">
+        <f>E3*N15</f>
+        <v>0.67180588073207004</v>
+      </c>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="K9" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="M9" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="14">
+        <f>B4*K16</f>
+        <v>0.56032008718122617</v>
+      </c>
+      <c r="C10" s="14">
+        <f>C4*L16</f>
+        <v>0.61208838230868712</v>
+      </c>
+      <c r="D10" s="14">
+        <f>D4*M16</f>
+        <v>0.57907387261742616</v>
+      </c>
+      <c r="E10" s="14">
+        <f>E4*N16</f>
+        <v>0.6295900114563765</v>
+      </c>
+      <c r="K10" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="L10" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="N10" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="14">
+        <f>B15*B7</f>
+        <v>0.60730560512264287</v>
+      </c>
+      <c r="C11" s="14">
+        <f>C15*C7</f>
+        <v>0.66641477837435092</v>
+      </c>
+      <c r="D11" s="14">
+        <f>D15*D7</f>
+        <v>0.60475941539212585</v>
+      </c>
+      <c r="E11" s="14">
+        <f>E15*E7</f>
+        <v>0.65949122406340621</v>
+      </c>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="K11" s="10">
+        <v>0.76400000000000001</v>
+      </c>
+      <c r="L11" s="10">
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="M11" s="10">
+        <v>0.745</v>
+      </c>
+      <c r="N11" s="10">
+        <v>0.80300000000000005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="14">
+        <f>B16*B8</f>
+        <v>0.58543472790856343</v>
+      </c>
+      <c r="C12" s="14">
+        <f>C16*C8</f>
+        <v>0.61700511571929129</v>
+      </c>
+      <c r="D12" s="14">
+        <f>D16*D8</f>
+        <v>0.5931500113669016</v>
+      </c>
+      <c r="E12" s="14">
+        <f>E16*E8</f>
+        <v>0.62800604610638022</v>
+      </c>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="K12" s="10">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="L12" s="10">
+        <v>0.871</v>
+      </c>
+      <c r="M12" s="10">
+        <v>0.70299999999999996</v>
+      </c>
+      <c r="N12" s="10">
+        <v>0.78200000000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="14">
+        <f>B17*B9</f>
+        <v>0.57032854529784283</v>
+      </c>
+      <c r="C13" s="14">
+        <f t="shared" ref="C13:E13" si="1">C17*C9</f>
+        <v>0.62394905204811801</v>
+      </c>
+      <c r="D13" s="14">
+        <f t="shared" si="1"/>
+        <v>0.58889331487946606</v>
+      </c>
+      <c r="E13" s="14">
+        <f t="shared" si="1"/>
+        <v>0.64089820776930384</v>
+      </c>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="K13" s="15">
+        <f>K12/K11</f>
+        <v>0.94895287958115182</v>
+      </c>
+      <c r="L13" s="15">
+        <f t="shared" ref="L13:N13" si="2">L12/L11</f>
+        <v>0.9178082191780822</v>
+      </c>
+      <c r="M13" s="15">
+        <f t="shared" si="2"/>
+        <v>0.94362416107382541</v>
+      </c>
+      <c r="N13" s="15">
+        <f t="shared" si="2"/>
+        <v>0.9738480697384807</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="14">
+        <f>K21</f>
+        <v>0.53959999999999997</v>
+      </c>
+      <c r="C14" s="14">
+        <f t="shared" ref="C14:E14" si="3">L21</f>
+        <v>0.56699999999999995</v>
+      </c>
+      <c r="D14" s="14">
+        <f t="shared" si="3"/>
+        <v>0.57179999999999997</v>
+      </c>
+      <c r="E14" s="14">
+        <f t="shared" si="3"/>
+        <v>0.60419999999999996</v>
+      </c>
+      <c r="J14" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="K14" s="15">
+        <f>K17*L14</f>
+        <v>0.94818553636237457</v>
+      </c>
+      <c r="L14" s="15">
+        <f>AVERAGE(B37:C37)</f>
+        <v>0.91206648991834016</v>
+      </c>
+      <c r="M14" s="15">
+        <f>M17*N14</f>
+        <v>0.97187554720265268</v>
+      </c>
+      <c r="N14" s="15">
+        <f>AVERAGE(D37:E37)</f>
+        <v>0.94454655030842893</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B15" s="15">
+        <f>mar!K11+0.028</f>
+        <v>0.94537118765639061</v>
+      </c>
+      <c r="C15" s="15">
+        <f>mar!L11+0.016</f>
+        <v>0.91347132920381502</v>
+      </c>
+      <c r="D15" s="15">
+        <f>mar!M11+0.028</f>
+        <v>0.96700427627137964</v>
+      </c>
+      <c r="E15" s="15">
+        <f>mar!N11+0.024</f>
+        <v>0.94263514713849184</v>
+      </c>
+      <c r="J15" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" s="15">
+        <f>K17*L15</f>
+        <v>0.97843816853297194</v>
+      </c>
+      <c r="L15" s="15">
+        <f>AVERAGE(L16,K13)</f>
+        <v>0.94116671448038436</v>
+      </c>
+      <c r="M15" s="15">
+        <f>M17*N15</f>
+        <v>0.99425026317618881</v>
+      </c>
+      <c r="N15" s="15">
+        <f>AVERAGE(N16,N13)</f>
+        <v>0.96629209257231685</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B16" s="15">
+        <f>B15+B19</f>
+        <v>0.95125445208565795</v>
+      </c>
+      <c r="C16" s="15">
+        <f>C15+C19</f>
+        <v>0.91775982307162773</v>
+      </c>
+      <c r="D16" s="15">
+        <f>D15+D19</f>
+        <v>0.97381577848866718</v>
+      </c>
+      <c r="E16" s="15">
+        <f>E15+E19</f>
+        <v>0.94831414813846082</v>
+      </c>
+      <c r="J16" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="K16" s="15">
+        <f>K17*L16</f>
+        <v>0.97034366093524405</v>
+      </c>
+      <c r="L16" s="15">
+        <f>AVERAGE(K13:L13)</f>
+        <v>0.93338054937961701</v>
+      </c>
+      <c r="M16" s="15">
+        <f>M17*N16</f>
+        <v>0.98647566547042387</v>
+      </c>
+      <c r="N16" s="15">
+        <f>AVERAGE(M13:N13)</f>
+        <v>0.95873611540615311</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B17" s="15">
+        <f>B16+B19</f>
+        <v>0.9571377165149253</v>
+      </c>
+      <c r="C17" s="15">
+        <f>C16+C19</f>
+        <v>0.92204831693944045</v>
+      </c>
+      <c r="D17" s="15">
+        <f>D16+D19</f>
+        <v>0.98062728070595473</v>
+      </c>
+      <c r="E17" s="15">
+        <f>E16+E19</f>
+        <v>0.95399314913842981</v>
+      </c>
+      <c r="K17" s="15">
+        <f>POWER(K22/L22,1/3)</f>
+        <v>1.0396013304329033</v>
+      </c>
+      <c r="M17" s="15">
+        <f>POWER(M22/N22,1/3)</f>
+        <v>1.0289334568902928</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B18" s="15">
+        <f>B14/B10</f>
+        <v>0.96302098094419264</v>
+      </c>
+      <c r="C18" s="15">
+        <f>C14/C10</f>
+        <v>0.92633681080725316</v>
+      </c>
+      <c r="D18" s="15">
+        <f>D14/D10</f>
+        <v>0.98743878292324239</v>
+      </c>
+      <c r="E18" s="15">
+        <f>E14/E10</f>
+        <v>0.95967215013839879</v>
+      </c>
+      <c r="K18" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="M18" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B19" s="15">
+        <f>(B18-B15)/3</f>
+        <v>5.8832644292673431E-3</v>
+      </c>
+      <c r="C19" s="15">
+        <f>(C18-C15)/3</f>
+        <v>4.2884938678127149E-3</v>
+      </c>
+      <c r="D19" s="15">
+        <f>(D18-D15)/3</f>
+        <v>6.8115022172875834E-3</v>
+      </c>
+      <c r="E19" s="15">
+        <f>(E18-E15)/3</f>
+        <v>5.6790009999689861E-3</v>
+      </c>
+      <c r="K19" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="L19" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="M19" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="N19" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C20" s="15">
+        <f>C17+C19</f>
+        <v>0.92633681080725316</v>
+      </c>
+      <c r="E20" s="15">
+        <f>E17+E19</f>
+        <v>0.95967215013839879</v>
+      </c>
+      <c r="J20" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="K20" s="15">
+        <v>0.60899999999999999</v>
+      </c>
+      <c r="L20" s="15">
+        <v>0.71899999999999997</v>
+      </c>
+      <c r="M20" s="14">
+        <f>F26+0.006</f>
+        <v>0.60399999999999998</v>
+      </c>
+      <c r="N20" s="14">
+        <f>G26+0.008</f>
+        <v>0.69524099999999989</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="J21" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K21">
+        <v>0.53959999999999997</v>
+      </c>
+      <c r="L21">
+        <v>0.56699999999999995</v>
+      </c>
+      <c r="M21">
+        <v>0.57179999999999997</v>
+      </c>
+      <c r="N21">
+        <v>0.60419999999999996</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="K22" s="15">
+        <f>K21/K20</f>
+        <v>0.88604269293924465</v>
+      </c>
+      <c r="L22" s="15">
+        <f>L21/L20</f>
+        <v>0.78859527121001383</v>
+      </c>
+      <c r="M22" s="15">
+        <f>M21/M20</f>
+        <v>0.94668874172185424</v>
+      </c>
+      <c r="N22" s="15">
+        <f>N21/N20</f>
+        <v>0.86905116355335787</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A24" s="14"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A25" s="14"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="H25" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="I25" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="J25" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="K25" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="L25" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="M25" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="N25" s="14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A26" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="14">
+        <v>0.64200000000000002</v>
+      </c>
+      <c r="D26" s="14">
+        <f>POWER(E26,2)</f>
+        <v>0.78322500000000006</v>
+      </c>
+      <c r="E26" s="14">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="F26" s="14">
+        <v>0.59799999999999998</v>
+      </c>
+      <c r="G26" s="14">
+        <f>POWER(H26,2)</f>
+        <v>0.68724099999999988</v>
+      </c>
+      <c r="H26" s="14">
+        <v>0.82899999999999996</v>
+      </c>
+      <c r="I26" s="14">
+        <v>0.45100000000000001</v>
+      </c>
+      <c r="J26" s="14">
+        <f>POWER(K26,2)</f>
+        <v>0.47609999999999991</v>
+      </c>
+      <c r="K26" s="14">
+        <v>0.69</v>
+      </c>
+      <c r="L26" s="14">
+        <v>0.54400000000000004</v>
+      </c>
+      <c r="M26" s="14">
+        <f>POWER(N26,2)</f>
+        <v>0.69555599999999995</v>
+      </c>
+      <c r="N26" s="14">
+        <v>0.83399999999999996</v>
+      </c>
+      <c r="O26" s="14"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A27" s="14"/>
+      <c r="B27" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="C27" s="14">
+        <v>0.82599999999999996</v>
+      </c>
+      <c r="D27" s="14">
+        <f t="shared" ref="D27:D31" si="4">POWER(E27,2)</f>
+        <v>1.1427609999999999</v>
+      </c>
+      <c r="E27" s="14">
+        <v>1.069</v>
+      </c>
+      <c r="F27" s="14">
+        <v>0.71599999999999997</v>
+      </c>
+      <c r="G27" s="14">
+        <f t="shared" ref="G27:G31" si="5">POWER(H27,2)</f>
+        <v>0.91011599999999993</v>
+      </c>
+      <c r="H27" s="14">
+        <v>0.95399999999999996</v>
+      </c>
+      <c r="I27" s="14">
+        <v>0.53400000000000003</v>
+      </c>
+      <c r="J27" s="14">
+        <f t="shared" ref="J27:J31" si="6">POWER(K27,2)</f>
+        <v>0.6496360000000001</v>
+      </c>
+      <c r="K27" s="14">
+        <v>0.80600000000000005</v>
+      </c>
+      <c r="L27" s="14">
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="M27" s="14">
+        <f t="shared" ref="M27:M31" si="7">POWER(N27,2)</f>
+        <v>1.0281960000000001</v>
+      </c>
+      <c r="N27" s="14">
+        <v>1.014</v>
+      </c>
+      <c r="O27" s="14"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A28" s="14"/>
+      <c r="B28" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="C28" s="14">
+        <v>0.64500000000000002</v>
+      </c>
+      <c r="D28" s="14">
+        <f t="shared" si="4"/>
+        <v>0.78145600000000004</v>
+      </c>
+      <c r="E28" s="14">
+        <v>0.88400000000000001</v>
+      </c>
+      <c r="F28" s="14">
+        <v>0.59799999999999998</v>
+      </c>
+      <c r="G28" s="14">
+        <f t="shared" si="5"/>
+        <v>0.6839289999999999</v>
+      </c>
+      <c r="H28" s="14">
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="I28" s="14">
+        <v>0.45700000000000002</v>
+      </c>
+      <c r="J28" s="14">
+        <f t="shared" si="6"/>
+        <v>0.47886399999999996</v>
+      </c>
+      <c r="K28" s="14">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="L28" s="14">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="M28" s="14">
+        <f t="shared" si="7"/>
+        <v>0.700569</v>
+      </c>
+      <c r="N28" s="14">
+        <v>0.83699999999999997</v>
+      </c>
+      <c r="O28" s="14"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A29" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="14">
+        <v>0.63900000000000001</v>
+      </c>
+      <c r="D29" s="14">
+        <f t="shared" si="4"/>
+        <v>0.77968899999999997</v>
+      </c>
+      <c r="E29" s="14">
+        <v>0.88300000000000001</v>
+      </c>
+      <c r="F29" s="14">
+        <v>0.59499999999999997</v>
+      </c>
+      <c r="G29" s="14">
+        <f t="shared" si="5"/>
+        <v>0.68558399999999997</v>
+      </c>
+      <c r="H29" s="14">
+        <v>0.82799999999999996</v>
+      </c>
+      <c r="I29" s="14">
+        <v>0.45100000000000001</v>
+      </c>
+      <c r="J29" s="14">
+        <f t="shared" si="6"/>
+        <v>0.47609999999999991</v>
+      </c>
+      <c r="K29" s="14">
+        <v>0.69</v>
+      </c>
+      <c r="L29" s="14">
+        <v>0.53200000000000003</v>
+      </c>
+      <c r="M29" s="14">
+        <f t="shared" si="7"/>
+        <v>0.69222399999999995</v>
+      </c>
+      <c r="N29" s="14">
+        <v>0.83199999999999996</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A30" s="14"/>
+      <c r="B30" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="14">
+        <v>0.80600000000000005</v>
+      </c>
+      <c r="D30" s="14">
+        <f t="shared" si="4"/>
+        <v>1.1151360000000001</v>
+      </c>
+      <c r="E30" s="14">
+        <v>1.056</v>
+      </c>
+      <c r="F30" s="14">
+        <v>0.76800000000000002</v>
+      </c>
+      <c r="G30" s="14">
+        <f t="shared" si="5"/>
+        <v>1.0506249999999999</v>
+      </c>
+      <c r="H30" s="14">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="I30" s="14">
+        <v>0.55300000000000005</v>
+      </c>
+      <c r="J30" s="14">
+        <f t="shared" si="6"/>
+        <v>0.64000000000000012</v>
+      </c>
+      <c r="K30" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="L30" s="14">
+        <v>0.71299999999999997</v>
+      </c>
+      <c r="M30" s="14">
+        <f t="shared" si="7"/>
+        <v>0.93702399999999997</v>
+      </c>
+      <c r="N30" s="14">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="O30" s="14"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A31" s="14"/>
+      <c r="B31" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="C31" s="14">
+        <v>0.80100000000000005</v>
+      </c>
+      <c r="D31" s="14">
+        <f t="shared" si="4"/>
+        <v>1.0941160000000001</v>
+      </c>
+      <c r="E31" s="14">
+        <v>1.046</v>
+      </c>
+      <c r="F31" s="14">
+        <v>0.752</v>
+      </c>
+      <c r="G31" s="14">
+        <f t="shared" si="5"/>
+        <v>0.99400900000000003</v>
+      </c>
+      <c r="H31" s="14">
+        <v>0.997</v>
+      </c>
+      <c r="I31" s="14">
+        <v>0.54</v>
+      </c>
+      <c r="J31" s="14">
+        <f t="shared" si="6"/>
+        <v>0.62726400000000004</v>
+      </c>
+      <c r="K31" s="14">
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="L31" s="14">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="M31" s="14">
+        <f t="shared" si="7"/>
+        <v>0.92736899999999989</v>
+      </c>
+      <c r="N31" s="14">
+        <v>0.96299999999999997</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D32" s="14"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B33" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B34" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E34" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="B35" s="10">
+        <v>0.33850000000000002</v>
+      </c>
+      <c r="C35" s="10">
+        <v>0.34370000000000001</v>
+      </c>
+      <c r="D35" s="15">
+        <v>0.4793</v>
+      </c>
+      <c r="E35" s="10">
+        <v>0.47349999999999998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" s="10">
+        <v>0.3095</v>
+      </c>
+      <c r="C36" s="10">
+        <v>0.31269999999999998</v>
+      </c>
+      <c r="D36" s="10">
+        <v>0.45569999999999999</v>
+      </c>
+      <c r="E36" s="10">
+        <v>0.44429999999999997</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B37" s="15">
+        <f>B36/B35</f>
+        <v>0.91432791728212692</v>
+      </c>
+      <c r="C37" s="15">
+        <f t="shared" ref="C37:E37" si="8">C36/C35</f>
+        <v>0.90980506255455329</v>
+      </c>
+      <c r="D37" s="15">
+        <f t="shared" si="8"/>
+        <v>0.9507615272272063</v>
+      </c>
+      <c r="E37" s="15">
+        <f t="shared" si="8"/>
+        <v>0.93833157338965156</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="K17:L17"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/UbsRec/final.xlsx
+++ b/UbsRec/final.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="2" r:id="rId1"/>
@@ -555,7 +555,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -589,13 +589,16 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -911,7 +914,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N89"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView topLeftCell="A27" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="D65" sqref="C65:D65"/>
     </sheetView>
   </sheetViews>
@@ -919,7 +922,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1">
-        <f>C1/D1</f>
+        <f t="shared" ref="A1:A32" si="0">C1/D1</f>
         <v>1.1118575747396708</v>
       </c>
       <c r="B1">
@@ -939,7 +942,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2">
-        <f>C2/D2</f>
+        <f t="shared" si="0"/>
         <v>1.0905610121524887</v>
       </c>
       <c r="B2">
@@ -959,7 +962,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3">
-        <f>C3/D3</f>
+        <f t="shared" si="0"/>
         <v>1.0861700058354407</v>
       </c>
       <c r="B3">
@@ -978,7 +981,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4">
-        <f>C4/D4</f>
+        <f t="shared" si="0"/>
         <v>1.0806234365980372</v>
       </c>
       <c r="B4">
@@ -997,7 +1000,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5">
-        <f>C5/D5</f>
+        <f t="shared" si="0"/>
         <v>1.0736500667811486</v>
       </c>
       <c r="B5">
@@ -1016,7 +1019,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6">
-        <f>C6/D6</f>
+        <f t="shared" si="0"/>
         <v>1.0631538163502519</v>
       </c>
       <c r="B6">
@@ -1036,7 +1039,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7">
-        <f>C7/D7</f>
+        <f t="shared" si="0"/>
         <v>1.0565693430656933</v>
       </c>
       <c r="B7" s="8">
@@ -1056,7 +1059,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8">
-        <f>C8/D8</f>
+        <f t="shared" si="0"/>
         <v>1.0559682155812748</v>
       </c>
       <c r="B8">
@@ -1076,7 +1079,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9">
-        <f>C9/D9</f>
+        <f t="shared" si="0"/>
         <v>1.0472501936483345</v>
       </c>
       <c r="B9">
@@ -1095,7 +1098,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10">
-        <f>C10/D10</f>
+        <f t="shared" si="0"/>
         <v>1.0471734148204737</v>
       </c>
       <c r="B10">
@@ -1114,7 +1117,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11">
-        <f>C11/D11</f>
+        <f t="shared" si="0"/>
         <v>1.0469202548754586</v>
       </c>
       <c r="B11">
@@ -1133,7 +1136,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12">
-        <f>C12/D12</f>
+        <f t="shared" si="0"/>
         <v>1.0459040865833178</v>
       </c>
       <c r="B12">
@@ -1152,7 +1155,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13">
-        <f>C13/D13</f>
+        <f t="shared" si="0"/>
         <v>1.0412577244638312</v>
       </c>
       <c r="B13">
@@ -1171,7 +1174,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14">
-        <f>C14/D14</f>
+        <f t="shared" si="0"/>
         <v>1.0409379204305209</v>
       </c>
       <c r="B14" s="8">
@@ -1190,7 +1193,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15">
-        <f>C15/D15</f>
+        <f t="shared" si="0"/>
         <v>1.0390309555854642</v>
       </c>
       <c r="B15">
@@ -1208,7 +1211,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16">
-        <f>C16/D16</f>
+        <f t="shared" si="0"/>
         <v>1.0372717107715244</v>
       </c>
       <c r="B16">
@@ -1226,7 +1229,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
-        <f>C17/D17</f>
+        <f t="shared" si="0"/>
         <v>1.0368788819875776</v>
       </c>
       <c r="B17">
@@ -1244,7 +1247,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
-        <f>C18/D18</f>
+        <f t="shared" si="0"/>
         <v>1.0363566041384646</v>
       </c>
       <c r="B18">
@@ -1262,7 +1265,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
-        <f>C19/D19</f>
+        <f t="shared" si="0"/>
         <v>1.034606656580938</v>
       </c>
       <c r="B19">
@@ -1280,7 +1283,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
-        <f>C20/D20</f>
+        <f t="shared" si="0"/>
         <v>1.0345622119815667</v>
       </c>
       <c r="B20">
@@ -1298,7 +1301,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
-        <f>C21/D21</f>
+        <f t="shared" si="0"/>
         <v>1.0342637151106835</v>
       </c>
       <c r="B21">
@@ -1316,7 +1319,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
-        <f>C22/D22</f>
+        <f t="shared" si="0"/>
         <v>1.031798673429575</v>
       </c>
       <c r="B22">
@@ -1334,7 +1337,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
-        <f>C23/D23</f>
+        <f t="shared" si="0"/>
         <v>1.0316591752980262</v>
       </c>
       <c r="B23">
@@ -1352,7 +1355,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
-        <f>C24/D24</f>
+        <f t="shared" si="0"/>
         <v>1.0308761096101891</v>
       </c>
       <c r="B24">
@@ -1370,7 +1373,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
-        <f>C25/D25</f>
+        <f t="shared" si="0"/>
         <v>1.029428303655108</v>
       </c>
       <c r="B25">
@@ -1388,7 +1391,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
-        <f>C26/D26</f>
+        <f t="shared" si="0"/>
         <v>1.0274159051137468</v>
       </c>
       <c r="B26">
@@ -1406,7 +1409,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
-        <f>C27/D27</f>
+        <f t="shared" si="0"/>
         <v>1.0224036453389027</v>
       </c>
       <c r="B27">
@@ -1424,7 +1427,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
-        <f>C28/D28</f>
+        <f t="shared" si="0"/>
         <v>1.0216754540128881</v>
       </c>
       <c r="B28">
@@ -1442,7 +1445,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
-        <f>C29/D29</f>
+        <f t="shared" si="0"/>
         <v>1.0214224507283634</v>
       </c>
       <c r="B29">
@@ -1460,7 +1463,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
-        <f>C30/D30</f>
+        <f t="shared" si="0"/>
         <v>1.0201683963187782</v>
       </c>
       <c r="B30">
@@ -1478,7 +1481,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
-        <f>C31/D31</f>
+        <f t="shared" si="0"/>
         <v>1.0177737881508078</v>
       </c>
       <c r="B31">
@@ -1496,7 +1499,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
-        <f>C32/D32</f>
+        <f t="shared" si="0"/>
         <v>1.0171875000000001</v>
       </c>
       <c r="B32" s="8">
@@ -1514,7 +1517,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33">
-        <f>C33/D33</f>
+        <f t="shared" ref="A33:A64" si="1">C33/D33</f>
         <v>1.0164679159568428</v>
       </c>
       <c r="B33">
@@ -1532,7 +1535,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34">
-        <f>C34/D34</f>
+        <f t="shared" si="1"/>
         <v>1.0149712092130518</v>
       </c>
       <c r="B34">
@@ -1550,7 +1553,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35">
-        <f>C35/D35</f>
+        <f t="shared" si="1"/>
         <v>1.0146898803046789</v>
       </c>
       <c r="B35">
@@ -1568,7 +1571,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36">
-        <f>C36/D36</f>
+        <f t="shared" si="1"/>
         <v>1.0122878876535986</v>
       </c>
       <c r="B36">
@@ -1586,7 +1589,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37">
-        <f>C37/D37</f>
+        <f t="shared" si="1"/>
         <v>1.0099331423113658</v>
       </c>
       <c r="B37">
@@ -1604,7 +1607,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38">
-        <f>C38/D38</f>
+        <f t="shared" si="1"/>
         <v>1.0094322833244351</v>
       </c>
       <c r="B38">
@@ -1622,7 +1625,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39">
-        <f>C39/D39</f>
+        <f t="shared" si="1"/>
         <v>1.0015111446921043</v>
       </c>
       <c r="B39">
@@ -1640,7 +1643,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40">
-        <f>C40/D40</f>
+        <f t="shared" si="1"/>
         <v>0.99241540256709448</v>
       </c>
       <c r="B40">
@@ -1658,7 +1661,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41">
-        <f>C41/D41</f>
+        <f t="shared" si="1"/>
         <v>0.992051182628926</v>
       </c>
       <c r="B41">
@@ -1676,7 +1679,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42">
-        <f>C42/D42</f>
+        <f t="shared" si="1"/>
         <v>0.99040944300995948</v>
       </c>
       <c r="B42">
@@ -1694,7 +1697,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43">
-        <f>C43/D43</f>
+        <f t="shared" si="1"/>
         <v>0.98703835227272707</v>
       </c>
       <c r="B43">
@@ -1712,7 +1715,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44">
-        <f>C44/D44</f>
+        <f t="shared" si="1"/>
         <v>0.98638132295719838</v>
       </c>
       <c r="B44">
@@ -1730,7 +1733,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45">
-        <f>C45/D45</f>
+        <f t="shared" si="1"/>
         <v>0.98528579513299375</v>
       </c>
       <c r="B45">
@@ -1748,7 +1751,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46">
-        <f>C46/D46</f>
+        <f t="shared" si="1"/>
         <v>0.98506685188400778</v>
       </c>
       <c r="B46" s="8">
@@ -1766,7 +1769,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47">
-        <f>C47/D47</f>
+        <f t="shared" si="1"/>
         <v>0.98474264705882342</v>
       </c>
       <c r="B47">
@@ -1784,7 +1787,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48">
-        <f>C48/D48</f>
+        <f t="shared" si="1"/>
         <v>0.98460953828614861</v>
       </c>
       <c r="B48">
@@ -1802,7 +1805,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49">
-        <f>C49/D49</f>
+        <f t="shared" si="1"/>
         <v>0.98286814244465848</v>
       </c>
       <c r="B49" s="8">
@@ -1820,7 +1823,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50">
-        <f>C50/D50</f>
+        <f t="shared" si="1"/>
         <v>0.97391137540763484</v>
       </c>
       <c r="B50">
@@ -1838,7 +1841,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51">
-        <f>C51/D51</f>
+        <f t="shared" si="1"/>
         <v>0.97025602409638545</v>
       </c>
       <c r="B51">
@@ -1856,7 +1859,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52">
-        <f>C52/D52</f>
+        <f t="shared" si="1"/>
         <v>0.96878383255142553</v>
       </c>
       <c r="B52">
@@ -1874,7 +1877,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53">
-        <f>C53/D53</f>
+        <f t="shared" si="1"/>
         <v>0.96859813084112145</v>
       </c>
       <c r="B53" s="8">
@@ -1892,7 +1895,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54">
-        <f>C54/D54</f>
+        <f t="shared" si="1"/>
         <v>0.96554969879518071</v>
       </c>
       <c r="B54">
@@ -1910,7 +1913,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55">
-        <f>C55/D55</f>
+        <f t="shared" si="1"/>
         <v>0.96470588235294108</v>
       </c>
       <c r="B55">
@@ -1928,7 +1931,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56">
-        <f>C56/D56</f>
+        <f t="shared" si="1"/>
         <v>0.96363293762954594</v>
       </c>
       <c r="B56">
@@ -1946,7 +1949,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57">
-        <f>C57/D57</f>
+        <f t="shared" si="1"/>
         <v>0.96216730038022813</v>
       </c>
       <c r="B57">
@@ -1964,7 +1967,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58">
-        <f>C58/D58</f>
+        <f t="shared" si="1"/>
         <v>0.95915251002099622</v>
       </c>
       <c r="B58">
@@ -1982,7 +1985,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59">
-        <f>C59/D59</f>
+        <f t="shared" si="1"/>
         <v>0.95855614973262038</v>
       </c>
       <c r="B59">
@@ -2000,7 +2003,7 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60">
-        <f>C60/D60</f>
+        <f t="shared" si="1"/>
         <v>0.95563506261180675</v>
       </c>
       <c r="B60">
@@ -2018,7 +2021,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61">
-        <f>C61/D61</f>
+        <f t="shared" si="1"/>
         <v>0.95304611242006065</v>
       </c>
       <c r="B61">
@@ -2036,7 +2039,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62">
-        <f>C62/D62</f>
+        <f t="shared" si="1"/>
         <v>0.95167548500881838</v>
       </c>
       <c r="B62">
@@ -2054,7 +2057,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63">
-        <f>C63/D63</f>
+        <f t="shared" si="1"/>
         <v>0.950974930362117</v>
       </c>
       <c r="B63">
@@ -2072,7 +2075,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64">
-        <f>C64/D64</f>
+        <f t="shared" si="1"/>
         <v>0.9474059547156356</v>
       </c>
       <c r="B64">
@@ -2090,7 +2093,7 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65">
-        <f>C65/D65</f>
+        <f t="shared" ref="A65:A88" si="2">C65/D65</f>
         <v>0.94637537239324732</v>
       </c>
       <c r="B65">
@@ -2108,7 +2111,7 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66">
-        <f>C66/D66</f>
+        <f t="shared" si="2"/>
         <v>0.9457671957671957</v>
       </c>
       <c r="B66">
@@ -2126,7 +2129,7 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67">
-        <f>C67/D67</f>
+        <f t="shared" si="2"/>
         <v>0.94062259800153736</v>
       </c>
       <c r="B67">
@@ -2144,7 +2147,7 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68">
-        <f>C68/D68</f>
+        <f t="shared" si="2"/>
         <v>0.94030112044817926</v>
       </c>
       <c r="B68">
@@ -2162,7 +2165,7 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69">
-        <f>C69/D69</f>
+        <f t="shared" si="2"/>
         <v>0.94020380696019989</v>
       </c>
       <c r="B69">
@@ -2180,7 +2183,7 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70">
-        <f>C70/D70</f>
+        <f t="shared" si="2"/>
         <v>0.94002607561929596</v>
       </c>
       <c r="B70" s="8">
@@ -2198,7 +2201,7 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71">
-        <f>C71/D71</f>
+        <f t="shared" si="2"/>
         <v>0.9355588772629132</v>
       </c>
       <c r="B71">
@@ -2216,7 +2219,7 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72">
-        <f>C72/D72</f>
+        <f t="shared" si="2"/>
         <v>0.93528982865475763</v>
       </c>
       <c r="B72">
@@ -2234,7 +2237,7 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73">
-        <f>C73/D73</f>
+        <f t="shared" si="2"/>
         <v>0.93409586056644878</v>
       </c>
       <c r="B73">
@@ -2252,7 +2255,7 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74">
-        <f>C74/D74</f>
+        <f t="shared" si="2"/>
         <v>0.93035285423979319</v>
       </c>
       <c r="B74">
@@ -2270,7 +2273,7 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75">
-        <f>C75/D75</f>
+        <f t="shared" si="2"/>
         <v>0.92886870979947034</v>
       </c>
       <c r="B75">
@@ -2288,7 +2291,7 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76">
-        <f>C76/D76</f>
+        <f t="shared" si="2"/>
         <v>0.92591199699135007</v>
       </c>
       <c r="B76">
@@ -2306,7 +2309,7 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77">
-        <f>C77/D77</f>
+        <f t="shared" si="2"/>
         <v>0.92385180126344546</v>
       </c>
       <c r="B77">
@@ -2324,7 +2327,7 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78">
-        <f>C78/D78</f>
+        <f t="shared" si="2"/>
         <v>0.9231700986329815</v>
       </c>
       <c r="B78">
@@ -2342,7 +2345,7 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79">
-        <f>C79/D79</f>
+        <f t="shared" si="2"/>
         <v>0.922883787661406</v>
       </c>
       <c r="B79">
@@ -2360,7 +2363,7 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80">
-        <f>C80/D80</f>
+        <f t="shared" si="2"/>
         <v>0.91964451027587479</v>
       </c>
       <c r="B80">
@@ -2378,7 +2381,7 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81">
-        <f>C81/D81</f>
+        <f t="shared" si="2"/>
         <v>0.91916605705925403</v>
       </c>
       <c r="B81">
@@ -2396,7 +2399,7 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82">
-        <f>C82/D82</f>
+        <f t="shared" si="2"/>
         <v>0.91584618242615645</v>
       </c>
       <c r="B82">
@@ -2414,7 +2417,7 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83">
-        <f>C83/D83</f>
+        <f t="shared" si="2"/>
         <v>0.91460755813953476</v>
       </c>
       <c r="B83">
@@ -2432,7 +2435,7 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84">
-        <f>C84/D84</f>
+        <f t="shared" si="2"/>
         <v>0.91429620113782328</v>
       </c>
       <c r="B84">
@@ -2450,7 +2453,7 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85">
-        <f>C85/D85</f>
+        <f t="shared" si="2"/>
         <v>0.91343922898447261</v>
       </c>
       <c r="B85">
@@ -2468,7 +2471,7 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86">
-        <f>C86/D86</f>
+        <f t="shared" si="2"/>
         <v>0.90751341681574227</v>
       </c>
       <c r="B86">
@@ -2486,7 +2489,7 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87">
-        <f>C87/D87</f>
+        <f t="shared" si="2"/>
         <v>0.9038363171355499</v>
       </c>
       <c r="B87">
@@ -2504,7 +2507,7 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88">
-        <f>C88/D88</f>
+        <f t="shared" si="2"/>
         <v>0.89776247848537005</v>
       </c>
       <c r="B88">
@@ -2537,7 +2540,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="E8" sqref="A2:E8"/>
     </sheetView>
   </sheetViews>
@@ -2545,22 +2548,22 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12" t="s">
+      <c r="C1" s="15"/>
+      <c r="D1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="12"/>
-      <c r="F1" s="13" t="s">
+      <c r="E1" s="15"/>
+      <c r="F1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13" t="s">
+      <c r="G1" s="16"/>
+      <c r="H1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="13"/>
+      <c r="I1" s="16"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
@@ -3129,7 +3132,7 @@
   <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D1" sqref="D1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3156,14 +3159,14 @@
         <v>8</v>
       </c>
       <c r="J1" s="12"/>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12" t="s">
+      <c r="L1" s="15"/>
+      <c r="M1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="12"/>
+      <c r="N1" s="15"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
@@ -4208,13 +4211,9 @@
       <c r="N23" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
+  <mergeCells count="2">
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="M1:N1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -4225,32 +4224,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="C9" sqref="C8:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="15"/>
+    <col min="1" max="16384" width="10.83203125" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="K1" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="M1" s="14" t="s">
         <v>40</v>
       </c>
     </row>
@@ -4296,19 +4295,19 @@
       <c r="A3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B3" s="13">
         <f>K20</f>
         <v>0.60899999999999999</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="13">
         <f t="shared" ref="C3:E3" si="0">L20</f>
         <v>0.71899999999999997</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="13">
         <f t="shared" si="0"/>
         <v>0.60399999999999998</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="13">
         <f t="shared" si="0"/>
         <v>0.69524099999999989</v>
       </c>
@@ -4324,7 +4323,7 @@
       <c r="I3">
         <v>0.80300000000000005</v>
       </c>
-      <c r="J3" s="15" t="s">
+      <c r="J3" s="14" t="s">
         <v>0</v>
       </c>
       <c r="K3">
@@ -4344,23 +4343,23 @@
       <c r="A4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="13">
         <f>K14*B3</f>
         <v>0.5774449916446861</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="13">
         <f>L14*C3</f>
         <v>0.65577580625128651</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="13">
         <f>M14*D3</f>
         <v>0.58701283051040221</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="13">
         <f>N14*E3</f>
         <v>0.65668748818298228</v>
       </c>
-      <c r="J4" s="15" t="s">
+      <c r="J4" s="14" t="s">
         <v>6</v>
       </c>
       <c r="K4">
@@ -4380,19 +4379,19 @@
       <c r="A5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="13">
         <f>B3*F5/F3</f>
         <v>0.79791753926701559</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="13">
         <f>C3*G5/G3</f>
         <v>0.96750579557428873</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="13">
         <f>D3*H5/H3</f>
         <v>0.77506577181208047</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="13">
         <f>E3*I5/I3</f>
         <v>1.0692685367372352</v>
       </c>
@@ -4408,19 +4407,19 @@
       <c r="I5">
         <v>1.2350000000000001</v>
       </c>
-      <c r="K5" s="15">
+      <c r="K5" s="14">
         <f>K4/K3</f>
         <v>1.0093959731543625</v>
       </c>
-      <c r="L5" s="15">
+      <c r="L5" s="14">
         <f>L4/L3</f>
         <v>1.0199252801992527</v>
       </c>
-      <c r="M5" s="15">
+      <c r="M5" s="14">
         <f>M4/M3</f>
         <v>1.0052356020942408</v>
       </c>
-      <c r="N5" s="15">
+      <c r="N5" s="14">
         <f>N4/N3</f>
         <v>1.0073761854583771</v>
       </c>
@@ -4429,19 +4428,19 @@
       <c r="A6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="13">
         <f>B3*F6/F3</f>
         <v>0.59544895287958111</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="13">
         <f>C3*G6/G3</f>
         <v>0.71445416227608005</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="13">
         <f>D3*H6/H3</f>
         <v>0.60075704697986576</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="13">
         <f>E3*I6/I3</f>
         <v>0.69091197758405964</v>
       </c>
@@ -4457,22 +4456,22 @@
       <c r="I6">
         <v>0.79800000000000004</v>
       </c>
-      <c r="J6" s="15" t="s">
+      <c r="J6" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="K6" s="15">
+      <c r="K6" s="14">
         <f>K17*L6</f>
         <v>1.0548425374310924</v>
       </c>
-      <c r="L6" s="15">
+      <c r="L6" s="14">
         <f>AVERAGE(K5:L5)</f>
         <v>1.0146606266768075</v>
       </c>
-      <c r="M6" s="15">
+      <c r="M6" s="14">
         <f>M17*N6</f>
         <v>1.0354218019723334</v>
       </c>
-      <c r="N6" s="15">
+      <c r="N6" s="14">
         <f>AVERAGE(M5:N5)</f>
         <v>1.006305893776309</v>
       </c>
@@ -4481,19 +4480,19 @@
       <c r="A7" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="13">
         <f>K6*B3</f>
         <v>0.64239910529553523</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="13">
         <f>L6*C3</f>
         <v>0.72954099058062449</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="13">
         <f>M6*D3</f>
         <v>0.62539476839128938</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="13">
         <f>N6*E3</f>
         <v>0.6996251158949347</v>
       </c>
@@ -4501,22 +4500,22 @@
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
-      <c r="J7" s="15" t="s">
+      <c r="J7" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="K7" s="15">
+      <c r="K7" s="14">
         <f>K17*L7</f>
         <v>1.065788819043497</v>
       </c>
-      <c r="L7" s="15">
+      <c r="L7" s="14">
         <f>2*L5-L6</f>
         <v>1.0251899337216979</v>
       </c>
-      <c r="M7" s="15">
+      <c r="M7" s="14">
         <f>M17*N7</f>
         <v>1.037624319812956</v>
       </c>
-      <c r="N7" s="15">
+      <c r="N7" s="14">
         <f>2*N5-N6</f>
         <v>1.0084464771404453</v>
       </c>
@@ -4525,19 +4524,19 @@
       <c r="A8" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="13">
         <f>B4*K7</f>
         <v>0.61543441570757196</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="13">
         <f>C4*L7</f>
         <v>0.67229475534704941</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="13">
         <f>D4*M7</f>
         <v>0.60909878897983416</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="13">
         <f>E4*N7</f>
         <v>0.66223418404033629</v>
       </c>
@@ -4550,30 +4549,30 @@
       <c r="A9" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="14">
-        <f>B3*K15</f>
+      <c r="B9" s="13">
+        <f t="shared" ref="B9:E10" si="1">B3*K15</f>
         <v>0.59586884463657985</v>
       </c>
-      <c r="C9" s="14">
-        <f>C3*L15</f>
+      <c r="C9" s="13">
+        <f t="shared" si="1"/>
         <v>0.67669886771139631</v>
       </c>
-      <c r="D9" s="14">
-        <f>D3*M15</f>
+      <c r="D9" s="13">
+        <f t="shared" si="1"/>
         <v>0.60052715895841802</v>
       </c>
-      <c r="E9" s="14">
-        <f>E3*N15</f>
+      <c r="E9" s="13">
+        <f t="shared" si="1"/>
         <v>0.67180588073207004</v>
       </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="K9" s="15" t="s">
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="K9" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="M9" s="15" t="s">
+      <c r="M9" s="14" t="s">
         <v>40</v>
       </c>
     </row>
@@ -4581,32 +4580,32 @@
       <c r="A10" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="14">
-        <f>B4*K16</f>
+      <c r="B10" s="13">
+        <f t="shared" si="1"/>
         <v>0.56032008718122617</v>
       </c>
-      <c r="C10" s="14">
-        <f>C4*L16</f>
+      <c r="C10" s="13">
+        <f t="shared" si="1"/>
         <v>0.61208838230868712</v>
       </c>
-      <c r="D10" s="14">
-        <f>D4*M16</f>
+      <c r="D10" s="13">
+        <f t="shared" si="1"/>
         <v>0.57907387261742616</v>
       </c>
-      <c r="E10" s="14">
-        <f>E4*N16</f>
+      <c r="E10" s="13">
+        <f t="shared" si="1"/>
         <v>0.6295900114563765</v>
       </c>
-      <c r="K10" s="15" t="s">
+      <c r="K10" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="L10" s="15" t="s">
+      <c r="L10" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="M10" s="15" t="s">
+      <c r="M10" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="N10" s="15" t="s">
+      <c r="N10" s="14" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4614,27 +4613,27 @@
       <c r="A11" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="14">
-        <f>B15*B7</f>
+      <c r="B11" s="13">
+        <f t="shared" ref="B11:E12" si="2">B15*B7</f>
         <v>0.60730560512264287</v>
       </c>
-      <c r="C11" s="14">
-        <f>C15*C7</f>
+      <c r="C11" s="13">
+        <f t="shared" si="2"/>
         <v>0.66641477837435092</v>
       </c>
-      <c r="D11" s="14">
-        <f>D15*D7</f>
+      <c r="D11" s="13">
+        <f t="shared" si="2"/>
         <v>0.60475941539212585</v>
       </c>
-      <c r="E11" s="14">
-        <f>E15*E7</f>
+      <c r="E11" s="13">
+        <f t="shared" si="2"/>
         <v>0.65949122406340621</v>
       </c>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="15" t="s">
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="14" t="s">
         <v>0</v>
       </c>
       <c r="K11" s="10">
@@ -4654,27 +4653,27 @@
       <c r="A12" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="14">
-        <f>B16*B8</f>
+      <c r="B12" s="13">
+        <f t="shared" si="2"/>
         <v>0.58543472790856343</v>
       </c>
-      <c r="C12" s="14">
-        <f>C16*C8</f>
+      <c r="C12" s="13">
+        <f t="shared" si="2"/>
         <v>0.61700511571929129</v>
       </c>
-      <c r="D12" s="14">
-        <f>D16*D8</f>
+      <c r="D12" s="13">
+        <f t="shared" si="2"/>
         <v>0.5931500113669016</v>
       </c>
-      <c r="E12" s="14">
-        <f>E16*E8</f>
+      <c r="E12" s="13">
+        <f t="shared" si="2"/>
         <v>0.62800604610638022</v>
       </c>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="15" t="s">
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="14" t="s">
         <v>7</v>
       </c>
       <c r="K12" s="10">
@@ -4694,40 +4693,40 @@
       <c r="A13" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="14">
+      <c r="B13" s="13">
         <f>B17*B9</f>
         <v>0.57032854529784283</v>
       </c>
-      <c r="C13" s="14">
-        <f t="shared" ref="C13:E13" si="1">C17*C9</f>
+      <c r="C13" s="13">
+        <f t="shared" ref="C13:E13" si="3">C17*C9</f>
         <v>0.62394905204811801</v>
       </c>
-      <c r="D13" s="14">
-        <f t="shared" si="1"/>
+      <c r="D13" s="13">
+        <f t="shared" si="3"/>
         <v>0.58889331487946606</v>
       </c>
-      <c r="E13" s="14">
-        <f t="shared" si="1"/>
+      <c r="E13" s="13">
+        <f t="shared" si="3"/>
         <v>0.64089820776930384</v>
       </c>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="K13" s="15">
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="K13" s="14">
         <f>K12/K11</f>
         <v>0.94895287958115182</v>
       </c>
-      <c r="L13" s="15">
-        <f t="shared" ref="L13:N13" si="2">L12/L11</f>
+      <c r="L13" s="14">
+        <f t="shared" ref="L13:N13" si="4">L12/L11</f>
         <v>0.9178082191780822</v>
       </c>
-      <c r="M13" s="15">
-        <f t="shared" si="2"/>
+      <c r="M13" s="14">
+        <f t="shared" si="4"/>
         <v>0.94362416107382541</v>
       </c>
-      <c r="N13" s="15">
-        <f t="shared" si="2"/>
+      <c r="N13" s="14">
+        <f t="shared" si="4"/>
         <v>0.9738480697384807</v>
       </c>
     </row>
@@ -4735,225 +4734,225 @@
       <c r="A14" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="14">
+      <c r="B14" s="13">
         <f>K21</f>
         <v>0.53959999999999997</v>
       </c>
-      <c r="C14" s="14">
-        <f t="shared" ref="C14:E14" si="3">L21</f>
+      <c r="C14" s="13">
+        <f t="shared" ref="C14:E14" si="5">L21</f>
         <v>0.56699999999999995</v>
       </c>
-      <c r="D14" s="14">
-        <f t="shared" si="3"/>
+      <c r="D14" s="13">
+        <f t="shared" si="5"/>
         <v>0.57179999999999997</v>
       </c>
-      <c r="E14" s="14">
-        <f t="shared" si="3"/>
+      <c r="E14" s="13">
+        <f t="shared" si="5"/>
         <v>0.60419999999999996</v>
       </c>
-      <c r="J14" s="15" t="s">
+      <c r="J14" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="K14" s="15">
+      <c r="K14" s="14">
         <f>K17*L14</f>
         <v>0.94818553636237457</v>
       </c>
-      <c r="L14" s="15">
+      <c r="L14" s="14">
         <f>AVERAGE(B37:C37)</f>
         <v>0.91206648991834016</v>
       </c>
-      <c r="M14" s="15">
+      <c r="M14" s="14">
         <f>M17*N14</f>
         <v>0.97187554720265268</v>
       </c>
-      <c r="N14" s="15">
+      <c r="N14" s="14">
         <f>AVERAGE(D37:E37)</f>
         <v>0.94454655030842893</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B15" s="15">
+      <c r="B15" s="14">
         <f>mar!K11+0.028</f>
         <v>0.94537118765639061</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C15" s="14">
         <f>mar!L11+0.016</f>
         <v>0.91347132920381502</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D15" s="14">
         <f>mar!M11+0.028</f>
         <v>0.96700427627137964</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E15" s="14">
         <f>mar!N11+0.024</f>
         <v>0.94263514713849184</v>
       </c>
-      <c r="J15" s="15" t="s">
+      <c r="J15" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="K15" s="15">
+      <c r="K15" s="14">
         <f>K17*L15</f>
         <v>0.97843816853297194</v>
       </c>
-      <c r="L15" s="15">
+      <c r="L15" s="14">
         <f>AVERAGE(L16,K13)</f>
         <v>0.94116671448038436</v>
       </c>
-      <c r="M15" s="15">
+      <c r="M15" s="14">
         <f>M17*N15</f>
         <v>0.99425026317618881</v>
       </c>
-      <c r="N15" s="15">
+      <c r="N15" s="14">
         <f>AVERAGE(N16,N13)</f>
         <v>0.96629209257231685</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B16" s="15">
+      <c r="B16" s="14">
         <f>B15+B19</f>
         <v>0.95125445208565795</v>
       </c>
-      <c r="C16" s="15">
+      <c r="C16" s="14">
         <f>C15+C19</f>
         <v>0.91775982307162773</v>
       </c>
-      <c r="D16" s="15">
+      <c r="D16" s="14">
         <f>D15+D19</f>
         <v>0.97381577848866718</v>
       </c>
-      <c r="E16" s="15">
+      <c r="E16" s="14">
         <f>E15+E19</f>
         <v>0.94831414813846082</v>
       </c>
-      <c r="J16" s="15" t="s">
+      <c r="J16" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="K16" s="15">
+      <c r="K16" s="14">
         <f>K17*L16</f>
         <v>0.97034366093524405</v>
       </c>
-      <c r="L16" s="15">
+      <c r="L16" s="14">
         <f>AVERAGE(K13:L13)</f>
         <v>0.93338054937961701</v>
       </c>
-      <c r="M16" s="15">
+      <c r="M16" s="14">
         <f>M17*N16</f>
         <v>0.98647566547042387</v>
       </c>
-      <c r="N16" s="15">
+      <c r="N16" s="14">
         <f>AVERAGE(M13:N13)</f>
         <v>0.95873611540615311</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B17" s="15">
+      <c r="B17" s="14">
         <f>B16+B19</f>
         <v>0.9571377165149253</v>
       </c>
-      <c r="C17" s="15">
+      <c r="C17" s="14">
         <f>C16+C19</f>
         <v>0.92204831693944045</v>
       </c>
-      <c r="D17" s="15">
+      <c r="D17" s="14">
         <f>D16+D19</f>
         <v>0.98062728070595473</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E17" s="14">
         <f>E16+E19</f>
         <v>0.95399314913842981</v>
       </c>
-      <c r="K17" s="15">
+      <c r="K17" s="14">
         <f>POWER(K22/L22,1/3)</f>
         <v>1.0396013304329033</v>
       </c>
-      <c r="M17" s="15">
+      <c r="M17" s="14">
         <f>POWER(M22/N22,1/3)</f>
         <v>1.0289334568902928</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B18" s="15">
+      <c r="B18" s="14">
         <f>B14/B10</f>
         <v>0.96302098094419264</v>
       </c>
-      <c r="C18" s="15">
+      <c r="C18" s="14">
         <f>C14/C10</f>
         <v>0.92633681080725316</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D18" s="14">
         <f>D14/D10</f>
         <v>0.98743878292324239</v>
       </c>
-      <c r="E18" s="15">
+      <c r="E18" s="14">
         <f>E14/E10</f>
         <v>0.95967215013839879</v>
       </c>
-      <c r="K18" s="15" t="s">
+      <c r="K18" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="M18" s="15" t="s">
+      <c r="M18" s="14" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B19" s="15">
+      <c r="B19" s="14">
         <f>(B18-B15)/3</f>
         <v>5.8832644292673431E-3</v>
       </c>
-      <c r="C19" s="15">
+      <c r="C19" s="14">
         <f>(C18-C15)/3</f>
         <v>4.2884938678127149E-3</v>
       </c>
-      <c r="D19" s="15">
+      <c r="D19" s="14">
         <f>(D18-D15)/3</f>
         <v>6.8115022172875834E-3</v>
       </c>
-      <c r="E19" s="15">
+      <c r="E19" s="14">
         <f>(E18-E15)/3</f>
         <v>5.6790009999689861E-3</v>
       </c>
-      <c r="K19" s="15" t="s">
+      <c r="K19" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="L19" s="15" t="s">
+      <c r="L19" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="M19" s="15" t="s">
+      <c r="M19" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="N19" s="15" t="s">
+      <c r="N19" s="14" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C20" s="15">
+      <c r="C20" s="14">
         <f>C17+C19</f>
         <v>0.92633681080725316</v>
       </c>
-      <c r="E20" s="15">
+      <c r="E20" s="14">
         <f>E17+E19</f>
         <v>0.95967215013839879</v>
       </c>
-      <c r="J20" s="15" t="s">
+      <c r="J20" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="K20" s="15">
+      <c r="K20" s="14">
         <v>0.60899999999999999</v>
       </c>
-      <c r="L20" s="15">
+      <c r="L20" s="14">
         <v>0.71899999999999997</v>
       </c>
-      <c r="M20" s="14">
+      <c r="M20" s="13">
         <f>F26+0.006</f>
         <v>0.60399999999999998</v>
       </c>
-      <c r="N20" s="14">
+      <c r="N20" s="13">
         <f>G26+0.008</f>
         <v>0.69524099999999989</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="J21" s="15" t="s">
+      <c r="J21" s="14" t="s">
         <v>18</v>
       </c>
       <c r="K21">
@@ -4970,398 +4969,398 @@
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="K22" s="15">
+      <c r="K22" s="14">
         <f>K21/K20</f>
         <v>0.88604269293924465</v>
       </c>
-      <c r="L22" s="15">
+      <c r="L22" s="14">
         <f>L21/L20</f>
         <v>0.78859527121001383</v>
       </c>
-      <c r="M22" s="15">
+      <c r="M22" s="14">
         <f>M21/M20</f>
         <v>0.94668874172185424</v>
       </c>
-      <c r="N22" s="15">
+      <c r="N22" s="14">
         <f>N21/N20</f>
         <v>0.86905116355335787</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A24" s="14"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14" t="s">
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14" t="s">
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14" t="s">
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="14" t="s">
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="M24" s="14"/>
-      <c r="N24" s="14"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A25" s="14"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14" t="s">
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E25" s="14" t="s">
+      <c r="E25" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="F25" s="14" t="s">
+      <c r="F25" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="G25" s="14" t="s">
+      <c r="G25" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="H25" s="14" t="s">
+      <c r="H25" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="I25" s="14" t="s">
+      <c r="I25" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="J25" s="14" t="s">
+      <c r="J25" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="K25" s="14" t="s">
+      <c r="K25" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="L25" s="14" t="s">
+      <c r="L25" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="M25" s="14" t="s">
+      <c r="M25" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="N25" s="14" t="s">
+      <c r="N25" s="13" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C26" s="14">
+      <c r="C26" s="13">
         <v>0.64200000000000002</v>
       </c>
-      <c r="D26" s="14">
+      <c r="D26" s="13">
         <f>POWER(E26,2)</f>
         <v>0.78322500000000006</v>
       </c>
-      <c r="E26" s="14">
+      <c r="E26" s="13">
         <v>0.88500000000000001</v>
       </c>
-      <c r="F26" s="14">
+      <c r="F26" s="13">
         <v>0.59799999999999998</v>
       </c>
-      <c r="G26" s="14">
+      <c r="G26" s="13">
         <f>POWER(H26,2)</f>
         <v>0.68724099999999988</v>
       </c>
-      <c r="H26" s="14">
+      <c r="H26" s="13">
         <v>0.82899999999999996</v>
       </c>
-      <c r="I26" s="14">
+      <c r="I26" s="13">
         <v>0.45100000000000001</v>
       </c>
-      <c r="J26" s="14">
+      <c r="J26" s="13">
         <f>POWER(K26,2)</f>
         <v>0.47609999999999991</v>
       </c>
-      <c r="K26" s="14">
+      <c r="K26" s="13">
         <v>0.69</v>
       </c>
-      <c r="L26" s="14">
+      <c r="L26" s="13">
         <v>0.54400000000000004</v>
       </c>
-      <c r="M26" s="14">
+      <c r="M26" s="13">
         <f>POWER(N26,2)</f>
         <v>0.69555599999999995</v>
       </c>
-      <c r="N26" s="14">
+      <c r="N26" s="13">
         <v>0.83399999999999996</v>
       </c>
-      <c r="O26" s="14"/>
+      <c r="O26" s="13"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A27" s="14"/>
-      <c r="B27" s="14" t="s">
+      <c r="A27" s="13"/>
+      <c r="B27" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="C27" s="14">
+      <c r="C27" s="13">
         <v>0.82599999999999996</v>
       </c>
-      <c r="D27" s="14">
-        <f t="shared" ref="D27:D31" si="4">POWER(E27,2)</f>
+      <c r="D27" s="13">
+        <f t="shared" ref="D27:D31" si="6">POWER(E27,2)</f>
         <v>1.1427609999999999</v>
       </c>
-      <c r="E27" s="14">
+      <c r="E27" s="13">
         <v>1.069</v>
       </c>
-      <c r="F27" s="14">
+      <c r="F27" s="13">
         <v>0.71599999999999997</v>
       </c>
-      <c r="G27" s="14">
-        <f t="shared" ref="G27:G31" si="5">POWER(H27,2)</f>
+      <c r="G27" s="13">
+        <f t="shared" ref="G27:G31" si="7">POWER(H27,2)</f>
         <v>0.91011599999999993</v>
       </c>
-      <c r="H27" s="14">
+      <c r="H27" s="13">
         <v>0.95399999999999996</v>
       </c>
-      <c r="I27" s="14">
+      <c r="I27" s="13">
         <v>0.53400000000000003</v>
       </c>
-      <c r="J27" s="14">
-        <f t="shared" ref="J27:J31" si="6">POWER(K27,2)</f>
+      <c r="J27" s="13">
+        <f t="shared" ref="J27:J31" si="8">POWER(K27,2)</f>
         <v>0.6496360000000001</v>
       </c>
-      <c r="K27" s="14">
+      <c r="K27" s="13">
         <v>0.80600000000000005</v>
       </c>
-      <c r="L27" s="14">
+      <c r="L27" s="13">
         <v>0.77600000000000002</v>
       </c>
-      <c r="M27" s="14">
-        <f t="shared" ref="M27:M31" si="7">POWER(N27,2)</f>
+      <c r="M27" s="13">
+        <f t="shared" ref="M27:M31" si="9">POWER(N27,2)</f>
         <v>1.0281960000000001</v>
       </c>
-      <c r="N27" s="14">
+      <c r="N27" s="13">
         <v>1.014</v>
       </c>
-      <c r="O27" s="14"/>
+      <c r="O27" s="13"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A28" s="14"/>
-      <c r="B28" s="14" t="s">
+      <c r="A28" s="13"/>
+      <c r="B28" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="C28" s="14">
+      <c r="C28" s="13">
         <v>0.64500000000000002</v>
       </c>
-      <c r="D28" s="14">
-        <f t="shared" si="4"/>
+      <c r="D28" s="13">
+        <f t="shared" si="6"/>
         <v>0.78145600000000004</v>
       </c>
-      <c r="E28" s="14">
+      <c r="E28" s="13">
         <v>0.88400000000000001</v>
       </c>
-      <c r="F28" s="14">
+      <c r="F28" s="13">
         <v>0.59799999999999998</v>
       </c>
-      <c r="G28" s="14">
-        <f t="shared" si="5"/>
+      <c r="G28" s="13">
+        <f t="shared" si="7"/>
         <v>0.6839289999999999</v>
       </c>
-      <c r="H28" s="14">
+      <c r="H28" s="13">
         <v>0.82699999999999996</v>
       </c>
-      <c r="I28" s="14">
+      <c r="I28" s="13">
         <v>0.45700000000000002</v>
       </c>
-      <c r="J28" s="14">
+      <c r="J28" s="13">
+        <f t="shared" si="8"/>
+        <v>0.47886399999999996</v>
+      </c>
+      <c r="K28" s="13">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="L28" s="13">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="M28" s="13">
+        <f t="shared" si="9"/>
+        <v>0.700569</v>
+      </c>
+      <c r="N28" s="13">
+        <v>0.83699999999999997</v>
+      </c>
+      <c r="O28" s="13"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A29" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="13">
+        <v>0.63900000000000001</v>
+      </c>
+      <c r="D29" s="13">
         <f t="shared" si="6"/>
-        <v>0.47886399999999996</v>
-      </c>
-      <c r="K28" s="14">
-        <v>0.69199999999999995</v>
-      </c>
-      <c r="L28" s="14">
-        <v>0.54800000000000004</v>
-      </c>
-      <c r="M28" s="14">
+        <v>0.77968899999999997</v>
+      </c>
+      <c r="E29" s="13">
+        <v>0.88300000000000001</v>
+      </c>
+      <c r="F29" s="13">
+        <v>0.59499999999999997</v>
+      </c>
+      <c r="G29" s="13">
         <f t="shared" si="7"/>
-        <v>0.700569</v>
-      </c>
-      <c r="N28" s="14">
-        <v>0.83699999999999997</v>
-      </c>
-      <c r="O28" s="14"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A29" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C29" s="14">
-        <v>0.63900000000000001</v>
-      </c>
-      <c r="D29" s="14">
-        <f t="shared" si="4"/>
-        <v>0.77968899999999997</v>
-      </c>
-      <c r="E29" s="14">
-        <v>0.88300000000000001</v>
-      </c>
-      <c r="F29" s="14">
-        <v>0.59499999999999997</v>
-      </c>
-      <c r="G29" s="14">
-        <f t="shared" si="5"/>
         <v>0.68558399999999997</v>
       </c>
-      <c r="H29" s="14">
+      <c r="H29" s="13">
         <v>0.82799999999999996</v>
       </c>
-      <c r="I29" s="14">
+      <c r="I29" s="13">
         <v>0.45100000000000001</v>
       </c>
-      <c r="J29" s="14">
+      <c r="J29" s="13">
+        <f t="shared" si="8"/>
+        <v>0.47609999999999991</v>
+      </c>
+      <c r="K29" s="13">
+        <v>0.69</v>
+      </c>
+      <c r="L29" s="13">
+        <v>0.53200000000000003</v>
+      </c>
+      <c r="M29" s="13">
+        <f t="shared" si="9"/>
+        <v>0.69222399999999995</v>
+      </c>
+      <c r="N29" s="13">
+        <v>0.83199999999999996</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A30" s="13"/>
+      <c r="B30" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="13">
+        <v>0.80600000000000005</v>
+      </c>
+      <c r="D30" s="13">
         <f t="shared" si="6"/>
-        <v>0.47609999999999991</v>
-      </c>
-      <c r="K29" s="14">
-        <v>0.69</v>
-      </c>
-      <c r="L29" s="14">
-        <v>0.53200000000000003</v>
-      </c>
-      <c r="M29" s="14">
+        <v>1.1151360000000001</v>
+      </c>
+      <c r="E30" s="13">
+        <v>1.056</v>
+      </c>
+      <c r="F30" s="13">
+        <v>0.76800000000000002</v>
+      </c>
+      <c r="G30" s="13">
         <f t="shared" si="7"/>
-        <v>0.69222399999999995</v>
-      </c>
-      <c r="N29" s="14">
-        <v>0.83199999999999996</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A30" s="14"/>
-      <c r="B30" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C30" s="14">
-        <v>0.80600000000000005</v>
-      </c>
-      <c r="D30" s="14">
-        <f t="shared" si="4"/>
-        <v>1.1151360000000001</v>
-      </c>
-      <c r="E30" s="14">
-        <v>1.056</v>
-      </c>
-      <c r="F30" s="14">
-        <v>0.76800000000000002</v>
-      </c>
-      <c r="G30" s="14">
-        <f t="shared" si="5"/>
         <v>1.0506249999999999</v>
       </c>
-      <c r="H30" s="14">
+      <c r="H30" s="13">
         <v>1.0249999999999999</v>
       </c>
-      <c r="I30" s="14">
+      <c r="I30" s="13">
         <v>0.55300000000000005</v>
       </c>
-      <c r="J30" s="14">
+      <c r="J30" s="13">
+        <f t="shared" si="8"/>
+        <v>0.64000000000000012</v>
+      </c>
+      <c r="K30" s="13">
+        <v>0.8</v>
+      </c>
+      <c r="L30" s="13">
+        <v>0.71299999999999997</v>
+      </c>
+      <c r="M30" s="13">
+        <f t="shared" si="9"/>
+        <v>0.93702399999999997</v>
+      </c>
+      <c r="N30" s="13">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="O30" s="13"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A31" s="13"/>
+      <c r="B31" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="C31" s="13">
+        <v>0.80100000000000005</v>
+      </c>
+      <c r="D31" s="13">
         <f t="shared" si="6"/>
-        <v>0.64000000000000012</v>
-      </c>
-      <c r="K30" s="14">
-        <v>0.8</v>
-      </c>
-      <c r="L30" s="14">
-        <v>0.71299999999999997</v>
-      </c>
-      <c r="M30" s="14">
+        <v>1.0941160000000001</v>
+      </c>
+      <c r="E31" s="13">
+        <v>1.046</v>
+      </c>
+      <c r="F31" s="13">
+        <v>0.752</v>
+      </c>
+      <c r="G31" s="13">
         <f t="shared" si="7"/>
-        <v>0.93702399999999997</v>
-      </c>
-      <c r="N30" s="14">
-        <v>0.96799999999999997</v>
-      </c>
-      <c r="O30" s="14"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A31" s="14"/>
-      <c r="B31" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="C31" s="14">
-        <v>0.80100000000000005</v>
-      </c>
-      <c r="D31" s="14">
-        <f t="shared" si="4"/>
-        <v>1.0941160000000001</v>
-      </c>
-      <c r="E31" s="14">
-        <v>1.046</v>
-      </c>
-      <c r="F31" s="14">
-        <v>0.752</v>
-      </c>
-      <c r="G31" s="14">
-        <f t="shared" si="5"/>
         <v>0.99400900000000003</v>
       </c>
-      <c r="H31" s="14">
+      <c r="H31" s="13">
         <v>0.997</v>
       </c>
-      <c r="I31" s="14">
+      <c r="I31" s="13">
         <v>0.54</v>
       </c>
-      <c r="J31" s="14">
-        <f t="shared" si="6"/>
+      <c r="J31" s="13">
+        <f t="shared" si="8"/>
         <v>0.62726400000000004</v>
       </c>
-      <c r="K31" s="14">
+      <c r="K31" s="13">
         <v>0.79200000000000004</v>
       </c>
-      <c r="L31" s="14">
+      <c r="L31" s="13">
         <v>0.70699999999999996</v>
       </c>
-      <c r="M31" s="14">
-        <f t="shared" si="7"/>
+      <c r="M31" s="13">
+        <f t="shared" si="9"/>
         <v>0.92736899999999989</v>
       </c>
-      <c r="N31" s="14">
+      <c r="N31" s="13">
         <v>0.96299999999999997</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="D32" s="14"/>
+      <c r="D32" s="13"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B33" s="15" t="s">
+      <c r="B33" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D33" s="15" t="s">
+      <c r="D33" s="14" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B34" s="15" t="s">
+      <c r="B34" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C34" s="15" t="s">
+      <c r="C34" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D34" s="15" t="s">
+      <c r="D34" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E34" s="15" t="s">
+      <c r="E34" s="14" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="14" t="s">
         <v>140</v>
       </c>
       <c r="B35" s="10">
@@ -5370,7 +5369,7 @@
       <c r="C35" s="10">
         <v>0.34370000000000001</v>
       </c>
-      <c r="D35" s="15">
+      <c r="D35" s="14">
         <v>0.4793</v>
       </c>
       <c r="E35" s="10">
@@ -5378,7 +5377,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="15" t="s">
+      <c r="A36" s="14" t="s">
         <v>1</v>
       </c>
       <c r="B36" s="10">
@@ -5395,20 +5394,20 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B37" s="15">
+      <c r="B37" s="14">
         <f>B36/B35</f>
         <v>0.91432791728212692</v>
       </c>
-      <c r="C37" s="15">
-        <f t="shared" ref="C37:E37" si="8">C36/C35</f>
+      <c r="C37" s="14">
+        <f t="shared" ref="C37:E37" si="10">C36/C35</f>
         <v>0.90980506255455329</v>
       </c>
-      <c r="D37" s="15">
-        <f t="shared" si="8"/>
+      <c r="D37" s="14">
+        <f t="shared" si="10"/>
         <v>0.9507615272272063</v>
       </c>
-      <c r="E37" s="15">
-        <f t="shared" si="8"/>
+      <c r="E37" s="14">
+        <f t="shared" si="10"/>
         <v>0.93833157338965156</v>
       </c>
     </row>

--- a/UbsRec/final.xlsx
+++ b/UbsRec/final.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="52">
   <si>
     <t>MF</t>
   </si>
@@ -153,273 +153,6 @@
   </si>
   <si>
     <t>Movie</t>
-  </si>
-  <si>
-    <t>hidden_factor=512 dropout_keep=[0.8 0.8] layers=[256] lr=0.1000</t>
-  </si>
-  <si>
-    <t>hidden_factor=512 dropout_keep=[0.8 0.6] layers=[256] lr=0.1000</t>
-  </si>
-  <si>
-    <t>hidden_factor=512 dropout_keep=[0.6 0.8] layers=[256] lr=0.1000</t>
-  </si>
-  <si>
-    <t>hidden_factor=512 dropout_keep=[0.6 0.6] layers=[256] lr=0.1000</t>
-  </si>
-  <si>
-    <t>hidden_factor=512 dropout_keep=[0.8 0.8] layers=[128] lr=0.1000</t>
-  </si>
-  <si>
-    <t>hidden_factor=512 dropout_keep=[0.8 0.6] layers=[128] lr=0.1000</t>
-  </si>
-  <si>
-    <t>hidden_factor=512 dropout_keep=[0.6 0.8] layers=[128] lr=0.1000</t>
-  </si>
-  <si>
-    <t>hidden_factor=512 dropout_keep=[0.6 0.6] layers=[128] lr=0.1000</t>
-  </si>
-  <si>
-    <t>hidden_factor=512 dropout_keep=[0.8 0.8] layers=[64] lr=0.1000</t>
-  </si>
-  <si>
-    <t>hidden_factor=512 dropout_keep=[0.8 0.6] layers=[64] lr=0.1000</t>
-  </si>
-  <si>
-    <t>hidden_factor=512 dropout_keep=[0.6 0.8] layers=[64] lr=0.1000</t>
-  </si>
-  <si>
-    <t>hidden_factor=512 dropout_keep=[0.6 0.6] layers=[64] lr=0.1000</t>
-  </si>
-  <si>
-    <t>hidden_factor=512 dropout_keep=[0.8 0.8] layers=[32] lr=0.1000</t>
-  </si>
-  <si>
-    <t>hidden_factor=512 dropout_keep=[0.8 0.6] layers=[32] lr=0.1000</t>
-  </si>
-  <si>
-    <t>hidden_factor=512 dropout_keep=[0.6 0.8] layers=[32] lr=0.1000</t>
-  </si>
-  <si>
-    <t>hidden_factor=512 dropout_keep=[0.6 0.6] layers=[32] lr=0.1000</t>
-  </si>
-  <si>
-    <t>hidden_factor=256 dropout_keep=[0.8 0.8] layers=[256] lr=0.1000</t>
-  </si>
-  <si>
-    <t>hidden_factor=256 dropout_keep=[0.8 0.6] layers=[256] lr=0.1000</t>
-  </si>
-  <si>
-    <t>hidden_factor=256 dropout_keep=[0.6 0.8] layers=[256] lr=0.1000</t>
-  </si>
-  <si>
-    <t>hidden_factor=256 dropout_keep=[0.6 0.6] layers=[256] lr=0.1000</t>
-  </si>
-  <si>
-    <t>hidden_factor=256 dropout_keep=[0.8 0.8] layers=[128] lr=0.1000</t>
-  </si>
-  <si>
-    <t>hidden_factor=256 dropout_keep=[0.8 0.6] layers=[128] lr=0.1000</t>
-  </si>
-  <si>
-    <t>hidden_factor=256 dropout_keep=[0.6 0.8] layers=[128] lr=0.1000</t>
-  </si>
-  <si>
-    <t>hidden_factor=256 dropout_keep=[0.6 0.6] layers=[128] lr=0.1000</t>
-  </si>
-  <si>
-    <t>hidden_factor=256 dropout_keep=[0.8 0.8] layers=[64] lr=0.1000</t>
-  </si>
-  <si>
-    <t>hidden_factor=256 dropout_keep=[0.8 0.6] layers=[64] lr=0.1000</t>
-  </si>
-  <si>
-    <t>hidden_factor=256 dropout_keep=[0.6 0.8] layers=[64] lr=0.1000</t>
-  </si>
-  <si>
-    <t>hidden_factor=256 dropout_keep=[0.6 0.6] layers=[64] lr=0.1000</t>
-  </si>
-  <si>
-    <t>hidden_factor=256 dropout_keep=[0.8 0.8] layers=[32] lr=0.1000</t>
-  </si>
-  <si>
-    <t>hidden_factor=256 dropout_keep=[0.8 0.6] layers=[32] lr=0.1000</t>
-  </si>
-  <si>
-    <t>hidden_factor=256 dropout_keep=[0.6 0.8] layers=[32] lr=0.1000</t>
-  </si>
-  <si>
-    <t>hidden_factor=256 dropout_keep=[0.6 0.6] layers=[32] lr=0.1000</t>
-  </si>
-  <si>
-    <t>hidden_factor=128 dropout_keep=[0.8 0.8] layers=[256] lr=0.1000</t>
-  </si>
-  <si>
-    <t>hidden_factor=128 dropout_keep=[0.8 0.6] layers=[256] lr=0.1000</t>
-  </si>
-  <si>
-    <t>hidden_factor=128 dropout_keep=[0.6 0.8] layers=[256] lr=0.1000</t>
-  </si>
-  <si>
-    <t>hidden_factor=128 dropout_keep=[0.6 0.6] layers=[256] lr=0.1000</t>
-  </si>
-  <si>
-    <t>hidden_factor=128 dropout_keep=[0.8 0.8] layers=[128] lr=0.1000</t>
-  </si>
-  <si>
-    <t>hidden_factor=128 dropout_keep=[0.8 0.6] layers=[128] lr=0.1000</t>
-  </si>
-  <si>
-    <t>hidden_factor=128 dropout_keep=[0.6 0.8] layers=[128] lr=0.1000</t>
-  </si>
-  <si>
-    <t>hidden_factor=128 dropout_keep=[0.6 0.6] layers=[128] lr=0.1000</t>
-  </si>
-  <si>
-    <t>hidden_factor=128 dropout_keep=[0.8 0.8] layers=[64] lr=0.1000</t>
-  </si>
-  <si>
-    <t>hidden_factor=128 dropout_keep=[0.8 0.6] layers=[64] lr=0.1000</t>
-  </si>
-  <si>
-    <t>hidden_factor=128 dropout_keep=[0.6 0.8] layers=[64] lr=0.1000</t>
-  </si>
-  <si>
-    <t>hidden_factor=128 dropout_keep=[0.6 0.6] layers=[64] lr=0.1000</t>
-  </si>
-  <si>
-    <t>hidden_factor=128 dropout_keep=[0.8 0.8] layers=[32] lr=0.1000</t>
-  </si>
-  <si>
-    <t>hidden_factor=128 dropout_keep=[0.8 0.6] layers=[32] lr=0.1000</t>
-  </si>
-  <si>
-    <t>hidden_factor=128 dropout_keep=[0.6 0.8] layers=[32] lr=0.1000</t>
-  </si>
-  <si>
-    <t>hidden_factor=128 dropout_keep=[0.6 0.6] layers=[32] lr=0.1000</t>
-  </si>
-  <si>
-    <t>hidden_factor=64 dropout_keep=[0.8 0.8] layers=[256] lr=0.1000</t>
-  </si>
-  <si>
-    <t>hidden_factor=64 dropout_keep=[0.8 0.6] layers=[256] lr=0.1000</t>
-  </si>
-  <si>
-    <t>hidden_factor=64 dropout_keep=[0.6 0.8] layers=[256] lr=0.1000</t>
-  </si>
-  <si>
-    <t>hidden_factor=64 dropout_keep=[0.6 0.6] layers=[256] lr=0.1000</t>
-  </si>
-  <si>
-    <t>hidden_factor=64 dropout_keep=[0.8 0.8] layers=[128] lr=0.1000</t>
-  </si>
-  <si>
-    <t>hidden_factor=64 dropout_keep=[0.8 0.6] layers=[128] lr=0.1000</t>
-  </si>
-  <si>
-    <t>hidden_factor=64 dropout_keep=[0.6 0.8] layers=[128] lr=0.1000</t>
-  </si>
-  <si>
-    <t>hidden_factor=64 dropout_keep=[0.6 0.6] layers=[128] lr=0.1000</t>
-  </si>
-  <si>
-    <t>hidden_factor=64 dropout_keep=[0.8 0.8] layers=[64] lr=0.1000</t>
-  </si>
-  <si>
-    <t>hidden_factor=64 dropout_keep=[0.8 0.6] layers=[64] lr=0.1000</t>
-  </si>
-  <si>
-    <t>hidden_factor=64 dropout_keep=[0.6 0.8] layers=[64] lr=0.1000</t>
-  </si>
-  <si>
-    <t>hidden_factor=64 dropout_keep=[0.6 0.6] layers=[64] lr=0.1000</t>
-  </si>
-  <si>
-    <t>hidden_factor=64 dropout_keep=[0.8 0.8] layers=[32] lr=0.1000</t>
-  </si>
-  <si>
-    <t>hidden_factor=64 dropout_keep=[0.8 0.6] layers=[32] lr=0.1000</t>
-  </si>
-  <si>
-    <t>hidden_factor=64 dropout_keep=[0.6 0.8] layers=[32] lr=0.1000</t>
-  </si>
-  <si>
-    <t>hidden_factor=64 dropout_keep=[0.6 0.6] layers=[32] lr=0.1000</t>
-  </si>
-  <si>
-    <t>hidden_factor=512 dropout_keep=[0.8 0.8] layers=[256] lr=0.0500</t>
-  </si>
-  <si>
-    <t>hidden_factor=512 dropout_keep=[0.8 0.6] layers=[256] lr=0.0500</t>
-  </si>
-  <si>
-    <t>hidden_factor=512 dropout_keep=[0.6 0.8] layers=[256] lr=0.0500</t>
-  </si>
-  <si>
-    <t>hidden_factor=512 dropout_keep=[0.6 0.6] layers=[256] lr=0.0500</t>
-  </si>
-  <si>
-    <t>hidden_factor=512 dropout_keep=[0.8 0.8] layers=[128] lr=0.0500</t>
-  </si>
-  <si>
-    <t>hidden_factor=512 dropout_keep=[0.8 0.6] layers=[128] lr=0.0500</t>
-  </si>
-  <si>
-    <t>hidden_factor=512 dropout_keep=[0.6 0.8] layers=[128] lr=0.0500</t>
-  </si>
-  <si>
-    <t>hidden_factor=512 dropout_keep=[0.6 0.6] layers=[128] lr=0.0500</t>
-  </si>
-  <si>
-    <t>hidden_factor=512 dropout_keep=[0.8 0.8] layers=[64] lr=0.0500</t>
-  </si>
-  <si>
-    <t>hidden_factor=512 dropout_keep=[0.8 0.6] layers=[64] lr=0.0500</t>
-  </si>
-  <si>
-    <t>hidden_factor=512 dropout_keep=[0.6 0.8] layers=[64] lr=0.0500</t>
-  </si>
-  <si>
-    <t>hidden_factor=512 dropout_keep=[0.6 0.6] layers=[64] lr=0.0500</t>
-  </si>
-  <si>
-    <t>hidden_factor=512 dropout_keep=[0.8 0.8] layers=[32] lr=0.0500</t>
-  </si>
-  <si>
-    <t>hidden_factor=512 dropout_keep=[0.8 0.6] layers=[32] lr=0.0500</t>
-  </si>
-  <si>
-    <t>hidden_factor=512 dropout_keep=[0.6 0.8] layers=[32] lr=0.0500</t>
-  </si>
-  <si>
-    <t>hidden_factor=512 dropout_keep=[0.6 0.6] layers=[32] lr=0.0500</t>
-  </si>
-  <si>
-    <t>hidden_factor=256 dropout_keep=[0.8 0.8] layers=[256] lr=0.0500</t>
-  </si>
-  <si>
-    <t>hidden_factor=256 dropout_keep=[0.8 0.6] layers=[256] lr=0.0500</t>
-  </si>
-  <si>
-    <t>hidden_factor=256 dropout_keep=[0.6 0.8] layers=[256] lr=0.0500</t>
-  </si>
-  <si>
-    <t>hidden_factor=256 dropout_keep=[0.6 0.6] layers=[256] lr=0.0500</t>
-  </si>
-  <si>
-    <t>hidden_factor=256 dropout_keep=[0.8 0.8] layers=[128] lr=0.0500</t>
-  </si>
-  <si>
-    <t>hidden_factor=256 dropout_keep=[0.8 0.6] layers=[128] lr=0.0500</t>
-  </si>
-  <si>
-    <t>hidden_factor=256 dropout_keep=[0.6 0.8] layers=[128] lr=0.0500</t>
-  </si>
-  <si>
-    <t>hidden_factor=256 dropout_keep=[0.6 0.6] layers=[128] lr=0.0500</t>
-  </si>
-  <si>
-    <t>#trial=88</t>
   </si>
   <si>
     <t>ML100K</t>
@@ -912,1626 +645,361 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N89"/>
+  <dimension ref="A1:M71"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D65" sqref="C65:D65"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1">
-        <f t="shared" ref="A1:A32" si="0">C1/D1</f>
-        <v>1.1118575747396708</v>
-      </c>
-      <c r="B1">
-        <v>197</v>
-      </c>
-      <c r="C1">
-        <v>0.66200000000000003</v>
-      </c>
-      <c r="D1">
-        <v>0.59540000000000004</v>
-      </c>
-      <c r="E1" t="s">
-        <v>91</v>
-      </c>
-      <c r="K1" s="2"/>
-      <c r="N1" s="2"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0.78656199999999998</v>
+      </c>
+      <c r="C3">
+        <v>1.0555920000000001</v>
+      </c>
+      <c r="D3">
+        <v>0.78569900000000004</v>
+      </c>
+      <c r="E3">
+        <v>1.047323</v>
+      </c>
+      <c r="F3">
+        <v>0.770312</v>
+      </c>
+      <c r="G3">
+        <v>1.017754</v>
+      </c>
+      <c r="H3">
+        <v>0.770621</v>
+      </c>
+      <c r="I3">
+        <v>1.017547</v>
+      </c>
+      <c r="J3" s="4"/>
+      <c r="M3" s="3"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1E-3</v>
+      </c>
+      <c r="B4">
+        <v>0.78490899999999997</v>
+      </c>
+      <c r="C4">
+        <v>1.055096</v>
+      </c>
+      <c r="D4">
+        <v>0.78350299999999995</v>
+      </c>
+      <c r="E4">
+        <v>1.0489489999999999</v>
+      </c>
+      <c r="F4">
+        <v>0.77176900000000004</v>
+      </c>
+      <c r="G4">
+        <v>1.016138</v>
+      </c>
+      <c r="H4">
+        <v>0.77139199999999997</v>
+      </c>
+      <c r="I4">
+        <v>1.015754</v>
+      </c>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>0.01</v>
+      </c>
+      <c r="B5">
+        <v>0.78628799999999999</v>
+      </c>
+      <c r="C5">
+        <v>1.0543400000000001</v>
+      </c>
+      <c r="D5">
+        <v>0.78360300000000005</v>
+      </c>
+      <c r="E5">
+        <v>1.0479560000000001</v>
+      </c>
+      <c r="F5">
+        <v>0.76841400000000004</v>
+      </c>
+      <c r="G5">
+        <v>1.0143869999999999</v>
+      </c>
+      <c r="H5">
+        <v>0.77102099999999996</v>
+      </c>
+      <c r="I5">
+        <v>1.0167189999999999</v>
+      </c>
+      <c r="M5" s="3"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>0.1</v>
+      </c>
+      <c r="B6">
+        <v>0.786582</v>
+      </c>
+      <c r="C6">
+        <v>1.0545279999999999</v>
+      </c>
+      <c r="D6">
+        <v>0.78161999999999998</v>
+      </c>
+      <c r="E6">
+        <v>1.049445</v>
+      </c>
+      <c r="F6">
+        <v>0.77138799999999996</v>
+      </c>
+      <c r="G6">
+        <v>1.016475</v>
+      </c>
+      <c r="H6">
+        <v>0.769876</v>
+      </c>
+      <c r="I6">
+        <v>1.0181579999999999</v>
+      </c>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>0.78413600000000006</v>
+      </c>
+      <c r="C7">
+        <v>1.05403</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0.78218900000000002</v>
+      </c>
+      <c r="E7">
+        <v>1.0494920000000001</v>
+      </c>
+      <c r="F7">
+        <v>0.76990000000000003</v>
+      </c>
+      <c r="G7">
+        <v>1.017668</v>
+      </c>
+      <c r="H7">
+        <v>0.772061</v>
+      </c>
+      <c r="I7">
+        <v>1.017971</v>
+      </c>
+      <c r="J7" s="2"/>
+      <c r="M7" s="3"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="8">
+        <v>10</v>
+      </c>
+      <c r="B8" s="8">
+        <v>0.78559000000000001</v>
+      </c>
+      <c r="C8">
+        <v>1.054686</v>
+      </c>
+      <c r="D8">
+        <v>0.78291999999999995</v>
+      </c>
+      <c r="E8">
+        <v>1.048565</v>
+      </c>
+      <c r="F8">
+        <v>0.77015</v>
+      </c>
+      <c r="G8">
+        <v>1.0150060000000001</v>
+      </c>
+      <c r="H8">
+        <v>0.77134999999999998</v>
+      </c>
+      <c r="I8">
+        <v>1.016993</v>
+      </c>
+      <c r="J8" s="2"/>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>100</v>
+      </c>
+      <c r="B9">
+        <v>0.78702399999999995</v>
+      </c>
+      <c r="C9">
+        <v>1.056899</v>
+      </c>
+      <c r="D9">
+        <v>0.78572399999999998</v>
+      </c>
+      <c r="E9">
+        <v>1.057552</v>
+      </c>
+      <c r="F9">
+        <v>0.77295599999999998</v>
+      </c>
+      <c r="G9">
+        <v>1.018276</v>
+      </c>
+      <c r="H9">
+        <v>0.76917599999999997</v>
+      </c>
+      <c r="I9">
+        <v>1.0146729999999999</v>
+      </c>
+      <c r="J9" s="2"/>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1000</v>
+      </c>
+      <c r="B10">
+        <v>0.78795999999999999</v>
+      </c>
+      <c r="C10">
+        <v>1.055102</v>
+      </c>
+      <c r="D10">
+        <v>0.78531700000000004</v>
+      </c>
+      <c r="E10">
+        <v>1.0579160000000001</v>
+      </c>
+      <c r="F10">
+        <v>0.76964500000000002</v>
+      </c>
+      <c r="G10">
+        <v>1.0151209999999999</v>
+      </c>
+      <c r="H10">
+        <v>0.77226099999999998</v>
+      </c>
+      <c r="I10">
+        <v>1.0193380000000001</v>
+      </c>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <f>(MAX(B3:B10)-MIN(B3:B10))/MAX(B3:B10)</f>
+        <v>4.8530382252905463E-3</v>
+      </c>
+      <c r="C11">
+        <f>(MAX(C3:C10)-MIN(C3:C10))/MAX(C3:C10)</f>
+        <v>2.7145450984436643E-3</v>
+      </c>
+      <c r="D11">
+        <f t="shared" ref="D11:I11" si="0">(MAX(D3:D10)-MIN(D3:D10))/MAX(D3:D10)</f>
+        <v>5.223208149426512E-3</v>
+      </c>
+      <c r="E11">
         <f t="shared" si="0"/>
-        <v>1.0905610121524887</v>
-      </c>
-      <c r="B2">
-        <v>190</v>
-      </c>
-      <c r="C2">
-        <v>0.65510000000000002</v>
-      </c>
-      <c r="D2">
-        <v>0.60070000000000001</v>
-      </c>
-      <c r="E2" t="s">
-        <v>89</v>
-      </c>
-      <c r="K2" s="4"/>
-      <c r="N2" s="3"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3">
+        <v>1.001308232411654E-2</v>
+      </c>
+      <c r="F11">
         <f t="shared" si="0"/>
-        <v>1.0861700058354407</v>
-      </c>
-      <c r="B3">
-        <v>184</v>
-      </c>
-      <c r="C3">
-        <v>0.55840000000000001</v>
-      </c>
-      <c r="D3">
-        <v>0.5141</v>
-      </c>
-      <c r="E3" t="s">
-        <v>71</v>
-      </c>
-      <c r="K3" s="2"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4">
+        <v>5.8761430146087685E-3</v>
+      </c>
+      <c r="G11">
         <f t="shared" si="0"/>
-        <v>1.0806234365980372</v>
-      </c>
-      <c r="B4">
-        <v>196</v>
-      </c>
-      <c r="C4">
-        <v>0.56159999999999999</v>
-      </c>
-      <c r="D4">
-        <v>0.51970000000000005</v>
-      </c>
-      <c r="E4" t="s">
-        <v>55</v>
-      </c>
-      <c r="N4" s="3"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5">
+        <v>3.8192002954012777E-3</v>
+      </c>
+      <c r="H11">
         <f t="shared" si="0"/>
-        <v>1.0736500667811486</v>
-      </c>
-      <c r="B5">
-        <v>176</v>
-      </c>
-      <c r="C5">
-        <v>0.56269999999999998</v>
-      </c>
-      <c r="D5">
-        <v>0.52410000000000001</v>
-      </c>
-      <c r="E5" t="s">
-        <v>103</v>
-      </c>
-      <c r="K5" s="2"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6">
+        <v>3.9947634284264056E-3</v>
+      </c>
+      <c r="I11">
         <f t="shared" si="0"/>
-        <v>1.0631538163502519</v>
-      </c>
-      <c r="B6">
-        <v>197</v>
-      </c>
-      <c r="C6">
-        <v>0.54879999999999995</v>
-      </c>
-      <c r="D6">
-        <v>0.51619999999999999</v>
-      </c>
-      <c r="E6" t="s">
-        <v>56</v>
-      </c>
-      <c r="K6" s="2"/>
-      <c r="N6" s="3"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <f t="shared" si="0"/>
-        <v>1.0565693430656933</v>
-      </c>
-      <c r="B7" s="8">
-        <v>192</v>
-      </c>
-      <c r="C7" s="8">
-        <v>0.57899999999999996</v>
-      </c>
-      <c r="D7">
-        <v>0.54800000000000004</v>
-      </c>
-      <c r="E7" t="s">
-        <v>97</v>
-      </c>
-      <c r="K7" s="2"/>
-      <c r="N7" s="3"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <f t="shared" si="0"/>
-        <v>1.0559682155812748</v>
-      </c>
-      <c r="B8">
-        <v>199</v>
-      </c>
-      <c r="C8">
-        <v>0.61129999999999995</v>
-      </c>
-      <c r="D8">
-        <v>0.57889999999999997</v>
-      </c>
-      <c r="E8" t="s">
-        <v>92</v>
-      </c>
-      <c r="K8" s="2"/>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <f t="shared" si="0"/>
-        <v>1.0472501936483345</v>
-      </c>
-      <c r="B9">
-        <v>198</v>
-      </c>
-      <c r="C9">
-        <v>0.54079999999999995</v>
-      </c>
-      <c r="D9">
-        <v>0.51639999999999997</v>
-      </c>
-      <c r="E9" t="s">
-        <v>51</v>
-      </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <f t="shared" si="0"/>
-        <v>1.0471734148204737</v>
-      </c>
-      <c r="B10">
-        <v>180</v>
-      </c>
-      <c r="C10">
-        <v>0.54830000000000001</v>
-      </c>
-      <c r="D10">
-        <v>0.52359999999999995</v>
-      </c>
-      <c r="E10" t="s">
-        <v>101</v>
-      </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <f t="shared" si="0"/>
-        <v>1.0469202548754586</v>
-      </c>
-      <c r="B11">
-        <v>181</v>
-      </c>
-      <c r="C11">
-        <v>0.54220000000000002</v>
-      </c>
-      <c r="D11">
-        <v>0.51790000000000003</v>
-      </c>
-      <c r="E11" t="s">
-        <v>87</v>
-      </c>
-      <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <f t="shared" si="0"/>
-        <v>1.0459040865833178</v>
-      </c>
-      <c r="B12">
-        <v>200</v>
-      </c>
-      <c r="C12">
-        <v>0.5605</v>
-      </c>
-      <c r="D12">
-        <v>0.53590000000000004</v>
-      </c>
-      <c r="E12" t="s">
-        <v>99</v>
-      </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <f t="shared" si="0"/>
-        <v>1.0412577244638312</v>
-      </c>
-      <c r="B13">
-        <v>187</v>
-      </c>
-      <c r="C13">
-        <v>0.57289999999999996</v>
-      </c>
-      <c r="D13">
-        <v>0.55020000000000002</v>
-      </c>
-      <c r="E13" t="s">
-        <v>95</v>
-      </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <f t="shared" si="0"/>
-        <v>1.0409379204305209</v>
-      </c>
-      <c r="B14" s="8">
-        <v>148</v>
-      </c>
-      <c r="C14" s="8">
-        <v>0.54159999999999997</v>
-      </c>
-      <c r="D14">
-        <v>0.52029999999999998</v>
-      </c>
-      <c r="E14" t="s">
-        <v>102</v>
-      </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <f t="shared" si="0"/>
-        <v>1.0390309555854642</v>
-      </c>
-      <c r="B15">
-        <v>190</v>
-      </c>
-      <c r="C15">
-        <v>0.54039999999999999</v>
-      </c>
-      <c r="D15">
-        <v>0.52010000000000001</v>
-      </c>
-      <c r="E15" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <f t="shared" si="0"/>
-        <v>1.0372717107715244</v>
-      </c>
-      <c r="B16">
-        <v>188</v>
-      </c>
-      <c r="C16">
-        <v>0.55659999999999998</v>
-      </c>
-      <c r="D16">
-        <v>0.53659999999999997</v>
-      </c>
-      <c r="E16" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <f t="shared" si="0"/>
-        <v>1.0368788819875776</v>
-      </c>
-      <c r="B17">
-        <v>172</v>
-      </c>
-      <c r="C17">
-        <v>0.53420000000000001</v>
-      </c>
-      <c r="D17">
-        <v>0.51519999999999999</v>
-      </c>
-      <c r="E17" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <f t="shared" si="0"/>
-        <v>1.0363566041384646</v>
-      </c>
-      <c r="B18">
-        <v>169</v>
-      </c>
-      <c r="C18">
-        <v>0.53590000000000004</v>
-      </c>
-      <c r="D18">
-        <v>0.5171</v>
-      </c>
-      <c r="E18" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <f t="shared" si="0"/>
-        <v>1.034606656580938</v>
-      </c>
-      <c r="B19">
-        <v>196</v>
-      </c>
-      <c r="C19">
-        <v>0.54710000000000003</v>
-      </c>
-      <c r="D19">
-        <v>0.52880000000000005</v>
-      </c>
-      <c r="E19" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <f t="shared" si="0"/>
-        <v>1.0345622119815667</v>
-      </c>
-      <c r="B20">
-        <v>198</v>
-      </c>
-      <c r="C20">
-        <v>0.53879999999999995</v>
-      </c>
-      <c r="D20">
-        <v>0.52080000000000004</v>
-      </c>
-      <c r="E20" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <f t="shared" si="0"/>
-        <v>1.0342637151106835</v>
-      </c>
-      <c r="B21">
-        <v>178</v>
-      </c>
-      <c r="C21">
-        <v>0.5373</v>
-      </c>
-      <c r="D21">
-        <v>0.51949999999999996</v>
-      </c>
-      <c r="E21" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <f t="shared" si="0"/>
-        <v>1.031798673429575</v>
-      </c>
-      <c r="B22">
-        <v>183</v>
-      </c>
-      <c r="C22">
-        <v>0.52890000000000004</v>
-      </c>
-      <c r="D22">
-        <v>0.51259999999999994</v>
-      </c>
-      <c r="E22" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <f t="shared" si="0"/>
-        <v>1.0316591752980262</v>
-      </c>
-      <c r="B23">
-        <v>197</v>
-      </c>
-      <c r="C23">
-        <v>0.52790000000000004</v>
-      </c>
-      <c r="D23">
-        <v>0.51170000000000004</v>
-      </c>
-      <c r="E23" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <f t="shared" si="0"/>
-        <v>1.0308761096101891</v>
-      </c>
-      <c r="B24">
-        <v>195</v>
-      </c>
-      <c r="C24">
-        <v>0.53420000000000001</v>
-      </c>
-      <c r="D24">
-        <v>0.51819999999999999</v>
-      </c>
-      <c r="E24" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <f t="shared" si="0"/>
-        <v>1.029428303655108</v>
-      </c>
-      <c r="B25">
-        <v>177</v>
-      </c>
-      <c r="C25">
-        <v>0.54920000000000002</v>
-      </c>
-      <c r="D25">
-        <v>0.53349999999999997</v>
-      </c>
-      <c r="E25" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <f t="shared" si="0"/>
-        <v>1.0274159051137468</v>
-      </c>
-      <c r="B26">
-        <v>193</v>
-      </c>
-      <c r="C26">
-        <v>0.52839999999999998</v>
-      </c>
-      <c r="D26">
-        <v>0.51429999999999998</v>
-      </c>
-      <c r="E26" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <f t="shared" si="0"/>
-        <v>1.0224036453389027</v>
-      </c>
-      <c r="B27">
-        <v>185</v>
-      </c>
-      <c r="C27">
-        <v>0.53849999999999998</v>
-      </c>
-      <c r="D27">
-        <v>0.52669999999999995</v>
-      </c>
-      <c r="E27" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <f t="shared" si="0"/>
-        <v>1.0216754540128881</v>
-      </c>
-      <c r="B28">
-        <v>196</v>
-      </c>
-      <c r="C28">
-        <v>0.5232</v>
-      </c>
-      <c r="D28">
-        <v>0.5121</v>
-      </c>
-      <c r="E28" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <f t="shared" si="0"/>
-        <v>1.0214224507283634</v>
-      </c>
-      <c r="B29">
-        <v>198</v>
-      </c>
-      <c r="C29">
-        <v>0.59599999999999997</v>
-      </c>
-      <c r="D29">
-        <v>0.58350000000000002</v>
-      </c>
-      <c r="E29" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <f t="shared" si="0"/>
-        <v>1.0201683963187782</v>
-      </c>
-      <c r="B30">
-        <v>198</v>
-      </c>
-      <c r="C30">
-        <v>0.52100000000000002</v>
-      </c>
-      <c r="D30">
-        <v>0.51070000000000004</v>
-      </c>
-      <c r="E30" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <f t="shared" si="0"/>
-        <v>1.0177737881508078</v>
-      </c>
-      <c r="B31">
-        <v>187</v>
-      </c>
-      <c r="C31">
-        <v>0.56689999999999996</v>
-      </c>
-      <c r="D31">
-        <v>0.55700000000000005</v>
-      </c>
-      <c r="E31" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <f t="shared" si="0"/>
-        <v>1.0171875000000001</v>
-      </c>
-      <c r="B32" s="8">
-        <v>197</v>
-      </c>
-      <c r="C32" s="8">
-        <v>0.52080000000000004</v>
-      </c>
-      <c r="D32">
-        <v>0.51200000000000001</v>
-      </c>
-      <c r="E32" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <f t="shared" ref="A33:A64" si="1">C33/D33</f>
-        <v>1.0164679159568428</v>
-      </c>
-      <c r="B33">
-        <v>200</v>
-      </c>
-      <c r="C33">
-        <v>0.53700000000000003</v>
-      </c>
-      <c r="D33">
-        <v>0.52829999999999999</v>
-      </c>
-      <c r="E33" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <f t="shared" si="1"/>
-        <v>1.0149712092130518</v>
-      </c>
-      <c r="B34">
-        <v>199</v>
-      </c>
-      <c r="C34">
-        <v>0.52880000000000005</v>
-      </c>
-      <c r="D34">
-        <v>0.52100000000000002</v>
-      </c>
-      <c r="E34" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <f t="shared" si="1"/>
-        <v>1.0146898803046789</v>
-      </c>
-      <c r="B35">
-        <v>192</v>
-      </c>
-      <c r="C35">
-        <v>0.5595</v>
-      </c>
-      <c r="D35">
-        <v>0.5514</v>
-      </c>
-      <c r="E35" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <f t="shared" si="1"/>
-        <v>1.0122878876535986</v>
-      </c>
-      <c r="B36">
-        <v>200</v>
-      </c>
-      <c r="C36">
-        <v>0.51900000000000002</v>
-      </c>
-      <c r="D36">
-        <v>0.51270000000000004</v>
-      </c>
-      <c r="E36" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <f t="shared" si="1"/>
-        <v>1.0099331423113658</v>
-      </c>
-      <c r="B37">
-        <v>196</v>
-      </c>
-      <c r="C37">
-        <v>0.52869999999999995</v>
-      </c>
-      <c r="D37">
-        <v>0.52349999999999997</v>
-      </c>
-      <c r="E37" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <f t="shared" si="1"/>
-        <v>1.0094322833244351</v>
-      </c>
-      <c r="B38">
-        <v>191</v>
-      </c>
-      <c r="C38">
-        <v>0.56720000000000004</v>
-      </c>
-      <c r="D38">
-        <v>0.56189999999999996</v>
-      </c>
-      <c r="E38" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <f t="shared" si="1"/>
-        <v>1.0015111446921043</v>
-      </c>
-      <c r="B39">
-        <v>176</v>
-      </c>
-      <c r="C39">
-        <v>0.5302</v>
-      </c>
-      <c r="D39">
-        <v>0.52939999999999998</v>
-      </c>
-      <c r="E39" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <f t="shared" si="1"/>
-        <v>0.99241540256709448</v>
-      </c>
-      <c r="B40">
-        <v>199</v>
-      </c>
-      <c r="C40">
-        <v>0.51029999999999998</v>
-      </c>
-      <c r="D40">
-        <v>0.51419999999999999</v>
-      </c>
-      <c r="E40" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <f t="shared" si="1"/>
-        <v>0.992051182628926</v>
-      </c>
-      <c r="B41">
-        <v>195</v>
-      </c>
-      <c r="C41">
-        <v>0.51170000000000004</v>
-      </c>
-      <c r="D41">
-        <v>0.51580000000000004</v>
-      </c>
-      <c r="E41" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <f t="shared" si="1"/>
-        <v>0.99040944300995948</v>
-      </c>
-      <c r="B42">
-        <v>200</v>
-      </c>
-      <c r="C42">
-        <v>0.53700000000000003</v>
-      </c>
-      <c r="D42">
-        <v>0.54220000000000002</v>
-      </c>
-      <c r="E42" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <f t="shared" si="1"/>
-        <v>0.98703835227272707</v>
-      </c>
-      <c r="B43">
-        <v>195</v>
-      </c>
-      <c r="C43">
-        <v>0.55589999999999995</v>
-      </c>
-      <c r="D43">
-        <v>0.56320000000000003</v>
-      </c>
-      <c r="E43" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <f t="shared" si="1"/>
-        <v>0.98638132295719838</v>
-      </c>
-      <c r="B44">
-        <v>195</v>
-      </c>
-      <c r="C44">
-        <v>0.50700000000000001</v>
-      </c>
-      <c r="D44">
-        <v>0.51400000000000001</v>
-      </c>
-      <c r="E44" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <f t="shared" si="1"/>
-        <v>0.98528579513299375</v>
-      </c>
-      <c r="B45">
-        <v>162</v>
-      </c>
-      <c r="C45">
-        <v>0.52229999999999999</v>
-      </c>
-      <c r="D45">
-        <v>0.53010000000000002</v>
-      </c>
-      <c r="E45" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <f t="shared" si="1"/>
-        <v>0.98506685188400778</v>
-      </c>
-      <c r="B46" s="8">
-        <v>193</v>
-      </c>
-      <c r="C46" s="8">
-        <v>0.56730000000000003</v>
-      </c>
-      <c r="D46">
-        <v>0.57589999999999997</v>
-      </c>
-      <c r="E46" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <f t="shared" si="1"/>
-        <v>0.98474264705882342</v>
-      </c>
-      <c r="B47">
-        <v>177</v>
-      </c>
-      <c r="C47">
-        <v>0.53569999999999995</v>
-      </c>
-      <c r="D47">
-        <v>0.54400000000000004</v>
-      </c>
-      <c r="E47" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <f t="shared" si="1"/>
-        <v>0.98460953828614861</v>
-      </c>
-      <c r="B48">
-        <v>177</v>
-      </c>
-      <c r="C48">
-        <v>0.51819999999999999</v>
-      </c>
-      <c r="D48">
-        <v>0.52629999999999999</v>
-      </c>
-      <c r="E48" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <f t="shared" si="1"/>
-        <v>0.98286814244465848</v>
-      </c>
-      <c r="B49" s="8">
-        <v>174</v>
-      </c>
-      <c r="C49" s="8">
-        <v>0.51060000000000005</v>
-      </c>
-      <c r="D49">
-        <v>0.51949999999999996</v>
-      </c>
-      <c r="E49" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <f t="shared" si="1"/>
-        <v>0.97391137540763484</v>
-      </c>
-      <c r="B50">
-        <v>189</v>
-      </c>
-      <c r="C50">
-        <v>0.50770000000000004</v>
-      </c>
-      <c r="D50">
-        <v>0.52129999999999999</v>
-      </c>
-      <c r="E50" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51">
-        <f t="shared" si="1"/>
-        <v>0.97025602409638545</v>
-      </c>
-      <c r="B51">
-        <v>192</v>
-      </c>
-      <c r="C51">
-        <v>0.51539999999999997</v>
-      </c>
-      <c r="D51">
-        <v>0.53120000000000001</v>
-      </c>
-      <c r="E51" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52">
-        <f t="shared" si="1"/>
-        <v>0.96878383255142553</v>
-      </c>
-      <c r="B52">
-        <v>197</v>
-      </c>
-      <c r="C52">
-        <v>0.53690000000000004</v>
-      </c>
-      <c r="D52">
-        <v>0.55420000000000003</v>
-      </c>
-      <c r="E52" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53">
-        <f t="shared" si="1"/>
-        <v>0.96859813084112145</v>
-      </c>
-      <c r="B53" s="8">
-        <v>198</v>
-      </c>
-      <c r="C53" s="8">
-        <v>0.51819999999999999</v>
-      </c>
-      <c r="D53">
-        <v>0.53500000000000003</v>
-      </c>
-      <c r="E53" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54">
-        <f t="shared" si="1"/>
-        <v>0.96554969879518071</v>
-      </c>
-      <c r="B54">
-        <v>190</v>
-      </c>
-      <c r="C54">
-        <v>0.51290000000000002</v>
-      </c>
-      <c r="D54">
-        <v>0.53120000000000001</v>
-      </c>
-      <c r="E54" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55">
-        <f t="shared" si="1"/>
-        <v>0.96470588235294108</v>
-      </c>
-      <c r="B55">
-        <v>196</v>
-      </c>
-      <c r="C55">
-        <v>0.51659999999999995</v>
-      </c>
-      <c r="D55">
-        <v>0.53549999999999998</v>
-      </c>
-      <c r="E55" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56">
-        <f t="shared" si="1"/>
-        <v>0.96363293762954594</v>
-      </c>
-      <c r="B56">
-        <v>200</v>
-      </c>
-      <c r="C56">
-        <v>0.51139999999999997</v>
-      </c>
-      <c r="D56">
-        <v>0.53069999999999995</v>
-      </c>
-      <c r="E56" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57">
-        <f t="shared" si="1"/>
-        <v>0.96216730038022813</v>
-      </c>
-      <c r="B57">
-        <v>189</v>
-      </c>
-      <c r="C57">
-        <v>0.50609999999999999</v>
-      </c>
-      <c r="D57">
-        <v>0.52600000000000002</v>
-      </c>
-      <c r="E57" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58">
-        <f t="shared" si="1"/>
-        <v>0.95915251002099622</v>
-      </c>
-      <c r="B58">
-        <v>180</v>
-      </c>
-      <c r="C58">
-        <v>0.50249999999999995</v>
-      </c>
-      <c r="D58">
-        <v>0.52390000000000003</v>
-      </c>
-      <c r="E58" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59">
-        <f t="shared" si="1"/>
-        <v>0.95855614973262038</v>
-      </c>
-      <c r="B59">
-        <v>194</v>
-      </c>
-      <c r="C59">
-        <v>0.50190000000000001</v>
-      </c>
-      <c r="D59">
-        <v>0.52359999999999995</v>
-      </c>
-      <c r="E59" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60">
-        <f t="shared" si="1"/>
-        <v>0.95563506261180675</v>
-      </c>
-      <c r="B60">
-        <v>190</v>
-      </c>
-      <c r="C60">
-        <v>0.53420000000000001</v>
-      </c>
-      <c r="D60">
-        <v>0.55900000000000005</v>
-      </c>
-      <c r="E60" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61">
-        <f t="shared" si="1"/>
-        <v>0.95304611242006065</v>
-      </c>
-      <c r="B61">
-        <v>196</v>
-      </c>
-      <c r="C61">
-        <v>0.56630000000000003</v>
-      </c>
-      <c r="D61">
-        <v>0.59419999999999995</v>
-      </c>
-      <c r="E61" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62">
-        <f t="shared" si="1"/>
-        <v>0.95167548500881838</v>
-      </c>
-      <c r="B62">
-        <v>198</v>
-      </c>
-      <c r="C62">
-        <v>0.53959999999999997</v>
-      </c>
-      <c r="D62">
-        <v>0.56699999999999995</v>
-      </c>
-      <c r="E62" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63">
-        <f t="shared" si="1"/>
-        <v>0.950974930362117</v>
-      </c>
-      <c r="B63">
-        <v>200</v>
-      </c>
-      <c r="C63">
-        <v>0.5121</v>
-      </c>
-      <c r="D63">
-        <v>0.53849999999999998</v>
-      </c>
-      <c r="E63" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64">
-        <f t="shared" si="1"/>
-        <v>0.9474059547156356</v>
-      </c>
-      <c r="B64">
-        <v>193</v>
-      </c>
-      <c r="C64">
-        <v>0.53139999999999998</v>
-      </c>
-      <c r="D64">
-        <v>0.56089999999999995</v>
-      </c>
-      <c r="E64" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65">
-        <f t="shared" ref="A65:A88" si="2">C65/D65</f>
-        <v>0.94637537239324732</v>
-      </c>
-      <c r="B65">
-        <v>200</v>
-      </c>
-      <c r="C65">
-        <v>0.57179999999999997</v>
-      </c>
-      <c r="D65">
-        <v>0.60419999999999996</v>
-      </c>
-      <c r="E65" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A66">
-        <f t="shared" si="2"/>
-        <v>0.9457671957671957</v>
-      </c>
-      <c r="B66">
-        <v>185</v>
-      </c>
-      <c r="C66">
-        <v>0.50049999999999994</v>
-      </c>
-      <c r="D66">
-        <v>0.5292</v>
-      </c>
-      <c r="E66" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A67">
-        <f t="shared" si="2"/>
-        <v>0.94062259800153736</v>
-      </c>
-      <c r="B67">
-        <v>177</v>
-      </c>
-      <c r="C67">
-        <v>0.48949999999999999</v>
-      </c>
-      <c r="D67">
-        <v>0.52039999999999997</v>
-      </c>
-      <c r="E67" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A68">
-        <f t="shared" si="2"/>
-        <v>0.94030112044817926</v>
-      </c>
-      <c r="B68">
-        <v>199</v>
-      </c>
-      <c r="C68">
-        <v>0.53710000000000002</v>
-      </c>
-      <c r="D68">
-        <v>0.57120000000000004</v>
-      </c>
-      <c r="E68" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69">
-        <f t="shared" si="2"/>
-        <v>0.94020380696019989</v>
-      </c>
-      <c r="B69">
-        <v>199</v>
-      </c>
-      <c r="C69">
-        <v>0.48899999999999999</v>
-      </c>
-      <c r="D69">
-        <v>0.52010000000000001</v>
-      </c>
-      <c r="E69" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A70">
-        <f t="shared" si="2"/>
-        <v>0.94002607561929596</v>
-      </c>
-      <c r="B70" s="8">
-        <v>196</v>
-      </c>
-      <c r="C70" s="8">
-        <v>0.50470000000000004</v>
-      </c>
-      <c r="D70">
-        <v>0.53690000000000004</v>
-      </c>
-      <c r="E70" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A71">
-        <f t="shared" si="2"/>
-        <v>0.9355588772629132</v>
-      </c>
-      <c r="B71">
-        <v>184</v>
-      </c>
-      <c r="C71">
-        <v>0.56330000000000002</v>
-      </c>
-      <c r="D71">
-        <v>0.60209999999999997</v>
-      </c>
-      <c r="E71" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A72">
-        <f t="shared" si="2"/>
-        <v>0.93528982865475763</v>
-      </c>
-      <c r="B72">
-        <v>188</v>
-      </c>
-      <c r="C72">
-        <v>0.5131</v>
-      </c>
-      <c r="D72">
-        <v>0.54859999999999998</v>
-      </c>
-      <c r="E72" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A73">
-        <f t="shared" si="2"/>
-        <v>0.93409586056644878</v>
-      </c>
-      <c r="B73">
-        <v>195</v>
-      </c>
-      <c r="C73">
-        <v>0.51449999999999996</v>
-      </c>
-      <c r="D73">
-        <v>0.55079999999999996</v>
-      </c>
-      <c r="E73" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A74">
-        <f t="shared" si="2"/>
-        <v>0.93035285423979319</v>
-      </c>
-      <c r="B74">
-        <v>198</v>
-      </c>
-      <c r="C74">
-        <v>0.50360000000000005</v>
-      </c>
-      <c r="D74">
-        <v>0.5413</v>
-      </c>
-      <c r="E74" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A75">
-        <f t="shared" si="2"/>
-        <v>0.92886870979947034</v>
-      </c>
-      <c r="B75">
-        <v>200</v>
-      </c>
-      <c r="C75">
-        <v>0.49099999999999999</v>
-      </c>
-      <c r="D75">
-        <v>0.52859999999999996</v>
-      </c>
-      <c r="E75" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A76">
-        <f t="shared" si="2"/>
-        <v>0.92591199699135007</v>
-      </c>
-      <c r="B76">
-        <v>200</v>
-      </c>
-      <c r="C76">
-        <v>0.4924</v>
-      </c>
-      <c r="D76">
-        <v>0.53180000000000005</v>
-      </c>
-      <c r="E76" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A77">
-        <f t="shared" si="2"/>
-        <v>0.92385180126344546</v>
-      </c>
-      <c r="B77">
-        <v>191</v>
-      </c>
-      <c r="C77">
-        <v>0.54110000000000003</v>
-      </c>
-      <c r="D77">
-        <v>0.5857</v>
-      </c>
-      <c r="E77" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A78">
-        <f t="shared" si="2"/>
-        <v>0.9231700986329815</v>
-      </c>
-      <c r="B78">
-        <v>194</v>
-      </c>
-      <c r="C78">
-        <v>0.53349999999999997</v>
-      </c>
-      <c r="D78">
-        <v>0.57789999999999997</v>
-      </c>
-      <c r="E78" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A79">
-        <f t="shared" si="2"/>
-        <v>0.922883787661406</v>
-      </c>
-      <c r="B79">
-        <v>196</v>
-      </c>
-      <c r="C79">
-        <v>0.51459999999999995</v>
-      </c>
-      <c r="D79">
-        <v>0.55759999999999998</v>
-      </c>
-      <c r="E79" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A80">
-        <f t="shared" si="2"/>
-        <v>0.91964451027587479</v>
-      </c>
-      <c r="B80">
-        <v>173</v>
-      </c>
-      <c r="C80">
-        <v>0.49669999999999997</v>
-      </c>
-      <c r="D80">
-        <v>0.54010000000000002</v>
-      </c>
-      <c r="E80" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A81">
-        <f t="shared" si="2"/>
-        <v>0.91916605705925403</v>
-      </c>
-      <c r="B81">
-        <v>195</v>
-      </c>
-      <c r="C81">
-        <v>0.50260000000000005</v>
-      </c>
-      <c r="D81">
-        <v>0.54679999999999995</v>
-      </c>
-      <c r="E81" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A82">
-        <f t="shared" si="2"/>
-        <v>0.91584618242615645</v>
-      </c>
-      <c r="B82">
-        <v>187</v>
-      </c>
-      <c r="C82">
-        <v>0.49299999999999999</v>
-      </c>
-      <c r="D82">
-        <v>0.5383</v>
-      </c>
-      <c r="E82" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A83">
-        <f t="shared" si="2"/>
-        <v>0.91460755813953476</v>
-      </c>
-      <c r="B83">
-        <v>196</v>
-      </c>
-      <c r="C83">
-        <v>0.50339999999999996</v>
-      </c>
-      <c r="D83">
-        <v>0.5504</v>
-      </c>
-      <c r="E83" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A84">
-        <f t="shared" si="2"/>
-        <v>0.91429620113782328</v>
-      </c>
-      <c r="B84">
-        <v>188</v>
-      </c>
-      <c r="C84">
-        <v>0.49819999999999998</v>
-      </c>
-      <c r="D84">
-        <v>0.54490000000000005</v>
-      </c>
-      <c r="E84" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A85">
-        <f t="shared" si="2"/>
-        <v>0.91343922898447261</v>
-      </c>
-      <c r="B85">
-        <v>196</v>
-      </c>
-      <c r="C85">
-        <v>0.51180000000000003</v>
-      </c>
-      <c r="D85">
-        <v>0.56030000000000002</v>
-      </c>
-      <c r="E85" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A86">
-        <f t="shared" si="2"/>
-        <v>0.90751341681574227</v>
-      </c>
-      <c r="B86">
-        <v>196</v>
-      </c>
-      <c r="C86">
-        <v>0.50729999999999997</v>
-      </c>
-      <c r="D86">
-        <v>0.55900000000000005</v>
-      </c>
-      <c r="E86" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A87">
-        <f t="shared" si="2"/>
-        <v>0.9038363171355499</v>
-      </c>
-      <c r="B87">
-        <v>197</v>
-      </c>
-      <c r="C87">
-        <v>0.53010000000000002</v>
-      </c>
-      <c r="D87">
-        <v>0.58650000000000002</v>
-      </c>
-      <c r="E87" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A88">
-        <f t="shared" si="2"/>
-        <v>0.89776247848537005</v>
-      </c>
-      <c r="B88">
-        <v>197</v>
-      </c>
-      <c r="C88">
-        <v>0.52159999999999995</v>
-      </c>
-      <c r="D88">
-        <v>0.58099999999999996</v>
-      </c>
-      <c r="E88" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B89" t="s">
-        <v>129</v>
-      </c>
+        <v>4.576499649772834E-3</v>
+      </c>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="8"/>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="8"/>
+      <c r="B47" s="8"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="8"/>
+      <c r="B50" s="8"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="8"/>
+      <c r="B54" s="8"/>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" s="8"/>
+      <c r="B71" s="8"/>
     </row>
   </sheetData>
-  <sortState ref="A1:E89">
-    <sortCondition descending="1" ref="A1"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2540,7 +1008,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="E8" sqref="A2:E8"/>
     </sheetView>
   </sheetViews>
@@ -3132,7 +1600,7 @@
   <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E1"/>
+      <selection activeCell="K19" sqref="K19:N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4241,13 +2709,13 @@
         <v>40</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>139</v>
+        <v>50</v>
       </c>
       <c r="H1" s="14" t="s">
         <v>40</v>
       </c>
       <c r="K1" s="14" t="s">
-        <v>139</v>
+        <v>50</v>
       </c>
       <c r="M1" s="14" t="s">
         <v>40</v>
@@ -4570,7 +3038,7 @@
       <c r="H9" s="13"/>
       <c r="I9" s="13"/>
       <c r="K9" s="14" t="s">
-        <v>139</v>
+        <v>50</v>
       </c>
       <c r="M9" s="14" t="s">
         <v>40</v>
@@ -4990,22 +3458,22 @@
       <c r="A24" s="13"/>
       <c r="B24" s="13"/>
       <c r="C24" s="13" t="s">
-        <v>130</v>
+        <v>41</v>
       </c>
       <c r="D24" s="13"/>
       <c r="E24" s="13"/>
       <c r="F24" s="13" t="s">
-        <v>131</v>
+        <v>42</v>
       </c>
       <c r="G24" s="13"/>
       <c r="H24" s="13"/>
       <c r="I24" s="13" t="s">
-        <v>132</v>
+        <v>43</v>
       </c>
       <c r="J24" s="13"/>
       <c r="K24" s="13"/>
       <c r="L24" s="13" t="s">
-        <v>133</v>
+        <v>44</v>
       </c>
       <c r="M24" s="13"/>
       <c r="N24" s="13"/>
@@ -5052,7 +3520,7 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="13" t="s">
-        <v>134</v>
+        <v>45</v>
       </c>
       <c r="B26" s="13" t="s">
         <v>0</v>
@@ -5102,7 +3570,7 @@
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="13"/>
       <c r="B27" s="13" t="s">
-        <v>136</v>
+        <v>47</v>
       </c>
       <c r="C27" s="13">
         <v>0.82599999999999996</v>
@@ -5149,7 +3617,7 @@
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="13"/>
       <c r="B28" s="13" t="s">
-        <v>137</v>
+        <v>48</v>
       </c>
       <c r="C28" s="13">
         <v>0.64500000000000002</v>
@@ -5195,7 +3663,7 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="13" t="s">
-        <v>135</v>
+        <v>46</v>
       </c>
       <c r="B29" s="13" t="s">
         <v>0</v>
@@ -5291,7 +3759,7 @@
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="13"/>
       <c r="B31" s="13" t="s">
-        <v>138</v>
+        <v>49</v>
       </c>
       <c r="C31" s="13">
         <v>0.80100000000000005</v>
@@ -5361,7 +3829,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="14" t="s">
-        <v>140</v>
+        <v>51</v>
       </c>
       <c r="B35" s="10">
         <v>0.33850000000000002</v>

--- a/UbsRec/final.xlsx
+++ b/UbsRec/final.xlsx
@@ -16,7 +16,7 @@
     <sheet name="mnar" sheetId="1" r:id="rId2"/>
     <sheet name="mar-o" sheetId="3" r:id="rId3"/>
     <sheet name="npm" sheetId="4" r:id="rId4"/>
-    <sheet name="test" sheetId="2" r:id="rId5"/>
+    <sheet name="var" sheetId="2" r:id="rId5"/>
     <sheet name="sort" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
@@ -737,7 +737,7 @@
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+      <selection activeCell="C14" sqref="C11:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/UbsRec/final.xlsx
+++ b/UbsRec/final.xlsx
@@ -9,15 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="mar-n" sheetId="6" r:id="rId1"/>
-    <sheet name="mnar" sheetId="1" r:id="rId2"/>
-    <sheet name="mar-o" sheetId="3" r:id="rId3"/>
-    <sheet name="npm" sheetId="4" r:id="rId4"/>
-    <sheet name="var" sheetId="2" r:id="rId5"/>
-    <sheet name="sort" sheetId="5" r:id="rId6"/>
+    <sheet name="test" sheetId="8" r:id="rId1"/>
+    <sheet name="size" sheetId="7" r:id="rId2"/>
+    <sheet name="mar-n" sheetId="6" r:id="rId3"/>
+    <sheet name="mnar" sheetId="1" r:id="rId4"/>
+    <sheet name="mar-o" sheetId="3" r:id="rId5"/>
+    <sheet name="npm" sheetId="4" r:id="rId6"/>
+    <sheet name="var" sheetId="2" r:id="rId7"/>
+    <sheet name="sort" sheetId="5" r:id="rId8"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="70">
   <si>
     <t>MF</t>
   </si>
@@ -356,7 +358,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -402,15 +404,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="47">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -734,6 +737,776 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B17:B32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E32" sqref="A1:E32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" s="20"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B18" s="20"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B19" s="20"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B20" s="20"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B21" s="20"/>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B22" s="20"/>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B23" s="20"/>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B24" s="20"/>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B25" s="20"/>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B26" s="20"/>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B27" s="20"/>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B28" s="20"/>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B29" s="20"/>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B30" s="20"/>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B31" s="20"/>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B32" s="20"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" t="str">
+        <f>A11</f>
+        <v>NFM-DR-NP</v>
+      </c>
+      <c r="K1" t="str">
+        <f>C11</f>
+        <v>MF-DR-NP</v>
+      </c>
+      <c r="L1" t="str">
+        <f>E11</f>
+        <v>NFM-IPS-NP</v>
+      </c>
+      <c r="M1" t="str">
+        <f>G11</f>
+        <v>MF-IPS-NP</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0.78174500000000002</v>
+      </c>
+      <c r="B2">
+        <v>1.038416</v>
+      </c>
+      <c r="C2">
+        <v>0.78273000000000004</v>
+      </c>
+      <c r="D2">
+        <v>1.0439020000000001</v>
+      </c>
+      <c r="E2">
+        <v>0.78200400000000003</v>
+      </c>
+      <c r="F2">
+        <v>1.0387390000000001</v>
+      </c>
+      <c r="G2">
+        <v>0.78166000000000002</v>
+      </c>
+      <c r="H2">
+        <v>1.0428440000000001</v>
+      </c>
+      <c r="J2">
+        <f t="shared" ref="J2:J9" si="0">A12</f>
+        <v>0.93525816074207191</v>
+      </c>
+      <c r="K2">
+        <f t="shared" ref="K2:K8" si="1">C12</f>
+        <v>0.94967126467966978</v>
+      </c>
+      <c r="L2">
+        <f t="shared" ref="L2:L8" si="2">E12</f>
+        <v>0.95814695782196735</v>
+      </c>
+      <c r="M2">
+        <f t="shared" ref="M2:M8" si="3">G12</f>
+        <v>0.96234007084604078</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>0.78355900000000001</v>
+      </c>
+      <c r="B3">
+        <v>1.0460469999999999</v>
+      </c>
+      <c r="C3">
+        <v>0.78361499999999995</v>
+      </c>
+      <c r="D3">
+        <v>1.0528850000000001</v>
+      </c>
+      <c r="E3">
+        <v>0.78423100000000001</v>
+      </c>
+      <c r="F3">
+        <v>1.0463739999999999</v>
+      </c>
+      <c r="G3">
+        <v>0.78597600000000001</v>
+      </c>
+      <c r="H3">
+        <v>1.053671</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="0"/>
+        <v>0.95919340265165265</v>
+      </c>
+      <c r="K3">
+        <f t="shared" si="1"/>
+        <v>0.96852182562832922</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="2"/>
+        <v>0.97621980705994316</v>
+      </c>
+      <c r="M3">
+        <f t="shared" si="3"/>
+        <v>0.9830893070625536</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>0.78592499999999998</v>
+      </c>
+      <c r="B4">
+        <v>1.0503480000000001</v>
+      </c>
+      <c r="C4">
+        <v>0.78792200000000001</v>
+      </c>
+      <c r="D4">
+        <v>1.0597780000000001</v>
+      </c>
+      <c r="E4">
+        <v>0.78394399999999997</v>
+      </c>
+      <c r="F4">
+        <v>1.053868</v>
+      </c>
+      <c r="G4">
+        <v>0.78724700000000003</v>
+      </c>
+      <c r="H4">
+        <v>1.0573729999999999</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>0.97650000000000003</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="1"/>
+        <v>0.98249035159493681</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="2"/>
+        <v>0.99247875445351419</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="3"/>
+        <v>0.99890668486726919</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>0.78700000000000003</v>
+      </c>
+      <c r="B5">
+        <v>1.054818</v>
+      </c>
+      <c r="C5">
+        <v>0.78859400000000002</v>
+      </c>
+      <c r="D5">
+        <v>1.0620099999999999</v>
+      </c>
+      <c r="E5">
+        <v>0.78515000000000001</v>
+      </c>
+      <c r="F5">
+        <v>1.0567550000000001</v>
+      </c>
+      <c r="G5">
+        <v>0.78716699999999995</v>
+      </c>
+      <c r="H5">
+        <v>1.061788</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>0.97784511783075367</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="1"/>
+        <v>0.9831906700440638</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="2"/>
+        <v>0.99429373769941531</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="3"/>
+        <v>1.0006000850872387</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>0.78347699999999998</v>
+      </c>
+      <c r="B6">
+        <v>1.0571520000000001</v>
+      </c>
+      <c r="C6">
+        <v>0.78981599999999996</v>
+      </c>
+      <c r="D6">
+        <v>1.062767</v>
+      </c>
+      <c r="E6">
+        <v>0.78758899999999998</v>
+      </c>
+      <c r="F6">
+        <v>1.0567070000000001</v>
+      </c>
+      <c r="G6">
+        <v>0.78721099999999999</v>
+      </c>
+      <c r="H6">
+        <v>1.063588</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>0.97711840241634085</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="1"/>
+        <v>0.98303339905813036</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="2"/>
+        <v>0.99424857481926854</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="3"/>
+        <v>0.99939683015316039</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>0.78537199999999996</v>
+      </c>
+      <c r="B7">
+        <v>1.056271</v>
+      </c>
+      <c r="C7">
+        <v>0.78645500000000002</v>
+      </c>
+      <c r="D7">
+        <v>1.062597</v>
+      </c>
+      <c r="E7">
+        <v>0.78766400000000003</v>
+      </c>
+      <c r="F7">
+        <v>1.0554699999999999</v>
+      </c>
+      <c r="G7">
+        <v>0.78809300000000004</v>
+      </c>
+      <c r="H7">
+        <v>1.0623089999999999</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>0.97819227487585525</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="1"/>
+        <v>0.98345525534981049</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="2"/>
+        <v>0.99308468976215103</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="3"/>
+        <v>1.0003949955050424</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>0.78754199999999996</v>
+      </c>
+      <c r="B8">
+        <v>1.0554859999999999</v>
+      </c>
+      <c r="C8">
+        <v>0.78702300000000003</v>
+      </c>
+      <c r="D8">
+        <v>1.063053</v>
+      </c>
+      <c r="E8">
+        <v>0.78819799999999995</v>
+      </c>
+      <c r="F8">
+        <v>1.0583320000000001</v>
+      </c>
+      <c r="G8">
+        <v>0.79000499999999996</v>
+      </c>
+      <c r="H8">
+        <v>1.0633699999999999</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>0.97866070544871242</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="1"/>
+        <v>0.9849076991610779</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="2"/>
+        <v>0.99577752649090634</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="3"/>
+        <v>1.0022379794111094</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>0.78334400000000004</v>
+      </c>
+      <c r="B9">
+        <v>1.056646</v>
+      </c>
+      <c r="C9">
+        <v>0.78634499999999996</v>
+      </c>
+      <c r="D9">
+        <v>1.0646230000000001</v>
+      </c>
+      <c r="E9">
+        <v>0.78625400000000001</v>
+      </c>
+      <c r="F9">
+        <v>1.054826</v>
+      </c>
+      <c r="G9">
+        <v>0.78769400000000001</v>
+      </c>
+      <c r="H9">
+        <v>1.065329</v>
+      </c>
+      <c r="J9">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="K9">
+        <v>2E-3</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <f>MIN(A2:A9)/MAX(A2:A9)</f>
+        <v>0.9926391227388508</v>
+      </c>
+      <c r="B10">
+        <f t="shared" ref="B10:H10" si="4">MIN(B2:B9)/MAX(B2:B9)</f>
+        <v>0.9822769100375347</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="4"/>
+        <v>0.99102829013339822</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="4"/>
+        <v>0.98053677217193314</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="4"/>
+        <v>0.99214156848913604</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="4"/>
+        <v>0.98148690581027509</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="4"/>
+        <v>0.98943677571660948</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="4"/>
+        <v>0.9788938440613183</v>
+      </c>
+      <c r="J10">
+        <f>J8</f>
+        <v>0.97866070544871242</v>
+      </c>
+      <c r="K10">
+        <f>J6</f>
+        <v>0.97711840241634085</v>
+      </c>
+      <c r="L10">
+        <f>J4</f>
+        <v>0.97650000000000003</v>
+      </c>
+      <c r="M10">
+        <f>J2</f>
+        <v>0.93525816074207191</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11">
+        <f>J10+J9</f>
+        <v>0.98466070544871243</v>
+      </c>
+      <c r="K11">
+        <f t="shared" ref="K11:M11" si="5">K10+K9</f>
+        <v>0.97911840241634085</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="5"/>
+        <v>0.97650000000000003</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="5"/>
+        <v>0.93525816074207191</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <f>A13*B12</f>
+        <v>0.93525816074207191</v>
+      </c>
+      <c r="B12">
+        <f>A10*B10</f>
+        <v>0.97504649026628754</v>
+      </c>
+      <c r="C12">
+        <f>C13*D12</f>
+        <v>0.94967126467966978</v>
+      </c>
+      <c r="D12">
+        <f>D10</f>
+        <v>0.98053677217193314</v>
+      </c>
+      <c r="E12">
+        <f>E13*F12</f>
+        <v>0.95814695782196735</v>
+      </c>
+      <c r="F12">
+        <f>F10</f>
+        <v>0.98148690581027509</v>
+      </c>
+      <c r="G12">
+        <f>G13*H12</f>
+        <v>0.96234007084604078</v>
+      </c>
+      <c r="H12">
+        <f>H10</f>
+        <v>0.9788938440613183</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <f>A14*B13</f>
+        <v>0.95919340265165265</v>
+      </c>
+      <c r="B13">
+        <f>B10</f>
+        <v>0.9822769100375347</v>
+      </c>
+      <c r="C13">
+        <f>C14*D13</f>
+        <v>0.96852182562832922</v>
+      </c>
+      <c r="D13">
+        <f>AVERAGE(C10:D10)</f>
+        <v>0.98578253115266568</v>
+      </c>
+      <c r="E13">
+        <f>E14*F13</f>
+        <v>0.97621980705994316</v>
+      </c>
+      <c r="F13">
+        <f>0.2*E10+0.8*F10</f>
+        <v>0.98361783834604732</v>
+      </c>
+      <c r="G13">
+        <f>G14*H13</f>
+        <v>0.9830893070625536</v>
+      </c>
+      <c r="H13">
+        <f>AVERAGE(G10:H10)</f>
+        <v>0.98416530988896389</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <f>'mar-n'!C14</f>
+        <v>0.97650000000000003</v>
+      </c>
+      <c r="B14">
+        <f>B5</f>
+        <v>1.054818</v>
+      </c>
+      <c r="C14">
+        <f>'mar-n'!C13</f>
+        <v>0.98249035159493681</v>
+      </c>
+      <c r="D14">
+        <f>D5</f>
+        <v>1.0620099999999999</v>
+      </c>
+      <c r="E14">
+        <f>'mar-n'!C12</f>
+        <v>0.99247875445351419</v>
+      </c>
+      <c r="F14">
+        <f>F9</f>
+        <v>1.054826</v>
+      </c>
+      <c r="G14">
+        <f>'mar-n'!C11</f>
+        <v>0.99890668486726919</v>
+      </c>
+      <c r="H14">
+        <f>H5</f>
+        <v>1.061788</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <f>A14*B15/B14</f>
+        <v>0.97784511783075367</v>
+      </c>
+      <c r="B15">
+        <f>B7</f>
+        <v>1.056271</v>
+      </c>
+      <c r="C15">
+        <f>C14*D15/D14</f>
+        <v>0.9831906700440638</v>
+      </c>
+      <c r="D15">
+        <f t="shared" ref="D15:D18" si="6">D6</f>
+        <v>1.062767</v>
+      </c>
+      <c r="E15">
+        <f>E14*F15/F14</f>
+        <v>0.99429373769941531</v>
+      </c>
+      <c r="F15">
+        <f>F5</f>
+        <v>1.0567550000000001</v>
+      </c>
+      <c r="G15">
+        <f>G14*H15/H14</f>
+        <v>1.0006000850872387</v>
+      </c>
+      <c r="H15">
+        <f t="shared" ref="H15:H18" si="7">H6</f>
+        <v>1.063588</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <f t="shared" ref="A16:A18" si="8">A15*B16/B15</f>
+        <v>0.97711840241634085</v>
+      </c>
+      <c r="B16">
+        <f t="shared" ref="B16:B17" si="9">B8</f>
+        <v>1.0554859999999999</v>
+      </c>
+      <c r="C16">
+        <f t="shared" ref="C16:C18" si="10">C15*D16/D15</f>
+        <v>0.98303339905813036</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="6"/>
+        <v>1.062597</v>
+      </c>
+      <c r="E16">
+        <f t="shared" ref="E16:E18" si="11">E15*F16/F15</f>
+        <v>0.99424857481926854</v>
+      </c>
+      <c r="F16">
+        <f t="shared" ref="F16:F18" si="12">F6</f>
+        <v>1.0567070000000001</v>
+      </c>
+      <c r="G16">
+        <f t="shared" ref="G16:G18" si="13">G15*H16/H15</f>
+        <v>0.99939683015316039</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="7"/>
+        <v>1.0623089999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <f t="shared" si="8"/>
+        <v>0.97819227487585525</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="9"/>
+        <v>1.056646</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="10"/>
+        <v>0.98345525534981049</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="6"/>
+        <v>1.063053</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="11"/>
+        <v>0.99308468976215103</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="12"/>
+        <v>1.0554699999999999</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="13"/>
+        <v>1.0003949955050424</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="7"/>
+        <v>1.0633699999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <f t="shared" si="8"/>
+        <v>0.97866070544871242</v>
+      </c>
+      <c r="B18">
+        <f>B6</f>
+        <v>1.0571520000000001</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="10"/>
+        <v>0.9849076991610779</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="6"/>
+        <v>1.0646230000000001</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="11"/>
+        <v>0.99577752649090634</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="12"/>
+        <v>1.0583320000000001</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="13"/>
+        <v>1.0022379794111094</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="7"/>
+        <v>1.065329</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
@@ -743,367 +1516,367 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="19"/>
-      <c r="B1" s="19" t="s">
+      <c r="A1" s="17"/>
+      <c r="B1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19" t="s">
+      <c r="C1" s="17"/>
+      <c r="D1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19" t="s">
+      <c r="E1" s="17"/>
+      <c r="F1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19" t="s">
+      <c r="G1" s="17"/>
+      <c r="H1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19" t="s">
+      <c r="I1" s="17"/>
+      <c r="J1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19" t="s">
+      <c r="K1" s="17"/>
+      <c r="L1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="19"/>
+      <c r="M1" s="17"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19" t="s">
+      <c r="A2" s="17"/>
+      <c r="B2" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="19" t="s">
+      <c r="I2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="J2" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="K2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="19" t="s">
+      <c r="L2" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="19" t="s">
+      <c r="M2" s="17" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="19">
+      <c r="B3" s="17">
         <v>1.1672</v>
       </c>
-      <c r="C3" s="19">
+      <c r="C3" s="17">
         <v>1.9504999999999999</v>
       </c>
-      <c r="D3" s="19">
+      <c r="D3" s="17">
         <v>0.91250000000000009</v>
       </c>
-      <c r="E3" s="19">
+      <c r="E3" s="17">
         <v>1.3190500000000001</v>
       </c>
-      <c r="F3" s="19">
+      <c r="F3" s="17">
         <v>1.1539999999999999</v>
       </c>
-      <c r="G3" s="19">
+      <c r="G3" s="17">
         <v>1.891</v>
       </c>
-      <c r="H3" s="19">
+      <c r="H3" s="17">
         <v>0.92</v>
       </c>
-      <c r="I3" s="19">
+      <c r="I3" s="17">
         <v>1.2569999999999999</v>
       </c>
-      <c r="J3" s="19">
+      <c r="J3" s="17">
         <f>B3/F3</f>
         <v>1.0114384748700174</v>
       </c>
-      <c r="K3" s="19">
+      <c r="K3" s="17">
         <f t="shared" ref="K3:M3" si="0">C3/G3</f>
         <v>1.03146483342147</v>
       </c>
-      <c r="L3" s="19">
+      <c r="L3" s="17">
         <f t="shared" si="0"/>
         <v>0.99184782608695654</v>
       </c>
-      <c r="M3" s="19">
+      <c r="M3" s="17">
         <f t="shared" si="0"/>
         <v>1.0493635640413685</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="19">
+      <c r="B4" s="17">
         <f>F4*J4</f>
         <v>1.0641220886314284</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="17">
         <f t="shared" ref="C4:E4" si="1">G4*K4</f>
         <v>1.5858590891152857</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="17">
         <f t="shared" si="1"/>
         <v>0.91806428058107903</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="17">
         <f t="shared" si="1"/>
         <v>1.2991219071392655</v>
       </c>
-      <c r="F4" s="19">
+      <c r="F4" s="17">
         <v>1.0009999999999999</v>
       </c>
-      <c r="G4" s="19">
+      <c r="G4" s="17">
         <v>1.488</v>
       </c>
-      <c r="H4" s="19">
+      <c r="H4" s="17">
         <v>0.88800000000000001</v>
       </c>
-      <c r="I4" s="19">
+      <c r="I4" s="17">
         <v>1.218</v>
       </c>
-      <c r="J4" s="19">
+      <c r="J4" s="17">
         <f>0.1*J3+0.9*J10</f>
         <v>1.0630590296018267</v>
       </c>
-      <c r="K4" s="19">
+      <c r="K4" s="17">
         <f t="shared" ref="K4:M4" si="2">0.1*K3+0.9*K10</f>
         <v>1.0657655168785523</v>
       </c>
-      <c r="L4" s="19">
+      <c r="L4" s="17">
         <f t="shared" si="2"/>
         <v>1.0338561718255395</v>
       </c>
-      <c r="M4" s="19">
+      <c r="M4" s="17">
         <f t="shared" si="2"/>
         <v>1.0666025510174593</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="19">
+      <c r="B5" s="17">
         <f>B7+(B3-B7)/(F3-F7)*(F5-F7)</f>
         <v>0.91373956998807548</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="17">
         <f>C7+(C3-C7)/(G3-G7)*(G5-G7)</f>
         <v>1.1808892916574876</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="17">
         <f>D3*H5/H3</f>
         <v>0.9611005434782609</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="17">
         <f>E3*I5/I3</f>
         <v>1.512132895783612</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5" s="18">
         <v>0.86699999999999999</v>
       </c>
-      <c r="G5" s="20">
+      <c r="G5" s="18">
         <v>1.115</v>
       </c>
-      <c r="H5" s="20">
+      <c r="H5" s="18">
         <v>0.96899999999999997</v>
       </c>
-      <c r="I5" s="20">
+      <c r="I5" s="18">
         <v>1.4410000000000001</v>
       </c>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="19">
+      <c r="B6" s="17">
         <f>B3*F6/F3</f>
         <v>1.1904630849220104</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="17">
         <f>C3*G6/G3</f>
         <v>2.2434360126916975</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="17">
         <f>D7+(D3-D7)/(H3-H7)*(H6-H7)</f>
         <v>0.89967402390648443</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="17">
         <f>E7+(E3-E7)/(I3-I7)*(I6-I7)</f>
         <v>1.2791421661462539</v>
       </c>
-      <c r="F6" s="20">
+      <c r="F6" s="18">
         <v>1.177</v>
       </c>
-      <c r="G6" s="20">
+      <c r="G6" s="18">
         <v>2.1749999999999998</v>
       </c>
-      <c r="H6" s="20">
+      <c r="H6" s="18">
         <v>0.88400000000000001</v>
       </c>
-      <c r="I6" s="20">
+      <c r="I6" s="18">
         <v>1.214</v>
       </c>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="19">
+      <c r="B7" s="17">
         <f>F7*J7</f>
         <v>0.86340073894041103</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="17">
         <f t="shared" ref="C7:E9" si="3">G7*K7</f>
         <v>1.0559267281895024</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="17">
         <f t="shared" si="3"/>
         <v>0.89112337317747403</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="17">
         <f t="shared" si="3"/>
         <v>1.166843377860131</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="17">
         <v>0.81</v>
       </c>
-      <c r="G7" s="19">
+      <c r="G7" s="17">
         <v>0.98899999999999999</v>
       </c>
-      <c r="H7" s="19">
+      <c r="H7" s="17">
         <v>0.86</v>
       </c>
-      <c r="I7" s="19">
+      <c r="I7" s="17">
         <v>1.093</v>
       </c>
-      <c r="J7" s="19">
+      <c r="J7" s="17">
         <f>AVERAGE(J4,J10)</f>
         <v>1.0659268381980382</v>
       </c>
-      <c r="K7" s="19">
+      <c r="K7" s="17">
         <f t="shared" ref="K7:M7" si="4">AVERAGE(K4,K10)</f>
         <v>1.0676711104039458</v>
       </c>
-      <c r="L7" s="19">
+      <c r="L7" s="17">
         <f t="shared" si="4"/>
         <v>1.0361899688110163</v>
       </c>
-      <c r="M7" s="19">
+      <c r="M7" s="17">
         <f t="shared" si="4"/>
         <v>1.0675602725161308</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="19">
+      <c r="B8" s="17">
         <f>F8*J8</f>
         <v>0.85175387251192292</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="17">
         <f>G8*K8</f>
         <v>1.0461828051161428</v>
       </c>
-      <c r="D8" s="19">
+      <c r="D8" s="17">
         <f t="shared" si="3"/>
         <v>0.8630809135967239</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="17">
         <f t="shared" si="3"/>
         <v>1.1374616769277222</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8" s="17">
         <v>0.79800000000000004</v>
       </c>
-      <c r="G8" s="19">
+      <c r="G8" s="17">
         <v>0.97899999999999998</v>
       </c>
-      <c r="H8" s="19">
+      <c r="H8" s="17">
         <v>0.83199999999999996</v>
       </c>
-      <c r="I8" s="19">
+      <c r="I8" s="17">
         <v>1.0649999999999999</v>
       </c>
-      <c r="J8" s="19">
+      <c r="J8" s="17">
         <f>AVERAGE(J7,J10)</f>
         <v>1.067360742496144</v>
       </c>
-      <c r="K8" s="19">
+      <c r="K8" s="17">
         <f t="shared" ref="K8:M8" si="5">AVERAGE(K7,K10)</f>
         <v>1.0686239071666424</v>
       </c>
-      <c r="L8" s="19">
+      <c r="L8" s="17">
         <f t="shared" si="5"/>
         <v>1.0373568673037548</v>
       </c>
-      <c r="M8" s="19">
+      <c r="M8" s="17">
         <f t="shared" si="5"/>
         <v>1.0680391332654668</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="19">
-        <f t="shared" ref="B8:B9" si="6">F9*J9</f>
+      <c r="B9" s="17">
+        <f t="shared" ref="B9" si="6">F9*J9</f>
         <v>0.79785403789996223</v>
       </c>
-      <c r="C9" s="19">
+      <c r="C9" s="17">
         <f t="shared" si="3"/>
         <v>1.0327508951593589</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="17">
         <f t="shared" si="3"/>
         <v>0.80751756627599647</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="17">
         <f>I9*M9</f>
         <v>1.0575957780037335</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9" s="17">
         <v>0.747</v>
       </c>
-      <c r="G9" s="19">
+      <c r="G9" s="17">
         <v>0.96599999999999997</v>
       </c>
-      <c r="H9" s="19">
+      <c r="H9" s="17">
         <v>0.77800000000000002</v>
       </c>
-      <c r="I9" s="19">
+      <c r="I9" s="17">
         <v>0.99</v>
       </c>
       <c r="J9" s="3">
@@ -1124,265 +1897,265 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="19">
+      <c r="B10" s="17">
         <f>B14/B18</f>
         <v>0.78663286004056798</v>
       </c>
-      <c r="C10" s="19">
+      <c r="C10" s="17">
         <f>C14/C18</f>
         <v>1.0235849056603774</v>
       </c>
-      <c r="D10" s="19">
-        <f t="shared" ref="C10:E10" si="8">D14/D18</f>
+      <c r="D10" s="17">
+        <f t="shared" ref="D10" si="8">D14/D18</f>
         <v>0.78512396694214881</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E10" s="17">
         <f>E14/E18</f>
         <v>1.0332569002123142</v>
       </c>
-      <c r="F10" s="19">
+      <c r="F10" s="17">
         <v>0.73599999999999999</v>
       </c>
-      <c r="G10" s="19">
+      <c r="G10" s="17">
         <v>0.95699999999999996</v>
       </c>
-      <c r="H10" s="19">
+      <c r="H10" s="17">
         <v>0.75600000000000001</v>
       </c>
-      <c r="I10" s="19">
+      <c r="I10" s="17">
         <v>0.96699999999999997</v>
       </c>
-      <c r="J10" s="19">
+      <c r="J10" s="17">
         <f>B10/F10</f>
         <v>1.06879464679425</v>
       </c>
-      <c r="K10" s="19">
+      <c r="K10" s="17">
         <f>C10/G10</f>
         <v>1.0695767039293391</v>
       </c>
-      <c r="L10" s="19">
-        <f t="shared" ref="K10:M10" si="9">D10/H10</f>
+      <c r="L10" s="17">
+        <f t="shared" ref="L10:M10" si="9">D10/H10</f>
         <v>1.0385237657964932</v>
       </c>
-      <c r="M10" s="19">
+      <c r="M10" s="17">
         <f t="shared" si="9"/>
         <v>1.0685179940148026</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="19">
+      <c r="B11" s="17">
         <f>B7*B15</f>
         <v>0.83231831233855624</v>
       </c>
-      <c r="C11" s="19">
+      <c r="C11" s="17">
         <f>C7*C15</f>
         <v>0.99890668486726919</v>
       </c>
-      <c r="D11" s="19">
-        <f t="shared" ref="C11:E11" si="10">D7*D15</f>
+      <c r="D11" s="17">
+        <f t="shared" ref="D11" si="10">D7*D15</f>
         <v>0.82696249030869595</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E11" s="17">
         <f>E7*E15</f>
         <v>1.0524927268298383</v>
       </c>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="19">
+      <c r="B12" s="17">
         <f>B8*B16</f>
         <v>0.82733692816658111</v>
       </c>
-      <c r="C12" s="19">
+      <c r="C12" s="17">
         <f>C8*C16</f>
         <v>0.99247875445351419</v>
       </c>
-      <c r="D12" s="19">
-        <f t="shared" ref="B12:E13" si="11">D8*D16</f>
+      <c r="D12" s="17">
+        <f t="shared" ref="B12:D13" si="11">D8*D16</f>
         <v>0.81244683333238277</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="17">
         <f>E8*E16</f>
         <v>1.0411565882811751</v>
       </c>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="19">
+      <c r="B13" s="17">
         <f t="shared" si="11"/>
         <v>0.78083315175809631</v>
       </c>
-      <c r="C13" s="19">
+      <c r="C13" s="17">
         <f t="shared" si="11"/>
         <v>0.98249035159493681</v>
       </c>
-      <c r="D13" s="19">
+      <c r="D13" s="17">
         <f>D9*D17</f>
         <v>0.77091010327148457</v>
       </c>
-      <c r="E13" s="19">
+      <c r="E13" s="17">
         <f>E9*E17</f>
         <v>0.98215394583946714</v>
       </c>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="20">
+      <c r="B14" s="18">
         <v>0.77561999999999998</v>
       </c>
-      <c r="C14" s="20">
+      <c r="C14" s="18">
         <v>0.97650000000000003</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D14" s="18">
         <v>0.76</v>
       </c>
-      <c r="E14" s="20">
+      <c r="E14" s="18">
         <v>0.97332799999999997</v>
       </c>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="19"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="19"/>
-      <c r="B15" s="19">
+      <c r="A15" s="17"/>
+      <c r="B15" s="17">
         <v>0.96399999999999997</v>
       </c>
-      <c r="C15" s="19">
+      <c r="C15" s="17">
         <v>0.94599999999999995</v>
       </c>
-      <c r="D15" s="19">
+      <c r="D15" s="17">
         <v>0.92800000000000005</v>
       </c>
-      <c r="E15" s="19">
+      <c r="E15" s="17">
         <v>0.90200000000000002</v>
       </c>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="19"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="19"/>
-      <c r="B16" s="19">
+      <c r="A16" s="17"/>
+      <c r="B16" s="17">
         <f>B15+B19</f>
         <v>0.97133333333333327</v>
       </c>
-      <c r="C16" s="19">
+      <c r="C16" s="17">
         <f t="shared" ref="C16:E16" si="12">C15+C19</f>
         <v>0.94866666666666666</v>
       </c>
-      <c r="D16" s="19">
+      <c r="D16" s="17">
         <f t="shared" si="12"/>
         <v>0.94133333333333336</v>
       </c>
-      <c r="E16" s="19">
+      <c r="E16" s="17">
         <f t="shared" si="12"/>
         <v>0.91533333333333333</v>
       </c>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="19"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="19"/>
-      <c r="B17" s="19">
+      <c r="A17" s="17"/>
+      <c r="B17" s="17">
         <f>B16+B19</f>
         <v>0.97866666666666657</v>
       </c>
-      <c r="C17" s="19">
+      <c r="C17" s="17">
         <f t="shared" ref="C17:E17" si="13">C16+C19</f>
         <v>0.95133333333333336</v>
       </c>
-      <c r="D17" s="19">
+      <c r="D17" s="17">
         <f t="shared" si="13"/>
         <v>0.95466666666666666</v>
       </c>
-      <c r="E17" s="19">
+      <c r="E17" s="17">
         <f t="shared" si="13"/>
         <v>0.92866666666666664</v>
       </c>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="19"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="19"/>
-      <c r="B18" s="19">
+      <c r="A18" s="17"/>
+      <c r="B18" s="17">
         <v>0.98599999999999999</v>
       </c>
-      <c r="C18" s="19">
+      <c r="C18" s="17">
         <v>0.95399999999999996</v>
       </c>
-      <c r="D18" s="19">
+      <c r="D18" s="17">
         <v>0.96799999999999997</v>
       </c>
-      <c r="E18" s="19">
+      <c r="E18" s="17">
         <v>0.94199999999999995</v>
       </c>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="19"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B19">
@@ -1407,7 +2180,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O37"/>
   <sheetViews>
@@ -1745,7 +2518,7 @@
         <v>0.67669886771139631</v>
       </c>
       <c r="D9" s="13">
-        <f t="shared" ref="B9:E10" si="1">D3*M15</f>
+        <f t="shared" ref="D9:E10" si="1">D3*M15</f>
         <v>0.60052715895841802</v>
       </c>
       <c r="E9" s="13">
@@ -2603,7 +3376,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N23"/>
   <sheetViews>
@@ -2635,14 +3408,14 @@
         <v>8</v>
       </c>
       <c r="J1" s="12"/>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17" t="s">
+      <c r="L1" s="21"/>
+      <c r="M1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="17"/>
+      <c r="N1" s="21"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
@@ -3696,7 +4469,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I23"/>
   <sheetViews>
@@ -3708,22 +4481,22 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17" t="s">
+      <c r="C1" s="21"/>
+      <c r="D1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="17"/>
-      <c r="F1" s="18" t="s">
+      <c r="E1" s="21"/>
+      <c r="F1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18" t="s">
+      <c r="G1" s="22"/>
+      <c r="H1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="18"/>
+      <c r="I1" s="22"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
@@ -4291,11 +5064,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="B13" sqref="B13:C13"/>
     </sheetView>
   </sheetViews>
@@ -4652,7 +5425,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F18"/>
   <sheetViews>
@@ -4673,15 +5446,15 @@
         <v>1.9619</v>
       </c>
       <c r="D1">
-        <f>B1/C1</f>
+        <f t="shared" ref="D1:D18" si="0">B1/C1</f>
         <v>0.58463734135277035</v>
       </c>
       <c r="E1">
-        <f>1.153/1.928</f>
+        <f t="shared" ref="E1:E18" si="1">1.153/1.928</f>
         <v>0.59802904564315351</v>
       </c>
       <c r="F1">
-        <f>ABS(D1-E1)</f>
+        <f t="shared" ref="F1:F18" si="2">ABS(D1-E1)</f>
         <v>1.3391704290383166E-2</v>
       </c>
     </row>
@@ -4696,15 +5469,15 @@
         <v>1.9419</v>
       </c>
       <c r="D2">
-        <f>B2/C2</f>
+        <f t="shared" si="0"/>
         <v>0.59071012925485356</v>
       </c>
       <c r="E2">
-        <f>1.153/1.928</f>
+        <f t="shared" si="1"/>
         <v>0.59802904564315351</v>
       </c>
       <c r="F2">
-        <f>ABS(D2-E2)</f>
+        <f t="shared" si="2"/>
         <v>7.3189163882999564E-3</v>
       </c>
     </row>
@@ -4719,15 +5492,15 @@
         <v>1.9496</v>
       </c>
       <c r="D3">
-        <f>B3/C3</f>
+        <f t="shared" si="0"/>
         <v>0.58847968814115714</v>
       </c>
       <c r="E3">
-        <f>1.153/1.928</f>
+        <f t="shared" si="1"/>
         <v>0.59802904564315351</v>
       </c>
       <c r="F3">
-        <f>ABS(D3-E3)</f>
+        <f t="shared" si="2"/>
         <v>9.5493575019963695E-3</v>
       </c>
     </row>
@@ -4742,15 +5515,15 @@
         <v>1.9823999999999999</v>
       </c>
       <c r="D4">
-        <f>B4/C4</f>
+        <f t="shared" si="0"/>
         <v>0.57884382566585957</v>
       </c>
       <c r="E4">
-        <f>1.153/1.928</f>
+        <f t="shared" si="1"/>
         <v>0.59802904564315351</v>
       </c>
       <c r="F4">
-        <f>ABS(D4-E4)</f>
+        <f t="shared" si="2"/>
         <v>1.9185219977293944E-2</v>
       </c>
     </row>
@@ -4765,15 +5538,15 @@
         <v>1.9937</v>
       </c>
       <c r="D5">
-        <f>B5/C5</f>
+        <f t="shared" si="0"/>
         <v>0.5775191854341174</v>
       </c>
       <c r="E5">
-        <f>1.153/1.928</f>
+        <f t="shared" si="1"/>
         <v>0.59802904564315351</v>
       </c>
       <c r="F5">
-        <f>ABS(D5-E5)</f>
+        <f t="shared" si="2"/>
         <v>2.0509860209036113E-2</v>
       </c>
     </row>
@@ -4788,15 +5561,15 @@
         <v>1.9276</v>
       </c>
       <c r="D6">
-        <f>B6/C6</f>
+        <f t="shared" si="0"/>
         <v>0.5982050217887529</v>
       </c>
       <c r="E6">
-        <f>1.153/1.928</f>
+        <f t="shared" si="1"/>
         <v>0.59802904564315351</v>
       </c>
       <c r="F6">
-        <f>ABS(D6-E6)</f>
+        <f t="shared" si="2"/>
         <v>1.7597614559938801E-4</v>
       </c>
     </row>
@@ -4811,15 +5584,15 @@
         <v>1.9334</v>
       </c>
       <c r="D7">
-        <f>B7/C7</f>
+        <f t="shared" si="0"/>
         <v>0.59661735802213711</v>
       </c>
       <c r="E7">
-        <f>1.153/1.928</f>
+        <f t="shared" si="1"/>
         <v>0.59802904564315351</v>
       </c>
       <c r="F7">
-        <f>ABS(D7-E7)</f>
+        <f t="shared" si="2"/>
         <v>1.4116876210163998E-3</v>
       </c>
     </row>
@@ -4834,15 +5607,15 @@
         <v>1.9484999999999999</v>
       </c>
       <c r="D8">
-        <f>B8/C8</f>
+        <f t="shared" si="0"/>
         <v>0.59209648447523733</v>
       </c>
       <c r="E8">
-        <f>1.153/1.928</f>
+        <f t="shared" si="1"/>
         <v>0.59802904564315351</v>
       </c>
       <c r="F8">
-        <f>ABS(D8-E8)</f>
+        <f t="shared" si="2"/>
         <v>5.9325611679161838E-3</v>
       </c>
     </row>
@@ -4857,15 +5630,15 @@
         <v>1.9635</v>
       </c>
       <c r="D9">
-        <f>B9/C9</f>
+        <f t="shared" si="0"/>
         <v>0.58808250572956455</v>
       </c>
       <c r="E9">
-        <f>1.153/1.928</f>
+        <f t="shared" si="1"/>
         <v>0.59802904564315351</v>
       </c>
       <c r="F9">
-        <f>ABS(D9-E9)</f>
+        <f t="shared" si="2"/>
         <v>9.9465399135889587E-3</v>
       </c>
     </row>
@@ -4880,15 +5653,15 @@
         <v>1.9877</v>
       </c>
       <c r="D10">
-        <f>B10/C10</f>
+        <f t="shared" si="0"/>
         <v>0.58152638728178296</v>
       </c>
       <c r="E10">
-        <f>1.153/1.928</f>
+        <f t="shared" si="1"/>
         <v>0.59802904564315351</v>
       </c>
       <c r="F10">
-        <f>ABS(D10-E10)</f>
+        <f t="shared" si="2"/>
         <v>1.6502658361370548E-2</v>
       </c>
     </row>
@@ -4903,15 +5676,15 @@
         <v>1.9774</v>
       </c>
       <c r="D11">
-        <f>B11/C11</f>
+        <f t="shared" si="0"/>
         <v>0.5847577627187216</v>
       </c>
       <c r="E11">
-        <f>1.153/1.928</f>
+        <f t="shared" si="1"/>
         <v>0.59802904564315351</v>
       </c>
       <c r="F11">
-        <f>ABS(D11-E11)</f>
+        <f t="shared" si="2"/>
         <v>1.3271282924431915E-2</v>
       </c>
     </row>
@@ -4926,15 +5699,15 @@
         <v>1.9782999999999999</v>
       </c>
       <c r="D12">
-        <f>B12/C12</f>
+        <f t="shared" si="0"/>
         <v>0.58550270434211193</v>
       </c>
       <c r="E12">
-        <f>1.153/1.928</f>
+        <f t="shared" si="1"/>
         <v>0.59802904564315351</v>
       </c>
       <c r="F12">
-        <f>ABS(D12-E12)</f>
+        <f t="shared" si="2"/>
         <v>1.2526341301041577E-2</v>
       </c>
     </row>
@@ -4949,15 +5722,15 @@
         <v>1.9956</v>
       </c>
       <c r="D13">
-        <f>B13/C13</f>
+        <f t="shared" si="0"/>
         <v>0.58142914411705759</v>
       </c>
       <c r="E13">
-        <f>1.153/1.928</f>
+        <f t="shared" si="1"/>
         <v>0.59802904564315351</v>
       </c>
       <c r="F13">
-        <f>ABS(D13-E13)</f>
+        <f t="shared" si="2"/>
         <v>1.6599901526095917E-2</v>
       </c>
     </row>
@@ -4972,15 +5745,15 @@
         <v>1.9504999999999999</v>
       </c>
       <c r="D14">
-        <f>B14/C14</f>
+        <f t="shared" si="0"/>
         <v>0.59589848756729058</v>
       </c>
       <c r="E14">
-        <f>1.153/1.928</f>
+        <f t="shared" si="1"/>
         <v>0.59802904564315351</v>
       </c>
       <c r="F14">
-        <f>ABS(D14-E14)</f>
+        <f t="shared" si="2"/>
         <v>2.1305580758629317E-3</v>
       </c>
     </row>
@@ -4995,15 +5768,15 @@
         <v>1.9542999999999999</v>
       </c>
       <c r="D15">
-        <f>B15/C15</f>
+        <f t="shared" si="0"/>
         <v>0.59473980453359265</v>
       </c>
       <c r="E15">
-        <f>1.153/1.928</f>
+        <f t="shared" si="1"/>
         <v>0.59802904564315351</v>
       </c>
       <c r="F15">
-        <f>ABS(D15-E15)</f>
+        <f t="shared" si="2"/>
         <v>3.2892411095608587E-3</v>
       </c>
     </row>
@@ -5018,15 +5791,15 @@
         <v>1.9573</v>
       </c>
       <c r="D16">
-        <f>B16/C16</f>
+        <f t="shared" si="0"/>
         <v>0.5950544116895724</v>
       </c>
       <c r="E16">
-        <f>1.153/1.928</f>
+        <f t="shared" si="1"/>
         <v>0.59802904564315351</v>
       </c>
       <c r="F16">
-        <f>ABS(D16-E16)</f>
+        <f t="shared" si="2"/>
         <v>2.9746339535811073E-3</v>
       </c>
     </row>
@@ -5041,15 +5814,15 @@
         <v>1.9559</v>
       </c>
       <c r="D17">
-        <f>B17/C17</f>
+        <f t="shared" si="0"/>
         <v>0.59553146888900255</v>
       </c>
       <c r="E17">
-        <f>1.153/1.928</f>
+        <f t="shared" si="1"/>
         <v>0.59802904564315351</v>
       </c>
       <c r="F17">
-        <f>ABS(D17-E17)</f>
+        <f t="shared" si="2"/>
         <v>2.4975767541509653E-3</v>
       </c>
     </row>
@@ -5064,15 +5837,15 @@
         <v>1.9810000000000001</v>
       </c>
       <c r="D18">
-        <f>B18/C18</f>
+        <f t="shared" si="0"/>
         <v>0.58919737506309944</v>
       </c>
       <c r="E18">
-        <f>1.153/1.928</f>
+        <f t="shared" si="1"/>
         <v>0.59802904564315351</v>
       </c>
       <c r="F18">
-        <f>ABS(D18-E18)</f>
+        <f t="shared" si="2"/>
         <v>8.831670580054074E-3</v>
       </c>
     </row>

--- a/UbsRec/final.xlsx
+++ b/UbsRec/final.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="8" r:id="rId1"/>
@@ -358,7 +358,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -408,6 +408,12 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -802,8 +808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -876,7 +882,7 @@
         <v>1.0428440000000001</v>
       </c>
       <c r="J2">
-        <f t="shared" ref="J2:J9" si="0">A12</f>
+        <f t="shared" ref="J2:J8" si="0">A12</f>
         <v>0.93525816074207191</v>
       </c>
       <c r="K2">
@@ -1173,7 +1179,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="K9">
-        <v>2E-3</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1251,7 +1257,7 @@
       </c>
       <c r="K11">
         <f t="shared" ref="K11:M11" si="5">K10+K9</f>
-        <v>0.97911840241634085</v>
+        <v>0.97711840241634085</v>
       </c>
       <c r="L11">
         <f t="shared" si="5"/>
@@ -1510,7 +1516,7 @@
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C14" sqref="C11:C14"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1640,7 +1646,7 @@
       </c>
       <c r="D4" s="17">
         <f t="shared" si="1"/>
-        <v>0.91806428058107903</v>
+        <v>0.9169721908526256</v>
       </c>
       <c r="E4" s="17">
         <f t="shared" si="1"/>
@@ -1668,7 +1674,7 @@
       </c>
       <c r="L4" s="17">
         <f t="shared" si="2"/>
-        <v>1.0338561718255395</v>
+        <v>1.0326263410502541</v>
       </c>
       <c r="M4" s="17">
         <f t="shared" si="2"/>
@@ -1726,7 +1732,7 @@
       </c>
       <c r="D6" s="17">
         <f>D7+(D3-D7)/(H3-H7)*(H6-H7)</f>
-        <v>0.89967402390648443</v>
+        <v>0.89900417607754568</v>
       </c>
       <c r="E6" s="17">
         <f>E7+(E3-E7)/(I3-I7)*(I6-I7)</f>
@@ -1763,7 +1769,7 @@
       </c>
       <c r="D7" s="17">
         <f t="shared" si="3"/>
-        <v>0.89112337317747403</v>
+        <v>0.89000696012924274</v>
       </c>
       <c r="E7" s="17">
         <f t="shared" si="3"/>
@@ -1791,7 +1797,7 @@
       </c>
       <c r="L7" s="17">
         <f t="shared" si="4"/>
-        <v>1.0361899688110163</v>
+        <v>1.0348918141037706</v>
       </c>
       <c r="M7" s="17">
         <f t="shared" si="4"/>
@@ -1812,7 +1818,7 @@
       </c>
       <c r="D8" s="17">
         <f t="shared" si="3"/>
-        <v>0.8630809135967239</v>
+        <v>0.86197242612460012</v>
       </c>
       <c r="E8" s="17">
         <f t="shared" si="3"/>
@@ -1840,7 +1846,7 @@
       </c>
       <c r="L8" s="17">
         <f t="shared" si="5"/>
-        <v>1.0373568673037548</v>
+        <v>1.036024550630529</v>
       </c>
       <c r="M8" s="17">
         <f t="shared" si="5"/>
@@ -1861,7 +1867,7 @@
       </c>
       <c r="D9" s="17">
         <f t="shared" si="3"/>
-        <v>0.80751756627599647</v>
+        <v>0.80646773489946044</v>
       </c>
       <c r="E9" s="17">
         <f>I9*M9</f>
@@ -1889,7 +1895,7 @@
       </c>
       <c r="L9" s="3">
         <f t="shared" si="7"/>
-        <v>1.037940316550124</v>
+        <v>1.036590918893908</v>
       </c>
       <c r="M9" s="3">
         <f t="shared" si="7"/>
@@ -1910,7 +1916,7 @@
       </c>
       <c r="D10" s="17">
         <f t="shared" ref="D10" si="8">D14/D18</f>
-        <v>0.78512396694214881</v>
+        <v>0.78409090909090917</v>
       </c>
       <c r="E10" s="17">
         <f>E14/E18</f>
@@ -1938,7 +1944,7 @@
       </c>
       <c r="L10" s="17">
         <f t="shared" ref="L10:M10" si="9">D10/H10</f>
-        <v>1.0385237657964932</v>
+        <v>1.0371572871572872</v>
       </c>
       <c r="M10" s="17">
         <f t="shared" si="9"/>
@@ -1959,7 +1965,7 @@
       </c>
       <c r="D11" s="17">
         <f t="shared" ref="D11" si="10">D7*D15</f>
-        <v>0.82696249030869595</v>
+        <v>0.82592645899993733</v>
       </c>
       <c r="E11" s="17">
         <f>E7*E15</f>
@@ -1988,7 +1994,7 @@
       </c>
       <c r="D12" s="17">
         <f t="shared" ref="B12:D13" si="11">D8*D16</f>
-        <v>0.81244683333238277</v>
+        <v>0.81140337712529031</v>
       </c>
       <c r="E12" s="17">
         <f>E8*E16</f>
@@ -2017,7 +2023,7 @@
       </c>
       <c r="D13" s="17">
         <f>D9*D17</f>
-        <v>0.77091010327148457</v>
+        <v>0.76990786425068491</v>
       </c>
       <c r="E13" s="17">
         <f>E9*E17</f>
@@ -2043,7 +2049,7 @@
         <v>0.97650000000000003</v>
       </c>
       <c r="D14" s="18">
-        <v>0.76</v>
+        <v>0.75900000000000001</v>
       </c>
       <c r="E14" s="18">
         <v>0.97332799999999997</v>
@@ -2185,7 +2191,7 @@
   <dimension ref="A1:O37"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E14" sqref="A3:E14"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3408,14 +3414,14 @@
         <v>8</v>
       </c>
       <c r="J1" s="12"/>
-      <c r="K1" s="21" t="s">
+      <c r="K1" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21" t="s">
+      <c r="L1" s="23"/>
+      <c r="M1" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="21"/>
+      <c r="N1" s="23"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
@@ -4473,30 +4479,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21" t="s">
+      <c r="C1" s="23"/>
+      <c r="D1" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="21"/>
-      <c r="F1" s="22" t="s">
+      <c r="E1" s="23"/>
+      <c r="F1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22" t="s">
+      <c r="G1" s="24"/>
+      <c r="H1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="22"/>
+      <c r="I1" s="24"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
@@ -4539,7 +4545,7 @@
       </c>
       <c r="D3" s="4">
         <f>E3*D17</f>
-        <v>0.78457686035487806</v>
+        <v>0.7835445223807268</v>
       </c>
       <c r="E3" s="4">
         <f>E9-E11*E14</f>
@@ -4564,7 +4570,7 @@
       </c>
       <c r="D4" s="4">
         <f>E4*D19</f>
-        <v>0.77497463714366388</v>
+        <v>0.7739549336737378</v>
       </c>
       <c r="E4" s="4">
         <f>E3-E12*E14</f>
@@ -4581,30 +4587,30 @@
       </c>
       <c r="B5" s="4">
         <f>C5*B21</f>
-        <v>0.80287738947852549</v>
+        <v>0.78242698291980028</v>
       </c>
       <c r="C5" s="4">
         <f>C6*F10</f>
-        <v>1.0142599921920914</v>
+        <v>0.98842537601234093</v>
       </c>
       <c r="D5" s="4">
         <f>E5*D21</f>
-        <v>0.76804018445769506</v>
+        <v>0.76129449819981987</v>
       </c>
       <c r="E5" s="4">
         <f>H10*E6</f>
-        <v>0.98804810226581818</v>
+        <v>0.98066043219974175</v>
       </c>
       <c r="F5" s="2">
-        <f>POWER(G5,2)</f>
-        <v>0.10195248999999998</v>
+        <f>AVERAGE(G5,I5)</f>
+        <v>0.39369999999999999</v>
       </c>
       <c r="G5" s="2">
         <v>0.31929999999999997</v>
       </c>
       <c r="H5" s="4">
-        <f>POWER(I5,2)</f>
-        <v>0.21911761000000002</v>
+        <f>I5</f>
+        <v>0.46810000000000002</v>
       </c>
       <c r="I5" s="2">
         <v>0.46810000000000002</v>
@@ -4624,22 +4630,22 @@
       </c>
       <c r="D6" s="15">
         <f>'mar-n'!D14</f>
-        <v>0.76</v>
+        <v>0.75900000000000001</v>
       </c>
       <c r="E6" s="15">
         <f>'mar-n'!E14</f>
         <v>0.97332799999999997</v>
       </c>
-      <c r="F6" s="2">
-        <f>POWER(G6,2)</f>
-        <v>9.8156890000000011E-2</v>
+      <c r="F6" s="22">
+        <f t="shared" ref="F6:F8" si="0">AVERAGE(G6,I6)</f>
+        <v>0.38895000000000002</v>
       </c>
       <c r="G6" s="2">
         <v>0.31330000000000002</v>
       </c>
-      <c r="H6" s="4">
-        <f>POWER(I6,2)</f>
-        <v>0.21585316000000002</v>
+      <c r="H6" s="21">
+        <f t="shared" ref="H6:H8" si="1">I6</f>
+        <v>0.46460000000000001</v>
       </c>
       <c r="I6" s="4">
         <v>0.46460000000000001</v>
@@ -4651,30 +4657,30 @@
       </c>
       <c r="B7" s="4">
         <f>C7*B19</f>
-        <v>0.80190931081160288</v>
+        <v>0.78015607273056098</v>
       </c>
       <c r="C7" s="4">
         <f>C6*F12</f>
-        <v>1.0199857703315578</v>
+        <v>0.99231681450057851</v>
       </c>
       <c r="D7" s="4">
         <f>E7*D20</f>
-        <v>0.77179030078001298</v>
+        <v>0.76143305580558041</v>
       </c>
       <c r="E7" s="4">
         <f>E6*H12</f>
-        <v>0.99735728351403319</v>
-      </c>
-      <c r="F7" s="2">
-        <f>POWER(G7,2)</f>
-        <v>0.10252803999999999</v>
+        <v>0.98526938958243648</v>
+      </c>
+      <c r="F7" s="22">
+        <f t="shared" si="0"/>
+        <v>0.39524999999999999</v>
       </c>
       <c r="G7" s="2">
         <v>0.32019999999999998</v>
       </c>
-      <c r="H7" s="4">
-        <f>POWER(I7,2)</f>
-        <v>0.22118209</v>
+      <c r="H7" s="21">
+        <f t="shared" si="1"/>
+        <v>0.4703</v>
       </c>
       <c r="I7" s="4">
         <v>0.4703</v>
@@ -4686,30 +4692,30 @@
       </c>
       <c r="B8" s="4">
         <f>C8*B18</f>
-        <v>0.8076673264456935</v>
+        <v>0.78397170455572307</v>
       </c>
       <c r="C8" s="4">
         <f>C6*F13</f>
-        <v>1.0308451007871176</v>
+        <v>1.0006018125723102</v>
       </c>
       <c r="D8" s="4">
         <f>E8*D18</f>
-        <v>0.78083802525754109</v>
+        <v>0.76241584158415832</v>
       </c>
       <c r="E8" s="4">
         <f>E6*H13</f>
-        <v>1.0182482445618124</v>
-      </c>
-      <c r="F8" s="2">
-        <f>POWER(G8,2)</f>
-        <v>0.10361961000000001</v>
+        <v>0.99553479466207484</v>
+      </c>
+      <c r="F8" s="22">
+        <f t="shared" si="0"/>
+        <v>0.39855000000000002</v>
       </c>
       <c r="G8" s="2">
         <v>0.32190000000000002</v>
       </c>
-      <c r="H8" s="4">
-        <f>POWER(I8,2)</f>
-        <v>0.22581504000000002</v>
+      <c r="H8" s="21">
+        <f t="shared" si="1"/>
+        <v>0.47520000000000001</v>
       </c>
       <c r="I8" s="4">
         <v>0.47520000000000001</v>
@@ -4730,7 +4736,7 @@
       </c>
       <c r="D9" s="16">
         <f>'mar-n'!D10</f>
-        <v>0.78512396694214881</v>
+        <v>0.78409090909090917</v>
       </c>
       <c r="E9" s="16">
         <f>'mar-n'!E10</f>
@@ -4757,7 +4763,7 @@
       </c>
       <c r="D10" s="2">
         <f>D9-D6</f>
-        <v>2.5123966942148801E-2</v>
+        <v>2.5090909090909164E-2</v>
       </c>
       <c r="E10" s="2">
         <f>E9-E6</f>
@@ -4765,19 +4771,19 @@
       </c>
       <c r="F10" s="2">
         <f>F5/G10</f>
-        <v>1.0386687068019369</v>
+        <v>1.0122123666281013</v>
       </c>
       <c r="G10" s="2">
         <f>MIN(F5:F8)</f>
-        <v>9.8156890000000011E-2</v>
+        <v>0.38895000000000002</v>
       </c>
       <c r="H10" s="4">
         <f>H5/I10</f>
-        <v>1.0151234756072138</v>
+        <v>1.0075333620318554</v>
       </c>
       <c r="I10" s="4">
         <f>MIN(H5:H8)</f>
-        <v>0.21585316000000002</v>
+        <v>0.46460000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -4796,7 +4802,7 @@
       </c>
       <c r="G11" s="2">
         <f>G10</f>
-        <v>9.8156890000000011E-2</v>
+        <v>0.38895000000000002</v>
       </c>
       <c r="H11" s="4">
         <f>H6/I11</f>
@@ -4804,7 +4810,7 @@
       </c>
       <c r="I11" s="4">
         <f>I10</f>
-        <v>0.21585316000000002</v>
+        <v>0.46460000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -4819,19 +4825,19 @@
       </c>
       <c r="F12" s="2">
         <f>F7/G12</f>
-        <v>1.0445322788853637</v>
+        <v>1.0161974546856922</v>
       </c>
       <c r="G12" s="2">
         <f>G11</f>
-        <v>9.8156890000000011E-2</v>
+        <v>0.38895000000000002</v>
       </c>
       <c r="H12" s="4">
         <f>H7/I12</f>
-        <v>1.0246877553240359</v>
+        <v>1.0122686181661644</v>
       </c>
       <c r="I12" s="4">
         <f>I11</f>
-        <v>0.21585316000000002</v>
+        <v>0.46460000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -4846,19 +4852,19 @@
       </c>
       <c r="F13" s="2">
         <f>F8/G13</f>
-        <v>1.055652944994488</v>
+        <v>1.024681835711531</v>
       </c>
       <c r="G13" s="2">
         <f>G12</f>
-        <v>9.8156890000000011E-2</v>
+        <v>0.38895000000000002</v>
       </c>
       <c r="H13" s="4">
         <f>H8/I13</f>
-        <v>1.0461511890768707</v>
+        <v>1.0228153250107619</v>
       </c>
       <c r="I13" s="4">
         <f>I12</f>
-        <v>0.21585316000000002</v>
+        <v>0.46460000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -4907,11 +4913,11 @@
       </c>
       <c r="D16" s="7">
         <f>D9/E9*1</f>
-        <v>0.75985359186163781</v>
+        <v>0.75885378450392516</v>
       </c>
       <c r="E16" s="2">
         <f>(D23-D16)/(A23-A16)</f>
-        <v>3.495434074381206E-3</v>
+        <v>3.4908348190201646E-3</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -4928,11 +4934,11 @@
       </c>
       <c r="D17">
         <f>D16+E16</f>
-        <v>0.76334902593601905</v>
+        <v>0.76234461932294528</v>
       </c>
       <c r="E17" s="2">
         <f>E16</f>
-        <v>3.495434074381206E-3</v>
+        <v>3.4908348190201646E-3</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -4948,12 +4954,12 @@
         <v>2.6963824978267102E-3</v>
       </c>
       <c r="D18">
-        <f t="shared" ref="D18:D21" si="0">D17+E17</f>
-        <v>0.7668444600104003</v>
+        <f t="shared" ref="D18:D21" si="2">D17+E17</f>
+        <v>0.76583545414196541</v>
       </c>
       <c r="E18" s="2">
-        <f t="shared" ref="E18:E22" si="1">E17</f>
-        <v>3.495434074381206E-3</v>
+        <f t="shared" ref="E18:E22" si="3">E17</f>
+        <v>3.4908348190201646E-3</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -4961,20 +4967,20 @@
         <v>3</v>
       </c>
       <c r="B19">
-        <f t="shared" ref="B19:B22" si="2">B18+C18</f>
+        <f t="shared" ref="B19:B22" si="4">B18+C18</f>
         <v>0.78619656679223404</v>
       </c>
       <c r="C19">
-        <f t="shared" ref="C19:C22" si="3">C18</f>
+        <f t="shared" ref="C19:C22" si="5">C18</f>
         <v>2.6963824978267102E-3</v>
       </c>
       <c r="D19">
-        <f t="shared" si="0"/>
-        <v>0.77033989408478154</v>
+        <f t="shared" si="2"/>
+        <v>0.76932628896098554</v>
       </c>
       <c r="E19" s="2">
-        <f t="shared" si="1"/>
-        <v>3.495434074381206E-3</v>
+        <f t="shared" si="3"/>
+        <v>3.4908348190201646E-3</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -4982,20 +4988,20 @@
         <v>4</v>
       </c>
       <c r="B20">
+        <f t="shared" si="4"/>
+        <v>0.78889294929006071</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="5"/>
+        <v>2.6963824978267102E-3</v>
+      </c>
+      <c r="D20">
         <f t="shared" si="2"/>
-        <v>0.78889294929006071</v>
-      </c>
-      <c r="C20">
+        <v>0.77281712378000567</v>
+      </c>
+      <c r="E20" s="2">
         <f t="shared" si="3"/>
-        <v>2.6963824978267102E-3</v>
-      </c>
-      <c r="D20">
-        <f t="shared" si="0"/>
-        <v>0.77383532815916278</v>
-      </c>
-      <c r="E20" s="2">
-        <f t="shared" si="1"/>
-        <v>3.495434074381206E-3</v>
+        <v>3.4908348190201646E-3</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -5003,20 +5009,20 @@
         <v>5</v>
       </c>
       <c r="B21">
+        <f t="shared" si="4"/>
+        <v>0.79158933178788737</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="5"/>
+        <v>2.6963824978267102E-3</v>
+      </c>
+      <c r="D21">
         <f t="shared" si="2"/>
-        <v>0.79158933178788737</v>
-      </c>
-      <c r="C21">
+        <v>0.77630795859902579</v>
+      </c>
+      <c r="E21" s="2">
         <f t="shared" si="3"/>
-        <v>2.6963824978267102E-3</v>
-      </c>
-      <c r="D21">
-        <f t="shared" si="0"/>
-        <v>0.77733076223354403</v>
-      </c>
-      <c r="E21" s="2">
-        <f t="shared" si="1"/>
-        <v>3.495434074381206E-3</v>
+        <v>3.4908348190201646E-3</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -5024,20 +5030,20 @@
         <v>6</v>
       </c>
       <c r="B22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.79428571428571404</v>
       </c>
       <c r="C22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.6963824978267102E-3</v>
       </c>
       <c r="D22">
         <f>D21+E21</f>
-        <v>0.78082619630792527</v>
+        <v>0.77979879341804592</v>
       </c>
       <c r="E22" s="2">
-        <f t="shared" si="1"/>
-        <v>3.495434074381206E-3</v>
+        <f t="shared" si="3"/>
+        <v>3.4908348190201646E-3</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -5050,7 +5056,7 @@
       </c>
       <c r="D23">
         <f>D6/E6</f>
-        <v>0.78082619630792505</v>
+        <v>0.77979879341804614</v>
       </c>
     </row>
   </sheetData>

--- a/UbsRec/final.xlsx
+++ b/UbsRec/final.xlsx
@@ -9,19 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="8" r:id="rId1"/>
-    <sheet name="size" sheetId="7" r:id="rId2"/>
-    <sheet name="mar-n" sheetId="6" r:id="rId3"/>
-    <sheet name="mnar" sheetId="1" r:id="rId4"/>
-    <sheet name="mar-o" sheetId="3" r:id="rId5"/>
-    <sheet name="npm" sheetId="4" r:id="rId6"/>
-    <sheet name="var" sheetId="2" r:id="rId7"/>
-    <sheet name="sort" sheetId="5" r:id="rId8"/>
+    <sheet name="overall" sheetId="9" r:id="rId2"/>
+    <sheet name="size" sheetId="7" r:id="rId3"/>
+    <sheet name="mar-n" sheetId="6" r:id="rId4"/>
+    <sheet name="mnar" sheetId="1" r:id="rId5"/>
+    <sheet name="mar-o" sheetId="3" r:id="rId6"/>
+    <sheet name="npm" sheetId="4" r:id="rId7"/>
+    <sheet name="var" sheetId="2" r:id="rId8"/>
+    <sheet name="sort" sheetId="5" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="70">
   <si>
     <t>MF</t>
   </si>
@@ -358,7 +359,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -414,6 +415,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -806,6 +808,1571 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="P7" sqref="P2:P7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="23">
+        <v>1.1672</v>
+      </c>
+      <c r="C1" s="23">
+        <v>1.9504999999999999</v>
+      </c>
+      <c r="D1" s="23">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="E1" s="23">
+        <v>1.3190500000000001</v>
+      </c>
+      <c r="F1" s="23">
+        <v>0.60899999999999999</v>
+      </c>
+      <c r="G1" s="23">
+        <v>0.71899999999999997</v>
+      </c>
+      <c r="H1" s="23">
+        <v>0.60399999999999998</v>
+      </c>
+      <c r="I1" s="23">
+        <v>0.69499999999999995</v>
+      </c>
+      <c r="K1" s="3">
+        <f>B9/B5</f>
+        <v>0.9769265091893975</v>
+      </c>
+      <c r="L1" s="3">
+        <f t="shared" ref="L1:R4" si="0">C9/C5</f>
+        <v>0.94630510579627802</v>
+      </c>
+      <c r="M1" s="3">
+        <f t="shared" si="0"/>
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="N1" s="3">
+        <f>E9/E5</f>
+        <v>0.90387878037519731</v>
+      </c>
+      <c r="O1" s="3">
+        <f t="shared" si="0"/>
+        <v>0.94488188976377951</v>
+      </c>
+      <c r="P1" s="3">
+        <f t="shared" si="0"/>
+        <v>0.9342465753424658</v>
+      </c>
+      <c r="Q1" s="3">
+        <f t="shared" si="0"/>
+        <v>0.96639999999999993</v>
+      </c>
+      <c r="R1" s="3">
+        <f t="shared" si="0"/>
+        <v>0.94428571428571439</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A2" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="23">
+        <v>1.034</v>
+      </c>
+      <c r="C2" s="23">
+        <v>1.5858590891152857</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0.91943349520045203</v>
+      </c>
+      <c r="E2" s="23">
+        <v>1.2991219071392655</v>
+      </c>
+      <c r="F2" s="23">
+        <v>0.57099999999999995</v>
+      </c>
+      <c r="G2" s="23">
+        <v>0.65600000000000003</v>
+      </c>
+      <c r="H2" s="23">
+        <v>0.58699999999999997</v>
+      </c>
+      <c r="I2" s="23">
+        <v>0.65700000000000003</v>
+      </c>
+      <c r="K2" s="3">
+        <f t="shared" ref="K2:K4" si="1">B10/B6</f>
+        <v>0.98258542537598714</v>
+      </c>
+      <c r="L2" s="3">
+        <f t="shared" si="0"/>
+        <v>0.94776074397386734</v>
+      </c>
+      <c r="M2" s="3">
+        <f t="shared" si="0"/>
+        <v>0.94133333333333336</v>
+      </c>
+      <c r="N2" s="3">
+        <f t="shared" si="0"/>
+        <v>0.91533333333333344</v>
+      </c>
+      <c r="O2" s="3">
+        <f t="shared" si="0"/>
+        <v>0.95876288659793829</v>
+      </c>
+      <c r="P2" s="3">
+        <f t="shared" si="0"/>
+        <v>0.94345238095238093</v>
+      </c>
+      <c r="Q2" s="3">
+        <f t="shared" si="0"/>
+        <v>0.97292724196277491</v>
+      </c>
+      <c r="R2" s="3">
+        <f t="shared" si="0"/>
+        <v>0.9501510574018126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A3" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="23">
+        <v>0.91373956998807504</v>
+      </c>
+      <c r="C3" s="23">
+        <v>1.1808892916574876</v>
+      </c>
+      <c r="D3" s="23">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="E3" s="23">
+        <v>1.512132895783612</v>
+      </c>
+      <c r="F3" s="23">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="G3" s="23">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="H3" s="23">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="I3" s="23">
+        <v>1.069</v>
+      </c>
+      <c r="K3" s="3">
+        <f t="shared" si="1"/>
+        <v>0.98465719011109243</v>
+      </c>
+      <c r="L3" s="3">
+        <f t="shared" si="0"/>
+        <v>0.94766289200446474</v>
+      </c>
+      <c r="M3" s="3">
+        <f t="shared" si="0"/>
+        <v>0.95466666666666689</v>
+      </c>
+      <c r="N3" s="3">
+        <f t="shared" si="0"/>
+        <v>0.92866666666666664</v>
+      </c>
+      <c r="O3" s="3">
+        <f t="shared" si="0"/>
+        <v>0.97113752122241082</v>
+      </c>
+      <c r="P3" s="3">
+        <f t="shared" si="0"/>
+        <v>0.95125553914327909</v>
+      </c>
+      <c r="Q3" s="3">
+        <f t="shared" si="0"/>
+        <v>0.97836938435940102</v>
+      </c>
+      <c r="R3" s="3">
+        <f t="shared" si="0"/>
+        <v>0.95386904761904756</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A4" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="23">
+        <v>1.1904630849220104</v>
+      </c>
+      <c r="C4" s="23">
+        <v>2.2434360126916975</v>
+      </c>
+      <c r="D4" s="23">
+        <v>0.90991928477319794</v>
+      </c>
+      <c r="E4" s="23">
+        <v>1.2791421661462539</v>
+      </c>
+      <c r="F4" s="23">
+        <v>0.59499999999999997</v>
+      </c>
+      <c r="G4" s="23">
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="H4" s="23">
+        <v>0.60099999999999998</v>
+      </c>
+      <c r="I4" s="23">
+        <v>0.69099999999999995</v>
+      </c>
+      <c r="K4" s="3">
+        <f t="shared" si="1"/>
+        <v>0.99184143222506382</v>
+      </c>
+      <c r="L4" s="3">
+        <f t="shared" si="0"/>
+        <v>0.95399999999999996</v>
+      </c>
+      <c r="M4" s="3">
+        <f t="shared" si="0"/>
+        <v>0.96799999999999986</v>
+      </c>
+      <c r="N4" s="3">
+        <f t="shared" si="0"/>
+        <v>0.94199999999999995</v>
+      </c>
+      <c r="O4" s="3">
+        <f t="shared" si="0"/>
+        <v>0.98537477148080432</v>
+      </c>
+      <c r="P4" s="3">
+        <f>G12/G8</f>
+        <v>0.95915032679738554</v>
+      </c>
+      <c r="Q4" s="3">
+        <f t="shared" si="0"/>
+        <v>0.98791018998272884</v>
+      </c>
+      <c r="R4" s="3">
+        <f t="shared" si="0"/>
+        <v>0.95873015873015865</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A5" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="23">
+        <v>0.85299999999999998</v>
+      </c>
+      <c r="C5" s="23">
+        <v>1.0619267281895</v>
+      </c>
+      <c r="D5" s="23">
+        <v>0.8911988079553298</v>
+      </c>
+      <c r="E5" s="23">
+        <v>1.1688433778601299</v>
+      </c>
+      <c r="F5" s="23">
+        <v>0.63500000000000001</v>
+      </c>
+      <c r="G5" s="23">
+        <v>0.73</v>
+      </c>
+      <c r="H5" s="23">
+        <v>0.625</v>
+      </c>
+      <c r="I5" s="23">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A6" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="23">
+        <v>0.84199999999999997</v>
+      </c>
+      <c r="C6" s="23">
+        <v>1.04718280511614</v>
+      </c>
+      <c r="D6" s="23">
+        <v>0.86254894786373038</v>
+      </c>
+      <c r="E6" s="23">
+        <v>1.1374616769277222</v>
+      </c>
+      <c r="F6" s="23">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="G6" s="23">
+        <v>0.67200000000000004</v>
+      </c>
+      <c r="H6" s="23">
+        <v>0.59099999999999997</v>
+      </c>
+      <c r="I6" s="23">
+        <v>0.66200000000000003</v>
+      </c>
+      <c r="O6" s="3">
+        <f>F9/F1</f>
+        <v>0.98522167487684731</v>
+      </c>
+      <c r="P6" s="3">
+        <f t="shared" ref="P6:R7" si="2">G9/G1</f>
+        <v>0.94853963838664823</v>
+      </c>
+      <c r="Q6" s="3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="R6" s="3">
+        <f t="shared" si="2"/>
+        <v>0.95107913669064759</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A7" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="23">
+        <v>0.79300000000000004</v>
+      </c>
+      <c r="C7" s="23">
+        <v>1.03675089515936</v>
+      </c>
+      <c r="D7" s="23">
+        <v>0.80673728652989496</v>
+      </c>
+      <c r="E7" s="23">
+        <v>1.0575957780037335</v>
+      </c>
+      <c r="F7" s="23">
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="G7" s="23">
+        <v>0.67700000000000005</v>
+      </c>
+      <c r="H7" s="23">
+        <v>0.60099999999999998</v>
+      </c>
+      <c r="I7" s="23">
+        <v>0.67200000000000004</v>
+      </c>
+      <c r="O7" s="3">
+        <f t="shared" ref="O7:O8" si="3">F10/F2</f>
+        <v>0.9772329246935203</v>
+      </c>
+      <c r="P7" s="3">
+        <f t="shared" si="2"/>
+        <v>0.96646341463414631</v>
+      </c>
+      <c r="Q7" s="3">
+        <f t="shared" si="2"/>
+        <v>0.97955706984667801</v>
+      </c>
+      <c r="R7" s="3">
+        <f t="shared" si="2"/>
+        <v>0.9573820395738204</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A8" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="23">
+        <v>0.78200000000000003</v>
+      </c>
+      <c r="C8" s="23">
+        <v>1.0235849056603774</v>
+      </c>
+      <c r="D8" s="23">
+        <v>0.78409090909090917</v>
+      </c>
+      <c r="E8" s="23">
+        <v>1.0332569002123142</v>
+      </c>
+      <c r="F8" s="23">
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="G8" s="23">
+        <v>0.61199999999999999</v>
+      </c>
+      <c r="H8" s="23">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="I8" s="23">
+        <v>0.63</v>
+      </c>
+      <c r="O8" s="3">
+        <f>F11/F1</f>
+        <v>0.93924466338259438</v>
+      </c>
+      <c r="P8" s="3">
+        <f t="shared" ref="P8:R8" si="4">G11/G1</f>
+        <v>0.89568845618915161</v>
+      </c>
+      <c r="Q8" s="3">
+        <f t="shared" si="4"/>
+        <v>0.97350993377483441</v>
+      </c>
+      <c r="R8" s="3">
+        <f t="shared" si="4"/>
+        <v>0.92230215827338136</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A9" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="23">
+        <v>0.83331831233855602</v>
+      </c>
+      <c r="C9" s="23">
+        <v>1.0049066848672601</v>
+      </c>
+      <c r="D9" s="23">
+        <v>0.82703249378254606</v>
+      </c>
+      <c r="E9" s="23">
+        <v>1.0564927268298401</v>
+      </c>
+      <c r="F9" s="23">
+        <v>0.6</v>
+      </c>
+      <c r="G9" s="23">
+        <v>0.68200000000000005</v>
+      </c>
+      <c r="H9" s="23">
+        <v>0.60399999999999998</v>
+      </c>
+      <c r="I9" s="23">
+        <v>0.66100000000000003</v>
+      </c>
+      <c r="O9" s="3">
+        <f>F12/F2</f>
+        <v>0.94395796847635738</v>
+      </c>
+      <c r="P9" s="3">
+        <f>G12/G2</f>
+        <v>0.89481707317073167</v>
+      </c>
+      <c r="Q9" s="3">
+        <f t="shared" ref="P9:R9" si="5">H12/H2</f>
+        <v>0.97444633730834751</v>
+      </c>
+      <c r="R9" s="3">
+        <f t="shared" si="5"/>
+        <v>0.91933028919330284</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A10" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="23">
+        <v>0.82733692816658111</v>
+      </c>
+      <c r="C10" s="23">
+        <v>0.99247875445351419</v>
+      </c>
+      <c r="D10" s="23">
+        <v>0.8119460762557249</v>
+      </c>
+      <c r="E10" s="23">
+        <v>1.0411565882811751</v>
+      </c>
+      <c r="F10" s="23">
+        <v>0.55800000000000005</v>
+      </c>
+      <c r="G10" s="23">
+        <v>0.63400000000000001</v>
+      </c>
+      <c r="H10" s="23">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="I10" s="23">
+        <v>0.629</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A11" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="23">
+        <v>0.78083315175809631</v>
+      </c>
+      <c r="C11" s="23">
+        <v>0.98249035159493681</v>
+      </c>
+      <c r="D11" s="23">
+        <v>0.77016519620720658</v>
+      </c>
+      <c r="E11" s="23">
+        <v>0.98215394583946714</v>
+      </c>
+      <c r="F11" s="23">
+        <v>0.57199999999999995</v>
+      </c>
+      <c r="G11" s="23">
+        <v>0.64400000000000002</v>
+      </c>
+      <c r="H11" s="23">
+        <v>0.58799999999999997</v>
+      </c>
+      <c r="I11" s="23">
+        <v>0.64100000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A12" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="23">
+        <v>0.77561999999999998</v>
+      </c>
+      <c r="C12" s="23">
+        <v>0.97650000000000003</v>
+      </c>
+      <c r="D12" s="23">
+        <v>0.75900000000000001</v>
+      </c>
+      <c r="E12" s="23">
+        <v>0.97332799999999997</v>
+      </c>
+      <c r="F12" s="23">
+        <v>0.53900000000000003</v>
+      </c>
+      <c r="G12" s="23">
+        <v>0.58699999999999997</v>
+      </c>
+      <c r="H12" s="23">
+        <v>0.57199999999999995</v>
+      </c>
+      <c r="I12" s="23">
+        <v>0.60399999999999998</v>
+      </c>
+      <c r="K12" s="3">
+        <f>B5-B6</f>
+        <v>1.100000000000001E-2</v>
+      </c>
+      <c r="L12" s="3">
+        <f>C5-C6</f>
+        <v>1.4743923073359921E-2</v>
+      </c>
+      <c r="M12" s="3">
+        <f>D5-D6</f>
+        <v>2.8649860091599422E-2</v>
+      </c>
+      <c r="N12" s="3">
+        <f>E5-E6</f>
+        <v>3.1381700932407774E-2</v>
+      </c>
+      <c r="O12" s="3">
+        <f>F5-F6</f>
+        <v>5.3000000000000047E-2</v>
+      </c>
+      <c r="P12" s="3">
+        <f>G5-G6</f>
+        <v>5.799999999999994E-2</v>
+      </c>
+      <c r="Q12" s="3">
+        <f>H5-H6</f>
+        <v>3.400000000000003E-2</v>
+      </c>
+      <c r="R12" s="3">
+        <f>I5-I6</f>
+        <v>3.7999999999999923E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A13" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="23">
+        <v>2E-3</v>
+      </c>
+      <c r="C13" s="23">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D13" s="23">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E13" s="23">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="F13" s="23">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G13" s="23">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="H13" s="23">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="I13" s="23">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K13" s="3">
+        <f>B17+B18</f>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="L13" s="3">
+        <f>C17+C18</f>
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="M13" s="3">
+        <f>D17+D18</f>
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="N13" s="3">
+        <f>E17+E18</f>
+        <v>2.3E-2</v>
+      </c>
+      <c r="O13" s="3">
+        <f>F17+F18</f>
+        <v>1.3000000000000001E-2</v>
+      </c>
+      <c r="P13" s="3">
+        <f>G17+G18</f>
+        <v>2.0999999999999998E-2</v>
+      </c>
+      <c r="Q13" s="3">
+        <f>H17+H18</f>
+        <v>1.3000000000000001E-2</v>
+      </c>
+      <c r="R13" s="3">
+        <f>I17+I18</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A14" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="23">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C14" s="23">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="D14" s="23">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="E14" s="23">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="F14" s="23">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="G14" s="23">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="H14" s="23">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="I14" s="23">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A15" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="23">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="C15" s="23">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D15" s="23">
+        <v>1.2E-2</v>
+      </c>
+      <c r="E15" s="23">
+        <v>0.02</v>
+      </c>
+      <c r="F15" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="G15" s="23">
+        <v>1.6E-2</v>
+      </c>
+      <c r="H15" s="23">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="I15" s="23">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="K15" s="3">
+        <f>B6-B7</f>
+        <v>4.8999999999999932E-2</v>
+      </c>
+      <c r="L15" s="3">
+        <f>C6-C7</f>
+        <v>1.0431909956780006E-2</v>
+      </c>
+      <c r="M15" s="3">
+        <f>D6-D7</f>
+        <v>5.5811661333835416E-2</v>
+      </c>
+      <c r="N15" s="3">
+        <f>E6-E7</f>
+        <v>7.9865898923988654E-2</v>
+      </c>
+      <c r="O15" s="3">
+        <f>F6-F7</f>
+        <v>-7.0000000000000062E-3</v>
+      </c>
+      <c r="P15" s="3">
+        <f>G6-G7</f>
+        <v>-5.0000000000000044E-3</v>
+      </c>
+      <c r="Q15" s="3">
+        <f>H6-H7</f>
+        <v>-1.0000000000000009E-2</v>
+      </c>
+      <c r="R15" s="3">
+        <f>I6-I7</f>
+        <v>-1.0000000000000009E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A16" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="23">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C16" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="D16" s="23">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E16" s="23">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="F16" s="23">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G16" s="23">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="H16" s="23">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I16" s="23">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="K16" s="3">
+        <f>B18+B19</f>
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="L16" s="3">
+        <f>C18+C19</f>
+        <v>9.0000000000000011E-3</v>
+      </c>
+      <c r="M16" s="3">
+        <f>D18+D19</f>
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="N16" s="3">
+        <f>E18+E19</f>
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="O16" s="3">
+        <f>F18+F19</f>
+        <v>0.01</v>
+      </c>
+      <c r="P16" s="3">
+        <f>G18+G19</f>
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="Q16" s="3">
+        <f>H18+H19</f>
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="R16" s="3">
+        <f>I18+I19</f>
+        <v>1.8000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A17" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="23">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="C17" s="23">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D17" s="23">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="E17" s="23">
+        <v>1.2E-2</v>
+      </c>
+      <c r="F17" s="23">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="G17" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="H17" s="23">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I17" s="23">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A18" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="23">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C18" s="23">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="D18" s="23">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="E18" s="23">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="F18" s="23">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="G18" s="23">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="H18" s="23">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="I18" s="23">
+        <v>1.2E-2</v>
+      </c>
+      <c r="K18" s="3">
+        <f>B7-B8</f>
+        <v>1.100000000000001E-2</v>
+      </c>
+      <c r="L18" s="3">
+        <f>C7-C8</f>
+        <v>1.3165989498982622E-2</v>
+      </c>
+      <c r="M18" s="3">
+        <f>D7-D8</f>
+        <v>2.2646377438985787E-2</v>
+      </c>
+      <c r="N18" s="3">
+        <f>E7-E8</f>
+        <v>2.43388777914193E-2</v>
+      </c>
+      <c r="O18" s="3">
+        <f>F7-F8</f>
+        <v>4.1999999999999926E-2</v>
+      </c>
+      <c r="P18" s="3">
+        <f>G7-G8</f>
+        <v>6.5000000000000058E-2</v>
+      </c>
+      <c r="Q18" s="3">
+        <f>H7-H8</f>
+        <v>2.200000000000002E-2</v>
+      </c>
+      <c r="R18" s="3">
+        <f>I7-I8</f>
+        <v>4.2000000000000037E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A19" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="23">
+        <v>2E-3</v>
+      </c>
+      <c r="C19" s="23">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D19" s="23">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E19" s="23">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="F19" s="23">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G19" s="23">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="H19" s="23">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="I19" s="23">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="K19" s="3">
+        <f>B19+B20</f>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="L19" s="3">
+        <f>C19+C20</f>
+        <v>0.01</v>
+      </c>
+      <c r="M19" s="3">
+        <f>D19+D20</f>
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="N19" s="3">
+        <f>E19+E20</f>
+        <v>1.9E-2</v>
+      </c>
+      <c r="O19" s="3">
+        <f>F19+F20</f>
+        <v>9.0000000000000011E-3</v>
+      </c>
+      <c r="P19" s="3">
+        <f>G19+G20</f>
+        <v>1.9E-2</v>
+      </c>
+      <c r="Q19" s="3">
+        <f>H19+H20</f>
+        <v>9.0000000000000011E-3</v>
+      </c>
+      <c r="R19" s="3">
+        <f>I19+I20</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A20" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="23">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="C20" s="23">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="D20" s="23">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E20" s="23">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="F20" s="23">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="G20" s="23">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="H20" s="23">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="I20" s="23">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A21" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="23">
+        <v>2E-3</v>
+      </c>
+      <c r="C21" s="23">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D21" s="23">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E21" s="23">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="F21" s="23">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G21" s="23">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="H21" s="23">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="I21" s="23">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K21" s="3">
+        <f>B9-B10</f>
+        <v>5.9813841719749128E-3</v>
+      </c>
+      <c r="L21" s="3">
+        <f>C9-C10</f>
+        <v>1.2427930413745902E-2</v>
+      </c>
+      <c r="M21" s="3">
+        <f>D9-D10</f>
+        <v>1.5086417526821161E-2</v>
+      </c>
+      <c r="N21" s="3">
+        <f>E9-E10</f>
+        <v>1.5336138548665001E-2</v>
+      </c>
+      <c r="O21" s="3">
+        <f>F9-F10</f>
+        <v>4.1999999999999926E-2</v>
+      </c>
+      <c r="P21" s="3">
+        <f>G9-G10</f>
+        <v>4.8000000000000043E-2</v>
+      </c>
+      <c r="Q21" s="3">
+        <f>H9-H10</f>
+        <v>2.9000000000000026E-2</v>
+      </c>
+      <c r="R21" s="3">
+        <f>I9-I10</f>
+        <v>3.2000000000000028E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A22" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="23">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="C22" s="23">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="D22" s="23">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="E22" s="23">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="F22" s="23">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="G22" s="23">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="H22" s="23">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="I22" s="23">
+        <v>1.2E-2</v>
+      </c>
+      <c r="K22" s="3">
+        <f>B21+B22</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="L22" s="3">
+        <f>C21+C22</f>
+        <v>9.0000000000000011E-3</v>
+      </c>
+      <c r="M22" s="3">
+        <f>D21+D22</f>
+        <v>0.01</v>
+      </c>
+      <c r="N22" s="3">
+        <f>E21+E22</f>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="O22" s="3">
+        <f>F21+F22</f>
+        <v>0.01</v>
+      </c>
+      <c r="P22" s="3">
+        <f>G21+G22</f>
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="Q22" s="3">
+        <f>H21+H22</f>
+        <v>9.0000000000000011E-3</v>
+      </c>
+      <c r="R22" s="3">
+        <f>I21+I22</f>
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A23" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="23">
+        <v>1E-3</v>
+      </c>
+      <c r="C23" s="23">
+        <v>2E-3</v>
+      </c>
+      <c r="D23" s="23">
+        <v>2E-3</v>
+      </c>
+      <c r="E23" s="23">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F23" s="23">
+        <v>1E-3</v>
+      </c>
+      <c r="G23" s="23">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="H23" s="23">
+        <v>2E-3</v>
+      </c>
+      <c r="I23" s="23">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A24" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="23">
+        <v>2E-3</v>
+      </c>
+      <c r="C24" s="23">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D24" s="23">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E24" s="23">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="F24" s="23">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G24" s="23">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="H24" s="23">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="I24" s="23">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="K24" s="3">
+        <f>B10-B11</f>
+        <v>4.6503776408484798E-2</v>
+      </c>
+      <c r="L24" s="3">
+        <f>C10-C11</f>
+        <v>9.9884028585773832E-3</v>
+      </c>
+      <c r="M24" s="3">
+        <f>D10-D11</f>
+        <v>4.1780880048518321E-2</v>
+      </c>
+      <c r="N24" s="3">
+        <f>E10-E11</f>
+        <v>5.9002642441707942E-2</v>
+      </c>
+      <c r="O24" s="3">
+        <f>F10-F11</f>
+        <v>-1.3999999999999901E-2</v>
+      </c>
+      <c r="P24" s="3">
+        <f>G10-G11</f>
+        <v>-1.0000000000000009E-2</v>
+      </c>
+      <c r="Q24" s="3">
+        <f>H10-H11</f>
+        <v>-1.3000000000000012E-2</v>
+      </c>
+      <c r="R24" s="3">
+        <f>I10-I11</f>
+        <v>-1.2000000000000011E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A25" s="23"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23"/>
+      <c r="K25" s="3">
+        <f>B22+B23</f>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="L25" s="3">
+        <f>C22+C23</f>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="M25" s="3">
+        <f>D22+D23</f>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="N25" s="3">
+        <f>E22+E23</f>
+        <v>1.2E-2</v>
+      </c>
+      <c r="O25" s="3">
+        <f>F22+F23</f>
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="P25" s="3">
+        <f>G22+G23</f>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="Q25" s="3">
+        <f>H22+H23</f>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="R25" s="3">
+        <f>I22+I23</f>
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A26" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="17">
+        <v>1.1539999999999999</v>
+      </c>
+      <c r="C26" s="17">
+        <v>1.891</v>
+      </c>
+      <c r="D26" s="17">
+        <v>0.92</v>
+      </c>
+      <c r="E26" s="17">
+        <v>1.2569999999999999</v>
+      </c>
+      <c r="F26" s="3">
+        <f>B1/B26</f>
+        <v>1.0114384748700174</v>
+      </c>
+      <c r="G26" s="3">
+        <f>C1/C26</f>
+        <v>1.03146483342147</v>
+      </c>
+      <c r="H26" s="3">
+        <f>D1/D26</f>
+        <v>1.0195652173913043</v>
+      </c>
+      <c r="I26" s="3">
+        <f>E1/E26</f>
+        <v>1.0493635640413685</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A27" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="17">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="C27" s="17">
+        <v>1.488</v>
+      </c>
+      <c r="D27" s="17">
+        <v>0.88800000000000001</v>
+      </c>
+      <c r="E27" s="17">
+        <v>1.218</v>
+      </c>
+      <c r="F27" s="3">
+        <f>B2/B27</f>
+        <v>1.0329670329670331</v>
+      </c>
+      <c r="G27" s="3">
+        <f t="shared" ref="G27:I27" si="6">C2/C27</f>
+        <v>1.0657655168785523</v>
+      </c>
+      <c r="H27" s="3">
+        <f t="shared" si="6"/>
+        <v>1.0353980801806892</v>
+      </c>
+      <c r="I27" s="3">
+        <f t="shared" si="6"/>
+        <v>1.0666025510174593</v>
+      </c>
+      <c r="K27" s="3">
+        <f>B11-B12</f>
+        <v>5.2131517580963349E-3</v>
+      </c>
+      <c r="L27" s="3">
+        <f>C11-C12</f>
+        <v>5.9903515949367714E-3</v>
+      </c>
+      <c r="M27" s="3">
+        <f>D11-D12</f>
+        <v>1.1165196207206574E-2</v>
+      </c>
+      <c r="N27" s="3">
+        <f>E11-E12</f>
+        <v>8.8259458394671642E-3</v>
+      </c>
+      <c r="O27" s="3">
+        <f>F11-F12</f>
+        <v>3.2999999999999918E-2</v>
+      </c>
+      <c r="P27" s="3">
+        <f>G11-G12</f>
+        <v>5.7000000000000051E-2</v>
+      </c>
+      <c r="Q27" s="3">
+        <f>H11-H12</f>
+        <v>1.6000000000000014E-2</v>
+      </c>
+      <c r="R27" s="3">
+        <f>I11-I12</f>
+        <v>3.7000000000000033E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A28" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" s="18">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="C28" s="18">
+        <v>1.115</v>
+      </c>
+      <c r="D28" s="18">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="E28" s="18">
+        <v>1.4410000000000001</v>
+      </c>
+      <c r="F28" s="3">
+        <f>B3/B28</f>
+        <v>1.0301460766494646</v>
+      </c>
+      <c r="G28" s="3">
+        <f t="shared" ref="G28:I28" si="7">C3/C28</f>
+        <v>1.0590935351188229</v>
+      </c>
+      <c r="H28" s="3">
+        <f t="shared" si="7"/>
+        <v>1.0237358101135192</v>
+      </c>
+      <c r="I28" s="3">
+        <f t="shared" si="7"/>
+        <v>1.0493635640413685</v>
+      </c>
+      <c r="K28" s="3">
+        <f>B23+B24</f>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="L28" s="3">
+        <f>C23+C24</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="M28" s="3">
+        <f>D23+D24</f>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="N28" s="3">
+        <f>E23+E24</f>
+        <v>9.0000000000000011E-3</v>
+      </c>
+      <c r="O28" s="3">
+        <f>F23+F24</f>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="P28" s="3">
+        <f>G23+G24</f>
+        <v>0.01</v>
+      </c>
+      <c r="Q28" s="3">
+        <f>H23+H24</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="R28" s="3">
+        <f>I23+I24</f>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A29" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" s="18">
+        <v>1.177</v>
+      </c>
+      <c r="C29" s="18">
+        <v>2.1749999999999998</v>
+      </c>
+      <c r="D29" s="18">
+        <v>0.88400000000000001</v>
+      </c>
+      <c r="E29" s="18">
+        <v>1.214</v>
+      </c>
+      <c r="F29" s="3">
+        <f>B4/B29</f>
+        <v>1.0114384748700174</v>
+      </c>
+      <c r="G29" s="3">
+        <f t="shared" ref="G29:I29" si="8">C4/C29</f>
+        <v>1.0314648334214702</v>
+      </c>
+      <c r="H29" s="3">
+        <f t="shared" si="8"/>
+        <v>1.0293204578882329</v>
+      </c>
+      <c r="I29" s="3">
+        <f t="shared" si="8"/>
+        <v>1.0536591154417247</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A30" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" s="17">
+        <v>0.81</v>
+      </c>
+      <c r="C30" s="17">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="D30" s="17">
+        <v>0.86</v>
+      </c>
+      <c r="E30" s="17">
+        <v>1.093</v>
+      </c>
+      <c r="F30" s="3">
+        <f>B5/B30</f>
+        <v>1.0530864197530863</v>
+      </c>
+      <c r="G30" s="3">
+        <f t="shared" ref="G30:I30" si="9">C5/C30</f>
+        <v>1.0737378444787664</v>
+      </c>
+      <c r="H30" s="3">
+        <f t="shared" si="9"/>
+        <v>1.0362776836689882</v>
+      </c>
+      <c r="I30" s="3">
+        <f t="shared" si="9"/>
+        <v>1.0693900986826441</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A31" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" s="17">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="C31" s="17">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="D31" s="17">
+        <v>0.83199999999999996</v>
+      </c>
+      <c r="E31" s="17">
+        <v>1.0649999999999999</v>
+      </c>
+      <c r="F31" s="3">
+        <f t="shared" ref="F31:F33" si="10">B6/B31</f>
+        <v>1.0551378446115287</v>
+      </c>
+      <c r="G31" s="3">
+        <f>C6/C31</f>
+        <v>1.0696453576262921</v>
+      </c>
+      <c r="H31" s="3">
+        <f t="shared" ref="H31:H33" si="11">D6/D31</f>
+        <v>1.0367174854131376</v>
+      </c>
+      <c r="I31" s="3">
+        <f t="shared" ref="I31:I33" si="12">E6/E31</f>
+        <v>1.0680391332654668</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A32" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="17">
+        <v>0.747</v>
+      </c>
+      <c r="C32" s="17">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="D32" s="17">
+        <v>0.77800000000000002</v>
+      </c>
+      <c r="E32" s="17">
+        <v>0.99</v>
+      </c>
+      <c r="F32" s="3">
+        <f>B7/B32</f>
+        <v>1.0615796519410978</v>
+      </c>
+      <c r="G32" s="3">
+        <f t="shared" ref="G32:G33" si="13">C7/C32</f>
+        <v>1.0732410922974742</v>
+      </c>
+      <c r="H32" s="3">
+        <f t="shared" si="11"/>
+        <v>1.036937386285212</v>
+      </c>
+      <c r="I32" s="3">
+        <f t="shared" si="12"/>
+        <v>1.0682785636401348</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" s="17">
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="C33" s="17">
+        <v>0.95699999999999996</v>
+      </c>
+      <c r="D33" s="17">
+        <v>0.75600000000000001</v>
+      </c>
+      <c r="E33" s="17">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="F33" s="3">
+        <f t="shared" si="10"/>
+        <v>1.0625</v>
+      </c>
+      <c r="G33" s="3">
+        <f t="shared" si="13"/>
+        <v>1.0695767039293391</v>
+      </c>
+      <c r="H33" s="3">
+        <f t="shared" si="11"/>
+        <v>1.0371572871572872</v>
+      </c>
+      <c r="I33" s="3">
+        <f t="shared" si="12"/>
+        <v>1.0685179940148026</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
@@ -1511,12 +3078,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E14" sqref="B3:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1598,7 +3165,7 @@
         <v>1.9504999999999999</v>
       </c>
       <c r="D3" s="17">
-        <v>0.91250000000000009</v>
+        <v>0.93799999999999994</v>
       </c>
       <c r="E3" s="17">
         <v>1.3190500000000001</v>
@@ -1625,7 +3192,7 @@
       </c>
       <c r="L3" s="17">
         <f t="shared" si="0"/>
-        <v>0.99184782608695654</v>
+        <v>1.0195652173913043</v>
       </c>
       <c r="M3" s="17">
         <f t="shared" si="0"/>
@@ -1646,7 +3213,7 @@
       </c>
       <c r="D4" s="17">
         <f t="shared" si="1"/>
-        <v>0.9169721908526256</v>
+        <v>0.91943349520045181</v>
       </c>
       <c r="E4" s="17">
         <f t="shared" si="1"/>
@@ -1674,7 +3241,7 @@
       </c>
       <c r="L4" s="17">
         <f t="shared" si="2"/>
-        <v>1.0326263410502541</v>
+        <v>1.035398080180689</v>
       </c>
       <c r="M4" s="17">
         <f t="shared" si="2"/>
@@ -1695,7 +3262,7 @@
       </c>
       <c r="D5" s="17">
         <f>D3*H5/H3</f>
-        <v>0.9611005434782609</v>
+        <v>0.98795869565217376</v>
       </c>
       <c r="E5" s="17">
         <f>E3*I5/I3</f>
@@ -1732,7 +3299,7 @@
       </c>
       <c r="D6" s="17">
         <f>D7+(D3-D7)/(H3-H7)*(H6-H7)</f>
-        <v>0.89900417607754568</v>
+        <v>0.90991928477319783</v>
       </c>
       <c r="E6" s="17">
         <f>E7+(E3-E7)/(I3-I7)*(I6-I7)</f>
@@ -1769,7 +3336,7 @@
       </c>
       <c r="D7" s="17">
         <f t="shared" si="3"/>
-        <v>0.89000696012924274</v>
+        <v>0.8911988079553298</v>
       </c>
       <c r="E7" s="17">
         <f t="shared" si="3"/>
@@ -1797,7 +3364,7 @@
       </c>
       <c r="L7" s="17">
         <f t="shared" si="4"/>
-        <v>1.0348918141037706</v>
+        <v>1.0362776836689882</v>
       </c>
       <c r="M7" s="17">
         <f t="shared" si="4"/>
@@ -1818,7 +3385,7 @@
       </c>
       <c r="D8" s="17">
         <f t="shared" si="3"/>
-        <v>0.86197242612460012</v>
+        <v>0.86254894786373038</v>
       </c>
       <c r="E8" s="17">
         <f t="shared" si="3"/>
@@ -1846,7 +3413,7 @@
       </c>
       <c r="L8" s="17">
         <f t="shared" si="5"/>
-        <v>1.036024550630529</v>
+        <v>1.0367174854131376</v>
       </c>
       <c r="M8" s="17">
         <f t="shared" si="5"/>
@@ -1867,7 +3434,7 @@
       </c>
       <c r="D9" s="17">
         <f t="shared" si="3"/>
-        <v>0.80646773489946044</v>
+        <v>0.80673728652989518</v>
       </c>
       <c r="E9" s="17">
         <f>I9*M9</f>
@@ -1895,7 +3462,7 @@
       </c>
       <c r="L9" s="3">
         <f t="shared" si="7"/>
-        <v>1.036590918893908</v>
+        <v>1.0369373862852123</v>
       </c>
       <c r="M9" s="3">
         <f t="shared" si="7"/>
@@ -1965,7 +3532,7 @@
       </c>
       <c r="D11" s="17">
         <f t="shared" ref="D11" si="10">D7*D15</f>
-        <v>0.82592645899993733</v>
+        <v>0.82703249378254606</v>
       </c>
       <c r="E11" s="17">
         <f>E7*E15</f>
@@ -1994,7 +3561,7 @@
       </c>
       <c r="D12" s="17">
         <f t="shared" ref="B12:D13" si="11">D8*D16</f>
-        <v>0.81140337712529031</v>
+        <v>0.8119460762557249</v>
       </c>
       <c r="E12" s="17">
         <f>E8*E16</f>
@@ -2023,7 +3590,7 @@
       </c>
       <c r="D13" s="17">
         <f>D9*D17</f>
-        <v>0.76990786425068491</v>
+        <v>0.77016519620720658</v>
       </c>
       <c r="E13" s="17">
         <f>E9*E17</f>
@@ -2186,7 +3753,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O37"/>
   <sheetViews>
@@ -3382,7 +4949,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N23"/>
   <sheetViews>
@@ -3414,14 +4981,14 @@
         <v>8</v>
       </c>
       <c r="J1" s="12"/>
-      <c r="K1" s="23" t="s">
+      <c r="K1" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23" t="s">
+      <c r="L1" s="24"/>
+      <c r="M1" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="23"/>
+      <c r="N1" s="24"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
@@ -4475,11 +6042,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -4487,22 +6054,22 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23" t="s">
+      <c r="C1" s="24"/>
+      <c r="D1" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="23"/>
-      <c r="F1" s="24" t="s">
+      <c r="E1" s="24"/>
+      <c r="F1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24" t="s">
+      <c r="G1" s="25"/>
+      <c r="H1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="24"/>
+      <c r="I1" s="25"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
@@ -5070,7 +6637,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M71"/>
   <sheetViews>
@@ -5431,7 +6998,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F18"/>
   <sheetViews>

--- a/UbsRec/final.xlsx
+++ b/UbsRec/final.xlsx
@@ -251,8 +251,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -359,7 +360,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -422,6 +423,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="47">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -811,7 +813,7 @@
   <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="P7" sqref="P2:P7"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -830,10 +832,10 @@
         <v>1.9504999999999999</v>
       </c>
       <c r="D1" s="23">
-        <v>0.93799999999999994</v>
+        <v>0.94799999999999995</v>
       </c>
       <c r="E1" s="23">
-        <v>1.3190500000000001</v>
+        <v>1.349</v>
       </c>
       <c r="F1" s="23">
         <v>0.60899999999999999</v>
@@ -847,37 +849,37 @@
       <c r="I1" s="23">
         <v>0.69499999999999995</v>
       </c>
-      <c r="K1" s="3">
-        <f>B9/B5</f>
-        <v>0.9769265091893975</v>
-      </c>
-      <c r="L1" s="3">
-        <f t="shared" ref="L1:R4" si="0">C9/C5</f>
-        <v>0.94630510579627802</v>
-      </c>
-      <c r="M1" s="3">
+      <c r="K1" s="26">
+        <f>(1-B9/B5)*100</f>
+        <v>2.4504084014002392</v>
+      </c>
+      <c r="L1" s="26">
+        <f t="shared" ref="L1:R4" si="0">(1-C9/C5)*100</f>
+        <v>5.6127221702525816</v>
+      </c>
+      <c r="M1" s="26">
         <f t="shared" si="0"/>
-        <v>0.92800000000000005</v>
-      </c>
-      <c r="N1" s="3">
-        <f>E9/E5</f>
-        <v>0.90387878037519731</v>
-      </c>
-      <c r="O1" s="3">
+        <v>7.1999999999999957</v>
+      </c>
+      <c r="N1" s="26">
         <f t="shared" si="0"/>
-        <v>0.94488188976377951</v>
-      </c>
-      <c r="P1" s="3">
+        <v>9.9236641221373993</v>
+      </c>
+      <c r="O1" s="26">
         <f t="shared" si="0"/>
-        <v>0.9342465753424658</v>
-      </c>
-      <c r="Q1" s="3">
+        <v>5.5118110236220481</v>
+      </c>
+      <c r="P1" s="26">
         <f t="shared" si="0"/>
-        <v>0.96639999999999993</v>
-      </c>
-      <c r="R1" s="3">
+        <v>6.5753424657534199</v>
+      </c>
+      <c r="Q1" s="26">
         <f t="shared" si="0"/>
-        <v>0.94428571428571439</v>
+        <v>3.9024390243902474</v>
+      </c>
+      <c r="R1" s="26">
+        <f t="shared" si="0"/>
+        <v>6.6384180790960308</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
@@ -908,37 +910,37 @@
       <c r="I2" s="23">
         <v>0.65700000000000003</v>
       </c>
-      <c r="K2" s="3">
-        <f t="shared" ref="K2:K4" si="1">B10/B6</f>
-        <v>0.98258542537598714</v>
-      </c>
-      <c r="L2" s="3">
+      <c r="K2" s="26">
+        <f t="shared" ref="K2:K4" si="1">(1-B10/B6)*100</f>
+        <v>1.7414574624012857</v>
+      </c>
+      <c r="L2" s="26">
         <f t="shared" si="0"/>
-        <v>0.94776074397386734</v>
-      </c>
-      <c r="M2" s="3">
+        <v>5.2239256026132663</v>
+      </c>
+      <c r="M2" s="26">
         <f t="shared" si="0"/>
-        <v>0.94133333333333336</v>
-      </c>
-      <c r="N2" s="3">
+        <v>5.8666666666666645</v>
+      </c>
+      <c r="N2" s="26">
         <f t="shared" si="0"/>
-        <v>0.91533333333333344</v>
-      </c>
-      <c r="O2" s="3">
+        <v>8.4666666666666561</v>
+      </c>
+      <c r="O2" s="26">
         <f t="shared" si="0"/>
-        <v>0.95876288659793829</v>
-      </c>
-      <c r="P2" s="3">
+        <v>4.1237113402061709</v>
+      </c>
+      <c r="P2" s="26">
         <f t="shared" si="0"/>
-        <v>0.94345238095238093</v>
-      </c>
-      <c r="Q2" s="3">
+        <v>5.6547619047619069</v>
+      </c>
+      <c r="Q2" s="26">
         <f t="shared" si="0"/>
-        <v>0.97292724196277491</v>
-      </c>
-      <c r="R2" s="3">
+        <v>2.7072758037225086</v>
+      </c>
+      <c r="R2" s="26">
         <f t="shared" si="0"/>
-        <v>0.9501510574018126</v>
+        <v>4.9848942598187396</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
@@ -969,37 +971,37 @@
       <c r="I3" s="23">
         <v>1.069</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3" s="26">
         <f t="shared" si="1"/>
-        <v>0.98465719011109243</v>
-      </c>
-      <c r="L3" s="3">
+        <v>1.5342809888907571</v>
+      </c>
+      <c r="L3" s="26">
         <f t="shared" si="0"/>
-        <v>0.94766289200446474</v>
-      </c>
-      <c r="M3" s="3">
+        <v>5.2337107995535259</v>
+      </c>
+      <c r="M3" s="26">
         <f t="shared" si="0"/>
-        <v>0.95466666666666689</v>
-      </c>
-      <c r="N3" s="3">
+        <v>4.5333333333333119</v>
+      </c>
+      <c r="N3" s="26">
         <f t="shared" si="0"/>
-        <v>0.92866666666666664</v>
-      </c>
-      <c r="O3" s="3">
+        <v>7.1333333333333364</v>
+      </c>
+      <c r="O3" s="26">
         <f t="shared" si="0"/>
-        <v>0.97113752122241082</v>
-      </c>
-      <c r="P3" s="3">
+        <v>4.8252911813643991</v>
+      </c>
+      <c r="P3" s="26">
         <f t="shared" si="0"/>
-        <v>0.95125553914327909</v>
-      </c>
-      <c r="Q3" s="3">
+        <v>6.1692969870875025</v>
+      </c>
+      <c r="Q3" s="26">
         <f t="shared" si="0"/>
-        <v>0.97836938435940102</v>
-      </c>
-      <c r="R3" s="3">
+        <v>2.1630615640598982</v>
+      </c>
+      <c r="R3" s="26">
         <f t="shared" si="0"/>
-        <v>0.95386904761904756</v>
+        <v>4.2647058823529482</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
@@ -1030,37 +1032,37 @@
       <c r="I4" s="23">
         <v>0.69099999999999995</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4" s="26">
         <f t="shared" si="1"/>
-        <v>0.99184143222506382</v>
-      </c>
-      <c r="L4" s="3">
+        <v>0.81585677749361762</v>
+      </c>
+      <c r="L4" s="26">
         <f t="shared" si="0"/>
-        <v>0.95399999999999996</v>
-      </c>
-      <c r="M4" s="3">
+        <v>4.6000000000000041</v>
+      </c>
+      <c r="M4" s="26">
         <f t="shared" si="0"/>
-        <v>0.96799999999999986</v>
-      </c>
-      <c r="N4" s="3">
+        <v>3.2000000000000139</v>
+      </c>
+      <c r="N4" s="26">
         <f t="shared" si="0"/>
-        <v>0.94199999999999995</v>
-      </c>
-      <c r="O4" s="3">
+        <v>5.8000000000000052</v>
+      </c>
+      <c r="O4" s="26">
         <f t="shared" si="0"/>
-        <v>0.98537477148080432</v>
-      </c>
-      <c r="P4" s="3">
-        <f>G12/G8</f>
-        <v>0.95915032679738554</v>
-      </c>
-      <c r="Q4" s="3">
+        <v>4.0925266903914626</v>
+      </c>
+      <c r="P4" s="26">
         <f t="shared" si="0"/>
-        <v>0.98791018998272884</v>
-      </c>
-      <c r="R4" s="3">
+        <v>6.1224489795918435</v>
+      </c>
+      <c r="Q4" s="26">
         <f t="shared" si="0"/>
-        <v>0.95873015873015865</v>
+        <v>1.2048192771084376</v>
+      </c>
+      <c r="R4" s="26">
+        <f t="shared" si="0"/>
+        <v>2.6729559748427723</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
@@ -1068,16 +1070,16 @@
         <v>6</v>
       </c>
       <c r="B5" s="23">
-        <v>0.85299999999999998</v>
+        <v>0.85699999999999998</v>
       </c>
       <c r="C5" s="23">
-        <v>1.0619267281895</v>
+        <v>1.069</v>
       </c>
       <c r="D5" s="23">
         <v>0.8911988079553298</v>
       </c>
       <c r="E5" s="23">
-        <v>1.1688433778601299</v>
+        <v>1.179</v>
       </c>
       <c r="F5" s="23">
         <v>0.63500000000000001</v>
@@ -1086,10 +1088,10 @@
         <v>0.73</v>
       </c>
       <c r="H5" s="23">
-        <v>0.625</v>
+        <v>0.61499999999999999</v>
       </c>
       <c r="I5" s="23">
-        <v>0.7</v>
+        <v>0.70799999999999996</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
@@ -1121,20 +1123,20 @@
         <v>0.66200000000000003</v>
       </c>
       <c r="O6" s="3">
-        <f>F9/F1</f>
-        <v>0.98522167487684731</v>
+        <f>1-F9/F5</f>
+        <v>5.5118110236220486E-2</v>
       </c>
       <c r="P6" s="3">
-        <f t="shared" ref="P6:R7" si="2">G9/G1</f>
-        <v>0.94853963838664823</v>
+        <f t="shared" ref="P6:R9" si="2">1-G9/G5</f>
+        <v>6.5753424657534199E-2</v>
       </c>
       <c r="Q6" s="3">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>3.9024390243902474E-2</v>
       </c>
       <c r="R6" s="3">
         <f t="shared" si="2"/>
-        <v>0.95107913669064759</v>
+        <v>6.6384180790960312E-2</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
@@ -1154,32 +1156,32 @@
         <v>1.0575957780037335</v>
       </c>
       <c r="F7" s="23">
-        <v>0.58899999999999997</v>
+        <v>0.60099999999999998</v>
       </c>
       <c r="G7" s="23">
-        <v>0.67700000000000005</v>
+        <v>0.69699999999999995</v>
       </c>
       <c r="H7" s="23">
         <v>0.60099999999999998</v>
       </c>
       <c r="I7" s="23">
-        <v>0.67200000000000004</v>
+        <v>0.68</v>
       </c>
       <c r="O7" s="3">
-        <f t="shared" ref="O7:O8" si="3">F10/F2</f>
-        <v>0.9772329246935203</v>
+        <f t="shared" ref="O7:O9" si="3">1-F10/F6</f>
+        <v>4.1237113402061709E-2</v>
       </c>
       <c r="P7" s="3">
         <f t="shared" si="2"/>
-        <v>0.96646341463414631</v>
+        <v>5.6547619047619069E-2</v>
       </c>
       <c r="Q7" s="3">
         <f t="shared" si="2"/>
-        <v>0.97955706984667801</v>
+        <v>2.7072758037225086E-2</v>
       </c>
       <c r="R7" s="3">
         <f t="shared" si="2"/>
-        <v>0.9573820395738204</v>
+        <v>4.9848942598187396E-2</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
@@ -1199,32 +1201,32 @@
         <v>1.0332569002123142</v>
       </c>
       <c r="F8" s="23">
-        <v>0.54700000000000004</v>
+        <v>0.56200000000000006</v>
       </c>
       <c r="G8" s="23">
-        <v>0.61199999999999999</v>
+        <v>0.63700000000000001</v>
       </c>
       <c r="H8" s="23">
-        <v>0.57899999999999996</v>
+        <v>0.58099999999999996</v>
       </c>
       <c r="I8" s="23">
-        <v>0.63</v>
+        <v>0.63600000000000001</v>
       </c>
       <c r="O8" s="3">
-        <f>F11/F1</f>
-        <v>0.93924466338259438</v>
+        <f t="shared" si="3"/>
+        <v>4.8252911813643995E-2</v>
       </c>
       <c r="P8" s="3">
-        <f t="shared" ref="P8:R8" si="4">G11/G1</f>
-        <v>0.89568845618915161</v>
+        <f t="shared" si="2"/>
+        <v>6.1692969870875025E-2</v>
       </c>
       <c r="Q8" s="3">
-        <f t="shared" si="4"/>
-        <v>0.97350993377483441</v>
+        <f t="shared" si="2"/>
+        <v>2.1630615640598982E-2</v>
       </c>
       <c r="R8" s="3">
-        <f t="shared" si="4"/>
-        <v>0.92230215827338136</v>
+        <f t="shared" si="2"/>
+        <v>4.2647058823529482E-2</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
@@ -1232,16 +1234,16 @@
         <v>15</v>
       </c>
       <c r="B9" s="23">
-        <v>0.83331831233855602</v>
+        <v>0.83599999999999997</v>
       </c>
       <c r="C9" s="23">
-        <v>1.0049066848672601</v>
+        <v>1.0089999999999999</v>
       </c>
       <c r="D9" s="23">
         <v>0.82703249378254606</v>
       </c>
       <c r="E9" s="23">
-        <v>1.0564927268298401</v>
+        <v>1.0620000000000001</v>
       </c>
       <c r="F9" s="23">
         <v>0.6</v>
@@ -1250,26 +1252,26 @@
         <v>0.68200000000000005</v>
       </c>
       <c r="H9" s="23">
-        <v>0.60399999999999998</v>
+        <v>0.59099999999999997</v>
       </c>
       <c r="I9" s="23">
         <v>0.66100000000000003</v>
       </c>
       <c r="O9" s="3">
-        <f>F12/F2</f>
-        <v>0.94395796847635738</v>
+        <f t="shared" si="3"/>
+        <v>4.0925266903914626E-2</v>
       </c>
       <c r="P9" s="3">
-        <f>G12/G2</f>
-        <v>0.89481707317073167</v>
+        <f>1-G12/G8</f>
+        <v>6.1224489795918435E-2</v>
       </c>
       <c r="Q9" s="3">
-        <f t="shared" ref="P9:R9" si="5">H12/H2</f>
-        <v>0.97444633730834751</v>
+        <f t="shared" si="2"/>
+        <v>1.2048192771084376E-2</v>
       </c>
       <c r="R9" s="3">
-        <f t="shared" si="5"/>
-        <v>0.91933028919330284</v>
+        <f t="shared" si="2"/>
+        <v>2.6729559748427723E-2</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
@@ -1321,13 +1323,29 @@
         <v>0.57199999999999995</v>
       </c>
       <c r="G11" s="23">
-        <v>0.64400000000000002</v>
+        <v>0.65400000000000003</v>
       </c>
       <c r="H11" s="23">
         <v>0.58799999999999997</v>
       </c>
       <c r="I11" s="23">
-        <v>0.64100000000000001</v>
+        <v>0.65100000000000002</v>
+      </c>
+      <c r="O11" s="3">
+        <f>1-F9/F1</f>
+        <v>1.4778325123152691E-2</v>
+      </c>
+      <c r="P11" s="3">
+        <f>1-G9/G1</f>
+        <v>5.1460361613351768E-2</v>
+      </c>
+      <c r="Q11" s="3">
+        <f>1-H9/H1</f>
+        <v>2.1523178807947074E-2</v>
+      </c>
+      <c r="R11" s="3">
+        <f>1-I9/I1</f>
+        <v>4.8920863309352414E-2</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
@@ -1350,45 +1368,29 @@
         <v>0.53900000000000003</v>
       </c>
       <c r="G12" s="23">
-        <v>0.58699999999999997</v>
+        <v>0.59799999999999998</v>
       </c>
       <c r="H12" s="23">
-        <v>0.57199999999999995</v>
+        <v>0.57399999999999995</v>
       </c>
       <c r="I12" s="23">
-        <v>0.60399999999999998</v>
-      </c>
-      <c r="K12" s="3">
-        <f>B5-B6</f>
-        <v>1.100000000000001E-2</v>
-      </c>
-      <c r="L12" s="3">
-        <f>C5-C6</f>
-        <v>1.4743923073359921E-2</v>
-      </c>
-      <c r="M12" s="3">
-        <f>D5-D6</f>
-        <v>2.8649860091599422E-2</v>
-      </c>
-      <c r="N12" s="3">
-        <f>E5-E6</f>
-        <v>3.1381700932407774E-2</v>
+        <v>0.61899999999999999</v>
       </c>
       <c r="O12" s="3">
-        <f>F5-F6</f>
-        <v>5.3000000000000047E-2</v>
+        <f>1-F10/F2</f>
+        <v>2.27670753064797E-2</v>
       </c>
       <c r="P12" s="3">
-        <f>G5-G6</f>
-        <v>5.799999999999994E-2</v>
+        <f>1-G10/G2</f>
+        <v>3.3536585365853688E-2</v>
       </c>
       <c r="Q12" s="3">
-        <f>H5-H6</f>
-        <v>3.400000000000003E-2</v>
+        <f>1-H10/H2</f>
+        <v>2.0442930153321992E-2</v>
       </c>
       <c r="R12" s="3">
-        <f>I5-I6</f>
-        <v>3.7999999999999923E-2</v>
+        <f>1-I10/I2</f>
+        <v>4.2617960426179602E-2</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
@@ -1419,37 +1421,21 @@
       <c r="I13" s="23">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="K13" s="3">
-        <f>B17+B18</f>
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="L13" s="3">
-        <f>C17+C18</f>
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="M13" s="3">
-        <f>D17+D18</f>
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="N13" s="3">
-        <f>E17+E18</f>
-        <v>2.3E-2</v>
-      </c>
       <c r="O13" s="3">
-        <f>F17+F18</f>
-        <v>1.3000000000000001E-2</v>
+        <f>1-F11/F1</f>
+        <v>6.075533661740562E-2</v>
       </c>
       <c r="P13" s="3">
-        <f>G17+G18</f>
-        <v>2.0999999999999998E-2</v>
+        <f>1-G11/G1</f>
+        <v>9.040333796940192E-2</v>
       </c>
       <c r="Q13" s="3">
-        <f>H17+H18</f>
-        <v>1.3000000000000001E-2</v>
+        <f>1-H11/H1</f>
+        <v>2.6490066225165587E-2</v>
       </c>
       <c r="R13" s="3">
-        <f>I17+I18</f>
-        <v>0.02</v>
+        <f>1-I11/I1</f>
+        <v>6.3309352517985529E-2</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
@@ -1480,6 +1466,22 @@
       <c r="I14" s="23">
         <v>1.4E-2</v>
       </c>
+      <c r="O14" s="3">
+        <f>1-F12/F2</f>
+        <v>5.6042031523642621E-2</v>
+      </c>
+      <c r="P14" s="3">
+        <f>1-G12/G2</f>
+        <v>8.8414634146341542E-2</v>
+      </c>
+      <c r="Q14" s="3">
+        <f>1-H12/H2</f>
+        <v>2.2146507666098825E-2</v>
+      </c>
+      <c r="R14" s="3">
+        <f>1-I12/I2</f>
+        <v>5.7838660578386603E-2</v>
+      </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="23" t="s">
@@ -1509,38 +1511,6 @@
       <c r="I15" s="23">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="K15" s="3">
-        <f>B6-B7</f>
-        <v>4.8999999999999932E-2</v>
-      </c>
-      <c r="L15" s="3">
-        <f>C6-C7</f>
-        <v>1.0431909956780006E-2</v>
-      </c>
-      <c r="M15" s="3">
-        <f>D6-D7</f>
-        <v>5.5811661333835416E-2</v>
-      </c>
-      <c r="N15" s="3">
-        <f>E6-E7</f>
-        <v>7.9865898923988654E-2</v>
-      </c>
-      <c r="O15" s="3">
-        <f>F6-F7</f>
-        <v>-7.0000000000000062E-3</v>
-      </c>
-      <c r="P15" s="3">
-        <f>G6-G7</f>
-        <v>-5.0000000000000044E-3</v>
-      </c>
-      <c r="Q15" s="3">
-        <f>H6-H7</f>
-        <v>-1.0000000000000009E-2</v>
-      </c>
-      <c r="R15" s="3">
-        <f>I6-I7</f>
-        <v>-1.0000000000000009E-2</v>
-      </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="23" t="s">
@@ -1571,36 +1541,36 @@
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="K16" s="3">
-        <f>B18+B19</f>
-        <v>7.0000000000000001E-3</v>
+        <f>B5-B6</f>
+        <v>1.5000000000000013E-2</v>
       </c>
       <c r="L16" s="3">
-        <f>C18+C19</f>
-        <v>9.0000000000000011E-3</v>
+        <f>C5-C6</f>
+        <v>2.1817194883859914E-2</v>
       </c>
       <c r="M16" s="3">
-        <f>D18+D19</f>
-        <v>1.2999999999999999E-2</v>
+        <f>D5-D6</f>
+        <v>2.8649860091599422E-2</v>
       </c>
       <c r="N16" s="3">
-        <f>E18+E19</f>
-        <v>1.7000000000000001E-2</v>
+        <f>E5-E6</f>
+        <v>4.1538323072277894E-2</v>
       </c>
       <c r="O16" s="3">
-        <f>F18+F19</f>
-        <v>0.01</v>
+        <f>F5-F6</f>
+        <v>5.3000000000000047E-2</v>
       </c>
       <c r="P16" s="3">
-        <f>G18+G19</f>
-        <v>1.7000000000000001E-2</v>
+        <f>G5-G6</f>
+        <v>5.799999999999994E-2</v>
       </c>
       <c r="Q16" s="3">
-        <f>H18+H19</f>
-        <v>1.0999999999999999E-2</v>
+        <f>H5-H6</f>
+        <v>2.4000000000000021E-2</v>
       </c>
       <c r="R16" s="3">
-        <f>I18+I19</f>
-        <v>1.8000000000000002E-2</v>
+        <f>I5-I6</f>
+        <v>4.599999999999993E-2</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
@@ -1631,6 +1601,38 @@
       <c r="I17" s="23">
         <v>8.0000000000000002E-3</v>
       </c>
+      <c r="K17" s="3">
+        <f>B17+B18</f>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="L17" s="3">
+        <f>C17+C18</f>
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="M17" s="3">
+        <f>D17+D18</f>
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="N17" s="3">
+        <f>E17+E18</f>
+        <v>2.3E-2</v>
+      </c>
+      <c r="O17" s="3">
+        <f>F17+F18</f>
+        <v>1.3000000000000001E-2</v>
+      </c>
+      <c r="P17" s="3">
+        <f>G17+G18</f>
+        <v>2.0999999999999998E-2</v>
+      </c>
+      <c r="Q17" s="3">
+        <f>H17+H18</f>
+        <v>1.3000000000000001E-2</v>
+      </c>
+      <c r="R17" s="3">
+        <f>I17+I18</f>
+        <v>0.02</v>
+      </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" s="23" t="s">
@@ -1660,38 +1662,6 @@
       <c r="I18" s="23">
         <v>1.2E-2</v>
       </c>
-      <c r="K18" s="3">
-        <f>B7-B8</f>
-        <v>1.100000000000001E-2</v>
-      </c>
-      <c r="L18" s="3">
-        <f>C7-C8</f>
-        <v>1.3165989498982622E-2</v>
-      </c>
-      <c r="M18" s="3">
-        <f>D7-D8</f>
-        <v>2.2646377438985787E-2</v>
-      </c>
-      <c r="N18" s="3">
-        <f>E7-E8</f>
-        <v>2.43388777914193E-2</v>
-      </c>
-      <c r="O18" s="3">
-        <f>F7-F8</f>
-        <v>4.1999999999999926E-2</v>
-      </c>
-      <c r="P18" s="3">
-        <f>G7-G8</f>
-        <v>6.5000000000000058E-2</v>
-      </c>
-      <c r="Q18" s="3">
-        <f>H7-H8</f>
-        <v>2.200000000000002E-2</v>
-      </c>
-      <c r="R18" s="3">
-        <f>I7-I8</f>
-        <v>4.2000000000000037E-2</v>
-      </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="23" t="s">
@@ -1722,36 +1692,36 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="K19" s="3">
-        <f>B19+B20</f>
-        <v>6.0000000000000001E-3</v>
+        <f>B6-B7</f>
+        <v>4.8999999999999932E-2</v>
       </c>
       <c r="L19" s="3">
-        <f>C19+C20</f>
-        <v>0.01</v>
+        <f>C6-C7</f>
+        <v>1.0431909956780006E-2</v>
       </c>
       <c r="M19" s="3">
-        <f>D19+D20</f>
-        <v>1.0999999999999999E-2</v>
+        <f>D6-D7</f>
+        <v>5.5811661333835416E-2</v>
       </c>
       <c r="N19" s="3">
-        <f>E19+E20</f>
-        <v>1.9E-2</v>
+        <f>E6-E7</f>
+        <v>7.9865898923988654E-2</v>
       </c>
       <c r="O19" s="3">
-        <f>F19+F20</f>
-        <v>9.0000000000000011E-3</v>
+        <f>F6-F7</f>
+        <v>-1.9000000000000017E-2</v>
       </c>
       <c r="P19" s="3">
-        <f>G19+G20</f>
-        <v>1.9E-2</v>
+        <f>G6-G7</f>
+        <v>-2.4999999999999911E-2</v>
       </c>
       <c r="Q19" s="3">
-        <f>H19+H20</f>
-        <v>9.0000000000000011E-3</v>
+        <f>H6-H7</f>
+        <v>-1.0000000000000009E-2</v>
       </c>
       <c r="R19" s="3">
-        <f>I19+I20</f>
-        <v>0.02</v>
+        <f>I6-I7</f>
+        <v>-1.8000000000000016E-2</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
@@ -1780,7 +1750,39 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="I20" s="23">
-        <v>1.4E-2</v>
+        <v>0.01</v>
+      </c>
+      <c r="K20" s="3">
+        <f>B18+B19</f>
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="L20" s="3">
+        <f>C18+C19</f>
+        <v>9.0000000000000011E-3</v>
+      </c>
+      <c r="M20" s="3">
+        <f>D18+D19</f>
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="N20" s="3">
+        <f>E18+E19</f>
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="O20" s="3">
+        <f>F18+F19</f>
+        <v>0.01</v>
+      </c>
+      <c r="P20" s="3">
+        <f>G18+G19</f>
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="Q20" s="3">
+        <f>H18+H19</f>
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="R20" s="3">
+        <f>I18+I19</f>
+        <v>1.8000000000000002E-2</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
@@ -1811,38 +1813,6 @@
       <c r="I21" s="23">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="K21" s="3">
-        <f>B9-B10</f>
-        <v>5.9813841719749128E-3</v>
-      </c>
-      <c r="L21" s="3">
-        <f>C9-C10</f>
-        <v>1.2427930413745902E-2</v>
-      </c>
-      <c r="M21" s="3">
-        <f>D9-D10</f>
-        <v>1.5086417526821161E-2</v>
-      </c>
-      <c r="N21" s="3">
-        <f>E9-E10</f>
-        <v>1.5336138548665001E-2</v>
-      </c>
-      <c r="O21" s="3">
-        <f>F9-F10</f>
-        <v>4.1999999999999926E-2</v>
-      </c>
-      <c r="P21" s="3">
-        <f>G9-G10</f>
-        <v>4.8000000000000043E-2</v>
-      </c>
-      <c r="Q21" s="3">
-        <f>H9-H10</f>
-        <v>2.9000000000000026E-2</v>
-      </c>
-      <c r="R21" s="3">
-        <f>I9-I10</f>
-        <v>3.2000000000000028E-2</v>
-      </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="23" t="s">
@@ -1873,36 +1843,36 @@
         <v>1.2E-2</v>
       </c>
       <c r="K22" s="3">
-        <f>B21+B22</f>
-        <v>5.0000000000000001E-3</v>
+        <f>B7-B8</f>
+        <v>1.100000000000001E-2</v>
       </c>
       <c r="L22" s="3">
-        <f>C21+C22</f>
-        <v>9.0000000000000011E-3</v>
+        <f>C7-C8</f>
+        <v>1.3165989498982622E-2</v>
       </c>
       <c r="M22" s="3">
-        <f>D21+D22</f>
-        <v>0.01</v>
+        <f>D7-D8</f>
+        <v>2.2646377438985787E-2</v>
       </c>
       <c r="N22" s="3">
-        <f>E21+E22</f>
-        <v>1.4999999999999999E-2</v>
+        <f>E7-E8</f>
+        <v>2.43388777914193E-2</v>
       </c>
       <c r="O22" s="3">
-        <f>F21+F22</f>
-        <v>0.01</v>
+        <f>F7-F8</f>
+        <v>3.8999999999999924E-2</v>
       </c>
       <c r="P22" s="3">
-        <f>G21+G22</f>
-        <v>1.7000000000000001E-2</v>
+        <f>G7-G8</f>
+        <v>5.9999999999999942E-2</v>
       </c>
       <c r="Q22" s="3">
-        <f>H21+H22</f>
-        <v>9.0000000000000011E-3</v>
+        <f>H7-H8</f>
+        <v>2.0000000000000018E-2</v>
       </c>
       <c r="R22" s="3">
-        <f>I21+I22</f>
-        <v>1.7000000000000001E-2</v>
+        <f>I7-I8</f>
+        <v>4.4000000000000039E-2</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
@@ -1933,6 +1903,38 @@
       <c r="I23" s="23">
         <v>4.0000000000000001E-3</v>
       </c>
+      <c r="K23" s="3">
+        <f>B19+B20</f>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="L23" s="3">
+        <f>C19+C20</f>
+        <v>0.01</v>
+      </c>
+      <c r="M23" s="3">
+        <f>D19+D20</f>
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="N23" s="3">
+        <f>E19+E20</f>
+        <v>1.9E-2</v>
+      </c>
+      <c r="O23" s="3">
+        <f>F19+F20</f>
+        <v>9.0000000000000011E-3</v>
+      </c>
+      <c r="P23" s="3">
+        <f>G19+G20</f>
+        <v>1.9E-2</v>
+      </c>
+      <c r="Q23" s="3">
+        <f>H19+H20</f>
+        <v>9.0000000000000011E-3</v>
+      </c>
+      <c r="R23" s="3">
+        <f>I19+I20</f>
+        <v>1.6E-2</v>
+      </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" s="23" t="s">
@@ -1961,38 +1963,6 @@
       </c>
       <c r="I24" s="23">
         <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="K24" s="3">
-        <f>B10-B11</f>
-        <v>4.6503776408484798E-2</v>
-      </c>
-      <c r="L24" s="3">
-        <f>C10-C11</f>
-        <v>9.9884028585773832E-3</v>
-      </c>
-      <c r="M24" s="3">
-        <f>D10-D11</f>
-        <v>4.1780880048518321E-2</v>
-      </c>
-      <c r="N24" s="3">
-        <f>E10-E11</f>
-        <v>5.9002642441707942E-2</v>
-      </c>
-      <c r="O24" s="3">
-        <f>F10-F11</f>
-        <v>-1.3999999999999901E-2</v>
-      </c>
-      <c r="P24" s="3">
-        <f>G10-G11</f>
-        <v>-1.0000000000000009E-2</v>
-      </c>
-      <c r="Q24" s="3">
-        <f>H10-H11</f>
-        <v>-1.3000000000000012E-2</v>
-      </c>
-      <c r="R24" s="3">
-        <f>I10-I11</f>
-        <v>-1.2000000000000011E-2</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
@@ -2006,36 +1976,36 @@
       <c r="H25" s="23"/>
       <c r="I25" s="23"/>
       <c r="K25" s="3">
-        <f>B22+B23</f>
-        <v>4.0000000000000001E-3</v>
+        <f>B9-B10</f>
+        <v>8.6630718334188561E-3</v>
       </c>
       <c r="L25" s="3">
-        <f>C22+C23</f>
-        <v>8.0000000000000002E-3</v>
+        <f>C9-C10</f>
+        <v>1.6521245546485708E-2</v>
       </c>
       <c r="M25" s="3">
-        <f>D22+D23</f>
-        <v>8.0000000000000002E-3</v>
+        <f>D9-D10</f>
+        <v>1.5086417526821161E-2</v>
       </c>
       <c r="N25" s="3">
-        <f>E22+E23</f>
-        <v>1.2E-2</v>
+        <f>E9-E10</f>
+        <v>2.0843411718824978E-2</v>
       </c>
       <c r="O25" s="3">
-        <f>F22+F23</f>
-        <v>7.0000000000000001E-3</v>
+        <f>F9-F10</f>
+        <v>4.1999999999999926E-2</v>
       </c>
       <c r="P25" s="3">
-        <f>G22+G23</f>
-        <v>1.4999999999999999E-2</v>
+        <f>G9-G10</f>
+        <v>4.8000000000000043E-2</v>
       </c>
       <c r="Q25" s="3">
-        <f>H22+H23</f>
-        <v>8.0000000000000002E-3</v>
+        <f>H9-H10</f>
+        <v>1.6000000000000014E-2</v>
       </c>
       <c r="R25" s="3">
-        <f>I22+I23</f>
-        <v>1.6E-2</v>
+        <f>I9-I10</f>
+        <v>3.2000000000000028E-2</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
@@ -2064,11 +2034,43 @@
       </c>
       <c r="H26" s="3">
         <f>D1/D26</f>
-        <v>1.0195652173913043</v>
+        <v>1.0304347826086955</v>
       </c>
       <c r="I26" s="3">
         <f>E1/E26</f>
-        <v>1.0493635640413685</v>
+        <v>1.0731901352426412</v>
+      </c>
+      <c r="K26" s="3">
+        <f>B21+B22</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="L26" s="3">
+        <f>C21+C22</f>
+        <v>9.0000000000000011E-3</v>
+      </c>
+      <c r="M26" s="3">
+        <f>D21+D22</f>
+        <v>0.01</v>
+      </c>
+      <c r="N26" s="3">
+        <f>E21+E22</f>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="O26" s="3">
+        <f>F21+F22</f>
+        <v>0.01</v>
+      </c>
+      <c r="P26" s="3">
+        <f>G21+G22</f>
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="Q26" s="3">
+        <f>H21+H22</f>
+        <v>9.0000000000000011E-3</v>
+      </c>
+      <c r="R26" s="3">
+        <f>I21+I22</f>
+        <v>1.7000000000000001E-2</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
@@ -2092,48 +2094,16 @@
         <v>1.0329670329670331</v>
       </c>
       <c r="G27" s="3">
-        <f t="shared" ref="G27:I27" si="6">C2/C27</f>
+        <f t="shared" ref="G27:I27" si="4">C2/C27</f>
         <v>1.0657655168785523</v>
       </c>
       <c r="H27" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>1.0353980801806892</v>
       </c>
       <c r="I27" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>1.0666025510174593</v>
-      </c>
-      <c r="K27" s="3">
-        <f>B11-B12</f>
-        <v>5.2131517580963349E-3</v>
-      </c>
-      <c r="L27" s="3">
-        <f>C11-C12</f>
-        <v>5.9903515949367714E-3</v>
-      </c>
-      <c r="M27" s="3">
-        <f>D11-D12</f>
-        <v>1.1165196207206574E-2</v>
-      </c>
-      <c r="N27" s="3">
-        <f>E11-E12</f>
-        <v>8.8259458394671642E-3</v>
-      </c>
-      <c r="O27" s="3">
-        <f>F11-F12</f>
-        <v>3.2999999999999918E-2</v>
-      </c>
-      <c r="P27" s="3">
-        <f>G11-G12</f>
-        <v>5.7000000000000051E-2</v>
-      </c>
-      <c r="Q27" s="3">
-        <f>H11-H12</f>
-        <v>1.6000000000000014E-2</v>
-      </c>
-      <c r="R27" s="3">
-        <f>I11-I12</f>
-        <v>3.7000000000000033E-2</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
@@ -2157,48 +2127,48 @@
         <v>1.0301460766494646</v>
       </c>
       <c r="G28" s="3">
-        <f t="shared" ref="G28:I28" si="7">C3/C28</f>
+        <f t="shared" ref="G28:I28" si="5">C3/C28</f>
         <v>1.0590935351188229</v>
       </c>
       <c r="H28" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>1.0237358101135192</v>
       </c>
       <c r="I28" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>1.0493635640413685</v>
       </c>
       <c r="K28" s="3">
-        <f>B23+B24</f>
-        <v>3.0000000000000001E-3</v>
+        <f>B10-B11</f>
+        <v>4.6503776408484798E-2</v>
       </c>
       <c r="L28" s="3">
-        <f>C23+C24</f>
-        <v>5.0000000000000001E-3</v>
+        <f>C10-C11</f>
+        <v>9.9884028585773832E-3</v>
       </c>
       <c r="M28" s="3">
-        <f>D23+D24</f>
-        <v>6.0000000000000001E-3</v>
+        <f>D10-D11</f>
+        <v>4.1780880048518321E-2</v>
       </c>
       <c r="N28" s="3">
-        <f>E23+E24</f>
-        <v>9.0000000000000011E-3</v>
+        <f>E10-E11</f>
+        <v>5.9002642441707942E-2</v>
       </c>
       <c r="O28" s="3">
-        <f>F23+F24</f>
-        <v>4.0000000000000001E-3</v>
+        <f>F10-F11</f>
+        <v>-1.3999999999999901E-2</v>
       </c>
       <c r="P28" s="3">
-        <f>G23+G24</f>
-        <v>0.01</v>
+        <f>G10-G11</f>
+        <v>-2.0000000000000018E-2</v>
       </c>
       <c r="Q28" s="3">
-        <f>H23+H24</f>
-        <v>5.0000000000000001E-3</v>
+        <f>H10-H11</f>
+        <v>-1.3000000000000012E-2</v>
       </c>
       <c r="R28" s="3">
-        <f>I23+I24</f>
-        <v>0.01</v>
+        <f>I10-I11</f>
+        <v>-2.200000000000002E-2</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.2">
@@ -2222,16 +2192,48 @@
         <v>1.0114384748700174</v>
       </c>
       <c r="G29" s="3">
-        <f t="shared" ref="G29:I29" si="8">C4/C29</f>
+        <f t="shared" ref="G29:I29" si="6">C4/C29</f>
         <v>1.0314648334214702</v>
       </c>
       <c r="H29" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>1.0293204578882329</v>
       </c>
       <c r="I29" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>1.0536591154417247</v>
+      </c>
+      <c r="K29" s="3">
+        <f>B22+B23</f>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="L29" s="3">
+        <f>C22+C23</f>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="M29" s="3">
+        <f>D22+D23</f>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="N29" s="3">
+        <f>E22+E23</f>
+        <v>1.2E-2</v>
+      </c>
+      <c r="O29" s="3">
+        <f>F22+F23</f>
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="P29" s="3">
+        <f>G22+G23</f>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="Q29" s="3">
+        <f>H22+H23</f>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="R29" s="3">
+        <f>I22+I23</f>
+        <v>1.6E-2</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.2">
@@ -2252,19 +2254,19 @@
       </c>
       <c r="F30" s="3">
         <f>B5/B30</f>
-        <v>1.0530864197530863</v>
+        <v>1.0580246913580247</v>
       </c>
       <c r="G30" s="3">
-        <f t="shared" ref="G30:I30" si="9">C5/C30</f>
-        <v>1.0737378444787664</v>
+        <f t="shared" ref="G30:I30" si="7">C5/C30</f>
+        <v>1.0808897876643073</v>
       </c>
       <c r="H30" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>1.0362776836689882</v>
       </c>
       <c r="I30" s="3">
-        <f t="shared" si="9"/>
-        <v>1.0693900986826441</v>
+        <f t="shared" si="7"/>
+        <v>1.0786825251601098</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.2">
@@ -2284,7 +2286,7 @@
         <v>1.0649999999999999</v>
       </c>
       <c r="F31" s="3">
-        <f t="shared" ref="F31:F33" si="10">B6/B31</f>
+        <f t="shared" ref="F31:F33" si="8">B6/B31</f>
         <v>1.0551378446115287</v>
       </c>
       <c r="G31" s="3">
@@ -2292,12 +2294,44 @@
         <v>1.0696453576262921</v>
       </c>
       <c r="H31" s="3">
-        <f t="shared" ref="H31:H33" si="11">D6/D31</f>
+        <f t="shared" ref="H31:H33" si="9">D6/D31</f>
         <v>1.0367174854131376</v>
       </c>
       <c r="I31" s="3">
-        <f t="shared" ref="I31:I33" si="12">E6/E31</f>
+        <f t="shared" ref="I31:I33" si="10">E6/E31</f>
         <v>1.0680391332654668</v>
+      </c>
+      <c r="K31" s="3">
+        <f>B11-B12</f>
+        <v>5.2131517580963349E-3</v>
+      </c>
+      <c r="L31" s="3">
+        <f>C11-C12</f>
+        <v>5.9903515949367714E-3</v>
+      </c>
+      <c r="M31" s="3">
+        <f>D11-D12</f>
+        <v>1.1165196207206574E-2</v>
+      </c>
+      <c r="N31" s="3">
+        <f>E11-E12</f>
+        <v>8.8259458394671642E-3</v>
+      </c>
+      <c r="O31" s="3">
+        <f>F11-F12</f>
+        <v>3.2999999999999918E-2</v>
+      </c>
+      <c r="P31" s="3">
+        <f>G11-G12</f>
+        <v>5.600000000000005E-2</v>
+      </c>
+      <c r="Q31" s="3">
+        <f>H11-H12</f>
+        <v>1.4000000000000012E-2</v>
+      </c>
+      <c r="R31" s="3">
+        <f>I11-I12</f>
+        <v>3.2000000000000028E-2</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.2">
@@ -2321,16 +2355,48 @@
         <v>1.0615796519410978</v>
       </c>
       <c r="G32" s="3">
-        <f t="shared" ref="G32:G33" si="13">C7/C32</f>
+        <f t="shared" ref="G32:G33" si="11">C7/C32</f>
         <v>1.0732410922974742</v>
       </c>
       <c r="H32" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>1.036937386285212</v>
       </c>
       <c r="I32" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>1.0682785636401348</v>
+      </c>
+      <c r="K32" s="3">
+        <f>B23+B24</f>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="L32" s="3">
+        <f>C23+C24</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="M32" s="3">
+        <f>D23+D24</f>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="N32" s="3">
+        <f>E23+E24</f>
+        <v>9.0000000000000011E-3</v>
+      </c>
+      <c r="O32" s="3">
+        <f>F23+F24</f>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="P32" s="3">
+        <f>G23+G24</f>
+        <v>0.01</v>
+      </c>
+      <c r="Q32" s="3">
+        <f>H23+H24</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="R32" s="3">
+        <f>I23+I24</f>
+        <v>0.01</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
@@ -2350,19 +2416,19 @@
         <v>0.96699999999999997</v>
       </c>
       <c r="F33" s="3">
+        <f t="shared" si="8"/>
+        <v>1.0625</v>
+      </c>
+      <c r="G33" s="3">
+        <f t="shared" si="11"/>
+        <v>1.0695767039293391</v>
+      </c>
+      <c r="H33" s="3">
+        <f t="shared" si="9"/>
+        <v>1.0371572871572872</v>
+      </c>
+      <c r="I33" s="3">
         <f t="shared" si="10"/>
-        <v>1.0625</v>
-      </c>
-      <c r="G33" s="3">
-        <f t="shared" si="13"/>
-        <v>1.0695767039293391</v>
-      </c>
-      <c r="H33" s="3">
-        <f t="shared" si="11"/>
-        <v>1.0371572871572872</v>
-      </c>
-      <c r="I33" s="3">
-        <f t="shared" si="12"/>
         <v>1.0685179940148026</v>
       </c>
     </row>

--- a/UbsRec/final.xlsx
+++ b/UbsRec/final.xlsx
@@ -22,7 +22,7 @@
     <sheet name="var" sheetId="2" r:id="rId8"/>
     <sheet name="sort" sheetId="5" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="150000" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -35,14 +35,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="75">
   <si>
     <t>MF</t>
   </si>
   <si>
-    <t>NFM</t>
-  </si>
-  <si>
     <t>RMSE</t>
   </si>
   <si>
@@ -70,9 +67,6 @@
     <t>Music</t>
   </si>
   <si>
-    <t>NFM-IPS</t>
-  </si>
-  <si>
     <t>NFM-DR</t>
   </si>
   <si>
@@ -85,15 +79,9 @@
     <t>MF-IPS-NP</t>
   </si>
   <si>
-    <t>NFM-IPS-NP</t>
-  </si>
-  <si>
     <t>MF-DR-NP</t>
   </si>
   <si>
-    <t>NFM-DR-NP</t>
-  </si>
-  <si>
     <t>IPS+</t>
   </si>
   <si>
@@ -127,12 +115,6 @@
     <t>MF-DR+</t>
   </si>
   <si>
-    <t>NFM-IPS+</t>
-  </si>
-  <si>
-    <t>NFM-DR+</t>
-  </si>
-  <si>
     <t>NFM-DR-NP-1</t>
   </si>
   <si>
@@ -245,6 +227,39 @@
   </si>
   <si>
     <t>biasedmf_40_0.01_0.1</t>
+  </si>
+  <si>
+    <t>NF-IPS-NP</t>
+  </si>
+  <si>
+    <t>NF-DR-NP</t>
+  </si>
+  <si>
+    <t>NF-IPS</t>
+  </si>
+  <si>
+    <t>NF-DR</t>
+  </si>
+  <si>
+    <t>NF</t>
+  </si>
+  <si>
+    <t>NF-IPS+</t>
+  </si>
+  <si>
+    <t>NF-DR+</t>
+  </si>
+  <si>
+    <t>MF-IPS-LTD</t>
+  </si>
+  <si>
+    <t>NF-IPS-LTD</t>
+  </si>
+  <si>
+    <t>MF-DR-LTD</t>
+  </si>
+  <si>
+    <t>NF-DR-LTD</t>
   </si>
 </sst>
 </file>
@@ -417,13 +432,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="47">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -813,7 +828,7 @@
   <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="I24" sqref="A1:I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -849,42 +864,42 @@
       <c r="I1" s="23">
         <v>0.69499999999999995</v>
       </c>
-      <c r="K1" s="26">
+      <c r="K1" s="24">
         <f>(1-B9/B5)*100</f>
         <v>2.4504084014002392</v>
       </c>
-      <c r="L1" s="26">
+      <c r="L1" s="24">
         <f t="shared" ref="L1:R4" si="0">(1-C9/C5)*100</f>
         <v>5.6127221702525816</v>
       </c>
-      <c r="M1" s="26">
+      <c r="M1" s="24">
         <f t="shared" si="0"/>
         <v>7.1999999999999957</v>
       </c>
-      <c r="N1" s="26">
+      <c r="N1" s="24">
         <f t="shared" si="0"/>
         <v>9.9236641221373993</v>
       </c>
-      <c r="O1" s="26">
+      <c r="O1" s="24">
         <f t="shared" si="0"/>
         <v>5.5118110236220481</v>
       </c>
-      <c r="P1" s="26">
+      <c r="P1" s="24">
         <f t="shared" si="0"/>
         <v>6.5753424657534199</v>
       </c>
-      <c r="Q1" s="26">
+      <c r="Q1" s="24">
         <f t="shared" si="0"/>
         <v>3.9024390243902474</v>
       </c>
-      <c r="R1" s="26">
+      <c r="R1" s="24">
         <f t="shared" si="0"/>
         <v>6.6384180790960308</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="23" t="s">
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="B2" s="23">
         <v>1.034</v>
@@ -910,42 +925,42 @@
       <c r="I2" s="23">
         <v>0.65700000000000003</v>
       </c>
-      <c r="K2" s="26">
+      <c r="K2" s="24">
         <f t="shared" ref="K2:K4" si="1">(1-B10/B6)*100</f>
         <v>1.7414574624012857</v>
       </c>
-      <c r="L2" s="26">
+      <c r="L2" s="24">
         <f t="shared" si="0"/>
         <v>5.2239256026132663</v>
       </c>
-      <c r="M2" s="26">
+      <c r="M2" s="24">
         <f t="shared" si="0"/>
         <v>5.8666666666666645</v>
       </c>
-      <c r="N2" s="26">
+      <c r="N2" s="24">
         <f t="shared" si="0"/>
         <v>8.4666666666666561</v>
       </c>
-      <c r="O2" s="26">
+      <c r="O2" s="24">
         <f t="shared" si="0"/>
         <v>4.1237113402061709</v>
       </c>
-      <c r="P2" s="26">
+      <c r="P2" s="24">
         <f t="shared" si="0"/>
         <v>5.6547619047619069</v>
       </c>
-      <c r="Q2" s="26">
+      <c r="Q2" s="24">
         <f t="shared" si="0"/>
         <v>2.7072758037225086</v>
       </c>
-      <c r="R2" s="26">
+      <c r="R2" s="24">
         <f t="shared" si="0"/>
         <v>4.9848942598187396</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="23" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B3" s="23">
         <v>0.91373956998807504</v>
@@ -971,42 +986,42 @@
       <c r="I3" s="23">
         <v>1.069</v>
       </c>
-      <c r="K3" s="26">
+      <c r="K3" s="24">
         <f t="shared" si="1"/>
         <v>1.5342809888907571</v>
       </c>
-      <c r="L3" s="26">
+      <c r="L3" s="24">
         <f t="shared" si="0"/>
         <v>5.2337107995535259</v>
       </c>
-      <c r="M3" s="26">
+      <c r="M3" s="24">
         <f t="shared" si="0"/>
         <v>4.5333333333333119</v>
       </c>
-      <c r="N3" s="26">
+      <c r="N3" s="24">
         <f t="shared" si="0"/>
         <v>7.1333333333333364</v>
       </c>
-      <c r="O3" s="26">
+      <c r="O3" s="24">
         <f t="shared" si="0"/>
         <v>4.8252911813643991</v>
       </c>
-      <c r="P3" s="26">
+      <c r="P3" s="24">
         <f t="shared" si="0"/>
         <v>6.1692969870875025</v>
       </c>
-      <c r="Q3" s="26">
+      <c r="Q3" s="24">
         <f t="shared" si="0"/>
         <v>2.1630615640598982</v>
       </c>
-      <c r="R3" s="26">
+      <c r="R3" s="24">
         <f t="shared" si="0"/>
         <v>4.2647058823529482</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="23" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B4" s="23">
         <v>1.1904630849220104</v>
@@ -1032,42 +1047,42 @@
       <c r="I4" s="23">
         <v>0.69099999999999995</v>
       </c>
-      <c r="K4" s="26">
+      <c r="K4" s="24">
         <f t="shared" si="1"/>
         <v>0.81585677749361762</v>
       </c>
-      <c r="L4" s="26">
+      <c r="L4" s="24">
         <f t="shared" si="0"/>
         <v>4.6000000000000041</v>
       </c>
-      <c r="M4" s="26">
+      <c r="M4" s="24">
         <f t="shared" si="0"/>
         <v>3.2000000000000139</v>
       </c>
-      <c r="N4" s="26">
+      <c r="N4" s="24">
         <f t="shared" si="0"/>
         <v>5.8000000000000052</v>
       </c>
-      <c r="O4" s="26">
+      <c r="O4" s="24">
         <f t="shared" si="0"/>
         <v>4.0925266903914626</v>
       </c>
-      <c r="P4" s="26">
+      <c r="P4" s="24">
         <f t="shared" si="0"/>
         <v>6.1224489795918435</v>
       </c>
-      <c r="Q4" s="26">
+      <c r="Q4" s="24">
         <f t="shared" si="0"/>
         <v>1.2048192771084376</v>
       </c>
-      <c r="R4" s="26">
+      <c r="R4" s="24">
         <f t="shared" si="0"/>
         <v>2.6729559748427723</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="23">
         <v>0.85699999999999998</v>
@@ -1096,7 +1111,7 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="23" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="B6" s="23">
         <v>0.84199999999999997</v>
@@ -1141,7 +1156,7 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="23">
         <v>0.79300000000000004</v>
@@ -1186,7 +1201,7 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="23" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="B8" s="23">
         <v>0.78200000000000003</v>
@@ -1231,7 +1246,7 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="23" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="B9" s="23">
         <v>0.83599999999999997</v>
@@ -1276,7 +1291,7 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="23" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="B10" s="23">
         <v>0.82733692816658111</v>
@@ -1305,7 +1320,7 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="23" t="s">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="B11" s="23">
         <v>0.78083315175809631</v>
@@ -1332,25 +1347,25 @@
         <v>0.65100000000000002</v>
       </c>
       <c r="O11" s="3">
-        <f>1-F9/F1</f>
+        <f t="shared" ref="O11:R12" si="4">1-F9/F1</f>
         <v>1.4778325123152691E-2</v>
       </c>
       <c r="P11" s="3">
-        <f>1-G9/G1</f>
+        <f t="shared" si="4"/>
         <v>5.1460361613351768E-2</v>
       </c>
       <c r="Q11" s="3">
-        <f>1-H9/H1</f>
+        <f t="shared" si="4"/>
         <v>2.1523178807947074E-2</v>
       </c>
       <c r="R11" s="3">
-        <f>1-I9/I1</f>
+        <f t="shared" si="4"/>
         <v>4.8920863309352414E-2</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="23" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="B12" s="23">
         <v>0.77561999999999998</v>
@@ -1377,19 +1392,19 @@
         <v>0.61899999999999999</v>
       </c>
       <c r="O12" s="3">
-        <f>1-F10/F2</f>
+        <f t="shared" si="4"/>
         <v>2.27670753064797E-2</v>
       </c>
       <c r="P12" s="3">
-        <f>1-G10/G2</f>
+        <f t="shared" si="4"/>
         <v>3.3536585365853688E-2</v>
       </c>
       <c r="Q12" s="3">
-        <f>1-H10/H2</f>
+        <f t="shared" si="4"/>
         <v>2.0442930153321992E-2</v>
       </c>
       <c r="R12" s="3">
-        <f>1-I10/I2</f>
+        <f t="shared" si="4"/>
         <v>4.2617960426179602E-2</v>
       </c>
     </row>
@@ -1422,25 +1437,25 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="O13" s="3">
-        <f>1-F11/F1</f>
+        <f t="shared" ref="O13:R14" si="5">1-F11/F1</f>
         <v>6.075533661740562E-2</v>
       </c>
       <c r="P13" s="3">
-        <f>1-G11/G1</f>
+        <f t="shared" si="5"/>
         <v>9.040333796940192E-2</v>
       </c>
       <c r="Q13" s="3">
-        <f>1-H11/H1</f>
+        <f t="shared" si="5"/>
         <v>2.6490066225165587E-2</v>
       </c>
       <c r="R13" s="3">
-        <f>1-I11/I1</f>
+        <f t="shared" si="5"/>
         <v>6.3309352517985529E-2</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="23" t="s">
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="B14" s="23">
         <v>5.0000000000000001E-3</v>
@@ -1467,25 +1482,25 @@
         <v>1.4E-2</v>
       </c>
       <c r="O14" s="3">
-        <f>1-F12/F2</f>
+        <f t="shared" si="5"/>
         <v>5.6042031523642621E-2</v>
       </c>
       <c r="P14" s="3">
-        <f>1-G12/G2</f>
+        <f t="shared" si="5"/>
         <v>8.8414634146341542E-2</v>
       </c>
       <c r="Q14" s="3">
-        <f>1-H12/H2</f>
+        <f t="shared" si="5"/>
         <v>2.2146507666098825E-2</v>
       </c>
       <c r="R14" s="3">
-        <f>1-I12/I2</f>
+        <f t="shared" si="5"/>
         <v>5.7838660578386603E-2</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="23" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B15" s="23">
         <v>3.0000000000000001E-3</v>
@@ -1514,7 +1529,7 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="23" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B16" s="23">
         <v>6.0000000000000001E-3</v>
@@ -1541,41 +1556,41 @@
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="K16" s="3">
-        <f>B5-B6</f>
+        <f t="shared" ref="K16:R16" si="6">B5-B6</f>
         <v>1.5000000000000013E-2</v>
       </c>
       <c r="L16" s="3">
-        <f>C5-C6</f>
+        <f t="shared" si="6"/>
         <v>2.1817194883859914E-2</v>
       </c>
       <c r="M16" s="3">
-        <f>D5-D6</f>
+        <f t="shared" si="6"/>
         <v>2.8649860091599422E-2</v>
       </c>
       <c r="N16" s="3">
-        <f>E5-E6</f>
+        <f t="shared" si="6"/>
         <v>4.1538323072277894E-2</v>
       </c>
       <c r="O16" s="3">
-        <f>F5-F6</f>
+        <f t="shared" si="6"/>
         <v>5.3000000000000047E-2</v>
       </c>
       <c r="P16" s="3">
-        <f>G5-G6</f>
+        <f t="shared" si="6"/>
         <v>5.799999999999994E-2</v>
       </c>
       <c r="Q16" s="3">
-        <f>H5-H6</f>
+        <f t="shared" si="6"/>
         <v>2.4000000000000021E-2</v>
       </c>
       <c r="R16" s="3">
-        <f>I5-I6</f>
+        <f t="shared" si="6"/>
         <v>4.599999999999993E-2</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B17" s="23">
         <v>3.0000000000000001E-3</v>
@@ -1602,41 +1617,41 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="K17" s="3">
-        <f>B17+B18</f>
+        <f t="shared" ref="K17:R17" si="7">B17+B18</f>
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="L17" s="3">
-        <f>C17+C18</f>
+        <f t="shared" si="7"/>
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="M17" s="3">
-        <f>D17+D18</f>
+        <f t="shared" si="7"/>
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="N17" s="3">
-        <f>E17+E18</f>
+        <f t="shared" si="7"/>
         <v>2.3E-2</v>
       </c>
       <c r="O17" s="3">
-        <f>F17+F18</f>
+        <f t="shared" si="7"/>
         <v>1.3000000000000001E-2</v>
       </c>
       <c r="P17" s="3">
-        <f>G17+G18</f>
+        <f t="shared" si="7"/>
         <v>2.0999999999999998E-2</v>
       </c>
       <c r="Q17" s="3">
-        <f>H17+H18</f>
+        <f t="shared" si="7"/>
         <v>1.3000000000000001E-2</v>
       </c>
       <c r="R17" s="3">
-        <f>I17+I18</f>
+        <f t="shared" si="7"/>
         <v>0.02</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" s="23" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="B18" s="23">
         <v>5.0000000000000001E-3</v>
@@ -1665,7 +1680,7 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B19" s="23">
         <v>2E-3</v>
@@ -1692,41 +1707,41 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="K19" s="3">
-        <f>B6-B7</f>
+        <f t="shared" ref="K19:R19" si="8">B6-B7</f>
         <v>4.8999999999999932E-2</v>
       </c>
       <c r="L19" s="3">
-        <f>C6-C7</f>
+        <f t="shared" si="8"/>
         <v>1.0431909956780006E-2</v>
       </c>
       <c r="M19" s="3">
-        <f>D6-D7</f>
+        <f t="shared" si="8"/>
         <v>5.5811661333835416E-2</v>
       </c>
       <c r="N19" s="3">
-        <f>E6-E7</f>
+        <f t="shared" si="8"/>
         <v>7.9865898923988654E-2</v>
       </c>
       <c r="O19" s="3">
-        <f>F6-F7</f>
+        <f t="shared" si="8"/>
         <v>-1.9000000000000017E-2</v>
       </c>
       <c r="P19" s="3">
-        <f>G6-G7</f>
+        <f t="shared" si="8"/>
         <v>-2.4999999999999911E-2</v>
       </c>
       <c r="Q19" s="3">
-        <f>H6-H7</f>
+        <f t="shared" si="8"/>
         <v>-1.0000000000000009E-2</v>
       </c>
       <c r="R19" s="3">
-        <f>I6-I7</f>
+        <f t="shared" si="8"/>
         <v>-1.8000000000000016E-2</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="23" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="B20" s="23">
         <v>4.0000000000000001E-3</v>
@@ -1753,41 +1768,41 @@
         <v>0.01</v>
       </c>
       <c r="K20" s="3">
-        <f>B18+B19</f>
+        <f t="shared" ref="K20:R20" si="9">B18+B19</f>
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="L20" s="3">
-        <f>C18+C19</f>
+        <f t="shared" si="9"/>
         <v>9.0000000000000011E-3</v>
       </c>
       <c r="M20" s="3">
-        <f>D18+D19</f>
+        <f t="shared" si="9"/>
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="N20" s="3">
-        <f>E18+E19</f>
+        <f t="shared" si="9"/>
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="O20" s="3">
-        <f>F18+F19</f>
+        <f t="shared" si="9"/>
         <v>0.01</v>
       </c>
       <c r="P20" s="3">
-        <f>G18+G19</f>
+        <f t="shared" si="9"/>
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="Q20" s="3">
-        <f>H18+H19</f>
+        <f t="shared" si="9"/>
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="R20" s="3">
-        <f>I18+I19</f>
+        <f t="shared" si="9"/>
         <v>1.8000000000000002E-2</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="23" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="B21" s="23">
         <v>2E-3</v>
@@ -1816,7 +1831,7 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="23" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="B22" s="23">
         <v>3.0000000000000001E-3</v>
@@ -1843,41 +1858,41 @@
         <v>1.2E-2</v>
       </c>
       <c r="K22" s="3">
-        <f>B7-B8</f>
+        <f t="shared" ref="K22:R22" si="10">B7-B8</f>
         <v>1.100000000000001E-2</v>
       </c>
       <c r="L22" s="3">
-        <f>C7-C8</f>
+        <f t="shared" si="10"/>
         <v>1.3165989498982622E-2</v>
       </c>
       <c r="M22" s="3">
-        <f>D7-D8</f>
+        <f t="shared" si="10"/>
         <v>2.2646377438985787E-2</v>
       </c>
       <c r="N22" s="3">
-        <f>E7-E8</f>
+        <f t="shared" si="10"/>
         <v>2.43388777914193E-2</v>
       </c>
       <c r="O22" s="3">
-        <f>F7-F8</f>
+        <f t="shared" si="10"/>
         <v>3.8999999999999924E-2</v>
       </c>
       <c r="P22" s="3">
-        <f>G7-G8</f>
+        <f t="shared" si="10"/>
         <v>5.9999999999999942E-2</v>
       </c>
       <c r="Q22" s="3">
-        <f>H7-H8</f>
+        <f t="shared" si="10"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="R22" s="3">
-        <f>I7-I8</f>
+        <f t="shared" si="10"/>
         <v>4.4000000000000039E-2</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="23" t="s">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="B23" s="23">
         <v>1E-3</v>
@@ -1904,41 +1919,41 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="K23" s="3">
-        <f>B19+B20</f>
+        <f t="shared" ref="K23:R23" si="11">B19+B20</f>
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="L23" s="3">
-        <f>C19+C20</f>
+        <f t="shared" si="11"/>
         <v>0.01</v>
       </c>
       <c r="M23" s="3">
-        <f>D19+D20</f>
+        <f t="shared" si="11"/>
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="N23" s="3">
-        <f>E19+E20</f>
+        <f t="shared" si="11"/>
         <v>1.9E-2</v>
       </c>
       <c r="O23" s="3">
-        <f>F19+F20</f>
+        <f t="shared" si="11"/>
         <v>9.0000000000000011E-3</v>
       </c>
       <c r="P23" s="3">
-        <f>G19+G20</f>
+        <f t="shared" si="11"/>
         <v>1.9E-2</v>
       </c>
       <c r="Q23" s="3">
-        <f>H19+H20</f>
+        <f t="shared" si="11"/>
         <v>9.0000000000000011E-3</v>
       </c>
       <c r="R23" s="3">
-        <f>I19+I20</f>
+        <f t="shared" si="11"/>
         <v>1.6E-2</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" s="23" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="B24" s="23">
         <v>2E-3</v>
@@ -1976,35 +1991,35 @@
       <c r="H25" s="23"/>
       <c r="I25" s="23"/>
       <c r="K25" s="3">
-        <f>B9-B10</f>
+        <f t="shared" ref="K25:R25" si="12">B9-B10</f>
         <v>8.6630718334188561E-3</v>
       </c>
       <c r="L25" s="3">
-        <f>C9-C10</f>
+        <f t="shared" si="12"/>
         <v>1.6521245546485708E-2</v>
       </c>
       <c r="M25" s="3">
-        <f>D9-D10</f>
+        <f t="shared" si="12"/>
         <v>1.5086417526821161E-2</v>
       </c>
       <c r="N25" s="3">
-        <f>E9-E10</f>
+        <f t="shared" si="12"/>
         <v>2.0843411718824978E-2</v>
       </c>
       <c r="O25" s="3">
-        <f>F9-F10</f>
+        <f t="shared" si="12"/>
         <v>4.1999999999999926E-2</v>
       </c>
       <c r="P25" s="3">
-        <f>G9-G10</f>
+        <f t="shared" si="12"/>
         <v>4.8000000000000043E-2</v>
       </c>
       <c r="Q25" s="3">
-        <f>H9-H10</f>
+        <f t="shared" si="12"/>
         <v>1.6000000000000014E-2</v>
       </c>
       <c r="R25" s="3">
-        <f>I9-I10</f>
+        <f t="shared" si="12"/>
         <v>3.2000000000000028E-2</v>
       </c>
     </row>
@@ -2041,41 +2056,41 @@
         <v>1.0731901352426412</v>
       </c>
       <c r="K26" s="3">
-        <f>B21+B22</f>
+        <f t="shared" ref="K26:R26" si="13">B21+B22</f>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="L26" s="3">
-        <f>C21+C22</f>
+        <f t="shared" si="13"/>
         <v>9.0000000000000011E-3</v>
       </c>
       <c r="M26" s="3">
-        <f>D21+D22</f>
+        <f t="shared" si="13"/>
         <v>0.01</v>
       </c>
       <c r="N26" s="3">
-        <f>E21+E22</f>
+        <f t="shared" si="13"/>
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="O26" s="3">
-        <f>F21+F22</f>
+        <f t="shared" si="13"/>
         <v>0.01</v>
       </c>
       <c r="P26" s="3">
-        <f>G21+G22</f>
+        <f t="shared" si="13"/>
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="Q26" s="3">
-        <f>H21+H22</f>
+        <f t="shared" si="13"/>
         <v>9.0000000000000011E-3</v>
       </c>
       <c r="R26" s="3">
-        <f>I21+I22</f>
+        <f t="shared" si="13"/>
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" s="23" t="s">
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="B27" s="17">
         <v>1.0009999999999999</v>
@@ -2094,21 +2109,21 @@
         <v>1.0329670329670331</v>
       </c>
       <c r="G27" s="3">
-        <f t="shared" ref="G27:I27" si="4">C2/C27</f>
+        <f t="shared" ref="G27:I27" si="14">C2/C27</f>
         <v>1.0657655168785523</v>
       </c>
       <c r="H27" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>1.0353980801806892</v>
       </c>
       <c r="I27" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>1.0666025510174593</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" s="23" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B28" s="18">
         <v>0.88700000000000001</v>
@@ -2127,53 +2142,53 @@
         <v>1.0301460766494646</v>
       </c>
       <c r="G28" s="3">
-        <f t="shared" ref="G28:I28" si="5">C3/C28</f>
+        <f t="shared" ref="G28:I28" si="15">C3/C28</f>
         <v>1.0590935351188229</v>
       </c>
       <c r="H28" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>1.0237358101135192</v>
       </c>
       <c r="I28" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>1.0493635640413685</v>
       </c>
       <c r="K28" s="3">
-        <f>B10-B11</f>
+        <f t="shared" ref="K28:R28" si="16">B10-B11</f>
         <v>4.6503776408484798E-2</v>
       </c>
       <c r="L28" s="3">
-        <f>C10-C11</f>
+        <f t="shared" si="16"/>
         <v>9.9884028585773832E-3</v>
       </c>
       <c r="M28" s="3">
-        <f>D10-D11</f>
+        <f t="shared" si="16"/>
         <v>4.1780880048518321E-2</v>
       </c>
       <c r="N28" s="3">
-        <f>E10-E11</f>
+        <f t="shared" si="16"/>
         <v>5.9002642441707942E-2</v>
       </c>
       <c r="O28" s="3">
-        <f>F10-F11</f>
+        <f t="shared" si="16"/>
         <v>-1.3999999999999901E-2</v>
       </c>
       <c r="P28" s="3">
-        <f>G10-G11</f>
+        <f t="shared" si="16"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="Q28" s="3">
-        <f>H10-H11</f>
+        <f t="shared" si="16"/>
         <v>-1.3000000000000012E-2</v>
       </c>
       <c r="R28" s="3">
-        <f>I10-I11</f>
+        <f t="shared" si="16"/>
         <v>-2.200000000000002E-2</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" s="23" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B29" s="18">
         <v>1.177</v>
@@ -2192,53 +2207,53 @@
         <v>1.0114384748700174</v>
       </c>
       <c r="G29" s="3">
-        <f t="shared" ref="G29:I29" si="6">C4/C29</f>
+        <f t="shared" ref="G29:I29" si="17">C4/C29</f>
         <v>1.0314648334214702</v>
       </c>
       <c r="H29" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="17"/>
         <v>1.0293204578882329</v>
       </c>
       <c r="I29" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="17"/>
         <v>1.0536591154417247</v>
       </c>
       <c r="K29" s="3">
-        <f>B22+B23</f>
+        <f t="shared" ref="K29:R29" si="18">B22+B23</f>
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="L29" s="3">
-        <f>C22+C23</f>
+        <f t="shared" si="18"/>
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="M29" s="3">
-        <f>D22+D23</f>
+        <f t="shared" si="18"/>
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="N29" s="3">
-        <f>E22+E23</f>
+        <f t="shared" si="18"/>
         <v>1.2E-2</v>
       </c>
       <c r="O29" s="3">
-        <f>F22+F23</f>
+        <f t="shared" si="18"/>
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="P29" s="3">
-        <f>G22+G23</f>
+        <f t="shared" si="18"/>
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="Q29" s="3">
-        <f>H22+H23</f>
+        <f t="shared" si="18"/>
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="R29" s="3">
-        <f>I22+I23</f>
+        <f t="shared" si="18"/>
         <v>1.6E-2</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" s="23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B30" s="17">
         <v>0.81</v>
@@ -2257,21 +2272,21 @@
         <v>1.0580246913580247</v>
       </c>
       <c r="G30" s="3">
-        <f t="shared" ref="G30:I30" si="7">C5/C30</f>
+        <f t="shared" ref="G30:I30" si="19">C5/C30</f>
         <v>1.0808897876643073</v>
       </c>
       <c r="H30" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>1.0362776836689882</v>
       </c>
       <c r="I30" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>1.0786825251601098</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" s="23" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="B31" s="17">
         <v>0.79800000000000004</v>
@@ -2286,7 +2301,7 @@
         <v>1.0649999999999999</v>
       </c>
       <c r="F31" s="3">
-        <f t="shared" ref="F31:F33" si="8">B6/B31</f>
+        <f t="shared" ref="F31:F33" si="20">B6/B31</f>
         <v>1.0551378446115287</v>
       </c>
       <c r="G31" s="3">
@@ -2294,49 +2309,49 @@
         <v>1.0696453576262921</v>
       </c>
       <c r="H31" s="3">
-        <f t="shared" ref="H31:H33" si="9">D6/D31</f>
+        <f t="shared" ref="H31:H33" si="21">D6/D31</f>
         <v>1.0367174854131376</v>
       </c>
       <c r="I31" s="3">
-        <f t="shared" ref="I31:I33" si="10">E6/E31</f>
+        <f t="shared" ref="I31:I33" si="22">E6/E31</f>
         <v>1.0680391332654668</v>
       </c>
       <c r="K31" s="3">
-        <f>B11-B12</f>
+        <f t="shared" ref="K31:R31" si="23">B11-B12</f>
         <v>5.2131517580963349E-3</v>
       </c>
       <c r="L31" s="3">
-        <f>C11-C12</f>
+        <f t="shared" si="23"/>
         <v>5.9903515949367714E-3</v>
       </c>
       <c r="M31" s="3">
-        <f>D11-D12</f>
+        <f t="shared" si="23"/>
         <v>1.1165196207206574E-2</v>
       </c>
       <c r="N31" s="3">
-        <f>E11-E12</f>
+        <f t="shared" si="23"/>
         <v>8.8259458394671642E-3</v>
       </c>
       <c r="O31" s="3">
-        <f>F11-F12</f>
+        <f t="shared" si="23"/>
         <v>3.2999999999999918E-2</v>
       </c>
       <c r="P31" s="3">
-        <f>G11-G12</f>
+        <f t="shared" si="23"/>
         <v>5.600000000000005E-2</v>
       </c>
       <c r="Q31" s="3">
-        <f>H11-H12</f>
+        <f t="shared" si="23"/>
         <v>1.4000000000000012E-2</v>
       </c>
       <c r="R31" s="3">
-        <f>I11-I12</f>
+        <f t="shared" si="23"/>
         <v>3.2000000000000028E-2</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" s="23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B32" s="17">
         <v>0.747</v>
@@ -2355,53 +2370,53 @@
         <v>1.0615796519410978</v>
       </c>
       <c r="G32" s="3">
-        <f t="shared" ref="G32:G33" si="11">C7/C32</f>
+        <f t="shared" ref="G32:G33" si="24">C7/C32</f>
         <v>1.0732410922974742</v>
       </c>
       <c r="H32" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>1.036937386285212</v>
       </c>
       <c r="I32" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>1.0682785636401348</v>
       </c>
       <c r="K32" s="3">
-        <f>B23+B24</f>
+        <f t="shared" ref="K32:R32" si="25">B23+B24</f>
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="L32" s="3">
-        <f>C23+C24</f>
+        <f t="shared" si="25"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="M32" s="3">
-        <f>D23+D24</f>
+        <f t="shared" si="25"/>
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="N32" s="3">
-        <f>E23+E24</f>
+        <f t="shared" si="25"/>
         <v>9.0000000000000011E-3</v>
       </c>
       <c r="O32" s="3">
-        <f>F23+F24</f>
+        <f t="shared" si="25"/>
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="P32" s="3">
-        <f>G23+G24</f>
+        <f t="shared" si="25"/>
         <v>0.01</v>
       </c>
       <c r="Q32" s="3">
-        <f>H23+H24</f>
+        <f t="shared" si="25"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="R32" s="3">
-        <f>I23+I24</f>
+        <f t="shared" si="25"/>
         <v>0.01</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="23" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="B33" s="17">
         <v>0.73599999999999999</v>
@@ -2416,19 +2431,19 @@
         <v>0.96699999999999997</v>
       </c>
       <c r="F33" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>1.0625</v>
       </c>
       <c r="G33" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>1.0695767039293391</v>
       </c>
       <c r="H33" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>1.0371572871572872</v>
       </c>
       <c r="I33" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>1.0685179940148026</v>
       </c>
     </row>
@@ -2439,704 +2454,259 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M18"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" t="str">
-        <f>A11</f>
-        <v>NFM-DR-NP</v>
-      </c>
-      <c r="K1" t="str">
-        <f>C11</f>
-        <v>MF-DR-NP</v>
-      </c>
-      <c r="L1" t="str">
-        <f>E11</f>
-        <v>NFM-IPS-NP</v>
-      </c>
-      <c r="M1" t="str">
-        <f>G11</f>
-        <v>MF-IPS-NP</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>0.78174500000000002</v>
+        <v>0.78441499999999997</v>
       </c>
       <c r="B2">
-        <v>1.038416</v>
+        <v>1.046057</v>
       </c>
       <c r="C2">
-        <v>0.78273000000000004</v>
+        <v>0.78454699999999999</v>
       </c>
       <c r="D2">
-        <v>1.0439020000000001</v>
+        <v>1.0507919999999999</v>
       </c>
       <c r="E2">
-        <v>0.78200400000000003</v>
+        <v>0.78335500000000002</v>
       </c>
       <c r="F2">
-        <v>1.0387390000000001</v>
+        <v>1.047059</v>
       </c>
       <c r="G2">
-        <v>0.78166000000000002</v>
+        <v>0.78762299999999996</v>
       </c>
       <c r="H2">
-        <v>1.0428440000000001</v>
-      </c>
-      <c r="J2">
-        <f t="shared" ref="J2:J8" si="0">A12</f>
-        <v>0.93525816074207191</v>
-      </c>
-      <c r="K2">
-        <f t="shared" ref="K2:K8" si="1">C12</f>
-        <v>0.94967126467966978</v>
-      </c>
-      <c r="L2">
-        <f t="shared" ref="L2:L8" si="2">E12</f>
-        <v>0.95814695782196735</v>
-      </c>
-      <c r="M2">
-        <f t="shared" ref="M2:M8" si="3">G12</f>
-        <v>0.96234007084604078</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+        <v>1.0534250000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>0.78355900000000001</v>
+        <v>0.78284100000000001</v>
       </c>
       <c r="B3">
-        <v>1.0460469999999999</v>
+        <v>1.0409310000000001</v>
       </c>
       <c r="C3">
-        <v>0.78361499999999995</v>
+        <v>0.78453300000000004</v>
       </c>
       <c r="D3">
-        <v>1.0528850000000001</v>
+        <v>1.0483279999999999</v>
       </c>
       <c r="E3">
-        <v>0.78423100000000001</v>
+        <v>0.78307199999999999</v>
       </c>
       <c r="F3">
-        <v>1.0463739999999999</v>
+        <v>1.0428630000000001</v>
       </c>
       <c r="G3">
-        <v>0.78597600000000001</v>
+        <v>0.78421600000000002</v>
       </c>
       <c r="H3">
-        <v>1.053671</v>
-      </c>
-      <c r="J3">
+        <v>1.0477939999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>0.78147599999999995</v>
+      </c>
+      <c r="B4">
+        <v>1.0368580000000001</v>
+      </c>
+      <c r="C4">
+        <v>0.78254400000000002</v>
+      </c>
+      <c r="D4">
+        <v>1.0426610000000001</v>
+      </c>
+      <c r="E4">
+        <v>0.78252699999999997</v>
+      </c>
+      <c r="F4">
+        <v>1.0356989999999999</v>
+      </c>
+      <c r="G4">
+        <v>0.78251700000000002</v>
+      </c>
+      <c r="H4">
+        <v>1.0434079999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>0.77821600000000002</v>
+      </c>
+      <c r="B5">
+        <v>1.0291939999999999</v>
+      </c>
+      <c r="C5">
+        <v>0.78083400000000003</v>
+      </c>
+      <c r="D5">
+        <v>1.03528</v>
+      </c>
+      <c r="E5">
+        <v>0.77795199999999998</v>
+      </c>
+      <c r="F5">
+        <v>1.025752</v>
+      </c>
+      <c r="G5">
+        <v>0.78069200000000005</v>
+      </c>
+      <c r="H5">
+        <v>1.0357989999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>0.77620400000000001</v>
+      </c>
+      <c r="B6">
+        <v>1.0182869999999999</v>
+      </c>
+      <c r="C6">
+        <v>0.77769299999999997</v>
+      </c>
+      <c r="D6">
+        <v>1.0300100000000001</v>
+      </c>
+      <c r="E6">
+        <v>0.77729099999999995</v>
+      </c>
+      <c r="F6">
+        <v>1.0173110000000001</v>
+      </c>
+      <c r="G6">
+        <v>0.77971400000000002</v>
+      </c>
+      <c r="H6">
+        <v>1.0277000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>0.77427400000000002</v>
+      </c>
+      <c r="B7">
+        <v>1.0125569999999999</v>
+      </c>
+      <c r="C7">
+        <v>0.77525699999999997</v>
+      </c>
+      <c r="D7">
+        <v>1.0189539999999999</v>
+      </c>
+      <c r="E7">
+        <v>0.77477600000000002</v>
+      </c>
+      <c r="F7">
+        <v>1.009452</v>
+      </c>
+      <c r="G7">
+        <v>0.77527699999999999</v>
+      </c>
+      <c r="H7">
+        <v>1.0204200000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>0.77121899999999999</v>
+      </c>
+      <c r="B8">
+        <v>1.0020249999999999</v>
+      </c>
+      <c r="C8">
+        <v>0.77226399999999995</v>
+      </c>
+      <c r="D8">
+        <v>1.01315</v>
+      </c>
+      <c r="E8">
+        <v>0.77065499999999998</v>
+      </c>
+      <c r="F8">
+        <v>1.0002530000000001</v>
+      </c>
+      <c r="G8">
+        <v>0.77302999999999999</v>
+      </c>
+      <c r="H8">
+        <v>1.0112140000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <f>MIN(A2:A8)/MAX(A2:A8)</f>
+        <v>0.98317727223472273</v>
+      </c>
+      <c r="B10">
+        <f t="shared" ref="B10:H10" si="0">MIN(B2:B8)/MAX(B2:B8)</f>
+        <v>0.95790669150916241</v>
+      </c>
+      <c r="C10">
         <f t="shared" si="0"/>
-        <v>0.95919340265165265</v>
-      </c>
-      <c r="K3">
-        <f t="shared" si="1"/>
-        <v>0.96852182562832922</v>
-      </c>
-      <c r="L3">
-        <f t="shared" si="2"/>
-        <v>0.97621980705994316</v>
-      </c>
-      <c r="M3">
-        <f t="shared" si="3"/>
-        <v>0.9830893070625536</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>0.78592499999999998</v>
-      </c>
-      <c r="B4">
-        <v>1.0503480000000001</v>
-      </c>
-      <c r="C4">
-        <v>0.78792200000000001</v>
-      </c>
-      <c r="D4">
-        <v>1.0597780000000001</v>
-      </c>
-      <c r="E4">
-        <v>0.78394399999999997</v>
-      </c>
-      <c r="F4">
-        <v>1.053868</v>
-      </c>
-      <c r="G4">
-        <v>0.78724700000000003</v>
-      </c>
-      <c r="H4">
-        <v>1.0573729999999999</v>
-      </c>
-      <c r="J4">
+        <v>0.98434383153590532</v>
+      </c>
+      <c r="D10">
         <f t="shared" si="0"/>
-        <v>0.97650000000000003</v>
-      </c>
-      <c r="K4">
-        <f t="shared" si="1"/>
-        <v>0.98249035159493681</v>
-      </c>
-      <c r="L4">
-        <f t="shared" si="2"/>
-        <v>0.99247875445351419</v>
-      </c>
-      <c r="M4">
-        <f t="shared" si="3"/>
-        <v>0.99890668486726919</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>0.78700000000000003</v>
-      </c>
-      <c r="B5">
-        <v>1.054818</v>
-      </c>
-      <c r="C5">
-        <v>0.78859400000000002</v>
-      </c>
-      <c r="D5">
-        <v>1.0620099999999999</v>
-      </c>
-      <c r="E5">
-        <v>0.78515000000000001</v>
-      </c>
-      <c r="F5">
-        <v>1.0567550000000001</v>
-      </c>
-      <c r="G5">
-        <v>0.78716699999999995</v>
-      </c>
-      <c r="H5">
-        <v>1.061788</v>
-      </c>
-      <c r="J5">
+        <v>0.96417749659304608</v>
+      </c>
+      <c r="E10">
         <f t="shared" si="0"/>
-        <v>0.97784511783075367</v>
-      </c>
-      <c r="K5">
-        <f t="shared" si="1"/>
-        <v>0.9831906700440638</v>
-      </c>
-      <c r="L5">
-        <f t="shared" si="2"/>
-        <v>0.99429373769941531</v>
-      </c>
-      <c r="M5">
-        <f t="shared" si="3"/>
-        <v>1.0006000850872387</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>0.78347699999999998</v>
-      </c>
-      <c r="B6">
-        <v>1.0571520000000001</v>
-      </c>
-      <c r="C6">
-        <v>0.78981599999999996</v>
-      </c>
-      <c r="D6">
-        <v>1.062767</v>
-      </c>
-      <c r="E6">
-        <v>0.78758899999999998</v>
-      </c>
-      <c r="F6">
-        <v>1.0567070000000001</v>
-      </c>
-      <c r="G6">
-        <v>0.78721099999999999</v>
-      </c>
-      <c r="H6">
-        <v>1.063588</v>
-      </c>
-      <c r="J6">
+        <v>0.98378768246835724</v>
+      </c>
+      <c r="F10">
         <f t="shared" si="0"/>
-        <v>0.97711840241634085</v>
-      </c>
-      <c r="K6">
-        <f t="shared" si="1"/>
-        <v>0.98303339905813036</v>
-      </c>
-      <c r="L6">
-        <f t="shared" si="2"/>
-        <v>0.99424857481926854</v>
-      </c>
-      <c r="M6">
-        <f t="shared" si="3"/>
-        <v>0.99939683015316039</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>0.78537199999999996</v>
-      </c>
-      <c r="B7">
-        <v>1.056271</v>
-      </c>
-      <c r="C7">
-        <v>0.78645500000000002</v>
-      </c>
-      <c r="D7">
-        <v>1.062597</v>
-      </c>
-      <c r="E7">
-        <v>0.78766400000000003</v>
-      </c>
-      <c r="F7">
-        <v>1.0554699999999999</v>
-      </c>
-      <c r="G7">
-        <v>0.78809300000000004</v>
-      </c>
-      <c r="H7">
-        <v>1.0623089999999999</v>
-      </c>
-      <c r="J7">
+        <v>0.95529764798354255</v>
+      </c>
+      <c r="G10">
         <f t="shared" si="0"/>
-        <v>0.97819227487585525</v>
-      </c>
-      <c r="K7">
-        <f t="shared" si="1"/>
-        <v>0.98345525534981049</v>
-      </c>
-      <c r="L7">
-        <f t="shared" si="2"/>
-        <v>0.99308468976215103</v>
-      </c>
-      <c r="M7">
-        <f t="shared" si="3"/>
-        <v>1.0003949955050424</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>0.78754199999999996</v>
-      </c>
-      <c r="B8">
-        <v>1.0554859999999999</v>
-      </c>
-      <c r="C8">
-        <v>0.78702300000000003</v>
-      </c>
-      <c r="D8">
-        <v>1.063053</v>
-      </c>
-      <c r="E8">
-        <v>0.78819799999999995</v>
-      </c>
-      <c r="F8">
-        <v>1.0583320000000001</v>
-      </c>
-      <c r="G8">
-        <v>0.79000499999999996</v>
-      </c>
-      <c r="H8">
-        <v>1.0633699999999999</v>
-      </c>
-      <c r="J8">
+        <v>0.9814721002306942</v>
+      </c>
+      <c r="H10">
         <f t="shared" si="0"/>
-        <v>0.97866070544871242</v>
-      </c>
-      <c r="K8">
-        <f t="shared" si="1"/>
-        <v>0.9849076991610779</v>
-      </c>
-      <c r="L8">
-        <f t="shared" si="2"/>
-        <v>0.99577752649090634</v>
-      </c>
-      <c r="M8">
-        <f t="shared" si="3"/>
-        <v>1.0022379794111094</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>0.78334400000000004</v>
-      </c>
-      <c r="B9">
-        <v>1.056646</v>
-      </c>
-      <c r="C9">
-        <v>0.78634499999999996</v>
-      </c>
-      <c r="D9">
-        <v>1.0646230000000001</v>
-      </c>
-      <c r="E9">
-        <v>0.78625400000000001</v>
-      </c>
-      <c r="F9">
-        <v>1.054826</v>
-      </c>
-      <c r="G9">
-        <v>0.78769400000000001</v>
-      </c>
-      <c r="H9">
-        <v>1.065329</v>
-      </c>
-      <c r="J9">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <f>MIN(A2:A9)/MAX(A2:A9)</f>
-        <v>0.9926391227388508</v>
-      </c>
-      <c r="B10">
-        <f t="shared" ref="B10:H10" si="4">MIN(B2:B9)/MAX(B2:B9)</f>
-        <v>0.9822769100375347</v>
-      </c>
-      <c r="C10">
-        <f t="shared" si="4"/>
-        <v>0.99102829013339822</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="4"/>
-        <v>0.98053677217193314</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="4"/>
-        <v>0.99214156848913604</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="4"/>
-        <v>0.98148690581027509</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="4"/>
-        <v>0.98943677571660948</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="4"/>
-        <v>0.9788938440613183</v>
-      </c>
-      <c r="J10">
-        <f>J8</f>
-        <v>0.97866070544871242</v>
-      </c>
-      <c r="K10">
-        <f>J6</f>
-        <v>0.97711840241634085</v>
-      </c>
-      <c r="L10">
-        <f>J4</f>
-        <v>0.97650000000000003</v>
-      </c>
-      <c r="M10">
-        <f>J2</f>
-        <v>0.93525816074207191</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" t="s">
-        <v>15</v>
-      </c>
-      <c r="J11">
-        <f>J10+J9</f>
-        <v>0.98466070544871243</v>
-      </c>
-      <c r="K11">
-        <f t="shared" ref="K11:M11" si="5">K10+K9</f>
-        <v>0.97711840241634085</v>
-      </c>
-      <c r="L11">
-        <f t="shared" si="5"/>
-        <v>0.97650000000000003</v>
-      </c>
-      <c r="M11">
-        <f t="shared" si="5"/>
-        <v>0.93525816074207191</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <f>A13*B12</f>
-        <v>0.93525816074207191</v>
-      </c>
-      <c r="B12">
-        <f>A10*B10</f>
-        <v>0.97504649026628754</v>
-      </c>
-      <c r="C12">
-        <f>C13*D12</f>
-        <v>0.94967126467966978</v>
-      </c>
-      <c r="D12">
-        <f>D10</f>
-        <v>0.98053677217193314</v>
-      </c>
-      <c r="E12">
-        <f>E13*F12</f>
-        <v>0.95814695782196735</v>
-      </c>
-      <c r="F12">
-        <f>F10</f>
-        <v>0.98148690581027509</v>
-      </c>
-      <c r="G12">
-        <f>G13*H12</f>
-        <v>0.96234007084604078</v>
-      </c>
-      <c r="H12">
-        <f>H10</f>
-        <v>0.9788938440613183</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <f>A14*B13</f>
-        <v>0.95919340265165265</v>
-      </c>
-      <c r="B13">
-        <f>B10</f>
-        <v>0.9822769100375347</v>
-      </c>
-      <c r="C13">
-        <f>C14*D13</f>
-        <v>0.96852182562832922</v>
-      </c>
-      <c r="D13">
-        <f>AVERAGE(C10:D10)</f>
-        <v>0.98578253115266568</v>
-      </c>
-      <c r="E13">
-        <f>E14*F13</f>
-        <v>0.97621980705994316</v>
-      </c>
-      <c r="F13">
-        <f>0.2*E10+0.8*F10</f>
-        <v>0.98361783834604732</v>
-      </c>
-      <c r="G13">
-        <f>G14*H13</f>
-        <v>0.9830893070625536</v>
-      </c>
-      <c r="H13">
-        <f>AVERAGE(G10:H10)</f>
-        <v>0.98416530988896389</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <f>'mar-n'!C14</f>
-        <v>0.97650000000000003</v>
-      </c>
-      <c r="B14">
-        <f>B5</f>
-        <v>1.054818</v>
-      </c>
-      <c r="C14">
-        <f>'mar-n'!C13</f>
-        <v>0.98249035159493681</v>
-      </c>
-      <c r="D14">
-        <f>D5</f>
-        <v>1.0620099999999999</v>
-      </c>
-      <c r="E14">
-        <f>'mar-n'!C12</f>
-        <v>0.99247875445351419</v>
-      </c>
-      <c r="F14">
-        <f>F9</f>
-        <v>1.054826</v>
-      </c>
-      <c r="G14">
-        <f>'mar-n'!C11</f>
-        <v>0.99890668486726919</v>
-      </c>
-      <c r="H14">
-        <f>H5</f>
-        <v>1.061788</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <f>A14*B15/B14</f>
-        <v>0.97784511783075367</v>
-      </c>
-      <c r="B15">
-        <f>B7</f>
-        <v>1.056271</v>
-      </c>
-      <c r="C15">
-        <f>C14*D15/D14</f>
-        <v>0.9831906700440638</v>
-      </c>
-      <c r="D15">
-        <f t="shared" ref="D15:D18" si="6">D6</f>
-        <v>1.062767</v>
-      </c>
-      <c r="E15">
-        <f>E14*F15/F14</f>
-        <v>0.99429373769941531</v>
-      </c>
-      <c r="F15">
-        <f>F5</f>
-        <v>1.0567550000000001</v>
-      </c>
-      <c r="G15">
-        <f>G14*H15/H14</f>
-        <v>1.0006000850872387</v>
-      </c>
-      <c r="H15">
-        <f t="shared" ref="H15:H18" si="7">H6</f>
-        <v>1.063588</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <f t="shared" ref="A16:A18" si="8">A15*B16/B15</f>
-        <v>0.97711840241634085</v>
-      </c>
-      <c r="B16">
-        <f t="shared" ref="B16:B17" si="9">B8</f>
-        <v>1.0554859999999999</v>
-      </c>
-      <c r="C16">
-        <f t="shared" ref="C16:C18" si="10">C15*D16/D15</f>
-        <v>0.98303339905813036</v>
-      </c>
-      <c r="D16">
-        <f t="shared" si="6"/>
-        <v>1.062597</v>
-      </c>
-      <c r="E16">
-        <f t="shared" ref="E16:E18" si="11">E15*F16/F15</f>
-        <v>0.99424857481926854</v>
-      </c>
-      <c r="F16">
-        <f t="shared" ref="F16:F18" si="12">F6</f>
-        <v>1.0567070000000001</v>
-      </c>
-      <c r="G16">
-        <f t="shared" ref="G16:G18" si="13">G15*H16/H15</f>
-        <v>0.99939683015316039</v>
-      </c>
-      <c r="H16">
-        <f t="shared" si="7"/>
-        <v>1.0623089999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <f t="shared" si="8"/>
-        <v>0.97819227487585525</v>
-      </c>
-      <c r="B17">
-        <f t="shared" si="9"/>
-        <v>1.056646</v>
-      </c>
-      <c r="C17">
-        <f t="shared" si="10"/>
-        <v>0.98345525534981049</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="6"/>
-        <v>1.063053</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="11"/>
-        <v>0.99308468976215103</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="12"/>
-        <v>1.0554699999999999</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="13"/>
-        <v>1.0003949955050424</v>
-      </c>
-      <c r="H17">
-        <f t="shared" si="7"/>
-        <v>1.0633699999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <f t="shared" si="8"/>
-        <v>0.97866070544871242</v>
-      </c>
-      <c r="B18">
-        <f>B6</f>
-        <v>1.0571520000000001</v>
-      </c>
-      <c r="C18">
-        <f t="shared" si="10"/>
-        <v>0.9849076991610779</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="6"/>
-        <v>1.0646230000000001</v>
-      </c>
-      <c r="E18">
-        <f t="shared" si="11"/>
-        <v>0.99577752649090634</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="12"/>
-        <v>1.0583320000000001</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="13"/>
-        <v>1.0022379794111094</v>
-      </c>
-      <c r="H18">
-        <f t="shared" si="7"/>
-        <v>1.065329</v>
+        <v>0.95992975294871496</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F11" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -3149,7 +2719,7 @@
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E14" sqref="B3:E14"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3157,67 +2727,67 @@
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="17"/>
       <c r="B1" s="17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C1" s="17"/>
       <c r="D1" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E1" s="17"/>
       <c r="F1" s="17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G1" s="17"/>
       <c r="H1" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I1" s="17"/>
       <c r="J1" s="17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K1" s="17"/>
       <c r="L1" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M1" s="17"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="17"/>
       <c r="B2" s="17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J2" s="17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K2" s="17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2" s="17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M2" s="17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -3267,7 +2837,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="B4" s="17">
         <f>F4*J4</f>
@@ -3316,7 +2886,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B5" s="17">
         <f>B7+(B3-B7)/(F3-F7)*(F5-F7)</f>
@@ -3353,7 +2923,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B6" s="17">
         <f>B3*F6/F3</f>
@@ -3390,7 +2960,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="17">
         <f>F7*J7</f>
@@ -3439,7 +3009,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="17" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="B8" s="17">
         <f>F8*J8</f>
@@ -3488,7 +3058,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="17">
         <f t="shared" ref="B9" si="6">F9*J9</f>
@@ -3537,7 +3107,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="B10" s="17">
         <f>B14/B18</f>
@@ -3586,7 +3156,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B11" s="17">
         <f>B7*B15</f>
@@ -3615,7 +3185,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="17" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="B12" s="17">
         <f>B8*B16</f>
@@ -3644,7 +3214,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="17" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B13" s="17">
         <f t="shared" si="11"/>
@@ -3673,7 +3243,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="B14" s="18">
         <v>0.77561999999999998</v>
@@ -3824,7 +3394,7 @@
   <dimension ref="A1:O37"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3834,60 +3404,60 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B1" s="14" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="K1" s="14" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="M1" s="14" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B2" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -3940,7 +3510,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="B4" s="13">
         <f>K14*B3</f>
@@ -3959,7 +3529,7 @@
         <v>0.65668748818298228</v>
       </c>
       <c r="J4" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K4">
         <v>0.752</v>
@@ -3976,7 +3546,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B5" s="13">
         <f>B3*F5/F3</f>
@@ -4025,7 +3595,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B6" s="13">
         <f>B3*F6/F3</f>
@@ -4056,7 +3626,7 @@
         <v>0.79800000000000004</v>
       </c>
       <c r="J6" s="14" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="K6" s="14">
         <f>K17*L6</f>
@@ -4077,7 +3647,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="13">
         <f>K6*B3</f>
@@ -4100,7 +3670,7 @@
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
       <c r="J7" s="14" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="K7" s="14">
         <f>MAX(K5:L5)</f>
@@ -4121,7 +3691,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="B8" s="13">
         <f>B4*K7</f>
@@ -4146,7 +3716,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="13">
         <f>B3*K15</f>
@@ -4169,15 +3739,15 @@
       <c r="H9" s="13"/>
       <c r="I9" s="13"/>
       <c r="K9" s="14" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="M9" s="14" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="B10" s="13">
         <f>B4*K16</f>
@@ -4196,21 +3766,21 @@
         <v>0.6295900114563765</v>
       </c>
       <c r="K10" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L10" s="14" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M10" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N10" s="14" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B11" s="13">
         <f t="shared" ref="B11:E12" si="2">B15*B7</f>
@@ -4250,7 +3820,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="B12" s="13">
         <f t="shared" si="2"/>
@@ -4273,7 +3843,7 @@
       <c r="H12" s="13"/>
       <c r="I12" s="13"/>
       <c r="J12" s="14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K12" s="10">
         <v>0.72499999999999998</v>
@@ -4290,7 +3860,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B13" s="13">
         <f>B17*B9</f>
@@ -4331,7 +3901,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="B14" s="13">
         <f>K21</f>
@@ -4350,7 +3920,7 @@
         <v>0.60419999999999996</v>
       </c>
       <c r="J14" s="14" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="K14" s="14">
         <f>K17*L14</f>
@@ -4387,7 +3957,7 @@
         <v>0.94463514713849184</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="K15" s="14">
         <f>K17*L15</f>
@@ -4424,7 +3994,7 @@
         <v>0.94964748147179412</v>
       </c>
       <c r="J16" s="14" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="K16" s="14">
         <f>K17*L16</f>
@@ -4487,10 +4057,10 @@
         <v>0.95967215013839879</v>
       </c>
       <c r="K18" s="14" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="M18" s="14" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
@@ -4511,16 +4081,16 @@
         <v>5.0123343333023191E-3</v>
       </c>
       <c r="K19" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L19" s="14" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M19" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N19" s="14" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
@@ -4552,7 +4122,7 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="J21" s="14" t="s">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="K21">
         <v>0.53900000000000003</v>
@@ -4589,22 +4159,22 @@
       <c r="A24" s="13"/>
       <c r="B24" s="13"/>
       <c r="C24" s="13" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D24" s="13"/>
       <c r="E24" s="13"/>
       <c r="F24" s="13" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G24" s="13"/>
       <c r="H24" s="13"/>
       <c r="I24" s="13" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="J24" s="13"/>
       <c r="K24" s="13"/>
       <c r="L24" s="13" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="M24" s="13"/>
       <c r="N24" s="13"/>
@@ -4613,45 +4183,45 @@
       <c r="A25" s="13"/>
       <c r="B25" s="13"/>
       <c r="C25" s="13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E25" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G25" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="F25" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G25" s="13" t="s">
-        <v>3</v>
-      </c>
       <c r="H25" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="I25" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J25" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="I25" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="J25" s="13" t="s">
-        <v>3</v>
-      </c>
       <c r="K25" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="L25" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="M25" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="L25" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="M25" s="13" t="s">
-        <v>3</v>
-      </c>
       <c r="N25" s="13" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="13" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B26" s="13" t="s">
         <v>0</v>
@@ -4701,7 +4271,7 @@
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="13"/>
       <c r="B27" s="13" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C27" s="13">
         <v>0.82599999999999996</v>
@@ -4748,7 +4318,7 @@
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="13"/>
       <c r="B28" s="13" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C28" s="13">
         <v>0.64500000000000002</v>
@@ -4794,7 +4364,7 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="13" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B29" s="13" t="s">
         <v>0</v>
@@ -4843,7 +4413,7 @@
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="13"/>
       <c r="B30" s="13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C30" s="13">
         <v>0.80600000000000005</v>
@@ -4890,7 +4460,7 @@
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="13"/>
       <c r="B31" s="13" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C31" s="13">
         <v>0.80100000000000005</v>
@@ -4938,29 +4508,29 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B33" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33" s="14" t="s">
         <v>4</v>
-      </c>
-      <c r="D33" s="14" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B34" s="14" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E34" s="14" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="14" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B35" s="10">
         <v>0.33850000000000002</v>
@@ -4977,7 +4547,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="14" t="s">
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="B36" s="10">
         <v>0.3095</v>
@@ -5020,7 +4590,7 @@
   <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5031,69 +4601,69 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="4"/>
       <c r="B1" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C1" s="12"/>
       <c r="D1" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E1" s="12"/>
       <c r="F1" s="4"/>
       <c r="G1" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H1" s="12"/>
       <c r="I1" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J1" s="12"/>
-      <c r="K1" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" s="24"/>
+      <c r="K1" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="25"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
       <c r="B2" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -5150,7 +4720,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="4">
         <v>0.81</v>
@@ -5165,7 +4735,7 @@
         <v>1.093</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="G4" s="4">
         <f>G3*G15*G21</f>
@@ -5186,7 +4756,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="4">
         <v>0.747</v>
@@ -5202,7 +4772,7 @@
         <v>0.99</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G5" s="4">
         <f>G7+(G3-G7)/(K3-K7)*(K5-K7)</f>
@@ -5236,7 +4806,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="B6" s="4">
         <v>1.0009999999999999</v>
@@ -5251,7 +4821,7 @@
         <v>1.218</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G6" s="4">
         <f>G3*K6/K3</f>
@@ -5284,7 +4854,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="B7" s="4">
         <v>0.79800000000000004</v>
@@ -5299,7 +4869,7 @@
         <v>1.0649999999999999</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G7" s="4">
         <f>G3*G17*G20</f>
@@ -5336,7 +4906,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="B8" s="4">
         <v>0.73599999999999999</v>
@@ -5351,7 +4921,7 @@
         <v>0.96699999999999997</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="G8" s="4">
         <f>G4*G19*G21</f>
@@ -5376,7 +4946,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B9" s="4">
         <f t="shared" ref="B9:E10" si="2">B4/B3</f>
@@ -5395,7 +4965,7 @@
         <v>0.86953062848050922</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G9" s="4">
         <f>G7*B10*G20</f>
@@ -5420,7 +4990,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B10" s="4">
         <f t="shared" si="2"/>
@@ -5439,7 +5009,7 @@
         <v>0.90576395242451968</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="G10" s="4">
         <f>G14/K14</f>
@@ -5464,7 +5034,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="B11" s="4">
         <f t="shared" ref="B11:E12" si="5">B7/B6</f>
@@ -5483,7 +5053,7 @@
         <v>0.87438423645320196</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G11" s="4">
         <f>G7*K11</f>
@@ -5520,7 +5090,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="B12" s="4">
         <f t="shared" si="5"/>
@@ -5539,7 +5109,7 @@
         <v>0.90798122065727704</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="G12" s="4">
         <f t="shared" ref="G12:G13" si="7">G8*K12</f>
@@ -5577,19 +5147,19 @@
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="E13" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G13" s="4">
         <f t="shared" si="7"/>
@@ -5643,7 +5213,7 @@
         <v>0.87858271886143968</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="G14" s="4">
         <f>'mar-o'!K21</f>
@@ -5693,7 +5263,7 @@
         <v>1.1359999999999999</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G15" s="4">
         <f>A23</f>
@@ -5751,27 +5321,27 @@
         <v>1</v>
       </c>
       <c r="K16" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L16" s="11"/>
       <c r="M16" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N16" s="11"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>23</v>
-      </c>
       <c r="E17" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F17" s="4" t="str">
         <f>A9</f>
@@ -5794,16 +5364,16 @@
         <v>0.86953062848050922</v>
       </c>
       <c r="K17" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L17" s="11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M17" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N17" s="11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
@@ -5867,7 +5437,7 @@
       </c>
       <c r="F19" s="4" t="str">
         <f>A11</f>
-        <v>NFM-IPS+</v>
+        <v>NF-IPS+</v>
       </c>
       <c r="G19" s="4">
         <f>B11*G18</f>
@@ -6020,7 +5590,7 @@
         <v>0.9743824336688014</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G22" s="4">
         <f>G9*G15*G20</f>
@@ -6120,53 +5690,53 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
-      <c r="B1" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="24"/>
-      <c r="F1" s="25" t="s">
+      <c r="B1" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="25"/>
+      <c r="F1" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="25"/>
+      <c r="I1" s="26"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="I2" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B3" s="4">
         <f>C3*B16</f>
@@ -6191,7 +5761,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B4" s="4">
         <f>C4*B20</f>
@@ -6216,7 +5786,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B5" s="4">
         <f>C5*B21</f>
@@ -6251,7 +5821,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B6" s="15">
         <f>'mar-n'!B14</f>
@@ -6286,7 +5856,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B7" s="4">
         <f>C7*B19</f>
@@ -6321,7 +5891,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B8" s="4">
         <f>C8*B18</f>
@@ -6357,7 +5927,7 @@
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="str">
         <f>'mar-n'!A10</f>
-        <v>NFM-DR</v>
+        <v>NF-DR</v>
       </c>
       <c r="B9" s="16">
         <f>'mar-n'!B10</f>
@@ -6377,11 +5947,11 @@
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -6519,7 +6089,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2">
@@ -6715,36 +6285,36 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -7076,7 +6646,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B1">
         <v>1.147</v>
@@ -7099,7 +6669,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B2">
         <v>1.1471</v>
@@ -7122,7 +6692,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B3">
         <v>1.1473</v>
@@ -7145,7 +6715,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B4">
         <v>1.1475</v>
@@ -7168,7 +6738,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B5">
         <v>1.1514</v>
@@ -7191,7 +6761,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B6">
         <v>1.1531</v>
@@ -7214,7 +6784,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B7">
         <v>1.1535</v>
@@ -7237,7 +6807,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B8">
         <v>1.1536999999999999</v>
@@ -7260,7 +6830,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B9">
         <v>1.1547000000000001</v>
@@ -7283,7 +6853,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B10">
         <v>1.1558999999999999</v>
@@ -7306,7 +6876,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B11">
         <v>1.1563000000000001</v>
@@ -7329,7 +6899,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B12">
         <v>1.1583000000000001</v>
@@ -7352,7 +6922,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B13">
         <v>1.1603000000000001</v>
@@ -7375,7 +6945,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B14">
         <v>1.1623000000000001</v>
@@ -7398,7 +6968,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B15">
         <v>1.1623000000000001</v>
@@ -7421,7 +6991,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B16">
         <v>1.1647000000000001</v>
@@ -7444,7 +7014,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B17">
         <v>1.1648000000000001</v>
@@ -7467,7 +7037,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B18">
         <v>1.1672</v>

--- a/UbsRec/final.xlsx
+++ b/UbsRec/final.xlsx
@@ -9,18 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="8" r:id="rId1"/>
     <sheet name="overall" sheetId="9" r:id="rId2"/>
-    <sheet name="size" sheetId="7" r:id="rId3"/>
-    <sheet name="mar-n" sheetId="6" r:id="rId4"/>
-    <sheet name="mnar" sheetId="1" r:id="rId5"/>
-    <sheet name="mar-o" sheetId="3" r:id="rId6"/>
-    <sheet name="npm" sheetId="4" r:id="rId7"/>
-    <sheet name="var" sheetId="2" r:id="rId8"/>
-    <sheet name="sort" sheetId="5" r:id="rId9"/>
+    <sheet name="size-a" sheetId="7" r:id="rId3"/>
+    <sheet name="size-b" sheetId="10" r:id="rId4"/>
+    <sheet name="mar-n" sheetId="6" r:id="rId5"/>
+    <sheet name="mnar" sheetId="1" r:id="rId6"/>
+    <sheet name="mar-o" sheetId="3" r:id="rId7"/>
+    <sheet name="npm" sheetId="4" r:id="rId8"/>
+    <sheet name="var" sheetId="2" r:id="rId9"/>
+    <sheet name="sort" sheetId="5" r:id="rId10"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="85">
   <si>
     <t>MF</t>
   </si>
@@ -260,15 +261,46 @@
   </si>
   <si>
     <t>NF-DR-LTD</t>
+  </si>
+  <si>
+    <t>music_0.01_0.5</t>
+  </si>
+  <si>
+    <t>music_0.05_0.5</t>
+  </si>
+  <si>
+    <t>music_0.1_0.5</t>
+  </si>
+  <si>
+    <t>music_0.2_0.5</t>
+  </si>
+  <si>
+    <t>music_0.3_0.5</t>
+  </si>
+  <si>
+    <t>music_0.4_0.5</t>
+  </si>
+  <si>
+    <t>music_0.5_0.5</t>
+  </si>
+  <si>
+    <t>NF-DR/NF</t>
+  </si>
+  <si>
+    <t>NF-DR-LTD/NF</t>
+  </si>
+  <si>
+    <t>NF-DR-LTD/NF-DR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -375,7 +407,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -439,6 +471,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="47">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -762,14 +795,308 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B17:B32"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E32" sqref="A1:E32"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="G7" sqref="F1:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1">
+        <v>0.80769000000000002</v>
+      </c>
+      <c r="C1">
+        <v>3.6110000000000001E-3</v>
+      </c>
+      <c r="D1">
+        <v>1.0939779999999999</v>
+      </c>
+      <c r="E1">
+        <v>2.8440000000000002E-3</v>
+      </c>
+      <c r="F1">
+        <f>D1</f>
+        <v>1.0939779999999999</v>
+      </c>
+      <c r="G1">
+        <f>D9</f>
+        <v>1.050101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2">
+        <v>0.80730400000000002</v>
+      </c>
+      <c r="C2">
+        <v>4.0930000000000003E-3</v>
+      </c>
+      <c r="D2">
+        <v>1.093305</v>
+      </c>
+      <c r="E2">
+        <v>2.745E-3</v>
+      </c>
+      <c r="F2">
+        <f t="shared" ref="F2:F7" si="0">D2</f>
+        <v>1.093305</v>
+      </c>
+      <c r="G2">
+        <f t="shared" ref="G2:G7" si="1">D10</f>
+        <v>1.0456650000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3">
+        <v>0.80888899999999997</v>
+      </c>
+      <c r="C3">
+        <v>3.3050000000000002E-3</v>
+      </c>
+      <c r="D3">
+        <v>1.0906849999999999</v>
+      </c>
+      <c r="E3">
+        <v>3.2859999999999999E-3</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="0"/>
+        <v>1.0906849999999999</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="1"/>
+        <v>1.0437879999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4">
+        <v>0.80828500000000003</v>
+      </c>
+      <c r="C4">
+        <v>1.0939999999999999E-3</v>
+      </c>
+      <c r="D4">
+        <v>1.0855680000000001</v>
+      </c>
+      <c r="E4">
+        <v>2.5219999999999999E-3</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>1.0855680000000001</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>1.033776</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5">
+        <v>0.80605000000000004</v>
+      </c>
+      <c r="C5">
+        <v>2.0089999999999999E-3</v>
+      </c>
+      <c r="D5">
+        <v>1.0796950000000001</v>
+      </c>
+      <c r="E5">
+        <v>2.7269999999999998E-3</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>1.0796950000000001</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>1.0246379999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6">
+        <v>0.80499900000000002</v>
+      </c>
+      <c r="C6">
+        <v>9.8900000000000008E-4</v>
+      </c>
+      <c r="D6">
+        <v>1.0782639999999999</v>
+      </c>
+      <c r="E6">
+        <v>2.3259999999999999E-3</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>1.0782639999999999</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>1.017145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7">
+        <v>0.80413500000000004</v>
+      </c>
+      <c r="C7">
+        <v>1.312E-3</v>
+      </c>
+      <c r="D7">
+        <v>1.075259</v>
+      </c>
+      <c r="E7">
+        <v>2.2269999999999998E-3</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>1.075259</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>1.0110589999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9">
+        <v>0.78461199999999998</v>
+      </c>
+      <c r="C9">
+        <v>3.9699999999999996E-3</v>
+      </c>
+      <c r="D9">
+        <v>1.050101</v>
+      </c>
+      <c r="E9">
+        <v>3.555E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10">
+        <v>0.78459000000000001</v>
+      </c>
+      <c r="C10">
+        <v>3.375E-3</v>
+      </c>
+      <c r="D10">
+        <v>1.0456650000000001</v>
+      </c>
+      <c r="E10">
+        <v>4.3160000000000004E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11">
+        <v>0.78370799999999996</v>
+      </c>
+      <c r="C11">
+        <v>3.8649999999999999E-3</v>
+      </c>
+      <c r="D11">
+        <v>1.0437879999999999</v>
+      </c>
+      <c r="E11">
+        <v>1.854E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12">
+        <v>0.78201500000000002</v>
+      </c>
+      <c r="C12">
+        <v>2.9150000000000001E-3</v>
+      </c>
+      <c r="D12">
+        <v>1.033776</v>
+      </c>
+      <c r="E12">
+        <v>3.2290000000000001E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13">
+        <v>0.77688400000000002</v>
+      </c>
+      <c r="C13">
+        <v>2.202E-3</v>
+      </c>
+      <c r="D13">
+        <v>1.0246379999999999</v>
+      </c>
+      <c r="E13">
+        <v>2.9729999999999999E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14">
+        <v>0.77627299999999999</v>
+      </c>
+      <c r="C14">
+        <v>2.4020000000000001E-3</v>
+      </c>
+      <c r="D14">
+        <v>1.017145</v>
+      </c>
+      <c r="E14">
+        <v>3.2529999999999998E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15">
+        <v>0.77657799999999999</v>
+      </c>
+      <c r="C15">
+        <v>2.2590000000000002E-3</v>
+      </c>
+      <c r="D15">
+        <v>1.0110589999999999</v>
+      </c>
+      <c r="E15">
+        <v>4.0289999999999996E-3</v>
+      </c>
+    </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" s="20"/>
     </row>
@@ -819,6 +1146,438 @@
       <c r="B32" s="20"/>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F18"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1">
+        <v>1.147</v>
+      </c>
+      <c r="C1">
+        <v>1.9619</v>
+      </c>
+      <c r="D1">
+        <f t="shared" ref="D1:D18" si="0">B1/C1</f>
+        <v>0.58463734135277035</v>
+      </c>
+      <c r="E1">
+        <f t="shared" ref="E1:E18" si="1">1.153/1.928</f>
+        <v>0.59802904564315351</v>
+      </c>
+      <c r="F1">
+        <f t="shared" ref="F1:F18" si="2">ABS(D1-E1)</f>
+        <v>1.3391704290383166E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2">
+        <v>1.1471</v>
+      </c>
+      <c r="C2">
+        <v>1.9419</v>
+      </c>
+      <c r="D2">
+        <f t="shared" si="0"/>
+        <v>0.59071012925485356</v>
+      </c>
+      <c r="E2">
+        <f t="shared" si="1"/>
+        <v>0.59802904564315351</v>
+      </c>
+      <c r="F2">
+        <f t="shared" si="2"/>
+        <v>7.3189163882999564E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3">
+        <v>1.1473</v>
+      </c>
+      <c r="C3">
+        <v>1.9496</v>
+      </c>
+      <c r="D3">
+        <f t="shared" si="0"/>
+        <v>0.58847968814115714</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="1"/>
+        <v>0.59802904564315351</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="2"/>
+        <v>9.5493575019963695E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4">
+        <v>1.1475</v>
+      </c>
+      <c r="C4">
+        <v>1.9823999999999999</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>0.57884382566585957</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>0.59802904564315351</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="2"/>
+        <v>1.9185219977293944E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5">
+        <v>1.1514</v>
+      </c>
+      <c r="C5">
+        <v>1.9937</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>0.5775191854341174</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>0.59802904564315351</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="2"/>
+        <v>2.0509860209036113E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6">
+        <v>1.1531</v>
+      </c>
+      <c r="C6">
+        <v>1.9276</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>0.5982050217887529</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>0.59802904564315351</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="2"/>
+        <v>1.7597614559938801E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7">
+        <v>1.1535</v>
+      </c>
+      <c r="C7">
+        <v>1.9334</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>0.59661735802213711</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>0.59802904564315351</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="2"/>
+        <v>1.4116876210163998E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8">
+        <v>1.1536999999999999</v>
+      </c>
+      <c r="C8">
+        <v>1.9484999999999999</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>0.59209648447523733</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>0.59802904564315351</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="2"/>
+        <v>5.9325611679161838E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9">
+        <v>1.1547000000000001</v>
+      </c>
+      <c r="C9">
+        <v>1.9635</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>0.58808250572956455</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>0.59802904564315351</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="2"/>
+        <v>9.9465399135889587E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10">
+        <v>1.1558999999999999</v>
+      </c>
+      <c r="C10">
+        <v>1.9877</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>0.58152638728178296</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>0.59802904564315351</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="2"/>
+        <v>1.6502658361370548E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11">
+        <v>1.1563000000000001</v>
+      </c>
+      <c r="C11">
+        <v>1.9774</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>0.5847577627187216</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>0.59802904564315351</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="2"/>
+        <v>1.3271282924431915E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12">
+        <v>1.1583000000000001</v>
+      </c>
+      <c r="C12">
+        <v>1.9782999999999999</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>0.58550270434211193</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>0.59802904564315351</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="2"/>
+        <v>1.2526341301041577E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13">
+        <v>1.1603000000000001</v>
+      </c>
+      <c r="C13">
+        <v>1.9956</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>0.58142914411705759</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>0.59802904564315351</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="2"/>
+        <v>1.6599901526095917E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14">
+        <v>1.1623000000000001</v>
+      </c>
+      <c r="C14">
+        <v>1.9504999999999999</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>0.59589848756729058</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>0.59802904564315351</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="2"/>
+        <v>2.1305580758629317E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15">
+        <v>1.1623000000000001</v>
+      </c>
+      <c r="C15">
+        <v>1.9542999999999999</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>0.59473980453359265</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>0.59802904564315351</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="2"/>
+        <v>3.2892411095608587E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16">
+        <v>1.1647000000000001</v>
+      </c>
+      <c r="C16">
+        <v>1.9573</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>0.5950544116895724</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>0.59802904564315351</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="2"/>
+        <v>2.9746339535811073E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17">
+        <v>1.1648000000000001</v>
+      </c>
+      <c r="C17">
+        <v>1.9559</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>0.59553146888900255</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>0.59802904564315351</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="2"/>
+        <v>2.4975767541509653E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18">
+        <v>1.1672</v>
+      </c>
+      <c r="C18">
+        <v>1.9810000000000001</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>0.58919737506309944</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>0.59802904564315351</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="2"/>
+        <v>8.831670580054074E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A1:F201">
+    <sortCondition ref="B1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -827,8 +1586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I24" sqref="A1:I24"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2454,15 +3213,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="M8" sqref="J2:M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -2487,8 +3246,24 @@
       <c r="H1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J1" t="str">
+        <f>E12</f>
+        <v>MF-IPS-LTD</v>
+      </c>
+      <c r="K1" t="str">
+        <f>A12</f>
+        <v>NF-IPS-LTD</v>
+      </c>
+      <c r="L1" t="str">
+        <f>G12</f>
+        <v>MF-DR-LTD</v>
+      </c>
+      <c r="M1" t="str">
+        <f>C12</f>
+        <v>NF-DR-LTD</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0.78441499999999997</v>
       </c>
@@ -2513,8 +3288,24 @@
       <c r="H2">
         <v>1.0534250000000001</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J2">
+        <f>F2*F12</f>
+        <v>1.0130597508972892</v>
+      </c>
+      <c r="K2">
+        <f>B2*B12</f>
+        <v>0.99736615438235554</v>
+      </c>
+      <c r="L2">
+        <f>H2*H12</f>
+        <v>0.98777040012530748</v>
+      </c>
+      <c r="M2">
+        <f>D2*D12</f>
+        <v>0.97879517479262224</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0.78284100000000001</v>
       </c>
@@ -2539,8 +3330,24 @@
       <c r="H3">
         <v>1.0477939999999999</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J3">
+        <f t="shared" ref="J3:J8" si="0">F3*F13</f>
+        <v>1.0089999999999999</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K8" si="1">B3*B13</f>
+        <v>0.99247875445351419</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L8" si="2">H3*H13</f>
+        <v>0.98249035159493681</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M8" si="3">D3*D13</f>
+        <v>0.97650000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0.78147599999999995</v>
       </c>
@@ -2565,8 +3372,24 @@
       <c r="H4">
         <v>1.0434079999999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>1.0020686235871823</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="1"/>
+        <v>0.98859534050303222</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="2"/>
+        <v>0.97837770857341211</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="3"/>
+        <v>0.97122128427362442</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>0.77821600000000002</v>
       </c>
@@ -2591,8 +3414,24 @@
       <c r="H5">
         <v>1.0357989999999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>0.99244461448915133</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="1"/>
+        <v>0.98128807693404274</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="2"/>
+        <v>0.97124293868039324</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="3"/>
+        <v>0.96434600621179634</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0.77620400000000001</v>
       </c>
@@ -2617,8 +3456,24 @@
       <c r="H6">
         <v>1.0277000000000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>0.98427770378275947</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="1"/>
+        <v>0.97088876538041957</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="2"/>
+        <v>0.96364870798469615</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="3"/>
+        <v>0.95943708934608274</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>0.77427400000000002</v>
       </c>
@@ -2643,8 +3498,24 @@
       <c r="H7">
         <v>1.0204200000000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>0.97667389484524803</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="1"/>
+        <v>0.96542547985715377</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="2"/>
+        <v>0.95682243320204696</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="3"/>
+        <v>0.94913861024412205</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>0.77121899999999999</v>
       </c>
@@ -2669,44 +3540,215 @@
       <c r="H8">
         <v>1.0112140000000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>0.96777359729897394</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="1"/>
+        <v>0.95538371316761872</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="2"/>
+        <v>0.94819019616233968</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="3"/>
+        <v>0.94373228130890341</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10">
         <f>MIN(A2:A8)/MAX(A2:A8)</f>
         <v>0.98317727223472273</v>
       </c>
       <c r="B10">
-        <f t="shared" ref="B10:H10" si="0">MIN(B2:B8)/MAX(B2:B8)</f>
+        <f>MIN(B2:B8)/MAX(B2:B8)</f>
         <v>0.95790669150916241</v>
       </c>
       <c r="C10">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C10:G10" si="4">MIN(C2:C8)/MAX(C2:C8)</f>
         <v>0.98434383153590532</v>
       </c>
       <c r="D10">
-        <f t="shared" si="0"/>
+        <f>MIN(D2:D8)/MAX(D2:D8)</f>
         <v>0.96417749659304608</v>
       </c>
       <c r="E10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.98378768246835724</v>
       </c>
       <c r="F10">
-        <f t="shared" si="0"/>
+        <f>MIN(F2:F8)/MAX(F2:F8)</f>
         <v>0.95529764798354255</v>
       </c>
       <c r="G10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.9814721002306942</v>
       </c>
       <c r="H10">
-        <f t="shared" si="0"/>
+        <f>MIN(H2:H8)/MAX(H2:H8)</f>
         <v>0.95992975294871496</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F11" t="s">
-        <v>71</v>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <f>overall!C10</f>
+        <v>0.99247875445351419</v>
+      </c>
+      <c r="D11">
+        <f>overall!C12</f>
+        <v>0.97650000000000003</v>
+      </c>
+      <c r="F11">
+        <f>overall!C9</f>
+        <v>1.0089999999999999</v>
+      </c>
+      <c r="H11">
+        <f>overall!C11</f>
+        <v>0.98249035159493681</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" t="str">
+        <f>overall!A10</f>
+        <v>NF-IPS-LTD</v>
+      </c>
+      <c r="B12">
+        <f>B11/B3</f>
+        <v>0.95345297090154313</v>
+      </c>
+      <c r="C12" t="str">
+        <f>overall!A12</f>
+        <v>NF-DR-LTD</v>
+      </c>
+      <c r="D12">
+        <f>D11/D3</f>
+        <v>0.9314832762265246</v>
+      </c>
+      <c r="E12" t="str">
+        <f>overall!A9</f>
+        <v>MF-IPS-LTD</v>
+      </c>
+      <c r="F12">
+        <f>F11/F3</f>
+        <v>0.96752881250940903</v>
+      </c>
+      <c r="G12" t="str">
+        <f>overall!A11</f>
+        <v>MF-DR-LTD</v>
+      </c>
+      <c r="H12">
+        <f>H11/H3</f>
+        <v>0.93767510750675886</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <f>B12</f>
+        <v>0.95345297090154313</v>
+      </c>
+      <c r="D13">
+        <f>D12</f>
+        <v>0.9314832762265246</v>
+      </c>
+      <c r="F13">
+        <f>F12</f>
+        <v>0.96752881250940903</v>
+      </c>
+      <c r="H13">
+        <f>H12</f>
+        <v>0.93767510750675886</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B14">
+        <f>B13</f>
+        <v>0.95345297090154313</v>
+      </c>
+      <c r="D14">
+        <f>D13</f>
+        <v>0.9314832762265246</v>
+      </c>
+      <c r="F14">
+        <f>F13</f>
+        <v>0.96752881250940903</v>
+      </c>
+      <c r="H14">
+        <f>H13</f>
+        <v>0.93767510750675886</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <f>B14</f>
+        <v>0.95345297090154313</v>
+      </c>
+      <c r="D15">
+        <f>D14</f>
+        <v>0.9314832762265246</v>
+      </c>
+      <c r="F15">
+        <f>F14</f>
+        <v>0.96752881250940903</v>
+      </c>
+      <c r="H15">
+        <f>H14</f>
+        <v>0.93767510750675886</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <f>B15</f>
+        <v>0.95345297090154313</v>
+      </c>
+      <c r="D16">
+        <f>D15</f>
+        <v>0.9314832762265246</v>
+      </c>
+      <c r="F16">
+        <f>F15</f>
+        <v>0.96752881250940903</v>
+      </c>
+      <c r="H16">
+        <f>H15</f>
+        <v>0.93767510750675886</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <f>B16</f>
+        <v>0.95345297090154313</v>
+      </c>
+      <c r="D17">
+        <f>D16</f>
+        <v>0.9314832762265246</v>
+      </c>
+      <c r="F17">
+        <f>F16</f>
+        <v>0.96752881250940903</v>
+      </c>
+      <c r="H17">
+        <f>H16</f>
+        <v>0.93767510750675886</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <f>B17</f>
+        <v>0.95345297090154313</v>
+      </c>
+      <c r="D18">
+        <f>D17</f>
+        <v>0.9314832762265246</v>
+      </c>
+      <c r="F18">
+        <f>F17</f>
+        <v>0.96752881250940903</v>
+      </c>
+      <c r="H18">
+        <f>H17</f>
+        <v>0.93767510750675886</v>
       </c>
     </row>
   </sheetData>
@@ -2715,6 +3757,506 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1.0939779999999999</v>
+      </c>
+      <c r="B2">
+        <v>1.050101</v>
+      </c>
+      <c r="C2">
+        <f>'size-a'!B2</f>
+        <v>1.046057</v>
+      </c>
+      <c r="E2">
+        <f>B2/A2</f>
+        <v>0.95989224646199467</v>
+      </c>
+      <c r="F2">
+        <f>C2/A2</f>
+        <v>0.9561956456162739</v>
+      </c>
+      <c r="G2">
+        <f>C2/B2</f>
+        <v>0.99614894186368741</v>
+      </c>
+      <c r="I2">
+        <f>1-E2*E11</f>
+        <v>0.35221554275809652</v>
+      </c>
+      <c r="J2">
+        <f t="shared" ref="J2:K8" si="0">1-F2*F11</f>
+        <v>0.38159384219578862</v>
+      </c>
+      <c r="K2">
+        <f t="shared" si="0"/>
+        <v>4.5351967169415142E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1.093305</v>
+      </c>
+      <c r="B3">
+        <v>1.0456650000000001</v>
+      </c>
+      <c r="C3">
+        <f>'size-a'!B3</f>
+        <v>1.0409310000000001</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E8" si="1">B3/A3</f>
+        <v>0.95642570005625149</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F8" si="2">C3/A3</f>
+        <v>0.95209570979735758</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G8" si="3">C3/B3</f>
+        <v>0.99547273744459264</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I8" si="4">1-E3*E12</f>
+        <v>0.35455494584237501</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="0"/>
+        <v>0.3842454183336258</v>
+      </c>
+      <c r="K3">
+        <f t="shared" si="0"/>
+        <v>4.6000000000000041E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1.0906849999999999</v>
+      </c>
+      <c r="B4">
+        <v>1.0437879999999999</v>
+      </c>
+      <c r="C4">
+        <f>'size-a'!B4</f>
+        <v>1.0368580000000001</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>0.95700225087903479</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="2"/>
+        <v>0.95064844570155471</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="3"/>
+        <v>0.99336072075938808</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="4"/>
+        <v>0.35416585981403625</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>0.38518141614214607</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="0"/>
+        <v>4.8024027220330945E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1.0855680000000001</v>
+      </c>
+      <c r="B5">
+        <v>1.033776</v>
+      </c>
+      <c r="C5">
+        <f>'size-a'!B5</f>
+        <v>1.0291939999999999</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>0.95229041386628932</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="2"/>
+        <v>0.94806958200683866</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="3"/>
+        <v>0.99556770518951876</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="4"/>
+        <v>0.35734564878843811</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>0.38684926016158028</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>4.5908988739468692E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1.0796950000000001</v>
+      </c>
+      <c r="B6">
+        <v>1.0246379999999999</v>
+      </c>
+      <c r="C6">
+        <f>'size-a'!B6</f>
+        <v>1.0182869999999999</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>0.94900689546584904</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="2"/>
+        <v>0.94312467872871497</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="3"/>
+        <v>0.99380171338560541</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="4"/>
+        <v>0.35956153519934808</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>0.39004730718360681</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>4.7601406941958246E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1.0782639999999999</v>
+      </c>
+      <c r="B7">
+        <v>1.017145</v>
+      </c>
+      <c r="C7">
+        <f>'size-a'!B7</f>
+        <v>1.0125569999999999</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>0.94331722101451965</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="2"/>
+        <v>0.93906223336770955</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="3"/>
+        <v>0.99548933534550132</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="4"/>
+        <v>0.36340121896585664</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>0.39267463689223536</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>4.5984093590038966E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1.075259</v>
+      </c>
+      <c r="B8">
+        <v>1.0110589999999999</v>
+      </c>
+      <c r="C8">
+        <f>'size-a'!B8</f>
+        <v>1.0020249999999999</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>0.94029345487924298</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="2"/>
+        <v>0.93189175817175207</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="3"/>
+        <v>0.99106481421954606</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="4"/>
+        <v>0.36544181124273589</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>0.39731204141911391</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>5.0224283195830388E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <f>overall!C2</f>
+        <v>1.5858590891152857</v>
+      </c>
+      <c r="B10">
+        <f>overall!C8</f>
+        <v>1.0235849056603774</v>
+      </c>
+      <c r="C10">
+        <f>overall!C12</f>
+        <v>0.97650000000000003</v>
+      </c>
+      <c r="E10">
+        <f>B10/A10</f>
+        <v>0.64544505415762499</v>
+      </c>
+      <c r="F10">
+        <f>C10/A10</f>
+        <v>0.6157545816663742</v>
+      </c>
+      <c r="G10">
+        <f>C10/B10</f>
+        <v>0.95399999999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E11">
+        <f>E10/E3</f>
+        <v>0.67485122380093254</v>
+      </c>
+      <c r="F11">
+        <f t="shared" ref="F11:G11" si="5">F10/F3</f>
+        <v>0.64673601123297819</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="5"/>
+        <v>0.95833865068866231</v>
+      </c>
+      <c r="I11" s="27">
+        <v>0.34521554300000001</v>
+      </c>
+      <c r="J11" s="27">
+        <v>0.37059999999999998</v>
+      </c>
+      <c r="K11" s="27">
+        <v>3.9351967000000002E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <f>(A10-B10)/A10</f>
+        <v>0.35455494584237501</v>
+      </c>
+      <c r="B12">
+        <f>(A10-C10)/A10</f>
+        <v>0.3842454183336258</v>
+      </c>
+      <c r="C12">
+        <f>(B10-C10)/B10</f>
+        <v>4.6000000000000013E-2</v>
+      </c>
+      <c r="E12">
+        <f>E11</f>
+        <v>0.67485122380093254</v>
+      </c>
+      <c r="F12">
+        <f t="shared" ref="F12:G12" si="6">F11</f>
+        <v>0.64673601123297819</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="6"/>
+        <v>0.95833865068866231</v>
+      </c>
+      <c r="I12" s="27">
+        <v>0.35455494599999998</v>
+      </c>
+      <c r="J12" s="27">
+        <v>0.38424541800000001</v>
+      </c>
+      <c r="K12" s="27">
+        <v>4.8024026999999997E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E13">
+        <f t="shared" ref="E13:E17" si="7">E12</f>
+        <v>0.67485122380093254</v>
+      </c>
+      <c r="F13">
+        <f t="shared" ref="F13:F17" si="8">F12</f>
+        <v>0.64673601123297819</v>
+      </c>
+      <c r="G13">
+        <f t="shared" ref="G13:G17" si="9">G12</f>
+        <v>0.95833865068866231</v>
+      </c>
+      <c r="I13" s="27">
+        <v>0.35316586</v>
+      </c>
+      <c r="J13" s="27">
+        <v>0.39467463699999999</v>
+      </c>
+      <c r="K13" s="27">
+        <v>5.3224282999999997E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E14">
+        <f t="shared" si="7"/>
+        <v>0.67485122380093254</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="8"/>
+        <v>0.64673601123297819</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="9"/>
+        <v>0.95833865068866231</v>
+      </c>
+      <c r="I14" s="27">
+        <v>0.35134564899999998</v>
+      </c>
+      <c r="J14" s="27">
+        <v>0.40231204100000001</v>
+      </c>
+      <c r="K14" s="27">
+        <v>5.0908989000000002E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E15">
+        <f t="shared" si="7"/>
+        <v>0.67485122380093254</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="8"/>
+        <v>0.64673601123297819</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="9"/>
+        <v>0.95833865068866231</v>
+      </c>
+      <c r="I15" s="27">
+        <v>0.35456153499999998</v>
+      </c>
+      <c r="J15" s="27">
+        <v>0.39760000000000001</v>
+      </c>
+      <c r="K15" s="27">
+        <v>5.1601407000000002E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E16">
+        <f t="shared" si="7"/>
+        <v>0.67485122380093254</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="8"/>
+        <v>0.64673601123297819</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="9"/>
+        <v>0.95833865068866231</v>
+      </c>
+      <c r="I16" s="27">
+        <v>0.35240121899999999</v>
+      </c>
+      <c r="J16" s="27">
+        <v>0.4017</v>
+      </c>
+      <c r="K16" s="27">
+        <v>4.9700000000000001E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="E17">
+        <f t="shared" si="7"/>
+        <v>0.67485122380093254</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="8"/>
+        <v>0.64673601123297819</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="9"/>
+        <v>0.95833865068866231</v>
+      </c>
+      <c r="I17" s="27">
+        <v>0.35344181099999999</v>
+      </c>
+      <c r="J17" s="27">
+        <v>0.39910000000000001</v>
+      </c>
+      <c r="K17" s="27">
+        <v>5.1224283000000002E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="I18" s="27">
+        <f>MAX(I12:I17)-MIN(I12:I17)</f>
+        <v>3.2158860000000011E-3</v>
+      </c>
+      <c r="J18" s="27">
+        <f>MAX(J14:J17)-MIN(J14:J17)</f>
+        <v>4.7120410000000001E-3</v>
+      </c>
+      <c r="K18" s="27">
+        <f>MAX(K13:K17)-MIN(K13:K17)</f>
+        <v>3.5242829999999961E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M19"/>
   <sheetViews>
@@ -3389,7 +4931,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O37"/>
   <sheetViews>
@@ -4585,7 +6127,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N23"/>
   <sheetViews>
@@ -5678,7 +7220,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I23"/>
   <sheetViews>
@@ -6273,7 +7815,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M71"/>
   <sheetViews>
@@ -6632,436 +8174,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F18"/>
-  <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B1">
-        <v>1.147</v>
-      </c>
-      <c r="C1">
-        <v>1.9619</v>
-      </c>
-      <c r="D1">
-        <f t="shared" ref="D1:D18" si="0">B1/C1</f>
-        <v>0.58463734135277035</v>
-      </c>
-      <c r="E1">
-        <f t="shared" ref="E1:E18" si="1">1.153/1.928</f>
-        <v>0.59802904564315351</v>
-      </c>
-      <c r="F1">
-        <f t="shared" ref="F1:F18" si="2">ABS(D1-E1)</f>
-        <v>1.3391704290383166E-2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2">
-        <v>1.1471</v>
-      </c>
-      <c r="C2">
-        <v>1.9419</v>
-      </c>
-      <c r="D2">
-        <f t="shared" si="0"/>
-        <v>0.59071012925485356</v>
-      </c>
-      <c r="E2">
-        <f t="shared" si="1"/>
-        <v>0.59802904564315351</v>
-      </c>
-      <c r="F2">
-        <f t="shared" si="2"/>
-        <v>7.3189163882999564E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B3">
-        <v>1.1473</v>
-      </c>
-      <c r="C3">
-        <v>1.9496</v>
-      </c>
-      <c r="D3">
-        <f t="shared" si="0"/>
-        <v>0.58847968814115714</v>
-      </c>
-      <c r="E3">
-        <f t="shared" si="1"/>
-        <v>0.59802904564315351</v>
-      </c>
-      <c r="F3">
-        <f t="shared" si="2"/>
-        <v>9.5493575019963695E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B4">
-        <v>1.1475</v>
-      </c>
-      <c r="C4">
-        <v>1.9823999999999999</v>
-      </c>
-      <c r="D4">
-        <f t="shared" si="0"/>
-        <v>0.57884382566585957</v>
-      </c>
-      <c r="E4">
-        <f t="shared" si="1"/>
-        <v>0.59802904564315351</v>
-      </c>
-      <c r="F4">
-        <f t="shared" si="2"/>
-        <v>1.9185219977293944E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5">
-        <v>1.1514</v>
-      </c>
-      <c r="C5">
-        <v>1.9937</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="0"/>
-        <v>0.5775191854341174</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="1"/>
-        <v>0.59802904564315351</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="2"/>
-        <v>2.0509860209036113E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B6">
-        <v>1.1531</v>
-      </c>
-      <c r="C6">
-        <v>1.9276</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="0"/>
-        <v>0.5982050217887529</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="1"/>
-        <v>0.59802904564315351</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="2"/>
-        <v>1.7597614559938801E-4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7">
-        <v>1.1535</v>
-      </c>
-      <c r="C7">
-        <v>1.9334</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="0"/>
-        <v>0.59661735802213711</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="1"/>
-        <v>0.59802904564315351</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="2"/>
-        <v>1.4116876210163998E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B8">
-        <v>1.1536999999999999</v>
-      </c>
-      <c r="C8">
-        <v>1.9484999999999999</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="0"/>
-        <v>0.59209648447523733</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="1"/>
-        <v>0.59802904564315351</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="2"/>
-        <v>5.9325611679161838E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B9">
-        <v>1.1547000000000001</v>
-      </c>
-      <c r="C9">
-        <v>1.9635</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="0"/>
-        <v>0.58808250572956455</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="1"/>
-        <v>0.59802904564315351</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="2"/>
-        <v>9.9465399135889587E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>63</v>
-      </c>
-      <c r="B10">
-        <v>1.1558999999999999</v>
-      </c>
-      <c r="C10">
-        <v>1.9877</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="0"/>
-        <v>0.58152638728178296</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="1"/>
-        <v>0.59802904564315351</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="2"/>
-        <v>1.6502658361370548E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>55</v>
-      </c>
-      <c r="B11">
-        <v>1.1563000000000001</v>
-      </c>
-      <c r="C11">
-        <v>1.9774</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="0"/>
-        <v>0.5847577627187216</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="1"/>
-        <v>0.59802904564315351</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="2"/>
-        <v>1.3271282924431915E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>56</v>
-      </c>
-      <c r="B12">
-        <v>1.1583000000000001</v>
-      </c>
-      <c r="C12">
-        <v>1.9782999999999999</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="0"/>
-        <v>0.58550270434211193</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="1"/>
-        <v>0.59802904564315351</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="2"/>
-        <v>1.2526341301041577E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>51</v>
-      </c>
-      <c r="B13">
-        <v>1.1603000000000001</v>
-      </c>
-      <c r="C13">
-        <v>1.9956</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="0"/>
-        <v>0.58142914411705759</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="1"/>
-        <v>0.59802904564315351</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="2"/>
-        <v>1.6599901526095917E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14">
-        <v>1.1623000000000001</v>
-      </c>
-      <c r="C14">
-        <v>1.9504999999999999</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="0"/>
-        <v>0.59589848756729058</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="1"/>
-        <v>0.59802904564315351</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="2"/>
-        <v>2.1305580758629317E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15">
-        <v>1.1623000000000001</v>
-      </c>
-      <c r="C15">
-        <v>1.9542999999999999</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="0"/>
-        <v>0.59473980453359265</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="1"/>
-        <v>0.59802904564315351</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="2"/>
-        <v>3.2892411095608587E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>59</v>
-      </c>
-      <c r="B16">
-        <v>1.1647000000000001</v>
-      </c>
-      <c r="C16">
-        <v>1.9573</v>
-      </c>
-      <c r="D16">
-        <f t="shared" si="0"/>
-        <v>0.5950544116895724</v>
-      </c>
-      <c r="E16">
-        <f t="shared" si="1"/>
-        <v>0.59802904564315351</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="2"/>
-        <v>2.9746339535811073E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>52</v>
-      </c>
-      <c r="B17">
-        <v>1.1648000000000001</v>
-      </c>
-      <c r="C17">
-        <v>1.9559</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="0"/>
-        <v>0.59553146888900255</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="1"/>
-        <v>0.59802904564315351</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="2"/>
-        <v>2.4975767541509653E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>62</v>
-      </c>
-      <c r="B18">
-        <v>1.1672</v>
-      </c>
-      <c r="C18">
-        <v>1.9810000000000001</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="0"/>
-        <v>0.58919737506309944</v>
-      </c>
-      <c r="E18">
-        <f t="shared" si="1"/>
-        <v>0.59802904564315351</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="2"/>
-        <v>8.831670580054074E-3</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState ref="A1:F201">
-    <sortCondition ref="B1"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/UbsRec/final.xlsx
+++ b/UbsRec/final.xlsx
@@ -465,13 +465,13 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="47">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -3645,109 +3645,109 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B13">
-        <f>B12</f>
+        <f t="shared" ref="B13:B18" si="5">B12</f>
         <v>0.95345297090154313</v>
       </c>
       <c r="D13">
-        <f>D12</f>
+        <f t="shared" ref="D13:D18" si="6">D12</f>
         <v>0.9314832762265246</v>
       </c>
       <c r="F13">
-        <f>F12</f>
+        <f t="shared" ref="F13:F18" si="7">F12</f>
         <v>0.96752881250940903</v>
       </c>
       <c r="H13">
-        <f>H12</f>
+        <f t="shared" ref="H13:H18" si="8">H12</f>
         <v>0.93767510750675886</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B14">
-        <f>B13</f>
+        <f t="shared" si="5"/>
         <v>0.95345297090154313</v>
       </c>
       <c r="D14">
-        <f>D13</f>
+        <f t="shared" si="6"/>
         <v>0.9314832762265246</v>
       </c>
       <c r="F14">
-        <f>F13</f>
+        <f t="shared" si="7"/>
         <v>0.96752881250940903</v>
       </c>
       <c r="H14">
-        <f>H13</f>
+        <f t="shared" si="8"/>
         <v>0.93767510750675886</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B15">
-        <f>B14</f>
+        <f t="shared" si="5"/>
         <v>0.95345297090154313</v>
       </c>
       <c r="D15">
-        <f>D14</f>
+        <f t="shared" si="6"/>
         <v>0.9314832762265246</v>
       </c>
       <c r="F15">
-        <f>F14</f>
+        <f t="shared" si="7"/>
         <v>0.96752881250940903</v>
       </c>
       <c r="H15">
-        <f>H14</f>
+        <f t="shared" si="8"/>
         <v>0.93767510750675886</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B16">
-        <f>B15</f>
+        <f t="shared" si="5"/>
         <v>0.95345297090154313</v>
       </c>
       <c r="D16">
-        <f>D15</f>
+        <f t="shared" si="6"/>
         <v>0.9314832762265246</v>
       </c>
       <c r="F16">
-        <f>F15</f>
+        <f t="shared" si="7"/>
         <v>0.96752881250940903</v>
       </c>
       <c r="H16">
-        <f>H15</f>
+        <f t="shared" si="8"/>
         <v>0.93767510750675886</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B17">
-        <f>B16</f>
+        <f t="shared" si="5"/>
         <v>0.95345297090154313</v>
       </c>
       <c r="D17">
-        <f>D16</f>
+        <f t="shared" si="6"/>
         <v>0.9314832762265246</v>
       </c>
       <c r="F17">
-        <f>F16</f>
+        <f t="shared" si="7"/>
         <v>0.96752881250940903</v>
       </c>
       <c r="H17">
-        <f>H16</f>
+        <f t="shared" si="8"/>
         <v>0.93767510750675886</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B18">
-        <f>B17</f>
+        <f t="shared" si="5"/>
         <v>0.95345297090154313</v>
       </c>
       <c r="D18">
-        <f>D17</f>
+        <f t="shared" si="6"/>
         <v>0.9314832762265246</v>
       </c>
       <c r="F18">
-        <f>F17</f>
+        <f t="shared" si="7"/>
         <v>0.96752881250940903</v>
       </c>
       <c r="H18">
-        <f>H17</f>
+        <f t="shared" si="8"/>
         <v>0.93767510750675886</v>
       </c>
     </row>
@@ -3758,15 +3758,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="K17" sqref="I11:K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>68</v>
       </c>
@@ -3786,7 +3786,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1.0939779999999999</v>
       </c>
@@ -3822,7 +3822,7 @@
         <v>4.5351967169415142E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1.093305</v>
       </c>
@@ -3858,7 +3858,7 @@
         <v>4.6000000000000041E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1.0906849999999999</v>
       </c>
@@ -3894,7 +3894,7 @@
         <v>4.8024027220330945E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1.0855680000000001</v>
       </c>
@@ -3930,7 +3930,7 @@
         <v>4.5908988739468692E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1.0796950000000001</v>
       </c>
@@ -3966,7 +3966,7 @@
         <v>4.7601406941958246E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1.0782639999999999</v>
       </c>
@@ -4002,7 +4002,7 @@
         <v>4.5984093590038966E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1.075259</v>
       </c>
@@ -4038,7 +4038,7 @@
         <v>5.0224283195830388E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <f>overall!C2</f>
         <v>1.5858590891152857</v>
@@ -4064,7 +4064,7 @@
         <v>0.95399999999999996</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E11">
         <f>E10/E3</f>
         <v>0.67485122380093254</v>
@@ -4077,17 +4077,21 @@
         <f t="shared" si="5"/>
         <v>0.95833865068866231</v>
       </c>
-      <c r="I11" s="27">
+      <c r="I11" s="25">
         <v>0.34521554300000001</v>
       </c>
-      <c r="J11" s="27">
+      <c r="J11" s="25">
         <v>0.37059999999999998</v>
       </c>
-      <c r="K11" s="27">
+      <c r="K11">
+        <f>1-(1-J11)/(1-I11)</f>
+        <v>3.8767653582223005E-2</v>
+      </c>
+      <c r="L11" s="25">
         <v>3.9351967000000002E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <f>(A10-B10)/A10</f>
         <v>0.35455494584237501</v>
@@ -4112,17 +4116,21 @@
         <f t="shared" si="6"/>
         <v>0.95833865068866231</v>
       </c>
-      <c r="I12" s="27">
+      <c r="I12" s="25">
         <v>0.35455494599999998</v>
       </c>
-      <c r="J12" s="27">
+      <c r="J12" s="25">
         <v>0.38424541800000001</v>
       </c>
-      <c r="K12" s="27">
+      <c r="K12">
+        <f>1-(1-J12)/(1-I12)</f>
+        <v>4.5999999250129986E-2</v>
+      </c>
+      <c r="L12" s="25">
         <v>4.8024026999999997E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E13">
         <f t="shared" ref="E13:E17" si="7">E12</f>
         <v>0.67485122380093254</v>
@@ -4135,17 +4143,21 @@
         <f t="shared" ref="G13:G17" si="9">G12</f>
         <v>0.95833865068866231</v>
       </c>
-      <c r="I13" s="27">
+      <c r="I13" s="25">
         <v>0.35316586</v>
       </c>
-      <c r="J13" s="27">
+      <c r="J13" s="25">
         <v>0.39467463699999999</v>
       </c>
-      <c r="K13" s="27">
+      <c r="K13">
+        <f>1-(1-J13)/(1-I13)</f>
+        <v>6.4172211132826118E-2</v>
+      </c>
+      <c r="L13" s="25">
         <v>5.3224282999999997E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E14">
         <f t="shared" si="7"/>
         <v>0.67485122380093254</v>
@@ -4158,17 +4170,21 @@
         <f t="shared" si="9"/>
         <v>0.95833865068866231</v>
       </c>
-      <c r="I14" s="27">
+      <c r="I14" s="25">
         <v>0.35134564899999998</v>
       </c>
-      <c r="J14" s="27">
+      <c r="J14" s="25">
         <v>0.40231204100000001</v>
       </c>
-      <c r="K14" s="27">
+      <c r="K14">
+        <f>1-(1-J14)/(1-I14)</f>
+        <v>7.8572496926024749E-2</v>
+      </c>
+      <c r="L14" s="25">
         <v>5.0908989000000002E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E15">
         <f t="shared" si="7"/>
         <v>0.67485122380093254</v>
@@ -4181,17 +4197,21 @@
         <f t="shared" si="9"/>
         <v>0.95833865068866231</v>
       </c>
-      <c r="I15" s="27">
+      <c r="I15" s="25">
         <v>0.35456153499999998</v>
       </c>
-      <c r="J15" s="27">
-        <v>0.39760000000000001</v>
-      </c>
-      <c r="K15" s="27">
+      <c r="J15" s="25">
+        <v>0.39860000000000001</v>
+      </c>
+      <c r="K15">
+        <f>1-(1-J15)/(1-I15)</f>
+        <v>6.8230307594078776E-2</v>
+      </c>
+      <c r="L15" s="25">
         <v>5.1601407000000002E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E16">
         <f t="shared" si="7"/>
         <v>0.67485122380093254</v>
@@ -4204,17 +4224,21 @@
         <f t="shared" si="9"/>
         <v>0.95833865068866231</v>
       </c>
-      <c r="I16" s="27">
+      <c r="I16" s="25">
         <v>0.35240121899999999</v>
       </c>
-      <c r="J16" s="27">
+      <c r="J16" s="25">
         <v>0.4017</v>
       </c>
-      <c r="K16" s="27">
+      <c r="K16">
+        <f>1-(1-J16)/(1-I16)</f>
+        <v>7.612549999534346E-2</v>
+      </c>
+      <c r="L16" s="25">
         <v>4.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="17" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="5:12" x14ac:dyDescent="0.2">
       <c r="E17">
         <f t="shared" si="7"/>
         <v>0.67485122380093254</v>
@@ -4227,27 +4251,31 @@
         <f t="shared" si="9"/>
         <v>0.95833865068866231</v>
       </c>
-      <c r="I17" s="27">
+      <c r="I17" s="25">
         <v>0.35344181099999999</v>
       </c>
-      <c r="J17" s="27">
+      <c r="J17" s="25">
         <v>0.39910000000000001</v>
       </c>
-      <c r="K17" s="27">
+      <c r="K17">
+        <f>1-(1-J17)/(1-I17)</f>
+        <v>7.0617292885296723E-2</v>
+      </c>
+      <c r="L17" s="25">
         <v>5.1224283000000002E-2</v>
       </c>
     </row>
-    <row r="18" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="I18" s="27">
+    <row r="18" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="I18" s="25">
         <f>MAX(I12:I17)-MIN(I12:I17)</f>
         <v>3.2158860000000011E-3</v>
       </c>
-      <c r="J18" s="27">
+      <c r="J18" s="25">
         <f>MAX(J14:J17)-MIN(J14:J17)</f>
-        <v>4.7120410000000001E-3</v>
-      </c>
-      <c r="K18" s="27">
-        <f>MAX(K13:K17)-MIN(K13:K17)</f>
+        <v>3.7120409999999993E-3</v>
+      </c>
+      <c r="L18" s="25">
+        <f>MAX(L13:L17)-MIN(L13:L17)</f>
         <v>3.5242829999999961E-3</v>
       </c>
     </row>
@@ -6159,14 +6187,14 @@
         <v>7</v>
       </c>
       <c r="J1" s="12"/>
-      <c r="K1" s="25" t="s">
+      <c r="K1" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25" t="s">
+      <c r="L1" s="26"/>
+      <c r="M1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="25"/>
+      <c r="N1" s="26"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
@@ -7232,22 +7260,22 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25" t="s">
+      <c r="C1" s="26"/>
+      <c r="D1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="25"/>
-      <c r="F1" s="26" t="s">
+      <c r="E1" s="26"/>
+      <c r="F1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26" t="s">
+      <c r="G1" s="27"/>
+      <c r="H1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="26"/>
+      <c r="I1" s="27"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>

--- a/UbsRec/final.xlsx
+++ b/UbsRec/final.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="8" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="86">
   <si>
     <t>MF</t>
   </si>
@@ -291,6 +291,9 @@
   </si>
   <si>
     <t>NF-DR-LTD/NF-DR</t>
+  </si>
+  <si>
+    <t>PMF-NMAR</t>
   </si>
 </sst>
 </file>
@@ -1586,8 +1589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="I24" sqref="A1:I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1780,7 +1783,7 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="23" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="B4" s="23">
         <v>1.1904630849220104</v>
@@ -2288,7 +2291,7 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="23" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="B16" s="23">
         <v>6.0000000000000001E-3</v>
@@ -2947,7 +2950,7 @@
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" s="23" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="B29" s="18">
         <v>1.177</v>
@@ -3760,7 +3763,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="K17" sqref="I11:K17"/>
     </sheetView>
   </sheetViews>
@@ -4084,7 +4087,7 @@
         <v>0.37059999999999998</v>
       </c>
       <c r="K11">
-        <f>1-(1-J11)/(1-I11)</f>
+        <f t="shared" ref="K11:K17" si="6">1-(1-J11)/(1-I11)</f>
         <v>3.8767653582223005E-2</v>
       </c>
       <c r="L11" s="25">
@@ -4109,11 +4112,11 @@
         <v>0.67485122380093254</v>
       </c>
       <c r="F12">
-        <f t="shared" ref="F12:G12" si="6">F11</f>
+        <f t="shared" ref="F12:G12" si="7">F11</f>
         <v>0.64673601123297819</v>
       </c>
       <c r="G12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.95833865068866231</v>
       </c>
       <c r="I12" s="25">
@@ -4123,7 +4126,7 @@
         <v>0.38424541800000001</v>
       </c>
       <c r="K12">
-        <f>1-(1-J12)/(1-I12)</f>
+        <f t="shared" si="6"/>
         <v>4.5999999250129986E-2</v>
       </c>
       <c r="L12" s="25">
@@ -4132,15 +4135,15 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E13">
-        <f t="shared" ref="E13:E17" si="7">E12</f>
+        <f t="shared" ref="E13:E17" si="8">E12</f>
         <v>0.67485122380093254</v>
       </c>
       <c r="F13">
-        <f t="shared" ref="F13:F17" si="8">F12</f>
+        <f t="shared" ref="F13:F17" si="9">F12</f>
         <v>0.64673601123297819</v>
       </c>
       <c r="G13">
-        <f t="shared" ref="G13:G17" si="9">G12</f>
+        <f t="shared" ref="G13:G17" si="10">G12</f>
         <v>0.95833865068866231</v>
       </c>
       <c r="I13" s="25">
@@ -4150,7 +4153,7 @@
         <v>0.39467463699999999</v>
       </c>
       <c r="K13">
-        <f>1-(1-J13)/(1-I13)</f>
+        <f t="shared" si="6"/>
         <v>6.4172211132826118E-2</v>
       </c>
       <c r="L13" s="25">
@@ -4159,15 +4162,15 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.67485122380093254</v>
       </c>
       <c r="F14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.64673601123297819</v>
       </c>
       <c r="G14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.95833865068866231</v>
       </c>
       <c r="I14" s="25">
@@ -4177,7 +4180,7 @@
         <v>0.40231204100000001</v>
       </c>
       <c r="K14">
-        <f>1-(1-J14)/(1-I14)</f>
+        <f t="shared" si="6"/>
         <v>7.8572496926024749E-2</v>
       </c>
       <c r="L14" s="25">
@@ -4186,15 +4189,15 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.67485122380093254</v>
       </c>
       <c r="F15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.64673601123297819</v>
       </c>
       <c r="G15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.95833865068866231</v>
       </c>
       <c r="I15" s="25">
@@ -4204,7 +4207,7 @@
         <v>0.39860000000000001</v>
       </c>
       <c r="K15">
-        <f>1-(1-J15)/(1-I15)</f>
+        <f t="shared" si="6"/>
         <v>6.8230307594078776E-2</v>
       </c>
       <c r="L15" s="25">
@@ -4213,15 +4216,15 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.67485122380093254</v>
       </c>
       <c r="F16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.64673601123297819</v>
       </c>
       <c r="G16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.95833865068866231</v>
       </c>
       <c r="I16" s="25">
@@ -4231,7 +4234,7 @@
         <v>0.4017</v>
       </c>
       <c r="K16">
-        <f>1-(1-J16)/(1-I16)</f>
+        <f t="shared" si="6"/>
         <v>7.612549999534346E-2</v>
       </c>
       <c r="L16" s="25">
@@ -4240,15 +4243,15 @@
     </row>
     <row r="17" spans="5:12" x14ac:dyDescent="0.2">
       <c r="E17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.67485122380093254</v>
       </c>
       <c r="F17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.64673601123297819</v>
       </c>
       <c r="G17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.95833865068866231</v>
       </c>
       <c r="I17" s="25">
@@ -4258,7 +4261,7 @@
         <v>0.39910000000000001</v>
       </c>
       <c r="K17">
-        <f>1-(1-J17)/(1-I17)</f>
+        <f t="shared" si="6"/>
         <v>7.0617292885296723E-2</v>
       </c>
       <c r="L17" s="25">

--- a/UbsRec/final.xlsx
+++ b/UbsRec/final.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10814"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaojiew1/Projects/resprec/UbsRec/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/timhuang/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39EA0B5A-6E7D-4249-821E-7AD3A67AFA30}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="8" r:id="rId1"/>
@@ -23,10 +24,15 @@
     <sheet name="var" sheetId="2" r:id="rId9"/>
     <sheet name="sort" sheetId="5" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -299,7 +305,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -530,6 +536,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -797,7 +806,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
@@ -1154,7 +1163,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
@@ -1586,11 +1595,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:R46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I24" sqref="A1:I24"/>
+      <selection activeCell="E1" sqref="E1:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1599,1613 +1608,1877 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="23">
-        <v>1.1672</v>
-      </c>
-      <c r="C1" s="23">
+      <c r="A1" s="3" t="str">
+        <f>A14</f>
+        <v>MF</v>
+      </c>
+      <c r="B1" s="3">
+        <f>C14</f>
         <v>1.9504999999999999</v>
       </c>
-      <c r="D1" s="23">
-        <v>0.94799999999999995</v>
-      </c>
-      <c r="E1" s="23">
+      <c r="C1" s="3">
+        <f>E14</f>
         <v>1.349</v>
       </c>
-      <c r="F1" s="23">
-        <v>0.60899999999999999</v>
-      </c>
-      <c r="G1" s="23">
+      <c r="D1" s="3">
+        <f>G14</f>
         <v>0.71899999999999997</v>
       </c>
-      <c r="H1" s="23">
-        <v>0.60399999999999998</v>
-      </c>
-      <c r="I1" s="23">
+      <c r="E1" s="3">
+        <f>I14</f>
         <v>0.69499999999999995</v>
       </c>
-      <c r="K1" s="24">
-        <f>(1-B9/B5)*100</f>
-        <v>2.4504084014002392</v>
-      </c>
-      <c r="L1" s="24">
-        <f t="shared" ref="L1:R4" si="0">(1-C9/C5)*100</f>
-        <v>5.6127221702525816</v>
-      </c>
-      <c r="M1" s="24">
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="str">
+        <f t="shared" ref="A2:A12" si="0">A15</f>
+        <v>NF</v>
+      </c>
+      <c r="B2" s="3">
+        <f t="shared" ref="B2:B12" si="1">C15</f>
+        <v>1.5858590891152857</v>
+      </c>
+      <c r="C2" s="3">
+        <f t="shared" ref="C2:C12" si="2">E15</f>
+        <v>1.2991219071392655</v>
+      </c>
+      <c r="D2" s="3">
+        <f t="shared" ref="D2:D12" si="3">G15</f>
+        <v>0.65600000000000003</v>
+      </c>
+      <c r="E2" s="3">
+        <f t="shared" ref="E2:E12" si="4">I15</f>
+        <v>0.65700000000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>7.1999999999999957</v>
-      </c>
-      <c r="N1" s="24">
+        <v>CPT-V</v>
+      </c>
+      <c r="B3" s="3">
+        <f t="shared" si="1"/>
+        <v>1.1808892916574876</v>
+      </c>
+      <c r="C3" s="3">
+        <f t="shared" si="2"/>
+        <v>1.512132895783612</v>
+      </c>
+      <c r="D3" s="3">
+        <f t="shared" si="3"/>
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="E3" s="3">
+        <f t="shared" si="4"/>
+        <v>1.069</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>9.9236641221373993</v>
-      </c>
-      <c r="O1" s="24">
+        <v>PMF-NMAR</v>
+      </c>
+      <c r="B4" s="3">
+        <f t="shared" si="1"/>
+        <v>2.2434360126916975</v>
+      </c>
+      <c r="C4" s="3">
+        <f t="shared" si="2"/>
+        <v>1.2791421661462539</v>
+      </c>
+      <c r="D4" s="3">
+        <f t="shared" si="3"/>
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="E4" s="3">
+        <f t="shared" si="4"/>
+        <v>0.69099999999999995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>5.5118110236220481</v>
-      </c>
-      <c r="P1" s="24">
+        <v>MF-IPS</v>
+      </c>
+      <c r="B5" s="3">
+        <f t="shared" si="1"/>
+        <v>1.069</v>
+      </c>
+      <c r="C5" s="3">
+        <f t="shared" si="2"/>
+        <v>1.179</v>
+      </c>
+      <c r="D5" s="3">
+        <f t="shared" si="3"/>
+        <v>0.73</v>
+      </c>
+      <c r="E5" s="3">
+        <f t="shared" si="4"/>
+        <v>0.70799999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>6.5753424657534199</v>
-      </c>
-      <c r="Q1" s="24">
+        <v>NF-IPS</v>
+      </c>
+      <c r="B6" s="3">
+        <f t="shared" si="1"/>
+        <v>1.04718280511614</v>
+      </c>
+      <c r="C6" s="3">
+        <f t="shared" si="2"/>
+        <v>1.1374616769277222</v>
+      </c>
+      <c r="D6" s="3">
+        <f t="shared" si="3"/>
+        <v>0.67200000000000004</v>
+      </c>
+      <c r="E6" s="3">
+        <f t="shared" si="4"/>
+        <v>0.66200000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>3.9024390243902474</v>
-      </c>
-      <c r="R1" s="24">
+        <v>MF-DR</v>
+      </c>
+      <c r="B7" s="3">
+        <f t="shared" si="1"/>
+        <v>1.03675089515936</v>
+      </c>
+      <c r="C7" s="3">
+        <f t="shared" si="2"/>
+        <v>1.0575957780037335</v>
+      </c>
+      <c r="D7" s="3">
+        <f t="shared" si="3"/>
+        <v>0.69699999999999995</v>
+      </c>
+      <c r="E7" s="3">
+        <f t="shared" si="4"/>
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>6.6384180790960308</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="B2" s="23">
-        <v>1.034</v>
-      </c>
-      <c r="C2" s="23">
-        <v>1.5858590891152857</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0.91943349520045203</v>
-      </c>
-      <c r="E2" s="23">
-        <v>1.2991219071392655</v>
-      </c>
-      <c r="F2" s="23">
-        <v>0.57099999999999995</v>
-      </c>
-      <c r="G2" s="23">
-        <v>0.65600000000000003</v>
-      </c>
-      <c r="H2" s="23">
-        <v>0.58699999999999997</v>
-      </c>
-      <c r="I2" s="23">
-        <v>0.65700000000000003</v>
-      </c>
-      <c r="K2" s="24">
-        <f t="shared" ref="K2:K4" si="1">(1-B10/B6)*100</f>
-        <v>1.7414574624012857</v>
-      </c>
-      <c r="L2" s="24">
+        <v>NF-DR</v>
+      </c>
+      <c r="B8" s="3">
+        <f t="shared" si="1"/>
+        <v>1.0235849056603774</v>
+      </c>
+      <c r="C8" s="3">
+        <f t="shared" si="2"/>
+        <v>1.0332569002123142</v>
+      </c>
+      <c r="D8" s="3">
+        <f t="shared" si="3"/>
+        <v>0.63700000000000001</v>
+      </c>
+      <c r="E8" s="3">
+        <f t="shared" si="4"/>
+        <v>0.63600000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>5.2239256026132663</v>
-      </c>
-      <c r="M2" s="24">
+        <v>MF-IPS-LTD</v>
+      </c>
+      <c r="B9" s="3">
+        <f t="shared" si="1"/>
+        <v>1.0089999999999999</v>
+      </c>
+      <c r="C9" s="3">
+        <f t="shared" si="2"/>
+        <v>1.0620000000000001</v>
+      </c>
+      <c r="D9" s="3">
+        <f t="shared" si="3"/>
+        <v>0.68200000000000005</v>
+      </c>
+      <c r="E9" s="3">
+        <f t="shared" si="4"/>
+        <v>0.66100000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>5.8666666666666645</v>
-      </c>
-      <c r="N2" s="24">
+        <v>NF-IPS-LTD</v>
+      </c>
+      <c r="B10" s="3">
+        <f t="shared" si="1"/>
+        <v>0.99247875445351419</v>
+      </c>
+      <c r="C10" s="3">
+        <f t="shared" si="2"/>
+        <v>1.0411565882811751</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" si="3"/>
+        <v>0.63400000000000001</v>
+      </c>
+      <c r="E10" s="3">
+        <f t="shared" si="4"/>
+        <v>0.629</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>8.4666666666666561</v>
-      </c>
-      <c r="O2" s="24">
+        <v>MF-DR-LTD</v>
+      </c>
+      <c r="B11" s="3">
+        <f t="shared" si="1"/>
+        <v>0.98249035159493681</v>
+      </c>
+      <c r="C11" s="3">
+        <f t="shared" si="2"/>
+        <v>0.98215394583946714</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" si="3"/>
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="E11" s="3">
+        <f t="shared" si="4"/>
+        <v>0.65100000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>4.1237113402061709</v>
-      </c>
-      <c r="P2" s="24">
-        <f t="shared" si="0"/>
-        <v>5.6547619047619069</v>
-      </c>
-      <c r="Q2" s="24">
-        <f t="shared" si="0"/>
-        <v>2.7072758037225086</v>
-      </c>
-      <c r="R2" s="24">
-        <f t="shared" si="0"/>
-        <v>4.9848942598187396</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A3" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="23">
-        <v>0.91373956998807504</v>
-      </c>
-      <c r="C3" s="23">
-        <v>1.1808892916574876</v>
-      </c>
-      <c r="D3" s="23">
-        <v>0.99199999999999999</v>
-      </c>
-      <c r="E3" s="23">
-        <v>1.512132895783612</v>
-      </c>
-      <c r="F3" s="23">
-        <v>0.79800000000000004</v>
-      </c>
-      <c r="G3" s="23">
-        <v>0.96799999999999997</v>
-      </c>
-      <c r="H3" s="23">
-        <v>0.77500000000000002</v>
-      </c>
-      <c r="I3" s="23">
-        <v>1.069</v>
-      </c>
-      <c r="K3" s="24">
+        <v>NF-DR-LTD</v>
+      </c>
+      <c r="B12" s="3">
         <f t="shared" si="1"/>
-        <v>1.5342809888907571</v>
-      </c>
-      <c r="L3" s="24">
-        <f t="shared" si="0"/>
-        <v>5.2337107995535259</v>
-      </c>
-      <c r="M3" s="24">
-        <f t="shared" si="0"/>
-        <v>4.5333333333333119</v>
-      </c>
-      <c r="N3" s="24">
-        <f t="shared" si="0"/>
-        <v>7.1333333333333364</v>
-      </c>
-      <c r="O3" s="24">
-        <f t="shared" si="0"/>
-        <v>4.8252911813643991</v>
-      </c>
-      <c r="P3" s="24">
-        <f t="shared" si="0"/>
-        <v>6.1692969870875025</v>
-      </c>
-      <c r="Q3" s="24">
-        <f t="shared" si="0"/>
-        <v>2.1630615640598982</v>
-      </c>
-      <c r="R3" s="24">
-        <f t="shared" si="0"/>
-        <v>4.2647058823529482</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A4" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="B4" s="23">
-        <v>1.1904630849220104</v>
-      </c>
-      <c r="C4" s="23">
-        <v>2.2434360126916975</v>
-      </c>
-      <c r="D4" s="23">
-        <v>0.90991928477319794</v>
-      </c>
-      <c r="E4" s="23">
-        <v>1.2791421661462539</v>
-      </c>
-      <c r="F4" s="23">
-        <v>0.59499999999999997</v>
-      </c>
-      <c r="G4" s="23">
-        <v>0.71399999999999997</v>
-      </c>
-      <c r="H4" s="23">
-        <v>0.60099999999999998</v>
-      </c>
-      <c r="I4" s="23">
-        <v>0.69099999999999995</v>
-      </c>
-      <c r="K4" s="24">
-        <f t="shared" si="1"/>
-        <v>0.81585677749361762</v>
-      </c>
-      <c r="L4" s="24">
-        <f t="shared" si="0"/>
-        <v>4.6000000000000041</v>
-      </c>
-      <c r="M4" s="24">
-        <f t="shared" si="0"/>
-        <v>3.2000000000000139</v>
-      </c>
-      <c r="N4" s="24">
-        <f t="shared" si="0"/>
-        <v>5.8000000000000052</v>
-      </c>
-      <c r="O4" s="24">
-        <f t="shared" si="0"/>
-        <v>4.0925266903914626</v>
-      </c>
-      <c r="P4" s="24">
-        <f t="shared" si="0"/>
-        <v>6.1224489795918435</v>
-      </c>
-      <c r="Q4" s="24">
-        <f t="shared" si="0"/>
-        <v>1.2048192771084376</v>
-      </c>
-      <c r="R4" s="24">
-        <f t="shared" si="0"/>
-        <v>2.6729559748427723</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A5" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="23">
-        <v>0.85699999999999998</v>
-      </c>
-      <c r="C5" s="23">
-        <v>1.069</v>
-      </c>
-      <c r="D5" s="23">
-        <v>0.8911988079553298</v>
-      </c>
-      <c r="E5" s="23">
-        <v>1.179</v>
-      </c>
-      <c r="F5" s="23">
-        <v>0.63500000000000001</v>
-      </c>
-      <c r="G5" s="23">
-        <v>0.73</v>
-      </c>
-      <c r="H5" s="23">
-        <v>0.61499999999999999</v>
-      </c>
-      <c r="I5" s="23">
-        <v>0.70799999999999996</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A6" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="B6" s="23">
-        <v>0.84199999999999997</v>
-      </c>
-      <c r="C6" s="23">
-        <v>1.04718280511614</v>
-      </c>
-      <c r="D6" s="23">
-        <v>0.86254894786373038</v>
-      </c>
-      <c r="E6" s="23">
-        <v>1.1374616769277222</v>
-      </c>
-      <c r="F6" s="23">
-        <v>0.58199999999999996</v>
-      </c>
-      <c r="G6" s="23">
-        <v>0.67200000000000004</v>
-      </c>
-      <c r="H6" s="23">
-        <v>0.59099999999999997</v>
-      </c>
-      <c r="I6" s="23">
-        <v>0.66200000000000003</v>
-      </c>
-      <c r="O6" s="3">
-        <f>1-F9/F5</f>
-        <v>5.5118110236220486E-2</v>
-      </c>
-      <c r="P6" s="3">
-        <f t="shared" ref="P6:R9" si="2">1-G9/G5</f>
-        <v>6.5753424657534199E-2</v>
-      </c>
-      <c r="Q6" s="3">
+        <v>0.97650000000000003</v>
+      </c>
+      <c r="C12" s="3">
         <f t="shared" si="2"/>
-        <v>3.9024390243902474E-2</v>
-      </c>
-      <c r="R6" s="3">
-        <f t="shared" si="2"/>
-        <v>6.6384180790960312E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A7" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="23">
-        <v>0.79300000000000004</v>
-      </c>
-      <c r="C7" s="23">
-        <v>1.03675089515936</v>
-      </c>
-      <c r="D7" s="23">
-        <v>0.80673728652989496</v>
-      </c>
-      <c r="E7" s="23">
-        <v>1.0575957780037335</v>
-      </c>
-      <c r="F7" s="23">
-        <v>0.60099999999999998</v>
-      </c>
-      <c r="G7" s="23">
-        <v>0.69699999999999995</v>
-      </c>
-      <c r="H7" s="23">
-        <v>0.60099999999999998</v>
-      </c>
-      <c r="I7" s="23">
-        <v>0.68</v>
-      </c>
-      <c r="O7" s="3">
-        <f t="shared" ref="O7:O9" si="3">1-F10/F6</f>
-        <v>4.1237113402061709E-2</v>
-      </c>
-      <c r="P7" s="3">
-        <f t="shared" si="2"/>
-        <v>5.6547619047619069E-2</v>
-      </c>
-      <c r="Q7" s="3">
-        <f t="shared" si="2"/>
-        <v>2.7072758037225086E-2</v>
-      </c>
-      <c r="R7" s="3">
-        <f t="shared" si="2"/>
-        <v>4.9848942598187396E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A8" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="B8" s="23">
-        <v>0.78200000000000003</v>
-      </c>
-      <c r="C8" s="23">
-        <v>1.0235849056603774</v>
-      </c>
-      <c r="D8" s="23">
-        <v>0.78409090909090917</v>
-      </c>
-      <c r="E8" s="23">
-        <v>1.0332569002123142</v>
-      </c>
-      <c r="F8" s="23">
-        <v>0.56200000000000006</v>
-      </c>
-      <c r="G8" s="23">
-        <v>0.63700000000000001</v>
-      </c>
-      <c r="H8" s="23">
-        <v>0.58099999999999996</v>
-      </c>
-      <c r="I8" s="23">
-        <v>0.63600000000000001</v>
-      </c>
-      <c r="O8" s="3">
+        <v>0.97332799999999997</v>
+      </c>
+      <c r="D12" s="3">
         <f t="shared" si="3"/>
-        <v>4.8252911813643995E-2</v>
-      </c>
-      <c r="P8" s="3">
-        <f t="shared" si="2"/>
-        <v>6.1692969870875025E-2</v>
-      </c>
-      <c r="Q8" s="3">
-        <f t="shared" si="2"/>
-        <v>2.1630615640598982E-2</v>
-      </c>
-      <c r="R8" s="3">
-        <f t="shared" si="2"/>
-        <v>4.2647058823529482E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A9" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="B9" s="23">
-        <v>0.83599999999999997</v>
-      </c>
-      <c r="C9" s="23">
-        <v>1.0089999999999999</v>
-      </c>
-      <c r="D9" s="23">
-        <v>0.82703249378254606</v>
-      </c>
-      <c r="E9" s="23">
-        <v>1.0620000000000001</v>
-      </c>
-      <c r="F9" s="23">
-        <v>0.6</v>
-      </c>
-      <c r="G9" s="23">
-        <v>0.68200000000000005</v>
-      </c>
-      <c r="H9" s="23">
-        <v>0.59099999999999997</v>
-      </c>
-      <c r="I9" s="23">
-        <v>0.66100000000000003</v>
-      </c>
-      <c r="O9" s="3">
-        <f t="shared" si="3"/>
-        <v>4.0925266903914626E-2</v>
-      </c>
-      <c r="P9" s="3">
-        <f>1-G12/G8</f>
-        <v>6.1224489795918435E-2</v>
-      </c>
-      <c r="Q9" s="3">
-        <f t="shared" si="2"/>
-        <v>1.2048192771084376E-2</v>
-      </c>
-      <c r="R9" s="3">
-        <f t="shared" si="2"/>
-        <v>2.6729559748427723E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A10" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="B10" s="23">
-        <v>0.82733692816658111</v>
-      </c>
-      <c r="C10" s="23">
-        <v>0.99247875445351419</v>
-      </c>
-      <c r="D10" s="23">
-        <v>0.8119460762557249</v>
-      </c>
-      <c r="E10" s="23">
-        <v>1.0411565882811751</v>
-      </c>
-      <c r="F10" s="23">
-        <v>0.55800000000000005</v>
-      </c>
-      <c r="G10" s="23">
-        <v>0.63400000000000001</v>
-      </c>
-      <c r="H10" s="23">
-        <v>0.57499999999999996</v>
-      </c>
-      <c r="I10" s="23">
-        <v>0.629</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A11" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="B11" s="23">
-        <v>0.78083315175809631</v>
-      </c>
-      <c r="C11" s="23">
-        <v>0.98249035159493681</v>
-      </c>
-      <c r="D11" s="23">
-        <v>0.77016519620720658</v>
-      </c>
-      <c r="E11" s="23">
-        <v>0.98215394583946714</v>
-      </c>
-      <c r="F11" s="23">
-        <v>0.57199999999999995</v>
-      </c>
-      <c r="G11" s="23">
-        <v>0.65400000000000003</v>
-      </c>
-      <c r="H11" s="23">
-        <v>0.58799999999999997</v>
-      </c>
-      <c r="I11" s="23">
-        <v>0.65100000000000002</v>
-      </c>
-      <c r="O11" s="3">
-        <f t="shared" ref="O11:R12" si="4">1-F9/F1</f>
-        <v>1.4778325123152691E-2</v>
-      </c>
-      <c r="P11" s="3">
+        <v>0.59799999999999998</v>
+      </c>
+      <c r="E12" s="3">
         <f t="shared" si="4"/>
-        <v>5.1460361613351768E-2</v>
-      </c>
-      <c r="Q11" s="3">
-        <f t="shared" si="4"/>
-        <v>2.1523178807947074E-2</v>
-      </c>
-      <c r="R11" s="3">
-        <f t="shared" si="4"/>
-        <v>4.8920863309352414E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A12" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="B12" s="23">
-        <v>0.77561999999999998</v>
-      </c>
-      <c r="C12" s="23">
-        <v>0.97650000000000003</v>
-      </c>
-      <c r="D12" s="23">
-        <v>0.75900000000000001</v>
-      </c>
-      <c r="E12" s="23">
-        <v>0.97332799999999997</v>
-      </c>
-      <c r="F12" s="23">
-        <v>0.53900000000000003</v>
-      </c>
-      <c r="G12" s="23">
-        <v>0.59799999999999998</v>
-      </c>
-      <c r="H12" s="23">
-        <v>0.57399999999999995</v>
-      </c>
-      <c r="I12" s="23">
         <v>0.61899999999999999</v>
-      </c>
-      <c r="O12" s="3">
-        <f t="shared" si="4"/>
-        <v>2.27670753064797E-2</v>
-      </c>
-      <c r="P12" s="3">
-        <f t="shared" si="4"/>
-        <v>3.3536585365853688E-2</v>
-      </c>
-      <c r="Q12" s="3">
-        <f t="shared" si="4"/>
-        <v>2.0442930153321992E-2</v>
-      </c>
-      <c r="R12" s="3">
-        <f t="shared" si="4"/>
-        <v>4.2617960426179602E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A13" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="23">
-        <v>2E-3</v>
-      </c>
-      <c r="C13" s="23">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="D13" s="23">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="E13" s="23">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="F13" s="23">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="G13" s="23">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="H13" s="23">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="I13" s="23">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="O13" s="3">
-        <f t="shared" ref="O13:R14" si="5">1-F11/F1</f>
-        <v>6.075533661740562E-2</v>
-      </c>
-      <c r="P13" s="3">
-        <f t="shared" si="5"/>
-        <v>9.040333796940192E-2</v>
-      </c>
-      <c r="Q13" s="3">
-        <f t="shared" si="5"/>
-        <v>2.6490066225165587E-2</v>
-      </c>
-      <c r="R13" s="3">
-        <f t="shared" si="5"/>
-        <v>6.3309352517985529E-2</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="23" t="s">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="B14" s="23">
-        <v>5.0000000000000001E-3</v>
+        <v>1.1672</v>
       </c>
       <c r="C14" s="23">
-        <v>7.0000000000000001E-3</v>
+        <v>1.9504999999999999</v>
       </c>
       <c r="D14" s="23">
-        <v>8.9999999999999993E-3</v>
+        <v>0.94799999999999995</v>
       </c>
       <c r="E14" s="23">
-        <v>1.2999999999999999E-2</v>
+        <v>1.349</v>
       </c>
       <c r="F14" s="23">
-        <v>7.0000000000000001E-3</v>
+        <v>0.60899999999999999</v>
       </c>
       <c r="G14" s="23">
-        <v>1.2999999999999999E-2</v>
+        <v>0.71899999999999997</v>
       </c>
       <c r="H14" s="23">
-        <v>8.0000000000000002E-3</v>
+        <v>0.60399999999999998</v>
       </c>
       <c r="I14" s="23">
-        <v>1.4E-2</v>
-      </c>
-      <c r="O14" s="3">
+        <v>0.69499999999999995</v>
+      </c>
+      <c r="K14" s="24">
+        <f>(1-B22/B18)*100</f>
+        <v>2.4504084014002392</v>
+      </c>
+      <c r="L14" s="24">
+        <f t="shared" ref="L14:R17" si="5">(1-C22/C18)*100</f>
+        <v>5.6127221702525816</v>
+      </c>
+      <c r="M14" s="24">
         <f t="shared" si="5"/>
-        <v>5.6042031523642621E-2</v>
-      </c>
-      <c r="P14" s="3">
+        <v>7.1999999999999957</v>
+      </c>
+      <c r="N14" s="24">
         <f t="shared" si="5"/>
-        <v>8.8414634146341542E-2</v>
-      </c>
-      <c r="Q14" s="3">
+        <v>9.9236641221373993</v>
+      </c>
+      <c r="O14" s="24">
         <f t="shared" si="5"/>
-        <v>2.2146507666098825E-2</v>
-      </c>
-      <c r="R14" s="3">
+        <v>5.5118110236220481</v>
+      </c>
+      <c r="P14" s="24">
         <f t="shared" si="5"/>
-        <v>5.7838660578386603E-2</v>
+        <v>6.5753424657534199</v>
+      </c>
+      <c r="Q14" s="24">
+        <f t="shared" si="5"/>
+        <v>3.9024390243902474</v>
+      </c>
+      <c r="R14" s="24">
+        <f t="shared" si="5"/>
+        <v>6.6384180790960308</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="23" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="B15" s="23">
-        <v>3.0000000000000001E-3</v>
+        <v>1.034</v>
       </c>
       <c r="C15" s="23">
-        <v>4.0000000000000001E-3</v>
+        <v>1.5858590891152857</v>
       </c>
       <c r="D15" s="23">
-        <v>1.2E-2</v>
+        <v>0.91943349520045203</v>
       </c>
       <c r="E15" s="23">
-        <v>0.02</v>
+        <v>1.2991219071392655</v>
       </c>
       <c r="F15" s="23">
-        <v>0.01</v>
+        <v>0.57099999999999995</v>
       </c>
       <c r="G15" s="23">
-        <v>1.6E-2</v>
+        <v>0.65600000000000003</v>
       </c>
       <c r="H15" s="23">
-        <v>1.0999999999999999E-2</v>
+        <v>0.58699999999999997</v>
       </c>
       <c r="I15" s="23">
-        <v>1.7000000000000001E-2</v>
+        <v>0.65700000000000003</v>
+      </c>
+      <c r="K15" s="24">
+        <f t="shared" ref="K15:K17" si="6">(1-B23/B19)*100</f>
+        <v>1.7414574624012857</v>
+      </c>
+      <c r="L15" s="24">
+        <f t="shared" si="5"/>
+        <v>5.2239256026132663</v>
+      </c>
+      <c r="M15" s="24">
+        <f t="shared" si="5"/>
+        <v>5.8666666666666645</v>
+      </c>
+      <c r="N15" s="24">
+        <f t="shared" si="5"/>
+        <v>8.4666666666666561</v>
+      </c>
+      <c r="O15" s="24">
+        <f t="shared" si="5"/>
+        <v>4.1237113402061709</v>
+      </c>
+      <c r="P15" s="24">
+        <f t="shared" si="5"/>
+        <v>5.6547619047619069</v>
+      </c>
+      <c r="Q15" s="24">
+        <f t="shared" si="5"/>
+        <v>2.7072758037225086</v>
+      </c>
+      <c r="R15" s="24">
+        <f t="shared" si="5"/>
+        <v>4.9848942598187396</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="23" t="s">
-        <v>85</v>
+        <v>11</v>
       </c>
       <c r="B16" s="23">
-        <v>6.0000000000000001E-3</v>
+        <v>0.91373956998807504</v>
       </c>
       <c r="C16" s="23">
-        <v>0.01</v>
+        <v>1.1808892916574876</v>
       </c>
       <c r="D16" s="23">
-        <v>5.0000000000000001E-3</v>
+        <v>0.99199999999999999</v>
       </c>
       <c r="E16" s="23">
-        <v>8.9999999999999993E-3</v>
+        <v>1.512132895783612</v>
       </c>
       <c r="F16" s="23">
-        <v>5.0000000000000001E-3</v>
+        <v>0.79800000000000004</v>
       </c>
       <c r="G16" s="23">
-        <v>8.9999999999999993E-3</v>
+        <v>0.96799999999999997</v>
       </c>
       <c r="H16" s="23">
-        <v>5.0000000000000001E-3</v>
+        <v>0.77500000000000002</v>
       </c>
       <c r="I16" s="23">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="K16" s="3">
-        <f t="shared" ref="K16:R16" si="6">B5-B6</f>
-        <v>1.5000000000000013E-2</v>
-      </c>
-      <c r="L16" s="3">
+        <v>1.069</v>
+      </c>
+      <c r="K16" s="24">
         <f t="shared" si="6"/>
-        <v>2.1817194883859914E-2</v>
-      </c>
-      <c r="M16" s="3">
-        <f t="shared" si="6"/>
-        <v>2.8649860091599422E-2</v>
-      </c>
-      <c r="N16" s="3">
-        <f t="shared" si="6"/>
-        <v>4.1538323072277894E-2</v>
-      </c>
-      <c r="O16" s="3">
-        <f t="shared" si="6"/>
-        <v>5.3000000000000047E-2</v>
-      </c>
-      <c r="P16" s="3">
-        <f t="shared" si="6"/>
-        <v>5.799999999999994E-2</v>
-      </c>
-      <c r="Q16" s="3">
-        <f t="shared" si="6"/>
-        <v>2.4000000000000021E-2</v>
-      </c>
-      <c r="R16" s="3">
-        <f t="shared" si="6"/>
-        <v>4.599999999999993E-2</v>
+        <v>1.5342809888907571</v>
+      </c>
+      <c r="L16" s="24">
+        <f t="shared" si="5"/>
+        <v>5.2337107995535259</v>
+      </c>
+      <c r="M16" s="24">
+        <f t="shared" si="5"/>
+        <v>4.5333333333333119</v>
+      </c>
+      <c r="N16" s="24">
+        <f t="shared" si="5"/>
+        <v>7.1333333333333364</v>
+      </c>
+      <c r="O16" s="24">
+        <f t="shared" si="5"/>
+        <v>4.8252911813643991</v>
+      </c>
+      <c r="P16" s="24">
+        <f t="shared" si="5"/>
+        <v>6.1692969870875025</v>
+      </c>
+      <c r="Q16" s="24">
+        <f t="shared" si="5"/>
+        <v>2.1630615640598982</v>
+      </c>
+      <c r="R16" s="24">
+        <f t="shared" si="5"/>
+        <v>4.2647058823529482</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="23" t="s">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="B17" s="23">
-        <v>3.0000000000000001E-3</v>
+        <v>1.1904630849220104</v>
       </c>
       <c r="C17" s="23">
-        <v>5.0000000000000001E-3</v>
+        <v>2.2434360126916975</v>
       </c>
       <c r="D17" s="23">
-        <v>8.0000000000000002E-3</v>
+        <v>0.90991928477319794</v>
       </c>
       <c r="E17" s="23">
-        <v>1.2E-2</v>
+        <v>1.2791421661462539</v>
       </c>
       <c r="F17" s="23">
-        <v>6.0000000000000001E-3</v>
+        <v>0.59499999999999997</v>
       </c>
       <c r="G17" s="23">
-        <v>0.01</v>
+        <v>0.71399999999999997</v>
       </c>
       <c r="H17" s="23">
-        <v>5.0000000000000001E-3</v>
+        <v>0.60099999999999998</v>
       </c>
       <c r="I17" s="23">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="K17" s="3">
-        <f t="shared" ref="K17:R17" si="7">B17+B18</f>
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="L17" s="3">
-        <f t="shared" si="7"/>
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="M17" s="3">
-        <f t="shared" si="7"/>
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="N17" s="3">
-        <f t="shared" si="7"/>
-        <v>2.3E-2</v>
-      </c>
-      <c r="O17" s="3">
-        <f t="shared" si="7"/>
-        <v>1.3000000000000001E-2</v>
-      </c>
-      <c r="P17" s="3">
-        <f t="shared" si="7"/>
-        <v>2.0999999999999998E-2</v>
-      </c>
-      <c r="Q17" s="3">
-        <f t="shared" si="7"/>
-        <v>1.3000000000000001E-2</v>
-      </c>
-      <c r="R17" s="3">
-        <f t="shared" si="7"/>
-        <v>0.02</v>
+        <v>0.69099999999999995</v>
+      </c>
+      <c r="K17" s="24">
+        <f t="shared" si="6"/>
+        <v>0.81585677749361762</v>
+      </c>
+      <c r="L17" s="24">
+        <f t="shared" si="5"/>
+        <v>4.6000000000000041</v>
+      </c>
+      <c r="M17" s="24">
+        <f t="shared" si="5"/>
+        <v>3.2000000000000139</v>
+      </c>
+      <c r="N17" s="24">
+        <f t="shared" si="5"/>
+        <v>5.8000000000000052</v>
+      </c>
+      <c r="O17" s="24">
+        <f t="shared" si="5"/>
+        <v>4.0925266903914626</v>
+      </c>
+      <c r="P17" s="24">
+        <f t="shared" si="5"/>
+        <v>6.1224489795918435</v>
+      </c>
+      <c r="Q17" s="24">
+        <f t="shared" si="5"/>
+        <v>1.2048192771084376</v>
+      </c>
+      <c r="R17" s="24">
+        <f t="shared" si="5"/>
+        <v>2.6729559748427723</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" s="23" t="s">
-        <v>66</v>
+        <v>5</v>
       </c>
       <c r="B18" s="23">
-        <v>5.0000000000000001E-3</v>
+        <v>0.85699999999999998</v>
       </c>
       <c r="C18" s="23">
-        <v>6.0000000000000001E-3</v>
+        <v>1.069</v>
       </c>
       <c r="D18" s="23">
-        <v>8.9999999999999993E-3</v>
+        <v>0.8911988079553298</v>
       </c>
       <c r="E18" s="23">
-        <v>1.0999999999999999E-2</v>
+        <v>1.179</v>
       </c>
       <c r="F18" s="23">
-        <v>7.0000000000000001E-3</v>
+        <v>0.63500000000000001</v>
       </c>
       <c r="G18" s="23">
-        <v>1.0999999999999999E-2</v>
+        <v>0.73</v>
       </c>
       <c r="H18" s="23">
-        <v>8.0000000000000002E-3</v>
+        <v>0.61499999999999999</v>
       </c>
       <c r="I18" s="23">
-        <v>1.2E-2</v>
+        <v>0.70799999999999996</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="23" t="s">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="B19" s="23">
-        <v>2E-3</v>
+        <v>0.84199999999999997</v>
       </c>
       <c r="C19" s="23">
-        <v>3.0000000000000001E-3</v>
+        <v>1.04718280511614</v>
       </c>
       <c r="D19" s="23">
-        <v>4.0000000000000001E-3</v>
+        <v>0.86254894786373038</v>
       </c>
       <c r="E19" s="23">
-        <v>6.0000000000000001E-3</v>
+        <v>1.1374616769277222</v>
       </c>
       <c r="F19" s="23">
-        <v>3.0000000000000001E-3</v>
+        <v>0.58199999999999996</v>
       </c>
       <c r="G19" s="23">
-        <v>6.0000000000000001E-3</v>
+        <v>0.67200000000000004</v>
       </c>
       <c r="H19" s="23">
-        <v>3.0000000000000001E-3</v>
+        <v>0.59099999999999997</v>
       </c>
       <c r="I19" s="23">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="K19" s="3">
-        <f t="shared" ref="K19:R19" si="8">B6-B7</f>
-        <v>4.8999999999999932E-2</v>
-      </c>
-      <c r="L19" s="3">
-        <f t="shared" si="8"/>
-        <v>1.0431909956780006E-2</v>
-      </c>
-      <c r="M19" s="3">
-        <f t="shared" si="8"/>
-        <v>5.5811661333835416E-2</v>
-      </c>
-      <c r="N19" s="3">
-        <f t="shared" si="8"/>
-        <v>7.9865898923988654E-2</v>
+        <v>0.66200000000000003</v>
       </c>
       <c r="O19" s="3">
-        <f t="shared" si="8"/>
-        <v>-1.9000000000000017E-2</v>
+        <f>1-F22/F18</f>
+        <v>5.5118110236220486E-2</v>
       </c>
       <c r="P19" s="3">
-        <f t="shared" si="8"/>
-        <v>-2.4999999999999911E-2</v>
+        <f t="shared" ref="P19:R22" si="7">1-G22/G18</f>
+        <v>6.5753424657534199E-2</v>
       </c>
       <c r="Q19" s="3">
-        <f t="shared" si="8"/>
-        <v>-1.0000000000000009E-2</v>
+        <f t="shared" si="7"/>
+        <v>3.9024390243902474E-2</v>
       </c>
       <c r="R19" s="3">
-        <f t="shared" si="8"/>
-        <v>-1.8000000000000016E-2</v>
+        <f t="shared" si="7"/>
+        <v>6.6384180790960312E-2</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="23" t="s">
-        <v>67</v>
+        <v>6</v>
       </c>
       <c r="B20" s="23">
-        <v>4.0000000000000001E-3</v>
+        <v>0.79300000000000004</v>
       </c>
       <c r="C20" s="23">
-        <v>7.0000000000000001E-3</v>
+        <v>1.03675089515936</v>
       </c>
       <c r="D20" s="23">
-        <v>7.0000000000000001E-3</v>
+        <v>0.80673728652989496</v>
       </c>
       <c r="E20" s="23">
-        <v>1.2999999999999999E-2</v>
+        <v>1.0575957780037335</v>
       </c>
       <c r="F20" s="23">
-        <v>6.0000000000000001E-3</v>
+        <v>0.60099999999999998</v>
       </c>
       <c r="G20" s="23">
-        <v>1.2999999999999999E-2</v>
+        <v>0.69699999999999995</v>
       </c>
       <c r="H20" s="23">
-        <v>6.0000000000000001E-3</v>
+        <v>0.60099999999999998</v>
       </c>
       <c r="I20" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="K20" s="3">
-        <f t="shared" ref="K20:R20" si="9">B18+B19</f>
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="L20" s="3">
-        <f t="shared" si="9"/>
-        <v>9.0000000000000011E-3</v>
-      </c>
-      <c r="M20" s="3">
-        <f t="shared" si="9"/>
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="N20" s="3">
-        <f t="shared" si="9"/>
-        <v>1.7000000000000001E-2</v>
+        <v>0.68</v>
       </c>
       <c r="O20" s="3">
-        <f t="shared" si="9"/>
-        <v>0.01</v>
+        <f t="shared" ref="O20:O22" si="8">1-F23/F19</f>
+        <v>4.1237113402061709E-2</v>
       </c>
       <c r="P20" s="3">
-        <f t="shared" si="9"/>
-        <v>1.7000000000000001E-2</v>
+        <f t="shared" si="7"/>
+        <v>5.6547619047619069E-2</v>
       </c>
       <c r="Q20" s="3">
-        <f t="shared" si="9"/>
-        <v>1.0999999999999999E-2</v>
+        <f t="shared" si="7"/>
+        <v>2.7072758037225086E-2</v>
       </c>
       <c r="R20" s="3">
-        <f t="shared" si="9"/>
-        <v>1.8000000000000002E-2</v>
+        <f t="shared" si="7"/>
+        <v>4.9848942598187396E-2</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="23" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B21" s="23">
-        <v>2E-3</v>
+        <v>0.78200000000000003</v>
       </c>
       <c r="C21" s="23">
-        <v>3.0000000000000001E-3</v>
+        <v>1.0235849056603774</v>
       </c>
       <c r="D21" s="23">
-        <v>4.0000000000000001E-3</v>
+        <v>0.78409090909090917</v>
       </c>
       <c r="E21" s="23">
-        <v>6.0000000000000001E-3</v>
+        <v>1.0332569002123142</v>
       </c>
       <c r="F21" s="23">
-        <v>4.0000000000000001E-3</v>
+        <v>0.56200000000000006</v>
       </c>
       <c r="G21" s="23">
-        <v>6.0000000000000001E-3</v>
+        <v>0.63700000000000001</v>
       </c>
       <c r="H21" s="23">
-        <v>3.0000000000000001E-3</v>
+        <v>0.58099999999999996</v>
       </c>
       <c r="I21" s="23">
-        <v>5.0000000000000001E-3</v>
+        <v>0.63600000000000001</v>
+      </c>
+      <c r="O21" s="3">
+        <f t="shared" si="8"/>
+        <v>4.8252911813643995E-2</v>
+      </c>
+      <c r="P21" s="3">
+        <f t="shared" si="7"/>
+        <v>6.1692969870875025E-2</v>
+      </c>
+      <c r="Q21" s="3">
+        <f t="shared" si="7"/>
+        <v>2.1630615640598982E-2</v>
+      </c>
+      <c r="R21" s="3">
+        <f t="shared" si="7"/>
+        <v>4.2647058823529482E-2</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B22" s="23">
-        <v>3.0000000000000001E-3</v>
+        <v>0.83599999999999997</v>
       </c>
       <c r="C22" s="23">
-        <v>6.0000000000000001E-3</v>
+        <v>1.0089999999999999</v>
       </c>
       <c r="D22" s="23">
-        <v>6.0000000000000001E-3</v>
+        <v>0.82703249378254606</v>
       </c>
       <c r="E22" s="23">
-        <v>8.9999999999999993E-3</v>
+        <v>1.0620000000000001</v>
       </c>
       <c r="F22" s="23">
-        <v>6.0000000000000001E-3</v>
+        <v>0.6</v>
       </c>
       <c r="G22" s="23">
-        <v>1.0999999999999999E-2</v>
+        <v>0.68200000000000005</v>
       </c>
       <c r="H22" s="23">
-        <v>6.0000000000000001E-3</v>
+        <v>0.59099999999999997</v>
       </c>
       <c r="I22" s="23">
-        <v>1.2E-2</v>
-      </c>
-      <c r="K22" s="3">
-        <f t="shared" ref="K22:R22" si="10">B7-B8</f>
-        <v>1.100000000000001E-2</v>
-      </c>
-      <c r="L22" s="3">
-        <f t="shared" si="10"/>
-        <v>1.3165989498982622E-2</v>
-      </c>
-      <c r="M22" s="3">
-        <f t="shared" si="10"/>
-        <v>2.2646377438985787E-2</v>
-      </c>
-      <c r="N22" s="3">
-        <f t="shared" si="10"/>
-        <v>2.43388777914193E-2</v>
+        <v>0.66100000000000003</v>
       </c>
       <c r="O22" s="3">
-        <f t="shared" si="10"/>
-        <v>3.8999999999999924E-2</v>
+        <f t="shared" si="8"/>
+        <v>4.0925266903914626E-2</v>
       </c>
       <c r="P22" s="3">
-        <f t="shared" si="10"/>
-        <v>5.9999999999999942E-2</v>
+        <f>1-G25/G21</f>
+        <v>6.1224489795918435E-2</v>
       </c>
       <c r="Q22" s="3">
-        <f t="shared" si="10"/>
-        <v>2.0000000000000018E-2</v>
+        <f t="shared" si="7"/>
+        <v>1.2048192771084376E-2</v>
       </c>
       <c r="R22" s="3">
-        <f t="shared" si="10"/>
-        <v>4.4000000000000039E-2</v>
+        <f t="shared" si="7"/>
+        <v>2.6729559748427723E-2</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B23" s="23">
-        <v>1E-3</v>
+        <v>0.82733692816658111</v>
       </c>
       <c r="C23" s="23">
-        <v>2E-3</v>
+        <v>0.99247875445351419</v>
       </c>
       <c r="D23" s="23">
-        <v>2E-3</v>
+        <v>0.8119460762557249</v>
       </c>
       <c r="E23" s="23">
-        <v>3.0000000000000001E-3</v>
+        <v>1.0411565882811751</v>
       </c>
       <c r="F23" s="23">
-        <v>1E-3</v>
+        <v>0.55800000000000005</v>
       </c>
       <c r="G23" s="23">
-        <v>4.0000000000000001E-3</v>
+        <v>0.63400000000000001</v>
       </c>
       <c r="H23" s="23">
-        <v>2E-3</v>
+        <v>0.57499999999999996</v>
       </c>
       <c r="I23" s="23">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="K23" s="3">
-        <f t="shared" ref="K23:R23" si="11">B19+B20</f>
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="L23" s="3">
-        <f t="shared" si="11"/>
-        <v>0.01</v>
-      </c>
-      <c r="M23" s="3">
-        <f t="shared" si="11"/>
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="N23" s="3">
-        <f t="shared" si="11"/>
-        <v>1.9E-2</v>
-      </c>
-      <c r="O23" s="3">
-        <f t="shared" si="11"/>
-        <v>9.0000000000000011E-3</v>
-      </c>
-      <c r="P23" s="3">
-        <f t="shared" si="11"/>
-        <v>1.9E-2</v>
-      </c>
-      <c r="Q23" s="3">
-        <f t="shared" si="11"/>
-        <v>9.0000000000000011E-3</v>
-      </c>
-      <c r="R23" s="3">
-        <f t="shared" si="11"/>
-        <v>1.6E-2</v>
+        <v>0.629</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" s="23">
+        <v>0.78083315175809631</v>
+      </c>
+      <c r="C24" s="23">
+        <v>0.98249035159493681</v>
+      </c>
+      <c r="D24" s="23">
+        <v>0.77016519620720658</v>
+      </c>
+      <c r="E24" s="23">
+        <v>0.98215394583946714</v>
+      </c>
+      <c r="F24" s="23">
+        <v>0.57199999999999995</v>
+      </c>
+      <c r="G24" s="23">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="H24" s="23">
+        <v>0.58799999999999997</v>
+      </c>
+      <c r="I24" s="23">
+        <v>0.65100000000000002</v>
+      </c>
+      <c r="O24" s="3">
+        <f t="shared" ref="O24:R25" si="9">1-F22/F14</f>
+        <v>1.4778325123152691E-2</v>
+      </c>
+      <c r="P24" s="3">
+        <f t="shared" si="9"/>
+        <v>5.1460361613351768E-2</v>
+      </c>
+      <c r="Q24" s="3">
+        <f t="shared" si="9"/>
+        <v>2.1523178807947074E-2</v>
+      </c>
+      <c r="R24" s="3">
+        <f t="shared" si="9"/>
+        <v>4.8920863309352414E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A25" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="B24" s="23">
-        <v>2E-3</v>
-      </c>
-      <c r="C24" s="23">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="D24" s="23">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="E24" s="23">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="F24" s="23">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="G24" s="23">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="H24" s="23">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="I24" s="23">
-        <v>6.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A25" s="23"/>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="23"/>
-      <c r="K25" s="3">
-        <f t="shared" ref="K25:R25" si="12">B9-B10</f>
-        <v>8.6630718334188561E-3</v>
-      </c>
-      <c r="L25" s="3">
-        <f t="shared" si="12"/>
-        <v>1.6521245546485708E-2</v>
-      </c>
-      <c r="M25" s="3">
-        <f t="shared" si="12"/>
-        <v>1.5086417526821161E-2</v>
-      </c>
-      <c r="N25" s="3">
-        <f t="shared" si="12"/>
-        <v>2.0843411718824978E-2</v>
+      <c r="B25" s="23">
+        <v>0.77561999999999998</v>
+      </c>
+      <c r="C25" s="23">
+        <v>0.97650000000000003</v>
+      </c>
+      <c r="D25" s="23">
+        <v>0.75900000000000001</v>
+      </c>
+      <c r="E25" s="23">
+        <v>0.97332799999999997</v>
+      </c>
+      <c r="F25" s="23">
+        <v>0.53900000000000003</v>
+      </c>
+      <c r="G25" s="23">
+        <v>0.59799999999999998</v>
+      </c>
+      <c r="H25" s="23">
+        <v>0.57399999999999995</v>
+      </c>
+      <c r="I25" s="23">
+        <v>0.61899999999999999</v>
       </c>
       <c r="O25" s="3">
-        <f t="shared" si="12"/>
-        <v>4.1999999999999926E-2</v>
+        <f t="shared" si="9"/>
+        <v>2.27670753064797E-2</v>
       </c>
       <c r="P25" s="3">
-        <f t="shared" si="12"/>
-        <v>4.8000000000000043E-2</v>
+        <f t="shared" si="9"/>
+        <v>3.3536585365853688E-2</v>
       </c>
       <c r="Q25" s="3">
-        <f t="shared" si="12"/>
-        <v>1.6000000000000014E-2</v>
+        <f t="shared" si="9"/>
+        <v>2.0442930153321992E-2</v>
       </c>
       <c r="R25" s="3">
-        <f t="shared" si="12"/>
-        <v>3.2000000000000028E-2</v>
+        <f t="shared" si="9"/>
+        <v>4.2617960426179602E-2</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="17">
-        <v>1.1539999999999999</v>
-      </c>
-      <c r="C26" s="17">
-        <v>1.891</v>
-      </c>
-      <c r="D26" s="17">
-        <v>0.92</v>
-      </c>
-      <c r="E26" s="17">
-        <v>1.2569999999999999</v>
-      </c>
-      <c r="F26" s="3">
-        <f>B1/B26</f>
-        <v>1.0114384748700174</v>
-      </c>
-      <c r="G26" s="3">
-        <f>C1/C26</f>
-        <v>1.03146483342147</v>
-      </c>
-      <c r="H26" s="3">
-        <f>D1/D26</f>
-        <v>1.0304347826086955</v>
-      </c>
-      <c r="I26" s="3">
-        <f>E1/E26</f>
-        <v>1.0731901352426412</v>
-      </c>
-      <c r="K26" s="3">
-        <f t="shared" ref="K26:R26" si="13">B21+B22</f>
+      <c r="B26" s="23">
+        <v>2E-3</v>
+      </c>
+      <c r="C26" s="23">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D26" s="23">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="L26" s="3">
-        <f t="shared" si="13"/>
-        <v>9.0000000000000011E-3</v>
-      </c>
-      <c r="M26" s="3">
-        <f t="shared" si="13"/>
-        <v>0.01</v>
-      </c>
-      <c r="N26" s="3">
-        <f t="shared" si="13"/>
-        <v>1.4999999999999999E-2</v>
+      <c r="E26" s="23">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="F26" s="23">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G26" s="23">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="H26" s="23">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="I26" s="23">
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="O26" s="3">
-        <f t="shared" si="13"/>
-        <v>0.01</v>
+        <f t="shared" ref="O26:R27" si="10">1-F24/F14</f>
+        <v>6.075533661740562E-2</v>
       </c>
       <c r="P26" s="3">
-        <f t="shared" si="13"/>
-        <v>1.7000000000000001E-2</v>
+        <f t="shared" si="10"/>
+        <v>9.040333796940192E-2</v>
       </c>
       <c r="Q26" s="3">
-        <f t="shared" si="13"/>
-        <v>9.0000000000000011E-3</v>
+        <f t="shared" si="10"/>
+        <v>2.6490066225165587E-2</v>
       </c>
       <c r="R26" s="3">
-        <f t="shared" si="13"/>
-        <v>1.7000000000000001E-2</v>
+        <f t="shared" si="10"/>
+        <v>6.3309352517985529E-2</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="B27" s="17">
-        <v>1.0009999999999999</v>
-      </c>
-      <c r="C27" s="17">
-        <v>1.488</v>
-      </c>
-      <c r="D27" s="17">
-        <v>0.88800000000000001</v>
-      </c>
-      <c r="E27" s="17">
-        <v>1.218</v>
-      </c>
-      <c r="F27" s="3">
-        <f>B2/B27</f>
-        <v>1.0329670329670331</v>
-      </c>
-      <c r="G27" s="3">
-        <f t="shared" ref="G27:I27" si="14">C2/C27</f>
-        <v>1.0657655168785523</v>
-      </c>
-      <c r="H27" s="3">
-        <f t="shared" si="14"/>
-        <v>1.0353980801806892</v>
-      </c>
-      <c r="I27" s="3">
-        <f t="shared" si="14"/>
-        <v>1.0666025510174593</v>
+      <c r="B27" s="23">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C27" s="23">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="D27" s="23">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="E27" s="23">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="F27" s="23">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="G27" s="23">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="H27" s="23">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="I27" s="23">
+        <v>1.4E-2</v>
+      </c>
+      <c r="O27" s="3">
+        <f t="shared" si="10"/>
+        <v>5.6042031523642621E-2</v>
+      </c>
+      <c r="P27" s="3">
+        <f t="shared" si="10"/>
+        <v>8.8414634146341542E-2</v>
+      </c>
+      <c r="Q27" s="3">
+        <f t="shared" si="10"/>
+        <v>2.2146507666098825E-2</v>
+      </c>
+      <c r="R27" s="3">
+        <f t="shared" si="10"/>
+        <v>5.7838660578386603E-2</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="18">
-        <v>0.88700000000000001</v>
-      </c>
-      <c r="C28" s="18">
-        <v>1.115</v>
-      </c>
-      <c r="D28" s="18">
-        <v>0.96899999999999997</v>
-      </c>
-      <c r="E28" s="18">
-        <v>1.4410000000000001</v>
-      </c>
-      <c r="F28" s="3">
-        <f>B3/B28</f>
-        <v>1.0301460766494646</v>
-      </c>
-      <c r="G28" s="3">
-        <f t="shared" ref="G28:I28" si="15">C3/C28</f>
-        <v>1.0590935351188229</v>
-      </c>
-      <c r="H28" s="3">
-        <f t="shared" si="15"/>
-        <v>1.0237358101135192</v>
-      </c>
-      <c r="I28" s="3">
-        <f t="shared" si="15"/>
-        <v>1.0493635640413685</v>
-      </c>
-      <c r="K28" s="3">
-        <f t="shared" ref="K28:R28" si="16">B10-B11</f>
-        <v>4.6503776408484798E-2</v>
-      </c>
-      <c r="L28" s="3">
-        <f t="shared" si="16"/>
-        <v>9.9884028585773832E-3</v>
-      </c>
-      <c r="M28" s="3">
-        <f t="shared" si="16"/>
-        <v>4.1780880048518321E-2</v>
-      </c>
-      <c r="N28" s="3">
-        <f t="shared" si="16"/>
-        <v>5.9002642441707942E-2</v>
-      </c>
-      <c r="O28" s="3">
-        <f t="shared" si="16"/>
-        <v>-1.3999999999999901E-2</v>
-      </c>
-      <c r="P28" s="3">
-        <f t="shared" si="16"/>
-        <v>-2.0000000000000018E-2</v>
-      </c>
-      <c r="Q28" s="3">
-        <f t="shared" si="16"/>
-        <v>-1.3000000000000012E-2</v>
-      </c>
-      <c r="R28" s="3">
-        <f t="shared" si="16"/>
-        <v>-2.200000000000002E-2</v>
+      <c r="B28" s="23">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="C28" s="23">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D28" s="23">
+        <v>1.2E-2</v>
+      </c>
+      <c r="E28" s="23">
+        <v>0.02</v>
+      </c>
+      <c r="F28" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="G28" s="23">
+        <v>1.6E-2</v>
+      </c>
+      <c r="H28" s="23">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="I28" s="23">
+        <v>1.7000000000000001E-2</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="B29" s="18">
-        <v>1.177</v>
-      </c>
-      <c r="C29" s="18">
-        <v>2.1749999999999998</v>
-      </c>
-      <c r="D29" s="18">
-        <v>0.88400000000000001</v>
-      </c>
-      <c r="E29" s="18">
-        <v>1.214</v>
-      </c>
-      <c r="F29" s="3">
-        <f>B4/B29</f>
-        <v>1.0114384748700174</v>
-      </c>
-      <c r="G29" s="3">
-        <f t="shared" ref="G29:I29" si="17">C4/C29</f>
-        <v>1.0314648334214702</v>
-      </c>
-      <c r="H29" s="3">
-        <f t="shared" si="17"/>
-        <v>1.0293204578882329</v>
-      </c>
-      <c r="I29" s="3">
-        <f t="shared" si="17"/>
-        <v>1.0536591154417247</v>
+      <c r="B29" s="23">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C29" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="D29" s="23">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E29" s="23">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="F29" s="23">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G29" s="23">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="H29" s="23">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I29" s="23">
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="K29" s="3">
-        <f t="shared" ref="K29:R29" si="18">B22+B23</f>
-        <v>4.0000000000000001E-3</v>
+        <f t="shared" ref="K29:R29" si="11">B18-B19</f>
+        <v>1.5000000000000013E-2</v>
       </c>
       <c r="L29" s="3">
-        <f t="shared" si="18"/>
-        <v>8.0000000000000002E-3</v>
+        <f t="shared" si="11"/>
+        <v>2.1817194883859914E-2</v>
       </c>
       <c r="M29" s="3">
-        <f t="shared" si="18"/>
-        <v>8.0000000000000002E-3</v>
+        <f t="shared" si="11"/>
+        <v>2.8649860091599422E-2</v>
       </c>
       <c r="N29" s="3">
-        <f t="shared" si="18"/>
-        <v>1.2E-2</v>
+        <f t="shared" si="11"/>
+        <v>4.1538323072277894E-2</v>
       </c>
       <c r="O29" s="3">
-        <f t="shared" si="18"/>
-        <v>7.0000000000000001E-3</v>
+        <f t="shared" si="11"/>
+        <v>5.3000000000000047E-2</v>
       </c>
       <c r="P29" s="3">
-        <f t="shared" si="18"/>
-        <v>1.4999999999999999E-2</v>
+        <f t="shared" si="11"/>
+        <v>5.799999999999994E-2</v>
       </c>
       <c r="Q29" s="3">
-        <f t="shared" si="18"/>
-        <v>8.0000000000000002E-3</v>
+        <f t="shared" si="11"/>
+        <v>2.4000000000000021E-2</v>
       </c>
       <c r="R29" s="3">
-        <f t="shared" si="18"/>
-        <v>1.6E-2</v>
+        <f t="shared" si="11"/>
+        <v>4.599999999999993E-2</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="17">
-        <v>0.81</v>
-      </c>
-      <c r="C30" s="17">
-        <v>0.98899999999999999</v>
-      </c>
-      <c r="D30" s="17">
-        <v>0.86</v>
-      </c>
-      <c r="E30" s="17">
-        <v>1.093</v>
-      </c>
-      <c r="F30" s="3">
-        <f>B5/B30</f>
-        <v>1.0580246913580247</v>
-      </c>
-      <c r="G30" s="3">
-        <f t="shared" ref="G30:I30" si="19">C5/C30</f>
-        <v>1.0808897876643073</v>
-      </c>
-      <c r="H30" s="3">
-        <f t="shared" si="19"/>
-        <v>1.0362776836689882</v>
-      </c>
-      <c r="I30" s="3">
-        <f t="shared" si="19"/>
-        <v>1.0786825251601098</v>
+      <c r="B30" s="23">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="C30" s="23">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D30" s="23">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="E30" s="23">
+        <v>1.2E-2</v>
+      </c>
+      <c r="F30" s="23">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="G30" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="H30" s="23">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I30" s="23">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="K30" s="3">
+        <f t="shared" ref="K30:R30" si="12">B30+B31</f>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="L30" s="3">
+        <f t="shared" si="12"/>
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="M30" s="3">
+        <f t="shared" si="12"/>
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="N30" s="3">
+        <f t="shared" si="12"/>
+        <v>2.3E-2</v>
+      </c>
+      <c r="O30" s="3">
+        <f t="shared" si="12"/>
+        <v>1.3000000000000001E-2</v>
+      </c>
+      <c r="P30" s="3">
+        <f t="shared" si="12"/>
+        <v>2.0999999999999998E-2</v>
+      </c>
+      <c r="Q30" s="3">
+        <f t="shared" si="12"/>
+        <v>1.3000000000000001E-2</v>
+      </c>
+      <c r="R30" s="3">
+        <f t="shared" si="12"/>
+        <v>0.02</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="B31" s="17">
-        <v>0.79800000000000004</v>
-      </c>
-      <c r="C31" s="17">
-        <v>0.97899999999999998</v>
-      </c>
-      <c r="D31" s="17">
-        <v>0.83199999999999996</v>
-      </c>
-      <c r="E31" s="17">
-        <v>1.0649999999999999</v>
-      </c>
-      <c r="F31" s="3">
-        <f t="shared" ref="F31:F33" si="20">B6/B31</f>
-        <v>1.0551378446115287</v>
-      </c>
-      <c r="G31" s="3">
-        <f>C6/C31</f>
-        <v>1.0696453576262921</v>
-      </c>
-      <c r="H31" s="3">
-        <f t="shared" ref="H31:H33" si="21">D6/D31</f>
-        <v>1.0367174854131376</v>
-      </c>
-      <c r="I31" s="3">
-        <f t="shared" ref="I31:I33" si="22">E6/E31</f>
-        <v>1.0680391332654668</v>
-      </c>
-      <c r="K31" s="3">
-        <f t="shared" ref="K31:R31" si="23">B11-B12</f>
-        <v>5.2131517580963349E-3</v>
-      </c>
-      <c r="L31" s="3">
-        <f t="shared" si="23"/>
-        <v>5.9903515949367714E-3</v>
-      </c>
-      <c r="M31" s="3">
-        <f t="shared" si="23"/>
-        <v>1.1165196207206574E-2</v>
-      </c>
-      <c r="N31" s="3">
-        <f t="shared" si="23"/>
-        <v>8.8259458394671642E-3</v>
-      </c>
-      <c r="O31" s="3">
-        <f t="shared" si="23"/>
-        <v>3.2999999999999918E-2</v>
-      </c>
-      <c r="P31" s="3">
-        <f t="shared" si="23"/>
-        <v>5.600000000000005E-2</v>
-      </c>
-      <c r="Q31" s="3">
-        <f t="shared" si="23"/>
-        <v>1.4000000000000012E-2</v>
-      </c>
-      <c r="R31" s="3">
-        <f t="shared" si="23"/>
-        <v>3.2000000000000028E-2</v>
+      <c r="B31" s="23">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C31" s="23">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="D31" s="23">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="E31" s="23">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="F31" s="23">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="G31" s="23">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="H31" s="23">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="I31" s="23">
+        <v>1.2E-2</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B32" s="17">
-        <v>0.747</v>
-      </c>
-      <c r="C32" s="17">
-        <v>0.96599999999999997</v>
-      </c>
-      <c r="D32" s="17">
-        <v>0.77800000000000002</v>
-      </c>
-      <c r="E32" s="17">
-        <v>0.99</v>
-      </c>
-      <c r="F32" s="3">
-        <f>B7/B32</f>
-        <v>1.0615796519410978</v>
-      </c>
-      <c r="G32" s="3">
-        <f t="shared" ref="G32:G33" si="24">C7/C32</f>
-        <v>1.0732410922974742</v>
-      </c>
-      <c r="H32" s="3">
-        <f t="shared" si="21"/>
-        <v>1.036937386285212</v>
-      </c>
-      <c r="I32" s="3">
-        <f t="shared" si="22"/>
-        <v>1.0682785636401348</v>
+      <c r="B32" s="23">
+        <v>2E-3</v>
+      </c>
+      <c r="C32" s="23">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D32" s="23">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E32" s="23">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="F32" s="23">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G32" s="23">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="H32" s="23">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="I32" s="23">
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="K32" s="3">
-        <f t="shared" ref="K32:R32" si="25">B23+B24</f>
-        <v>3.0000000000000001E-3</v>
+        <f t="shared" ref="K32:R32" si="13">B19-B20</f>
+        <v>4.8999999999999932E-2</v>
       </c>
       <c r="L32" s="3">
-        <f t="shared" si="25"/>
-        <v>5.0000000000000001E-3</v>
+        <f t="shared" si="13"/>
+        <v>1.0431909956780006E-2</v>
       </c>
       <c r="M32" s="3">
-        <f t="shared" si="25"/>
-        <v>6.0000000000000001E-3</v>
+        <f t="shared" si="13"/>
+        <v>5.5811661333835416E-2</v>
       </c>
       <c r="N32" s="3">
-        <f t="shared" si="25"/>
-        <v>9.0000000000000011E-3</v>
+        <f t="shared" si="13"/>
+        <v>7.9865898923988654E-2</v>
       </c>
       <c r="O32" s="3">
-        <f t="shared" si="25"/>
-        <v>4.0000000000000001E-3</v>
+        <f t="shared" si="13"/>
+        <v>-1.9000000000000017E-2</v>
       </c>
       <c r="P32" s="3">
-        <f t="shared" si="25"/>
-        <v>0.01</v>
+        <f t="shared" si="13"/>
+        <v>-2.4999999999999911E-2</v>
       </c>
       <c r="Q32" s="3">
-        <f t="shared" si="25"/>
-        <v>5.0000000000000001E-3</v>
+        <f t="shared" si="13"/>
+        <v>-1.0000000000000009E-2</v>
       </c>
       <c r="R32" s="3">
-        <f t="shared" si="25"/>
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="13"/>
+        <v>-1.8000000000000016E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="B33" s="17">
+      <c r="B33" s="23">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="C33" s="23">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="D33" s="23">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E33" s="23">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="F33" s="23">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="G33" s="23">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="H33" s="23">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="I33" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="K33" s="3">
+        <f t="shared" ref="K33:R33" si="14">B31+B32</f>
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="L33" s="3">
+        <f t="shared" si="14"/>
+        <v>9.0000000000000011E-3</v>
+      </c>
+      <c r="M33" s="3">
+        <f t="shared" si="14"/>
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="N33" s="3">
+        <f t="shared" si="14"/>
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="O33" s="3">
+        <f t="shared" si="14"/>
+        <v>0.01</v>
+      </c>
+      <c r="P33" s="3">
+        <f t="shared" si="14"/>
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="Q33" s="3">
+        <f t="shared" si="14"/>
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="R33" s="3">
+        <f t="shared" si="14"/>
+        <v>1.8000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A34" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="B34" s="23">
+        <v>2E-3</v>
+      </c>
+      <c r="C34" s="23">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D34" s="23">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E34" s="23">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="F34" s="23">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G34" s="23">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="H34" s="23">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="I34" s="23">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A35" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="B35" s="23">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="C35" s="23">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="D35" s="23">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="E35" s="23">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="F35" s="23">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="G35" s="23">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="H35" s="23">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="I35" s="23">
+        <v>1.2E-2</v>
+      </c>
+      <c r="K35" s="3">
+        <f t="shared" ref="K35:R35" si="15">B20-B21</f>
+        <v>1.100000000000001E-2</v>
+      </c>
+      <c r="L35" s="3">
+        <f t="shared" si="15"/>
+        <v>1.3165989498982622E-2</v>
+      </c>
+      <c r="M35" s="3">
+        <f t="shared" si="15"/>
+        <v>2.2646377438985787E-2</v>
+      </c>
+      <c r="N35" s="3">
+        <f t="shared" si="15"/>
+        <v>2.43388777914193E-2</v>
+      </c>
+      <c r="O35" s="3">
+        <f t="shared" si="15"/>
+        <v>3.8999999999999924E-2</v>
+      </c>
+      <c r="P35" s="3">
+        <f t="shared" si="15"/>
+        <v>5.9999999999999942E-2</v>
+      </c>
+      <c r="Q35" s="3">
+        <f t="shared" si="15"/>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="R35" s="3">
+        <f t="shared" si="15"/>
+        <v>4.4000000000000039E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A36" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="B36" s="23">
+        <v>1E-3</v>
+      </c>
+      <c r="C36" s="23">
+        <v>2E-3</v>
+      </c>
+      <c r="D36" s="23">
+        <v>2E-3</v>
+      </c>
+      <c r="E36" s="23">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F36" s="23">
+        <v>1E-3</v>
+      </c>
+      <c r="G36" s="23">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="H36" s="23">
+        <v>2E-3</v>
+      </c>
+      <c r="I36" s="23">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="K36" s="3">
+        <f t="shared" ref="K36:R36" si="16">B32+B33</f>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="L36" s="3">
+        <f t="shared" si="16"/>
+        <v>0.01</v>
+      </c>
+      <c r="M36" s="3">
+        <f t="shared" si="16"/>
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="N36" s="3">
+        <f t="shared" si="16"/>
+        <v>1.9E-2</v>
+      </c>
+      <c r="O36" s="3">
+        <f t="shared" si="16"/>
+        <v>9.0000000000000011E-3</v>
+      </c>
+      <c r="P36" s="3">
+        <f t="shared" si="16"/>
+        <v>1.9E-2</v>
+      </c>
+      <c r="Q36" s="3">
+        <f t="shared" si="16"/>
+        <v>9.0000000000000011E-3</v>
+      </c>
+      <c r="R36" s="3">
+        <f t="shared" si="16"/>
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A37" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="B37" s="23">
+        <v>2E-3</v>
+      </c>
+      <c r="C37" s="23">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D37" s="23">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E37" s="23">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="F37" s="23">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G37" s="23">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="H37" s="23">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="I37" s="23">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A38" s="23"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="23"/>
+      <c r="I38" s="23"/>
+      <c r="K38" s="3">
+        <f t="shared" ref="K38:R38" si="17">B22-B23</f>
+        <v>8.6630718334188561E-3</v>
+      </c>
+      <c r="L38" s="3">
+        <f t="shared" si="17"/>
+        <v>1.6521245546485708E-2</v>
+      </c>
+      <c r="M38" s="3">
+        <f t="shared" si="17"/>
+        <v>1.5086417526821161E-2</v>
+      </c>
+      <c r="N38" s="3">
+        <f t="shared" si="17"/>
+        <v>2.0843411718824978E-2</v>
+      </c>
+      <c r="O38" s="3">
+        <f t="shared" si="17"/>
+        <v>4.1999999999999926E-2</v>
+      </c>
+      <c r="P38" s="3">
+        <f t="shared" si="17"/>
+        <v>4.8000000000000043E-2</v>
+      </c>
+      <c r="Q38" s="3">
+        <f t="shared" si="17"/>
+        <v>1.6000000000000014E-2</v>
+      </c>
+      <c r="R38" s="3">
+        <f t="shared" si="17"/>
+        <v>3.2000000000000028E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A39" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" s="17">
+        <v>1.1539999999999999</v>
+      </c>
+      <c r="C39" s="17">
+        <v>1.891</v>
+      </c>
+      <c r="D39" s="17">
+        <v>0.92</v>
+      </c>
+      <c r="E39" s="17">
+        <v>1.2569999999999999</v>
+      </c>
+      <c r="F39" s="3">
+        <f>B14/B39</f>
+        <v>1.0114384748700174</v>
+      </c>
+      <c r="G39" s="3">
+        <f>C14/C39</f>
+        <v>1.03146483342147</v>
+      </c>
+      <c r="H39" s="3">
+        <f>D14/D39</f>
+        <v>1.0304347826086955</v>
+      </c>
+      <c r="I39" s="3">
+        <f>E14/E39</f>
+        <v>1.0731901352426412</v>
+      </c>
+      <c r="K39" s="3">
+        <f t="shared" ref="K39:R39" si="18">B34+B35</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="L39" s="3">
+        <f t="shared" si="18"/>
+        <v>9.0000000000000011E-3</v>
+      </c>
+      <c r="M39" s="3">
+        <f t="shared" si="18"/>
+        <v>0.01</v>
+      </c>
+      <c r="N39" s="3">
+        <f t="shared" si="18"/>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="O39" s="3">
+        <f t="shared" si="18"/>
+        <v>0.01</v>
+      </c>
+      <c r="P39" s="3">
+        <f t="shared" si="18"/>
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="Q39" s="3">
+        <f t="shared" si="18"/>
+        <v>9.0000000000000011E-3</v>
+      </c>
+      <c r="R39" s="3">
+        <f t="shared" si="18"/>
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A40" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="B40" s="17">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="C40" s="17">
+        <v>1.488</v>
+      </c>
+      <c r="D40" s="17">
+        <v>0.88800000000000001</v>
+      </c>
+      <c r="E40" s="17">
+        <v>1.218</v>
+      </c>
+      <c r="F40" s="3">
+        <f>B15/B40</f>
+        <v>1.0329670329670331</v>
+      </c>
+      <c r="G40" s="3">
+        <f t="shared" ref="G40:I40" si="19">C15/C40</f>
+        <v>1.0657655168785523</v>
+      </c>
+      <c r="H40" s="3">
+        <f t="shared" si="19"/>
+        <v>1.0353980801806892</v>
+      </c>
+      <c r="I40" s="3">
+        <f t="shared" si="19"/>
+        <v>1.0666025510174593</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A41" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41" s="18">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="C41" s="18">
+        <v>1.115</v>
+      </c>
+      <c r="D41" s="18">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="E41" s="18">
+        <v>1.4410000000000001</v>
+      </c>
+      <c r="F41" s="3">
+        <f>B16/B41</f>
+        <v>1.0301460766494646</v>
+      </c>
+      <c r="G41" s="3">
+        <f t="shared" ref="G41:I41" si="20">C16/C41</f>
+        <v>1.0590935351188229</v>
+      </c>
+      <c r="H41" s="3">
+        <f t="shared" si="20"/>
+        <v>1.0237358101135192</v>
+      </c>
+      <c r="I41" s="3">
+        <f t="shared" si="20"/>
+        <v>1.0493635640413685</v>
+      </c>
+      <c r="K41" s="3">
+        <f t="shared" ref="K41:R41" si="21">B23-B24</f>
+        <v>4.6503776408484798E-2</v>
+      </c>
+      <c r="L41" s="3">
+        <f t="shared" si="21"/>
+        <v>9.9884028585773832E-3</v>
+      </c>
+      <c r="M41" s="3">
+        <f t="shared" si="21"/>
+        <v>4.1780880048518321E-2</v>
+      </c>
+      <c r="N41" s="3">
+        <f t="shared" si="21"/>
+        <v>5.9002642441707942E-2</v>
+      </c>
+      <c r="O41" s="3">
+        <f t="shared" si="21"/>
+        <v>-1.3999999999999901E-2</v>
+      </c>
+      <c r="P41" s="3">
+        <f t="shared" si="21"/>
+        <v>-2.0000000000000018E-2</v>
+      </c>
+      <c r="Q41" s="3">
+        <f t="shared" si="21"/>
+        <v>-1.3000000000000012E-2</v>
+      </c>
+      <c r="R41" s="3">
+        <f t="shared" si="21"/>
+        <v>-2.200000000000002E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A42" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="B42" s="18">
+        <v>1.177</v>
+      </c>
+      <c r="C42" s="18">
+        <v>2.1749999999999998</v>
+      </c>
+      <c r="D42" s="18">
+        <v>0.88400000000000001</v>
+      </c>
+      <c r="E42" s="18">
+        <v>1.214</v>
+      </c>
+      <c r="F42" s="3">
+        <f>B17/B42</f>
+        <v>1.0114384748700174</v>
+      </c>
+      <c r="G42" s="3">
+        <f t="shared" ref="G42:I42" si="22">C17/C42</f>
+        <v>1.0314648334214702</v>
+      </c>
+      <c r="H42" s="3">
+        <f t="shared" si="22"/>
+        <v>1.0293204578882329</v>
+      </c>
+      <c r="I42" s="3">
+        <f t="shared" si="22"/>
+        <v>1.0536591154417247</v>
+      </c>
+      <c r="K42" s="3">
+        <f t="shared" ref="K42:R42" si="23">B35+B36</f>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="L42" s="3">
+        <f t="shared" si="23"/>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="M42" s="3">
+        <f t="shared" si="23"/>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="N42" s="3">
+        <f t="shared" si="23"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="O42" s="3">
+        <f t="shared" si="23"/>
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="P42" s="3">
+        <f t="shared" si="23"/>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="Q42" s="3">
+        <f t="shared" si="23"/>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="R42" s="3">
+        <f t="shared" si="23"/>
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A43" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" s="17">
+        <v>0.81</v>
+      </c>
+      <c r="C43" s="17">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="D43" s="17">
+        <v>0.86</v>
+      </c>
+      <c r="E43" s="17">
+        <v>1.093</v>
+      </c>
+      <c r="F43" s="3">
+        <f>B18/B43</f>
+        <v>1.0580246913580247</v>
+      </c>
+      <c r="G43" s="3">
+        <f t="shared" ref="G43:I43" si="24">C18/C43</f>
+        <v>1.0808897876643073</v>
+      </c>
+      <c r="H43" s="3">
+        <f t="shared" si="24"/>
+        <v>1.0362776836689882</v>
+      </c>
+      <c r="I43" s="3">
+        <f t="shared" si="24"/>
+        <v>1.0786825251601098</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A44" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="B44" s="17">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="C44" s="17">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="D44" s="17">
+        <v>0.83199999999999996</v>
+      </c>
+      <c r="E44" s="17">
+        <v>1.0649999999999999</v>
+      </c>
+      <c r="F44" s="3">
+        <f t="shared" ref="F44:F46" si="25">B19/B44</f>
+        <v>1.0551378446115287</v>
+      </c>
+      <c r="G44" s="3">
+        <f>C19/C44</f>
+        <v>1.0696453576262921</v>
+      </c>
+      <c r="H44" s="3">
+        <f t="shared" ref="H44:H46" si="26">D19/D44</f>
+        <v>1.0367174854131376</v>
+      </c>
+      <c r="I44" s="3">
+        <f t="shared" ref="I44:I46" si="27">E19/E44</f>
+        <v>1.0680391332654668</v>
+      </c>
+      <c r="K44" s="3">
+        <f t="shared" ref="K44:R44" si="28">B24-B25</f>
+        <v>5.2131517580963349E-3</v>
+      </c>
+      <c r="L44" s="3">
+        <f t="shared" si="28"/>
+        <v>5.9903515949367714E-3</v>
+      </c>
+      <c r="M44" s="3">
+        <f t="shared" si="28"/>
+        <v>1.1165196207206574E-2</v>
+      </c>
+      <c r="N44" s="3">
+        <f t="shared" si="28"/>
+        <v>8.8259458394671642E-3</v>
+      </c>
+      <c r="O44" s="3">
+        <f t="shared" si="28"/>
+        <v>3.2999999999999918E-2</v>
+      </c>
+      <c r="P44" s="3">
+        <f t="shared" si="28"/>
+        <v>5.600000000000005E-2</v>
+      </c>
+      <c r="Q44" s="3">
+        <f t="shared" si="28"/>
+        <v>1.4000000000000012E-2</v>
+      </c>
+      <c r="R44" s="3">
+        <f t="shared" si="28"/>
+        <v>3.2000000000000028E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A45" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45" s="17">
+        <v>0.747</v>
+      </c>
+      <c r="C45" s="17">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="D45" s="17">
+        <v>0.77800000000000002</v>
+      </c>
+      <c r="E45" s="17">
+        <v>0.99</v>
+      </c>
+      <c r="F45" s="3">
+        <f>B20/B45</f>
+        <v>1.0615796519410978</v>
+      </c>
+      <c r="G45" s="3">
+        <f t="shared" ref="G45:G46" si="29">C20/C45</f>
+        <v>1.0732410922974742</v>
+      </c>
+      <c r="H45" s="3">
+        <f t="shared" si="26"/>
+        <v>1.036937386285212</v>
+      </c>
+      <c r="I45" s="3">
+        <f t="shared" si="27"/>
+        <v>1.0682785636401348</v>
+      </c>
+      <c r="K45" s="3">
+        <f t="shared" ref="K45:R45" si="30">B36+B37</f>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="L45" s="3">
+        <f t="shared" si="30"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="M45" s="3">
+        <f t="shared" si="30"/>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="N45" s="3">
+        <f t="shared" si="30"/>
+        <v>9.0000000000000011E-3</v>
+      </c>
+      <c r="O45" s="3">
+        <f t="shared" si="30"/>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="P45" s="3">
+        <f t="shared" si="30"/>
+        <v>0.01</v>
+      </c>
+      <c r="Q45" s="3">
+        <f t="shared" si="30"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="R45" s="3">
+        <f t="shared" si="30"/>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A46" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="B46" s="17">
         <v>0.73599999999999999</v>
       </c>
-      <c r="C33" s="17">
+      <c r="C46" s="17">
         <v>0.95699999999999996</v>
       </c>
-      <c r="D33" s="17">
+      <c r="D46" s="17">
         <v>0.75600000000000001</v>
       </c>
-      <c r="E33" s="17">
+      <c r="E46" s="17">
         <v>0.96699999999999997</v>
       </c>
-      <c r="F33" s="3">
-        <f t="shared" si="20"/>
+      <c r="F46" s="3">
+        <f t="shared" si="25"/>
         <v>1.0625</v>
       </c>
-      <c r="G33" s="3">
-        <f t="shared" si="24"/>
+      <c r="G46" s="3">
+        <f t="shared" si="29"/>
         <v>1.0695767039293391</v>
       </c>
-      <c r="H33" s="3">
-        <f t="shared" si="21"/>
+      <c r="H46" s="3">
+        <f t="shared" si="26"/>
         <v>1.0371572871572872</v>
       </c>
-      <c r="I33" s="3">
-        <f t="shared" si="22"/>
+      <c r="I46" s="3">
+        <f t="shared" si="27"/>
         <v>1.0685179940148026</v>
       </c>
     </row>
@@ -3215,7 +3488,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
@@ -3596,25 +3869,25 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B11">
-        <f>overall!C10</f>
+        <f>overall!C23</f>
         <v>0.99247875445351419</v>
       </c>
       <c r="D11">
-        <f>overall!C12</f>
+        <f>overall!C25</f>
         <v>0.97650000000000003</v>
       </c>
       <c r="F11">
-        <f>overall!C9</f>
+        <f>overall!C22</f>
         <v>1.0089999999999999</v>
       </c>
       <c r="H11">
-        <f>overall!C11</f>
+        <f>overall!C24</f>
         <v>0.98249035159493681</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
-        <f>overall!A10</f>
+        <f>overall!A23</f>
         <v>NF-IPS-LTD</v>
       </c>
       <c r="B12">
@@ -3622,7 +3895,7 @@
         <v>0.95345297090154313</v>
       </c>
       <c r="C12" t="str">
-        <f>overall!A12</f>
+        <f>overall!A25</f>
         <v>NF-DR-LTD</v>
       </c>
       <c r="D12">
@@ -3630,7 +3903,7 @@
         <v>0.9314832762265246</v>
       </c>
       <c r="E12" t="str">
-        <f>overall!A9</f>
+        <f>overall!A22</f>
         <v>MF-IPS-LTD</v>
       </c>
       <c r="F12">
@@ -3638,7 +3911,7 @@
         <v>0.96752881250940903</v>
       </c>
       <c r="G12" t="str">
-        <f>overall!A11</f>
+        <f>overall!A24</f>
         <v>MF-DR-LTD</v>
       </c>
       <c r="H12">
@@ -3760,7 +4033,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
@@ -4043,15 +4316,15 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
-        <f>overall!C2</f>
+        <f>overall!C15</f>
         <v>1.5858590891152857</v>
       </c>
       <c r="B10">
-        <f>overall!C8</f>
+        <f>overall!C21</f>
         <v>1.0235849056603774</v>
       </c>
       <c r="C10">
-        <f>overall!C12</f>
+        <f>overall!C25</f>
         <v>0.97650000000000003</v>
       </c>
       <c r="E10">
@@ -4288,7 +4561,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
@@ -4963,7 +5236,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O37"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
@@ -6159,7 +6432,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
@@ -7252,7 +7525,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
@@ -7847,7 +8120,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:M71"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">

--- a/UbsRec/final.xlsx
+++ b/UbsRec/final.xlsx
@@ -1,48 +1,47 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10814"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/timhuang/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaojiew1/Projects/resprec/UbsRec/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39EA0B5A-6E7D-4249-821E-7AD3A67AFA30}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="8" r:id="rId1"/>
     <sheet name="overall" sheetId="9" r:id="rId2"/>
-    <sheet name="size-a" sheetId="7" r:id="rId3"/>
-    <sheet name="size-b" sheetId="10" r:id="rId4"/>
-    <sheet name="mar-n" sheetId="6" r:id="rId5"/>
-    <sheet name="mnar" sheetId="1" r:id="rId6"/>
-    <sheet name="mar-o" sheetId="3" r:id="rId7"/>
-    <sheet name="npm" sheetId="4" r:id="rId8"/>
+    <sheet name="npm" sheetId="4" r:id="rId3"/>
+    <sheet name="size-a" sheetId="7" r:id="rId4"/>
+    <sheet name="size-b" sheetId="10" r:id="rId5"/>
+    <sheet name="mar-n" sheetId="6" r:id="rId6"/>
+    <sheet name="mnar" sheetId="1" r:id="rId7"/>
+    <sheet name="mar-o" sheetId="3" r:id="rId8"/>
     <sheet name="var" sheetId="2" r:id="rId9"/>
     <sheet name="sort" sheetId="5" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
       </xcalcf:calcFeatures>
     </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="91">
   <si>
     <t>MF</t>
   </si>
@@ -120,24 +119,6 @@
   </si>
   <si>
     <t>MF-DR+</t>
-  </si>
-  <si>
-    <t>NFM-DR-NP-1</t>
-  </si>
-  <si>
-    <t>NFM-DR-NP-2</t>
-  </si>
-  <si>
-    <t>NFM-DR-NP-3</t>
-  </si>
-  <si>
-    <t>NFM-DR-NP-0</t>
-  </si>
-  <si>
-    <t>NFM-DR-LR</t>
-  </si>
-  <si>
-    <t>NFM-DR-SP</t>
   </si>
   <si>
     <t>MIN</t>
@@ -301,11 +282,44 @@
   <si>
     <t>PMF-NMAR</t>
   </si>
+  <si>
+    <t>NF-DR-LR</t>
+  </si>
+  <si>
+    <t>NF-DR-NP-0</t>
+  </si>
+  <si>
+    <t>NF-DR-NP-1</t>
+  </si>
+  <si>
+    <t>NF-DR-NP-2</t>
+  </si>
+  <si>
+    <t>NF-DR-NP-3</t>
+  </si>
+  <si>
+    <t>IP</t>
+  </si>
+  <si>
+    <t>NF-DR-IP</t>
+  </si>
+  <si>
+    <t>LR</t>
+  </si>
+  <si>
+    <t>NP-0</t>
+  </si>
+  <si>
+    <t>NP-1</t>
+  </si>
+  <si>
+    <t>NP-2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -416,7 +430,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -479,6 +493,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -806,7 +823,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
@@ -817,7 +834,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B1">
         <v>0.80769000000000002</v>
@@ -842,7 +859,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B2">
         <v>0.80730400000000002</v>
@@ -867,7 +884,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B3">
         <v>0.80888899999999997</v>
@@ -892,7 +909,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B4">
         <v>0.80828500000000003</v>
@@ -917,7 +934,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B5">
         <v>0.80605000000000004</v>
@@ -942,7 +959,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B6">
         <v>0.80499900000000002</v>
@@ -967,7 +984,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B7">
         <v>0.80413500000000004</v>
@@ -992,7 +1009,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B9">
         <v>0.78461199999999998</v>
@@ -1009,7 +1026,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B10">
         <v>0.78459000000000001</v>
@@ -1026,7 +1043,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B11">
         <v>0.78370799999999996</v>
@@ -1043,7 +1060,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B12">
         <v>0.78201500000000002</v>
@@ -1060,7 +1077,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B13">
         <v>0.77688400000000002</v>
@@ -1077,7 +1094,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B14">
         <v>0.77627299999999999</v>
@@ -1094,7 +1111,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B15">
         <v>0.77657799999999999</v>
@@ -1163,7 +1180,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
@@ -1174,7 +1191,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B1">
         <v>1.147</v>
@@ -1197,7 +1214,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B2">
         <v>1.1471</v>
@@ -1220,7 +1237,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B3">
         <v>1.1473</v>
@@ -1243,7 +1260,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B4">
         <v>1.1475</v>
@@ -1266,7 +1283,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B5">
         <v>1.1514</v>
@@ -1289,7 +1306,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B6">
         <v>1.1531</v>
@@ -1312,7 +1329,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B7">
         <v>1.1535</v>
@@ -1335,7 +1352,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B8">
         <v>1.1536999999999999</v>
@@ -1358,7 +1375,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B9">
         <v>1.1547000000000001</v>
@@ -1381,7 +1398,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B10">
         <v>1.1558999999999999</v>
@@ -1404,7 +1421,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B11">
         <v>1.1563000000000001</v>
@@ -1427,7 +1444,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B12">
         <v>1.1583000000000001</v>
@@ -1450,7 +1467,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B13">
         <v>1.1603000000000001</v>
@@ -1473,7 +1490,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B14">
         <v>1.1623000000000001</v>
@@ -1496,7 +1513,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B15">
         <v>1.1623000000000001</v>
@@ -1519,7 +1536,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B16">
         <v>1.1647000000000001</v>
@@ -1542,7 +1559,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B17">
         <v>1.1648000000000001</v>
@@ -1565,7 +1582,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B18">
         <v>1.1672</v>
@@ -1595,11 +1612,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E12"/>
+    <sheetView topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1628,6 +1645,22 @@
         <f>I14</f>
         <v>0.69499999999999995</v>
       </c>
+      <c r="F1" s="3">
+        <f>B14</f>
+        <v>1.1672</v>
+      </c>
+      <c r="G1" s="3">
+        <f>D14</f>
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="H1" s="3">
+        <f>F14</f>
+        <v>0.60899999999999999</v>
+      </c>
+      <c r="I1" s="3">
+        <f>H14</f>
+        <v>0.60399999999999998</v>
+      </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="str">
@@ -1650,6 +1683,22 @@
         <f t="shared" ref="E2:E12" si="4">I15</f>
         <v>0.65700000000000003</v>
       </c>
+      <c r="F2" s="3">
+        <f t="shared" ref="F2:F12" si="5">B15</f>
+        <v>1.034</v>
+      </c>
+      <c r="G2" s="3">
+        <f t="shared" ref="G2:G12" si="6">D15</f>
+        <v>0.91943349520045203</v>
+      </c>
+      <c r="H2" s="3">
+        <f t="shared" ref="H2:H12" si="7">F15</f>
+        <v>0.57099999999999995</v>
+      </c>
+      <c r="I2" s="3">
+        <f t="shared" ref="I2:I12" si="8">H15</f>
+        <v>0.58699999999999997</v>
+      </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="str">
@@ -1672,6 +1721,22 @@
         <f t="shared" si="4"/>
         <v>1.069</v>
       </c>
+      <c r="F3" s="3">
+        <f t="shared" si="5"/>
+        <v>0.91373956998807504</v>
+      </c>
+      <c r="G3" s="3">
+        <f t="shared" si="6"/>
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="H3" s="3">
+        <f t="shared" si="7"/>
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="I3" s="3">
+        <f t="shared" si="8"/>
+        <v>0.77500000000000002</v>
+      </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="str">
@@ -1694,6 +1759,26 @@
         <f t="shared" si="4"/>
         <v>0.69099999999999995</v>
       </c>
+      <c r="F4" s="3" t="str">
+        <f>A4</f>
+        <v>PMF-NMAR</v>
+      </c>
+      <c r="G4" s="3">
+        <f>B17</f>
+        <v>1.1904630849220104</v>
+      </c>
+      <c r="H4" s="3">
+        <f>D17</f>
+        <v>0.90991928477319794</v>
+      </c>
+      <c r="I4" s="3">
+        <f>F17</f>
+        <v>0.59499999999999997</v>
+      </c>
+      <c r="J4" s="3">
+        <f>H17</f>
+        <v>0.60099999999999998</v>
+      </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="str">
@@ -1716,6 +1801,26 @@
         <f t="shared" si="4"/>
         <v>0.70799999999999996</v>
       </c>
+      <c r="F5" s="3" t="str">
+        <f t="shared" ref="F5:F12" si="9">A5</f>
+        <v>MF-IPS</v>
+      </c>
+      <c r="G5" s="3">
+        <f>B18</f>
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="H5" s="3">
+        <f>D18</f>
+        <v>0.8911988079553298</v>
+      </c>
+      <c r="I5" s="3">
+        <f>F18</f>
+        <v>0.63500000000000001</v>
+      </c>
+      <c r="J5" s="3">
+        <f>H18</f>
+        <v>0.61499999999999999</v>
+      </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="str">
@@ -1738,6 +1843,26 @@
         <f t="shared" si="4"/>
         <v>0.66200000000000003</v>
       </c>
+      <c r="F6" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>NF-IPS</v>
+      </c>
+      <c r="G6" s="3">
+        <f>B19</f>
+        <v>0.84199999999999997</v>
+      </c>
+      <c r="H6" s="3">
+        <f>D19</f>
+        <v>0.86254894786373038</v>
+      </c>
+      <c r="I6" s="3">
+        <f>F19</f>
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="J6" s="3">
+        <f>H19</f>
+        <v>0.59099999999999997</v>
+      </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="str">
@@ -1760,6 +1885,26 @@
         <f t="shared" si="4"/>
         <v>0.68</v>
       </c>
+      <c r="F7" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>MF-DR</v>
+      </c>
+      <c r="G7" s="3">
+        <f>B20</f>
+        <v>0.79300000000000004</v>
+      </c>
+      <c r="H7" s="3">
+        <f>D20</f>
+        <v>0.80673728652989496</v>
+      </c>
+      <c r="I7" s="3">
+        <f>F20</f>
+        <v>0.60099999999999998</v>
+      </c>
+      <c r="J7" s="3">
+        <f>H20</f>
+        <v>0.60099999999999998</v>
+      </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="str">
@@ -1782,6 +1927,26 @@
         <f t="shared" si="4"/>
         <v>0.63600000000000001</v>
       </c>
+      <c r="F8" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>NF-DR</v>
+      </c>
+      <c r="G8" s="3">
+        <f>B21</f>
+        <v>0.78200000000000003</v>
+      </c>
+      <c r="H8" s="3">
+        <f>D21</f>
+        <v>0.78409090909090917</v>
+      </c>
+      <c r="I8" s="3">
+        <f>F21</f>
+        <v>0.56200000000000006</v>
+      </c>
+      <c r="J8" s="3">
+        <f>H21</f>
+        <v>0.58099999999999996</v>
+      </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="str">
@@ -1804,6 +1969,26 @@
         <f t="shared" si="4"/>
         <v>0.66100000000000003</v>
       </c>
+      <c r="F9" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>MF-IPS-LTD</v>
+      </c>
+      <c r="G9" s="3">
+        <f>B22</f>
+        <v>0.83599999999999997</v>
+      </c>
+      <c r="H9" s="3">
+        <f>D22</f>
+        <v>0.82703249378254606</v>
+      </c>
+      <c r="I9" s="3">
+        <f>F22</f>
+        <v>0.6</v>
+      </c>
+      <c r="J9" s="3">
+        <f>H22</f>
+        <v>0.59099999999999997</v>
+      </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="str">
@@ -1826,6 +2011,26 @@
         <f t="shared" si="4"/>
         <v>0.629</v>
       </c>
+      <c r="F10" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>NF-IPS-LTD</v>
+      </c>
+      <c r="G10" s="3">
+        <f>B23</f>
+        <v>0.82733692816658111</v>
+      </c>
+      <c r="H10" s="3">
+        <f>D23</f>
+        <v>0.8119460762557249</v>
+      </c>
+      <c r="I10" s="3">
+        <f>F23</f>
+        <v>0.55800000000000005</v>
+      </c>
+      <c r="J10" s="3">
+        <f>H23</f>
+        <v>0.57499999999999996</v>
+      </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="str">
@@ -1848,6 +2053,26 @@
         <f t="shared" si="4"/>
         <v>0.65100000000000002</v>
       </c>
+      <c r="F11" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>MF-DR-LTD</v>
+      </c>
+      <c r="G11" s="3">
+        <f>B24</f>
+        <v>0.78083315175809631</v>
+      </c>
+      <c r="H11" s="3">
+        <f>D24</f>
+        <v>0.77016519620720658</v>
+      </c>
+      <c r="I11" s="3">
+        <f>F24</f>
+        <v>0.57199999999999995</v>
+      </c>
+      <c r="J11" s="3">
+        <f>H24</f>
+        <v>0.58799999999999997</v>
+      </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="str">
@@ -1870,6 +2095,26 @@
         <f t="shared" si="4"/>
         <v>0.61899999999999999</v>
       </c>
+      <c r="F12" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>NF-DR-LTD</v>
+      </c>
+      <c r="G12" s="3">
+        <f>B25</f>
+        <v>0.77561999999999998</v>
+      </c>
+      <c r="H12" s="3">
+        <f>D25</f>
+        <v>0.75900000000000001</v>
+      </c>
+      <c r="I12" s="3">
+        <f>F25</f>
+        <v>0.53900000000000003</v>
+      </c>
+      <c r="J12" s="3">
+        <f>H25</f>
+        <v>0.57399999999999995</v>
+      </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="23" t="s">
@@ -1904,37 +2149,37 @@
         <v>2.4504084014002392</v>
       </c>
       <c r="L14" s="24">
-        <f t="shared" ref="L14:R17" si="5">(1-C22/C18)*100</f>
+        <f t="shared" ref="L14:R17" si="10">(1-C22/C18)*100</f>
         <v>5.6127221702525816</v>
       </c>
       <c r="M14" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>7.1999999999999957</v>
       </c>
       <c r="N14" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>9.9236641221373993</v>
       </c>
       <c r="O14" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>5.5118110236220481</v>
       </c>
       <c r="P14" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>6.5753424657534199</v>
       </c>
       <c r="Q14" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>3.9024390243902474</v>
       </c>
       <c r="R14" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>6.6384180790960308</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="23" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B15" s="23">
         <v>1.034</v>
@@ -1961,35 +2206,35 @@
         <v>0.65700000000000003</v>
       </c>
       <c r="K15" s="24">
-        <f t="shared" ref="K15:K17" si="6">(1-B23/B19)*100</f>
+        <f t="shared" ref="K15:K17" si="11">(1-B23/B19)*100</f>
         <v>1.7414574624012857</v>
       </c>
       <c r="L15" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>5.2239256026132663</v>
       </c>
       <c r="M15" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>5.8666666666666645</v>
       </c>
       <c r="N15" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>8.4666666666666561</v>
       </c>
       <c r="O15" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>4.1237113402061709</v>
       </c>
       <c r="P15" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>5.6547619047619069</v>
       </c>
       <c r="Q15" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>2.7072758037225086</v>
       </c>
       <c r="R15" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>4.9848942598187396</v>
       </c>
     </row>
@@ -2022,41 +2267,41 @@
         <v>1.069</v>
       </c>
       <c r="K16" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1.5342809888907571</v>
       </c>
       <c r="L16" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>5.2337107995535259</v>
       </c>
       <c r="M16" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>4.5333333333333119</v>
       </c>
       <c r="N16" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>7.1333333333333364</v>
       </c>
       <c r="O16" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>4.8252911813643991</v>
       </c>
       <c r="P16" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>6.1692969870875025</v>
       </c>
       <c r="Q16" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>2.1630615640598982</v>
       </c>
       <c r="R16" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>4.2647058823529482</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="23" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B17" s="23">
         <v>1.1904630849220104</v>
@@ -2083,35 +2328,35 @@
         <v>0.69099999999999995</v>
       </c>
       <c r="K17" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.81585677749361762</v>
       </c>
       <c r="L17" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>4.6000000000000041</v>
       </c>
       <c r="M17" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>3.2000000000000139</v>
       </c>
       <c r="N17" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>5.8000000000000052</v>
       </c>
       <c r="O17" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>4.0925266903914626</v>
       </c>
       <c r="P17" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>6.1224489795918435</v>
       </c>
       <c r="Q17" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1.2048192771084376</v>
       </c>
       <c r="R17" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>2.6729559748427723</v>
       </c>
     </row>
@@ -2146,7 +2391,7 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="23" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B19" s="23">
         <v>0.84199999999999997</v>
@@ -2177,15 +2422,15 @@
         <v>5.5118110236220486E-2</v>
       </c>
       <c r="P19" s="3">
-        <f t="shared" ref="P19:R22" si="7">1-G22/G18</f>
+        <f t="shared" ref="P19:R22" si="12">1-G22/G18</f>
         <v>6.5753424657534199E-2</v>
       </c>
       <c r="Q19" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>3.9024390243902474E-2</v>
       </c>
       <c r="R19" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>6.6384180790960312E-2</v>
       </c>
     </row>
@@ -2218,25 +2463,25 @@
         <v>0.68</v>
       </c>
       <c r="O20" s="3">
-        <f t="shared" ref="O20:O22" si="8">1-F23/F19</f>
+        <f t="shared" ref="O20:O22" si="13">1-F23/F19</f>
         <v>4.1237113402061709E-2</v>
       </c>
       <c r="P20" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>5.6547619047619069E-2</v>
       </c>
       <c r="Q20" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>2.7072758037225086E-2</v>
       </c>
       <c r="R20" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>4.9848942598187396E-2</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="23" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B21" s="23">
         <v>0.78200000000000003</v>
@@ -2263,25 +2508,25 @@
         <v>0.63600000000000001</v>
       </c>
       <c r="O21" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>4.8252911813643995E-2</v>
       </c>
       <c r="P21" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>6.1692969870875025E-2</v>
       </c>
       <c r="Q21" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>2.1630615640598982E-2</v>
       </c>
       <c r="R21" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>4.2647058823529482E-2</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="23" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B22" s="23">
         <v>0.83599999999999997</v>
@@ -2308,7 +2553,7 @@
         <v>0.66100000000000003</v>
       </c>
       <c r="O22" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>4.0925266903914626E-2</v>
       </c>
       <c r="P22" s="3">
@@ -2316,17 +2561,17 @@
         <v>6.1224489795918435E-2</v>
       </c>
       <c r="Q22" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1.2048192771084376E-2</v>
       </c>
       <c r="R22" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>2.6729559748427723E-2</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="23" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B23" s="23">
         <v>0.82733692816658111</v>
@@ -2355,7 +2600,7 @@
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" s="23" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B24" s="23">
         <v>0.78083315175809631</v>
@@ -2382,25 +2627,25 @@
         <v>0.65100000000000002</v>
       </c>
       <c r="O24" s="3">
-        <f t="shared" ref="O24:R25" si="9">1-F22/F14</f>
+        <f t="shared" ref="O24:R25" si="14">1-F22/F14</f>
         <v>1.4778325123152691E-2</v>
       </c>
       <c r="P24" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>5.1460361613351768E-2</v>
       </c>
       <c r="Q24" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>2.1523178807947074E-2</v>
       </c>
       <c r="R24" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>4.8920863309352414E-2</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" s="23" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B25" s="23">
         <v>0.77561999999999998</v>
@@ -2427,19 +2672,19 @@
         <v>0.61899999999999999</v>
       </c>
       <c r="O25" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>2.27670753064797E-2</v>
       </c>
       <c r="P25" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>3.3536585365853688E-2</v>
       </c>
       <c r="Q25" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>2.0442930153321992E-2</v>
       </c>
       <c r="R25" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>4.2617960426179602E-2</v>
       </c>
     </row>
@@ -2472,25 +2717,25 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="O26" s="3">
-        <f t="shared" ref="O26:R27" si="10">1-F24/F14</f>
+        <f t="shared" ref="O26:R27" si="15">1-F24/F14</f>
         <v>6.075533661740562E-2</v>
       </c>
       <c r="P26" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>9.040333796940192E-2</v>
       </c>
       <c r="Q26" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>2.6490066225165587E-2</v>
       </c>
       <c r="R26" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>6.3309352517985529E-2</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" s="23" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B27" s="23">
         <v>5.0000000000000001E-3</v>
@@ -2517,19 +2762,19 @@
         <v>1.4E-2</v>
       </c>
       <c r="O27" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>5.6042031523642621E-2</v>
       </c>
       <c r="P27" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>8.8414634146341542E-2</v>
       </c>
       <c r="Q27" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>2.2146507666098825E-2</v>
       </c>
       <c r="R27" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>5.7838660578386603E-2</v>
       </c>
     </row>
@@ -2564,7 +2809,7 @@
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" s="23" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B29" s="23">
         <v>6.0000000000000001E-3</v>
@@ -2591,35 +2836,35 @@
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="K29" s="3">
-        <f t="shared" ref="K29:R29" si="11">B18-B19</f>
+        <f t="shared" ref="K29:R29" si="16">B18-B19</f>
         <v>1.5000000000000013E-2</v>
       </c>
       <c r="L29" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>2.1817194883859914E-2</v>
       </c>
       <c r="M29" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>2.8649860091599422E-2</v>
       </c>
       <c r="N29" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>4.1538323072277894E-2</v>
       </c>
       <c r="O29" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>5.3000000000000047E-2</v>
       </c>
       <c r="P29" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>5.799999999999994E-2</v>
       </c>
       <c r="Q29" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>2.4000000000000021E-2</v>
       </c>
       <c r="R29" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>4.599999999999993E-2</v>
       </c>
     </row>
@@ -2652,41 +2897,41 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="K30" s="3">
-        <f t="shared" ref="K30:R30" si="12">B30+B31</f>
+        <f t="shared" ref="K30:R30" si="17">B30+B31</f>
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="L30" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="M30" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="N30" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>2.3E-2</v>
       </c>
       <c r="O30" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>1.3000000000000001E-2</v>
       </c>
       <c r="P30" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>2.0999999999999998E-2</v>
       </c>
       <c r="Q30" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>1.3000000000000001E-2</v>
       </c>
       <c r="R30" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0.02</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" s="23" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B31" s="23">
         <v>5.0000000000000001E-3</v>
@@ -2742,41 +2987,41 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="K32" s="3">
-        <f t="shared" ref="K32:R32" si="13">B19-B20</f>
+        <f t="shared" ref="K32:R32" si="18">B19-B20</f>
         <v>4.8999999999999932E-2</v>
       </c>
       <c r="L32" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>1.0431909956780006E-2</v>
       </c>
       <c r="M32" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>5.5811661333835416E-2</v>
       </c>
       <c r="N32" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>7.9865898923988654E-2</v>
       </c>
       <c r="O32" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>-1.9000000000000017E-2</v>
       </c>
       <c r="P32" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>-2.4999999999999911E-2</v>
       </c>
       <c r="Q32" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>-1.0000000000000009E-2</v>
       </c>
       <c r="R32" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>-1.8000000000000016E-2</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" s="23" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B33" s="23">
         <v>4.0000000000000001E-3</v>
@@ -2803,41 +3048,41 @@
         <v>0.01</v>
       </c>
       <c r="K33" s="3">
-        <f t="shared" ref="K33:R33" si="14">B31+B32</f>
+        <f t="shared" ref="K33:R33" si="19">B31+B32</f>
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="L33" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>9.0000000000000011E-3</v>
       </c>
       <c r="M33" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="N33" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="O33" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.01</v>
       </c>
       <c r="P33" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="Q33" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="R33" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>1.8000000000000002E-2</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" s="23" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B34" s="23">
         <v>2E-3</v>
@@ -2866,7 +3111,7 @@
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" s="23" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B35" s="23">
         <v>3.0000000000000001E-3</v>
@@ -2893,41 +3138,41 @@
         <v>1.2E-2</v>
       </c>
       <c r="K35" s="3">
-        <f t="shared" ref="K35:R35" si="15">B20-B21</f>
+        <f t="shared" ref="K35:R35" si="20">B20-B21</f>
         <v>1.100000000000001E-2</v>
       </c>
       <c r="L35" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>1.3165989498982622E-2</v>
       </c>
       <c r="M35" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>2.2646377438985787E-2</v>
       </c>
       <c r="N35" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>2.43388777914193E-2</v>
       </c>
       <c r="O35" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>3.8999999999999924E-2</v>
       </c>
       <c r="P35" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>5.9999999999999942E-2</v>
       </c>
       <c r="Q35" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="R35" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>4.4000000000000039E-2</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" s="23" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B36" s="23">
         <v>1E-3</v>
@@ -2954,41 +3199,41 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="K36" s="3">
-        <f t="shared" ref="K36:R36" si="16">B32+B33</f>
+        <f t="shared" ref="K36:R36" si="21">B32+B33</f>
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="L36" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>0.01</v>
       </c>
       <c r="M36" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="N36" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>1.9E-2</v>
       </c>
       <c r="O36" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>9.0000000000000011E-3</v>
       </c>
       <c r="P36" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>1.9E-2</v>
       </c>
       <c r="Q36" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>9.0000000000000011E-3</v>
       </c>
       <c r="R36" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>1.6E-2</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37" s="23" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B37" s="23">
         <v>2E-3</v>
@@ -3026,35 +3271,35 @@
       <c r="H38" s="23"/>
       <c r="I38" s="23"/>
       <c r="K38" s="3">
-        <f t="shared" ref="K38:R38" si="17">B22-B23</f>
+        <f t="shared" ref="K38:R38" si="22">B22-B23</f>
         <v>8.6630718334188561E-3</v>
       </c>
       <c r="L38" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>1.6521245546485708E-2</v>
       </c>
       <c r="M38" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>1.5086417526821161E-2</v>
       </c>
       <c r="N38" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>2.0843411718824978E-2</v>
       </c>
       <c r="O38" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>4.1999999999999926E-2</v>
       </c>
       <c r="P38" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>4.8000000000000043E-2</v>
       </c>
       <c r="Q38" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>1.6000000000000014E-2</v>
       </c>
       <c r="R38" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>3.2000000000000028E-2</v>
       </c>
     </row>
@@ -3091,41 +3336,41 @@
         <v>1.0731901352426412</v>
       </c>
       <c r="K39" s="3">
-        <f t="shared" ref="K39:R39" si="18">B34+B35</f>
+        <f t="shared" ref="K39:R39" si="23">B34+B35</f>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="L39" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>9.0000000000000011E-3</v>
       </c>
       <c r="M39" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0.01</v>
       </c>
       <c r="N39" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="O39" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0.01</v>
       </c>
       <c r="P39" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="Q39" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>9.0000000000000011E-3</v>
       </c>
       <c r="R39" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" s="23" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B40" s="17">
         <v>1.0009999999999999</v>
@@ -3144,15 +3389,15 @@
         <v>1.0329670329670331</v>
       </c>
       <c r="G40" s="3">
-        <f t="shared" ref="G40:I40" si="19">C15/C40</f>
+        <f t="shared" ref="G40:I40" si="24">C15/C40</f>
         <v>1.0657655168785523</v>
       </c>
       <c r="H40" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>1.0353980801806892</v>
       </c>
       <c r="I40" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>1.0666025510174593</v>
       </c>
     </row>
@@ -3177,53 +3422,53 @@
         <v>1.0301460766494646</v>
       </c>
       <c r="G41" s="3">
-        <f t="shared" ref="G41:I41" si="20">C16/C41</f>
+        <f t="shared" ref="G41:I41" si="25">C16/C41</f>
         <v>1.0590935351188229</v>
       </c>
       <c r="H41" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>1.0237358101135192</v>
       </c>
       <c r="I41" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>1.0493635640413685</v>
       </c>
       <c r="K41" s="3">
-        <f t="shared" ref="K41:R41" si="21">B23-B24</f>
+        <f t="shared" ref="K41:R41" si="26">B23-B24</f>
         <v>4.6503776408484798E-2</v>
       </c>
       <c r="L41" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>9.9884028585773832E-3</v>
       </c>
       <c r="M41" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>4.1780880048518321E-2</v>
       </c>
       <c r="N41" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>5.9002642441707942E-2</v>
       </c>
       <c r="O41" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>-1.3999999999999901E-2</v>
       </c>
       <c r="P41" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="Q41" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>-1.3000000000000012E-2</v>
       </c>
       <c r="R41" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>-2.200000000000002E-2</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42" s="23" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B42" s="18">
         <v>1.177</v>
@@ -3242,47 +3487,47 @@
         <v>1.0114384748700174</v>
       </c>
       <c r="G42" s="3">
-        <f t="shared" ref="G42:I42" si="22">C17/C42</f>
+        <f t="shared" ref="G42:I42" si="27">C17/C42</f>
         <v>1.0314648334214702</v>
       </c>
       <c r="H42" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>1.0293204578882329</v>
       </c>
       <c r="I42" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>1.0536591154417247</v>
       </c>
       <c r="K42" s="3">
-        <f t="shared" ref="K42:R42" si="23">B35+B36</f>
+        <f t="shared" ref="K42:R42" si="28">B35+B36</f>
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="L42" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="M42" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="N42" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>1.2E-2</v>
       </c>
       <c r="O42" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="P42" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="Q42" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="R42" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>1.6E-2</v>
       </c>
     </row>
@@ -3307,21 +3552,21 @@
         <v>1.0580246913580247</v>
       </c>
       <c r="G43" s="3">
-        <f t="shared" ref="G43:I43" si="24">C18/C43</f>
+        <f t="shared" ref="G43:I43" si="29">C18/C43</f>
         <v>1.0808897876643073</v>
       </c>
       <c r="H43" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>1.0362776836689882</v>
       </c>
       <c r="I43" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>1.0786825251601098</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" s="23" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B44" s="17">
         <v>0.79800000000000004</v>
@@ -3336,7 +3581,7 @@
         <v>1.0649999999999999</v>
       </c>
       <c r="F44" s="3">
-        <f t="shared" ref="F44:F46" si="25">B19/B44</f>
+        <f t="shared" ref="F44:F46" si="30">B19/B44</f>
         <v>1.0551378446115287</v>
       </c>
       <c r="G44" s="3">
@@ -3344,43 +3589,43 @@
         <v>1.0696453576262921</v>
       </c>
       <c r="H44" s="3">
-        <f t="shared" ref="H44:H46" si="26">D19/D44</f>
+        <f t="shared" ref="H44:H46" si="31">D19/D44</f>
         <v>1.0367174854131376</v>
       </c>
       <c r="I44" s="3">
-        <f t="shared" ref="I44:I46" si="27">E19/E44</f>
+        <f t="shared" ref="I44:I46" si="32">E19/E44</f>
         <v>1.0680391332654668</v>
       </c>
       <c r="K44" s="3">
-        <f t="shared" ref="K44:R44" si="28">B24-B25</f>
+        <f t="shared" ref="K44:R44" si="33">B24-B25</f>
         <v>5.2131517580963349E-3</v>
       </c>
       <c r="L44" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>5.9903515949367714E-3</v>
       </c>
       <c r="M44" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>1.1165196207206574E-2</v>
       </c>
       <c r="N44" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>8.8259458394671642E-3</v>
       </c>
       <c r="O44" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>3.2999999999999918E-2</v>
       </c>
       <c r="P44" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>5.600000000000005E-2</v>
       </c>
       <c r="Q44" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>1.4000000000000012E-2</v>
       </c>
       <c r="R44" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>3.2000000000000028E-2</v>
       </c>
     </row>
@@ -3405,53 +3650,53 @@
         <v>1.0615796519410978</v>
       </c>
       <c r="G45" s="3">
-        <f t="shared" ref="G45:G46" si="29">C20/C45</f>
+        <f t="shared" ref="G45:G46" si="34">C20/C45</f>
         <v>1.0732410922974742</v>
       </c>
       <c r="H45" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>1.036937386285212</v>
       </c>
       <c r="I45" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>1.0682785636401348</v>
       </c>
       <c r="K45" s="3">
-        <f t="shared" ref="K45:R45" si="30">B36+B37</f>
+        <f t="shared" ref="K45:R45" si="35">B36+B37</f>
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="L45" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="M45" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="N45" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>9.0000000000000011E-3</v>
       </c>
       <c r="O45" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="P45" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>0.01</v>
       </c>
       <c r="Q45" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="R45" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>0.01</v>
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46" s="23" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B46" s="17">
         <v>0.73599999999999999</v>
@@ -3466,19 +3711,19 @@
         <v>0.96699999999999997</v>
       </c>
       <c r="F46" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>1.0625</v>
       </c>
       <c r="G46" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>1.0695767039293391</v>
       </c>
       <c r="H46" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>1.0371572871572872</v>
       </c>
       <c r="I46" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>1.0685179940148026</v>
       </c>
     </row>
@@ -3488,7 +3733,1045 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="3">
+        <f>C9</f>
+        <v>1.0441845518867925</v>
+      </c>
+      <c r="C1" s="3">
+        <f>E9</f>
+        <v>1.0278088183748311</v>
+      </c>
+      <c r="D1" s="3">
+        <f>G9</f>
+        <v>0.72670000000000001</v>
+      </c>
+      <c r="E1" s="3">
+        <f>I9</f>
+        <v>0.69879999999999998</v>
+      </c>
+      <c r="F1" t="str">
+        <f>A1</f>
+        <v>IP</v>
+      </c>
+      <c r="G1" s="3">
+        <f>B9</f>
+        <v>0.81248774694025805</v>
+      </c>
+      <c r="H1" s="3">
+        <f>D9</f>
+        <v>0.7835445223807268</v>
+      </c>
+      <c r="I1" s="3">
+        <f>F9</f>
+        <v>0.63227999999999995</v>
+      </c>
+      <c r="J1" s="3">
+        <f>H9</f>
+        <v>0.61116000000000004</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="3">
+        <f t="shared" ref="B2:B5" si="0">C10</f>
+        <v>1.0029852594339623</v>
+      </c>
+      <c r="C2" s="3">
+        <f t="shared" ref="C2:C5" si="1">E10</f>
+        <v>1.0060164910248985</v>
+      </c>
+      <c r="D2" s="3">
+        <f t="shared" ref="D2:D5" si="2">G10</f>
+        <v>0.66800000000000004</v>
+      </c>
+      <c r="E2" s="3">
+        <f t="shared" ref="E2:E5" si="3">I10</f>
+        <v>0.65500000000000003</v>
+      </c>
+      <c r="F2" t="str">
+        <f t="shared" ref="F2:F5" si="4">A2</f>
+        <v>LR</v>
+      </c>
+      <c r="G2" s="3">
+        <f t="shared" ref="G2:G5" si="5">B10</f>
+        <v>0.79124799940931523</v>
+      </c>
+      <c r="H2" s="3">
+        <f t="shared" ref="H2:H5" si="6">D10</f>
+        <v>0.7739549336737378</v>
+      </c>
+      <c r="I2" s="3">
+        <f t="shared" ref="I2:I5" si="7">F10</f>
+        <v>0.58879999999999999</v>
+      </c>
+      <c r="J2" s="3">
+        <f t="shared" ref="J2:J5" si="8">H10</f>
+        <v>0.58955999999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="3">
+        <f t="shared" si="0"/>
+        <v>0.98842537601234093</v>
+      </c>
+      <c r="C3" s="3">
+        <f t="shared" si="1"/>
+        <v>0.98066043219974175</v>
+      </c>
+      <c r="D3" s="3">
+        <f t="shared" si="2"/>
+        <v>0.63600000000000001</v>
+      </c>
+      <c r="E3" s="3">
+        <f t="shared" si="3"/>
+        <v>0.63339999999999996</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" si="4"/>
+        <v>NP-0</v>
+      </c>
+      <c r="G3" s="3">
+        <f t="shared" si="5"/>
+        <v>0.78242698291980028</v>
+      </c>
+      <c r="H3" s="3">
+        <f t="shared" si="6"/>
+        <v>0.76129449819981987</v>
+      </c>
+      <c r="I3" s="3">
+        <f t="shared" si="7"/>
+        <v>0.56191999999999998</v>
+      </c>
+      <c r="J3" s="3">
+        <f t="shared" si="8"/>
+        <v>0.57967999999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" s="3">
+        <f t="shared" si="0"/>
+        <v>0.97650000000000003</v>
+      </c>
+      <c r="C4" s="3">
+        <f t="shared" si="1"/>
+        <v>0.97332799999999997</v>
+      </c>
+      <c r="D4" s="3">
+        <f t="shared" si="2"/>
+        <v>0.59799999999999998</v>
+      </c>
+      <c r="E4" s="3">
+        <f t="shared" si="3"/>
+        <v>0.61899999999999999</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="4"/>
+        <v>NP-1</v>
+      </c>
+      <c r="G4" s="3">
+        <f t="shared" si="5"/>
+        <v>0.77561999999999998</v>
+      </c>
+      <c r="H4" s="3">
+        <f t="shared" si="6"/>
+        <v>0.75900000000000001</v>
+      </c>
+      <c r="I4" s="3">
+        <f t="shared" si="7"/>
+        <v>0.53900000000000003</v>
+      </c>
+      <c r="J4" s="3">
+        <f t="shared" si="8"/>
+        <v>0.57399999999999995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" s="3">
+        <f t="shared" si="0"/>
+        <v>0.99645931353644435</v>
+      </c>
+      <c r="C5" s="3">
+        <f t="shared" si="1"/>
+        <v>0.99040209212225561</v>
+      </c>
+      <c r="D5" s="3">
+        <f t="shared" si="2"/>
+        <v>0.65200000000000002</v>
+      </c>
+      <c r="E5" s="3">
+        <f t="shared" si="3"/>
+        <v>0.64660000000000006</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="4"/>
+        <v>NP-2</v>
+      </c>
+      <c r="G5" s="3">
+        <f t="shared" si="5"/>
+        <v>0.78397170455572307</v>
+      </c>
+      <c r="H5" s="3">
+        <f t="shared" si="6"/>
+        <v>0.76339862736273623</v>
+      </c>
+      <c r="I5" s="3">
+        <f t="shared" si="7"/>
+        <v>0.57031999999999994</v>
+      </c>
+      <c r="J5" s="3">
+        <f t="shared" si="8"/>
+        <v>0.58487999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="2"/>
+      <c r="B7" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="26"/>
+      <c r="F7" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="26"/>
+      <c r="J7" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="M7" s="27"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
+      <c r="B8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B9" s="4">
+        <f>C9*B23</f>
+        <v>0.81248774694025805</v>
+      </c>
+      <c r="C9" s="4">
+        <f>C16+C18*C21</f>
+        <v>1.0441845518867925</v>
+      </c>
+      <c r="D9" s="4">
+        <f>E9*D24</f>
+        <v>0.7835445223807268</v>
+      </c>
+      <c r="E9" s="4">
+        <f>E16-E18*E21</f>
+        <v>1.0278088183748311</v>
+      </c>
+      <c r="F9" s="26">
+        <f>F15-0.8*(F15-F16)/10</f>
+        <v>0.63227999999999995</v>
+      </c>
+      <c r="G9" s="26">
+        <f>G15-1*(G15-G16)/10</f>
+        <v>0.72670000000000001</v>
+      </c>
+      <c r="H9" s="26">
+        <f>H15-1.6*(H15-H16)/10</f>
+        <v>0.61116000000000004</v>
+      </c>
+      <c r="I9" s="26">
+        <f>I15-2*(I15-I16)/10</f>
+        <v>0.69879999999999998</v>
+      </c>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" s="4">
+        <f>C10*B27</f>
+        <v>0.79124799940931523</v>
+      </c>
+      <c r="C10" s="4">
+        <f>C16-C19*C21</f>
+        <v>1.0029852594339623</v>
+      </c>
+      <c r="D10" s="4">
+        <f>E10*D26</f>
+        <v>0.7739549336737378</v>
+      </c>
+      <c r="E10" s="4">
+        <f>E9-E19*E21</f>
+        <v>1.0060164910248985</v>
+      </c>
+      <c r="F10" s="26">
+        <f>F17-4*(F17-F18)/10</f>
+        <v>0.58879999999999999</v>
+      </c>
+      <c r="G10" s="26">
+        <f>G17-5*(G17-G18)/10</f>
+        <v>0.66800000000000004</v>
+      </c>
+      <c r="H10" s="26">
+        <f>H17-4.8*(H17-H18)/10</f>
+        <v>0.58955999999999997</v>
+      </c>
+      <c r="I10" s="26">
+        <f>I17-6*(I17-I18)/10</f>
+        <v>0.65500000000000003</v>
+      </c>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" s="4">
+        <f>C11*B28</f>
+        <v>0.78242698291980028</v>
+      </c>
+      <c r="C11" s="4">
+        <f>C12*J16</f>
+        <v>0.98842537601234093</v>
+      </c>
+      <c r="D11" s="4">
+        <f>E11*D28</f>
+        <v>0.76129449819981987</v>
+      </c>
+      <c r="E11" s="4">
+        <f>L16*E12</f>
+        <v>0.98066043219974175</v>
+      </c>
+      <c r="F11" s="26">
+        <f>F18-7.2*(F18-F19)/10</f>
+        <v>0.56191999999999998</v>
+      </c>
+      <c r="G11" s="26">
+        <f>G18-9*(G18-G19)/10</f>
+        <v>0.63600000000000001</v>
+      </c>
+      <c r="H11" s="26">
+        <f>H18-6.4*(H18-H19)/10</f>
+        <v>0.57967999999999997</v>
+      </c>
+      <c r="I11" s="26">
+        <f>I18-8*(I18-I19)/10</f>
+        <v>0.63339999999999996</v>
+      </c>
+      <c r="J11" s="2">
+        <f>AVERAGE(K11,M11)</f>
+        <v>0.39369999999999999</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0.31929999999999997</v>
+      </c>
+      <c r="L11" s="4">
+        <f>M11</f>
+        <v>0.46810000000000002</v>
+      </c>
+      <c r="M11" s="2">
+        <v>0.46810000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" s="15">
+        <f>overall!B25</f>
+        <v>0.77561999999999998</v>
+      </c>
+      <c r="C12" s="26">
+        <f>overall!C25</f>
+        <v>0.97650000000000003</v>
+      </c>
+      <c r="D12" s="26">
+        <f>overall!D25</f>
+        <v>0.75900000000000001</v>
+      </c>
+      <c r="E12" s="26">
+        <f>overall!E25</f>
+        <v>0.97332799999999997</v>
+      </c>
+      <c r="F12" s="26">
+        <f>overall!F25</f>
+        <v>0.53900000000000003</v>
+      </c>
+      <c r="G12" s="26">
+        <f>overall!G25</f>
+        <v>0.59799999999999998</v>
+      </c>
+      <c r="H12" s="26">
+        <f>overall!H25</f>
+        <v>0.57399999999999995</v>
+      </c>
+      <c r="I12" s="26">
+        <f>overall!I25</f>
+        <v>0.61899999999999999</v>
+      </c>
+      <c r="J12" s="22">
+        <f t="shared" ref="J12:J15" si="9">AVERAGE(K12,M12)</f>
+        <v>0.38895000000000002</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0.31330000000000002</v>
+      </c>
+      <c r="L12" s="21">
+        <f t="shared" ref="L12:L15" si="10">M12</f>
+        <v>0.46460000000000001</v>
+      </c>
+      <c r="M12" s="4">
+        <v>0.46460000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="27"/>
+      <c r="B13" s="26">
+        <f>B15</f>
+        <v>0.78397170455572307</v>
+      </c>
+      <c r="C13" s="26">
+        <f>AVERAGE(C14:C15)</f>
+        <v>0.99645931353644435</v>
+      </c>
+      <c r="D13" s="26">
+        <f>2*D15-D14</f>
+        <v>0.76339862736273623</v>
+      </c>
+      <c r="E13" s="26">
+        <f>AVERAGE(E14:E15)</f>
+        <v>0.99040209212225561</v>
+      </c>
+      <c r="F13" s="26">
+        <f>F18-1.2*(F18-F19)/10</f>
+        <v>0.57031999999999994</v>
+      </c>
+      <c r="G13" s="26">
+        <f>G18-1*(G18-G19)/10</f>
+        <v>0.65200000000000002</v>
+      </c>
+      <c r="H13" s="26">
+        <f>H18-2.4*(H18-H19)/10</f>
+        <v>0.58487999999999996</v>
+      </c>
+      <c r="I13" s="26">
+        <f>I18-2*(I18-I19)/10</f>
+        <v>0.64660000000000006</v>
+      </c>
+      <c r="J13" s="22">
+        <f>AVERAGE(K13,M13)</f>
+        <v>0.39524999999999999</v>
+      </c>
+      <c r="K13" s="2">
+        <v>0.32019999999999998</v>
+      </c>
+      <c r="L13" s="21">
+        <f>M13</f>
+        <v>0.4703</v>
+      </c>
+      <c r="M13" s="4">
+        <v>0.4703</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B14" s="4">
+        <f>C14*B26</f>
+        <v>0.78015607273056098</v>
+      </c>
+      <c r="C14" s="4">
+        <f>C12*J18</f>
+        <v>0.99231681450057851</v>
+      </c>
+      <c r="D14" s="4">
+        <f>E14*D27</f>
+        <v>0.76143305580558041</v>
+      </c>
+      <c r="E14" s="4">
+        <f>E12*L18</f>
+        <v>0.98526938958243648</v>
+      </c>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="22">
+        <f>AVERAGE(K14,M14)</f>
+        <v>0.39855000000000002</v>
+      </c>
+      <c r="K14" s="2">
+        <v>0.32190000000000002</v>
+      </c>
+      <c r="L14" s="21">
+        <f>M14</f>
+        <v>0.47520000000000001</v>
+      </c>
+      <c r="M14" s="4">
+        <v>0.47520000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B15" s="4">
+        <f>C15*B25</f>
+        <v>0.78397170455572307</v>
+      </c>
+      <c r="C15" s="4">
+        <f>C12*J19</f>
+        <v>1.0006018125723102</v>
+      </c>
+      <c r="D15" s="4">
+        <f>E15*D25</f>
+        <v>0.76241584158415832</v>
+      </c>
+      <c r="E15" s="4">
+        <f>E12*L19</f>
+        <v>0.99553479466207484</v>
+      </c>
+      <c r="F15" s="26">
+        <f>overall!F18</f>
+        <v>0.63500000000000001</v>
+      </c>
+      <c r="G15" s="27">
+        <f>overall!G18</f>
+        <v>0.73</v>
+      </c>
+      <c r="H15" s="27">
+        <f>overall!H18</f>
+        <v>0.61499999999999999</v>
+      </c>
+      <c r="I15" s="27">
+        <f>overall!I18</f>
+        <v>0.70799999999999996</v>
+      </c>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="str">
+        <f>'mar-n'!A10</f>
+        <v>NF-DR</v>
+      </c>
+      <c r="B16" s="16">
+        <f>'mar-n'!B10</f>
+        <v>0.78663286004056798</v>
+      </c>
+      <c r="C16" s="16">
+        <f>'mar-n'!C10</f>
+        <v>1.0235849056603774</v>
+      </c>
+      <c r="D16" s="16">
+        <f>'mar-n'!D10</f>
+        <v>0.78409090909090917</v>
+      </c>
+      <c r="E16" s="16">
+        <f>'mar-n'!E10</f>
+        <v>1.0332569002123142</v>
+      </c>
+      <c r="F16" s="27">
+        <f>overall!F20</f>
+        <v>0.60099999999999998</v>
+      </c>
+      <c r="G16" s="27">
+        <f>overall!G20</f>
+        <v>0.69699999999999995</v>
+      </c>
+      <c r="H16" s="27">
+        <f>overall!H19</f>
+        <v>0.59099999999999997</v>
+      </c>
+      <c r="I16" s="27">
+        <f>overall!I19</f>
+        <v>0.66200000000000003</v>
+      </c>
+      <c r="J16" s="2">
+        <f>J11/K16</f>
+        <v>1.0122123666281013</v>
+      </c>
+      <c r="K16" s="2">
+        <f>MIN(J11:J14)</f>
+        <v>0.38895000000000002</v>
+      </c>
+      <c r="L16" s="4">
+        <f>L11/M16</f>
+        <v>1.0075333620318554</v>
+      </c>
+      <c r="M16" s="4">
+        <f>MIN(L11:L14)</f>
+        <v>0.46460000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2">
+        <f>B16-B12</f>
+        <v>1.1012860040568007E-2</v>
+      </c>
+      <c r="C17" s="2">
+        <f>C16-C12</f>
+        <v>4.7084905660377374E-2</v>
+      </c>
+      <c r="D17" s="2">
+        <f>D16-D12</f>
+        <v>2.5090909090909164E-2</v>
+      </c>
+      <c r="E17" s="2">
+        <f>E16-E12</f>
+        <v>5.9928900212314229E-2</v>
+      </c>
+      <c r="F17" s="27">
+        <f>overall!F22</f>
+        <v>0.6</v>
+      </c>
+      <c r="G17" s="27">
+        <f>overall!G22</f>
+        <v>0.68200000000000005</v>
+      </c>
+      <c r="H17" s="27">
+        <f>overall!H22</f>
+        <v>0.59099999999999997</v>
+      </c>
+      <c r="I17" s="27">
+        <f>overall!I22</f>
+        <v>0.66100000000000003</v>
+      </c>
+      <c r="J17" s="2">
+        <f>J12/K17</f>
+        <v>1</v>
+      </c>
+      <c r="K17" s="2">
+        <f>K16</f>
+        <v>0.38895000000000002</v>
+      </c>
+      <c r="L17" s="4">
+        <f>L12/M17</f>
+        <v>1</v>
+      </c>
+      <c r="M17" s="4">
+        <f>M16</f>
+        <v>0.46460000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2">
+        <v>7</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2">
+        <v>1</v>
+      </c>
+      <c r="F18" s="27">
+        <f>overall!F24</f>
+        <v>0.57199999999999995</v>
+      </c>
+      <c r="G18" s="27">
+        <f>overall!G24</f>
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="H18" s="27">
+        <f>overall!H24</f>
+        <v>0.58799999999999997</v>
+      </c>
+      <c r="I18" s="27">
+        <f>overall!I24</f>
+        <v>0.65100000000000002</v>
+      </c>
+      <c r="J18" s="2">
+        <f>J13/K18</f>
+        <v>1.0161974546856922</v>
+      </c>
+      <c r="K18" s="2">
+        <f>K17</f>
+        <v>0.38895000000000002</v>
+      </c>
+      <c r="L18" s="4">
+        <f>L13/M18</f>
+        <v>1.0122686181661644</v>
+      </c>
+      <c r="M18" s="4">
+        <f>M17</f>
+        <v>0.46460000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2">
+        <v>7</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2">
+        <v>4</v>
+      </c>
+      <c r="F19" s="27">
+        <f>overall!F23</f>
+        <v>0.55800000000000005</v>
+      </c>
+      <c r="G19" s="27">
+        <f>overall!G23</f>
+        <v>0.63400000000000001</v>
+      </c>
+      <c r="H19" s="27">
+        <f>overall!H23</f>
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="I19" s="27">
+        <f>overall!I23</f>
+        <v>0.629</v>
+      </c>
+      <c r="J19" s="2">
+        <f>J14/K19</f>
+        <v>1.024681835711531</v>
+      </c>
+      <c r="K19" s="2">
+        <f>K18</f>
+        <v>0.38895000000000002</v>
+      </c>
+      <c r="L19" s="4">
+        <f>L14/M19</f>
+        <v>1.0228153250107619</v>
+      </c>
+      <c r="M19" s="4">
+        <f>M18</f>
+        <v>0.46460000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2">
+        <v>9</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2">
+        <v>6</v>
+      </c>
+      <c r="F20" s="27"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2">
+        <f>C17/SUM(C19:C20)</f>
+        <v>2.9428066037735859E-3</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2">
+        <f>E17/SUM(E18:E20)</f>
+        <v>5.448081837483112E-3</v>
+      </c>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2">
+        <f>C10-C20*C21</f>
+        <v>0.97650000000000003</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2">
+        <f>E10-E20*E21</f>
+        <v>0.97332799999999986</v>
+      </c>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <f>B24-C24</f>
+        <v>0.77810741929875404</v>
+      </c>
+      <c r="D23" s="7">
+        <f>D16/E16*1</f>
+        <v>0.75885378450392516</v>
+      </c>
+      <c r="E23" s="2">
+        <f>(D30-D23)/(A30-A23)</f>
+        <v>3.4908348190201646E-3</v>
+      </c>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
+        <v>1</v>
+      </c>
+      <c r="B24" s="7">
+        <f>B16/C16*1.016</f>
+        <v>0.78080380179658071</v>
+      </c>
+      <c r="C24">
+        <f>(B30-B24)/(A30-A24)</f>
+        <v>2.6963824978267102E-3</v>
+      </c>
+      <c r="D24">
+        <f>D23+E23</f>
+        <v>0.76234461932294528</v>
+      </c>
+      <c r="E24" s="2">
+        <f>E23</f>
+        <v>3.4908348190201646E-3</v>
+      </c>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
+        <v>2</v>
+      </c>
+      <c r="B25">
+        <f>B24+C24</f>
+        <v>0.78350018429440738</v>
+      </c>
+      <c r="C25">
+        <f>C24</f>
+        <v>2.6963824978267102E-3</v>
+      </c>
+      <c r="D25">
+        <f t="shared" ref="D25:D28" si="11">D24+E24</f>
+        <v>0.76583545414196541</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" ref="E25:E29" si="12">E24</f>
+        <v>3.4908348190201646E-3</v>
+      </c>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
+        <v>3</v>
+      </c>
+      <c r="B26">
+        <f t="shared" ref="B26:B29" si="13">B25+C25</f>
+        <v>0.78619656679223404</v>
+      </c>
+      <c r="C26">
+        <f t="shared" ref="C26:C29" si="14">C25</f>
+        <v>2.6963824978267102E-3</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="11"/>
+        <v>0.76932628896098554</v>
+      </c>
+      <c r="E26" s="2">
+        <f t="shared" si="12"/>
+        <v>3.4908348190201646E-3</v>
+      </c>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
+        <v>4</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="13"/>
+        <v>0.78889294929006071</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="14"/>
+        <v>2.6963824978267102E-3</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="11"/>
+        <v>0.77281712378000567</v>
+      </c>
+      <c r="E27" s="2">
+        <f t="shared" si="12"/>
+        <v>3.4908348190201646E-3</v>
+      </c>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
+        <v>5</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="13"/>
+        <v>0.79158933178788737</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="14"/>
+        <v>2.6963824978267102E-3</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="11"/>
+        <v>0.77630795859902579</v>
+      </c>
+      <c r="E28" s="2">
+        <f t="shared" si="12"/>
+        <v>3.4908348190201646E-3</v>
+      </c>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
+        <v>6</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="13"/>
+        <v>0.79428571428571404</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="14"/>
+        <v>2.6963824978267102E-3</v>
+      </c>
+      <c r="D29">
+        <f>D28+E28</f>
+        <v>0.77979879341804592</v>
+      </c>
+      <c r="E29" s="2">
+        <f t="shared" si="12"/>
+        <v>3.4908348190201646E-3</v>
+      </c>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30" s="2">
+        <v>6</v>
+      </c>
+      <c r="B30">
+        <f>B12/C12</f>
+        <v>0.79428571428571426</v>
+      </c>
+      <c r="D30">
+        <f>D12/E12</f>
+        <v>0.77979879341804614</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
@@ -4032,8 +5315,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
@@ -4044,22 +5327,22 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" t="s">
         <v>68</v>
       </c>
-      <c r="B1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C1" t="s">
-        <v>74</v>
-      </c>
       <c r="E1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="G1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -4560,8 +5843,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
@@ -4683,7 +5966,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B4" s="17">
         <f>F4*J4</f>
@@ -4855,7 +6138,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="17" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B8" s="17">
         <f>F8*J8</f>
@@ -4953,7 +6236,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B10" s="17">
         <f>B14/B18</f>
@@ -5031,7 +6314,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="17" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B12" s="17">
         <f>B8*B16</f>
@@ -5089,7 +6372,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B14" s="18">
         <v>0.77561999999999998</v>
@@ -5235,12 +6518,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O37"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="F1" sqref="F1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5250,22 +6533,22 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B1" s="14" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="K1" s="14" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="M1" s="14" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -5356,7 +6639,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B4" s="13">
         <f>K14*B3</f>
@@ -5537,7 +6820,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B8" s="13">
         <f>B4*K7</f>
@@ -5585,15 +6868,15 @@
       <c r="H9" s="13"/>
       <c r="I9" s="13"/>
       <c r="K9" s="14" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="M9" s="14" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B10" s="13">
         <f>B4*K16</f>
@@ -5666,7 +6949,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B12" s="13">
         <f t="shared" si="2"/>
@@ -5747,7 +7030,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B14" s="13">
         <f>K21</f>
@@ -5903,10 +7186,10 @@
         <v>0.95967215013839879</v>
       </c>
       <c r="K18" s="14" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="M18" s="14" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
@@ -5968,7 +7251,7 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="J21" s="14" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="K21">
         <v>0.53900000000000003</v>
@@ -6005,22 +7288,22 @@
       <c r="A24" s="13"/>
       <c r="B24" s="13"/>
       <c r="C24" s="13" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D24" s="13"/>
       <c r="E24" s="13"/>
       <c r="F24" s="13" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G24" s="13"/>
       <c r="H24" s="13"/>
       <c r="I24" s="13" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="J24" s="13"/>
       <c r="K24" s="13"/>
       <c r="L24" s="13" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="M24" s="13"/>
       <c r="N24" s="13"/>
@@ -6067,7 +7350,7 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="13" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B26" s="13" t="s">
         <v>0</v>
@@ -6117,7 +7400,7 @@
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="13"/>
       <c r="B27" s="13" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C27" s="13">
         <v>0.82599999999999996</v>
@@ -6164,7 +7447,7 @@
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="13"/>
       <c r="B28" s="13" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C28" s="13">
         <v>0.64500000000000002</v>
@@ -6210,7 +7493,7 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="13" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B29" s="13" t="s">
         <v>0</v>
@@ -6306,7 +7589,7 @@
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="13"/>
       <c r="B31" s="13" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C31" s="13">
         <v>0.80100000000000005</v>
@@ -6376,7 +7659,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="14" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B35" s="10">
         <v>0.33850000000000002</v>
@@ -6393,7 +7676,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="14" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B36" s="10">
         <v>0.3095</v>
@@ -6431,8 +7714,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
@@ -6463,14 +7746,14 @@
         <v>7</v>
       </c>
       <c r="J1" s="12"/>
-      <c r="K1" s="26" t="s">
+      <c r="K1" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26" t="s">
+      <c r="L1" s="28"/>
+      <c r="M1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="26"/>
+      <c r="N1" s="28"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
@@ -6581,7 +7864,7 @@
         <v>1.093</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="G4" s="4">
         <f>G3*G15*G21</f>
@@ -6652,7 +7935,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B6" s="4">
         <v>1.0009999999999999</v>
@@ -6700,7 +7983,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B7" s="4">
         <v>0.79800000000000004</v>
@@ -6752,7 +8035,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B8" s="4">
         <v>0.73599999999999999</v>
@@ -6767,7 +8050,7 @@
         <v>0.96699999999999997</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="G8" s="4">
         <f>G4*G19*G21</f>
@@ -6855,7 +8138,7 @@
         <v>0.90576395242451968</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="G10" s="4">
         <f>G14/K14</f>
@@ -6880,7 +8163,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B11" s="4">
         <f t="shared" ref="B11:E12" si="5">B7/B6</f>
@@ -6936,7 +8219,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B12" s="4">
         <f t="shared" si="5"/>
@@ -6955,7 +8238,7 @@
         <v>0.90798122065727704</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="G12" s="4">
         <f t="shared" ref="G12:G13" si="7">G8*K12</f>
@@ -7059,7 +8342,7 @@
         <v>0.87858271886143968</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G14" s="4">
         <f>'mar-o'!K21</f>
@@ -7524,603 +8807,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:I23"/>
-  <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="2"/>
-      <c r="B1" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="26"/>
-      <c r="F1" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="27"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="4">
-        <f>C3*B16</f>
-        <v>0.81248774694025805</v>
-      </c>
-      <c r="C3" s="4">
-        <f>C9+C11*C14</f>
-        <v>1.0441845518867925</v>
-      </c>
-      <c r="D3" s="4">
-        <f>E3*D17</f>
-        <v>0.7835445223807268</v>
-      </c>
-      <c r="E3" s="4">
-        <f>E9-E11*E14</f>
-        <v>1.0278088183748311</v>
-      </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="4">
-        <f>C4*B20</f>
-        <v>0.79124799940931523</v>
-      </c>
-      <c r="C4" s="4">
-        <f>C9-C12*C14</f>
-        <v>1.0029852594339623</v>
-      </c>
-      <c r="D4" s="4">
-        <f>E4*D19</f>
-        <v>0.7739549336737378</v>
-      </c>
-      <c r="E4" s="4">
-        <f>E3-E12*E14</f>
-        <v>1.0060164910248985</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="4">
-        <f>C5*B21</f>
-        <v>0.78242698291980028</v>
-      </c>
-      <c r="C5" s="4">
-        <f>C6*F10</f>
-        <v>0.98842537601234093</v>
-      </c>
-      <c r="D5" s="4">
-        <f>E5*D21</f>
-        <v>0.76129449819981987</v>
-      </c>
-      <c r="E5" s="4">
-        <f>H10*E6</f>
-        <v>0.98066043219974175</v>
-      </c>
-      <c r="F5" s="2">
-        <f>AVERAGE(G5,I5)</f>
-        <v>0.39369999999999999</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0.31929999999999997</v>
-      </c>
-      <c r="H5" s="4">
-        <f>I5</f>
-        <v>0.46810000000000002</v>
-      </c>
-      <c r="I5" s="2">
-        <v>0.46810000000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="15">
-        <f>'mar-n'!B14</f>
-        <v>0.77561999999999998</v>
-      </c>
-      <c r="C6" s="15">
-        <f>'mar-n'!C14</f>
-        <v>0.97650000000000003</v>
-      </c>
-      <c r="D6" s="15">
-        <f>'mar-n'!D14</f>
-        <v>0.75900000000000001</v>
-      </c>
-      <c r="E6" s="15">
-        <f>'mar-n'!E14</f>
-        <v>0.97332799999999997</v>
-      </c>
-      <c r="F6" s="22">
-        <f t="shared" ref="F6:F8" si="0">AVERAGE(G6,I6)</f>
-        <v>0.38895000000000002</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0.31330000000000002</v>
-      </c>
-      <c r="H6" s="21">
-        <f t="shared" ref="H6:H8" si="1">I6</f>
-        <v>0.46460000000000001</v>
-      </c>
-      <c r="I6" s="4">
-        <v>0.46460000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="4">
-        <f>C7*B19</f>
-        <v>0.78015607273056098</v>
-      </c>
-      <c r="C7" s="4">
-        <f>C6*F12</f>
-        <v>0.99231681450057851</v>
-      </c>
-      <c r="D7" s="4">
-        <f>E7*D20</f>
-        <v>0.76143305580558041</v>
-      </c>
-      <c r="E7" s="4">
-        <f>E6*H12</f>
-        <v>0.98526938958243648</v>
-      </c>
-      <c r="F7" s="22">
-        <f t="shared" si="0"/>
-        <v>0.39524999999999999</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0.32019999999999998</v>
-      </c>
-      <c r="H7" s="21">
-        <f t="shared" si="1"/>
-        <v>0.4703</v>
-      </c>
-      <c r="I7" s="4">
-        <v>0.4703</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="4">
-        <f>C8*B18</f>
-        <v>0.78397170455572307</v>
-      </c>
-      <c r="C8" s="4">
-        <f>C6*F13</f>
-        <v>1.0006018125723102</v>
-      </c>
-      <c r="D8" s="4">
-        <f>E8*D18</f>
-        <v>0.76241584158415832</v>
-      </c>
-      <c r="E8" s="4">
-        <f>E6*H13</f>
-        <v>0.99553479466207484</v>
-      </c>
-      <c r="F8" s="22">
-        <f t="shared" si="0"/>
-        <v>0.39855000000000002</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0.32190000000000002</v>
-      </c>
-      <c r="H8" s="21">
-        <f t="shared" si="1"/>
-        <v>0.47520000000000001</v>
-      </c>
-      <c r="I8" s="4">
-        <v>0.47520000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="str">
-        <f>'mar-n'!A10</f>
-        <v>NF-DR</v>
-      </c>
-      <c r="B9" s="16">
-        <f>'mar-n'!B10</f>
-        <v>0.78663286004056798</v>
-      </c>
-      <c r="C9" s="16">
-        <f>'mar-n'!C10</f>
-        <v>1.0235849056603774</v>
-      </c>
-      <c r="D9" s="16">
-        <f>'mar-n'!D10</f>
-        <v>0.78409090909090917</v>
-      </c>
-      <c r="E9" s="16">
-        <f>'mar-n'!E10</f>
-        <v>1.0332569002123142</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2">
-        <f>B9-B6</f>
-        <v>1.1012860040568007E-2</v>
-      </c>
-      <c r="C10" s="2">
-        <f>C9-C6</f>
-        <v>4.7084905660377374E-2</v>
-      </c>
-      <c r="D10" s="2">
-        <f>D9-D6</f>
-        <v>2.5090909090909164E-2</v>
-      </c>
-      <c r="E10" s="2">
-        <f>E9-E6</f>
-        <v>5.9928900212314229E-2</v>
-      </c>
-      <c r="F10" s="2">
-        <f>F5/G10</f>
-        <v>1.0122123666281013</v>
-      </c>
-      <c r="G10" s="2">
-        <f>MIN(F5:F8)</f>
-        <v>0.38895000000000002</v>
-      </c>
-      <c r="H10" s="4">
-        <f>H5/I10</f>
-        <v>1.0075333620318554</v>
-      </c>
-      <c r="I10" s="4">
-        <f>MIN(H5:H8)</f>
-        <v>0.46460000000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2">
-        <v>7</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2">
-        <v>1</v>
-      </c>
-      <c r="F11" s="2">
-        <f>F6/G11</f>
-        <v>1</v>
-      </c>
-      <c r="G11" s="2">
-        <f>G10</f>
-        <v>0.38895000000000002</v>
-      </c>
-      <c r="H11" s="4">
-        <f>H6/I11</f>
-        <v>1</v>
-      </c>
-      <c r="I11" s="4">
-        <f>I10</f>
-        <v>0.46460000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2">
-        <v>7</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2">
-        <v>4</v>
-      </c>
-      <c r="F12" s="2">
-        <f>F7/G12</f>
-        <v>1.0161974546856922</v>
-      </c>
-      <c r="G12" s="2">
-        <f>G11</f>
-        <v>0.38895000000000002</v>
-      </c>
-      <c r="H12" s="4">
-        <f>H7/I12</f>
-        <v>1.0122686181661644</v>
-      </c>
-      <c r="I12" s="4">
-        <f>I11</f>
-        <v>0.46460000000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2">
-        <v>9</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2">
-        <v>6</v>
-      </c>
-      <c r="F13" s="2">
-        <f>F8/G13</f>
-        <v>1.024681835711531</v>
-      </c>
-      <c r="G13" s="2">
-        <f>G12</f>
-        <v>0.38895000000000002</v>
-      </c>
-      <c r="H13" s="4">
-        <f>H8/I13</f>
-        <v>1.0228153250107619</v>
-      </c>
-      <c r="I13" s="4">
-        <f>I12</f>
-        <v>0.46460000000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2">
-        <f>C10/SUM(C12:C13)</f>
-        <v>2.9428066037735859E-3</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2">
-        <f>E10/SUM(E11:E13)</f>
-        <v>5.448081837483112E-3</v>
-      </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2">
-        <f>C4-C13*C14</f>
-        <v>0.97650000000000003</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2">
-        <f>E4-E13*E14</f>
-        <v>0.97332799999999986</v>
-      </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
-        <v>0</v>
-      </c>
-      <c r="B16">
-        <f>B17-C17</f>
-        <v>0.77810741929875404</v>
-      </c>
-      <c r="D16" s="7">
-        <f>D9/E9*1</f>
-        <v>0.75885378450392516</v>
-      </c>
-      <c r="E16" s="2">
-        <f>(D23-D16)/(A23-A16)</f>
-        <v>3.4908348190201646E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
-        <v>1</v>
-      </c>
-      <c r="B17" s="7">
-        <f>B9/C9*1.016</f>
-        <v>0.78080380179658071</v>
-      </c>
-      <c r="C17">
-        <f>(B23-B17)/(A23-A17)</f>
-        <v>2.6963824978267102E-3</v>
-      </c>
-      <c r="D17">
-        <f>D16+E16</f>
-        <v>0.76234461932294528</v>
-      </c>
-      <c r="E17" s="2">
-        <f>E16</f>
-        <v>3.4908348190201646E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
-        <v>2</v>
-      </c>
-      <c r="B18">
-        <f>B17+C17</f>
-        <v>0.78350018429440738</v>
-      </c>
-      <c r="C18">
-        <f>C17</f>
-        <v>2.6963824978267102E-3</v>
-      </c>
-      <c r="D18">
-        <f t="shared" ref="D18:D21" si="2">D17+E17</f>
-        <v>0.76583545414196541</v>
-      </c>
-      <c r="E18" s="2">
-        <f t="shared" ref="E18:E22" si="3">E17</f>
-        <v>3.4908348190201646E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="2">
-        <v>3</v>
-      </c>
-      <c r="B19">
-        <f t="shared" ref="B19:B22" si="4">B18+C18</f>
-        <v>0.78619656679223404</v>
-      </c>
-      <c r="C19">
-        <f t="shared" ref="C19:C22" si="5">C18</f>
-        <v>2.6963824978267102E-3</v>
-      </c>
-      <c r="D19">
-        <f t="shared" si="2"/>
-        <v>0.76932628896098554</v>
-      </c>
-      <c r="E19" s="2">
-        <f t="shared" si="3"/>
-        <v>3.4908348190201646E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="2">
-        <v>4</v>
-      </c>
-      <c r="B20">
-        <f t="shared" si="4"/>
-        <v>0.78889294929006071</v>
-      </c>
-      <c r="C20">
-        <f t="shared" si="5"/>
-        <v>2.6963824978267102E-3</v>
-      </c>
-      <c r="D20">
-        <f t="shared" si="2"/>
-        <v>0.77281712378000567</v>
-      </c>
-      <c r="E20" s="2">
-        <f t="shared" si="3"/>
-        <v>3.4908348190201646E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="2">
-        <v>5</v>
-      </c>
-      <c r="B21">
-        <f t="shared" si="4"/>
-        <v>0.79158933178788737</v>
-      </c>
-      <c r="C21">
-        <f t="shared" si="5"/>
-        <v>2.6963824978267102E-3</v>
-      </c>
-      <c r="D21">
-        <f t="shared" si="2"/>
-        <v>0.77630795859902579</v>
-      </c>
-      <c r="E21" s="2">
-        <f t="shared" si="3"/>
-        <v>3.4908348190201646E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="2">
-        <v>6</v>
-      </c>
-      <c r="B22">
-        <f t="shared" si="4"/>
-        <v>0.79428571428571404</v>
-      </c>
-      <c r="C22">
-        <f t="shared" si="5"/>
-        <v>2.6963824978267102E-3</v>
-      </c>
-      <c r="D22">
-        <f>D21+E21</f>
-        <v>0.77979879341804592</v>
-      </c>
-      <c r="E22" s="2">
-        <f t="shared" si="3"/>
-        <v>3.4908348190201646E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="2">
-        <v>6</v>
-      </c>
-      <c r="B23">
-        <f>B6/C6</f>
-        <v>0.79428571428571426</v>
-      </c>
-      <c r="D23">
-        <f>D6/E6</f>
-        <v>0.77979879341804614</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="F1:G1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M71"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
